--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20AA03-81C4-436E-AFD2-F8CFA60D5114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225EB323-E238-41D7-AAF7-846AB0F054AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3435" windowWidth="17760" windowHeight="7965" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10305" windowWidth="38400" windowHeight="10575" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" state="hidden" r:id="rId1"/>
@@ -70,17 +70,7 @@
     <definedName name="文字種精査">#REF!</definedName>
     <definedName name="文字列長精査">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -2729,6 +2719,183 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2738,183 +2905,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2951,6 +2941,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2978,9 +3061,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2990,95 +3070,146 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3089,153 +3220,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3278,98 +3268,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3807,13 +3797,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3831,8 +3821,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7458075" y="857251"/>
-          <a:ext cx="0" cy="1285875"/>
+          <a:off x="8010525" y="857251"/>
+          <a:ext cx="0" cy="1428749"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3926,12 +3916,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1800493" cy="242374"/>
+    <xdr:ext cx="1107996" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
@@ -3945,8 +3935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="990601"/>
-          <a:ext cx="1800493" cy="242374"/>
+          <a:off x="8010525" y="857250"/>
+          <a:ext cx="1107996" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3978,7 +3968,16 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>range after integration test</a:t>
+            <a:t>range after </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>integration test</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -3991,14 +3990,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -4015,8 +4014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3590925" y="1476376"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="3617301" y="1465385"/>
+          <a:ext cx="1392115" cy="732693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4042,7 +4041,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4068,7 +4067,17 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>Checking individual logic</a:t>
+            <a:t>Checking</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>individual logic</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -4081,13 +4090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -4105,8 +4114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5248275" y="1476376"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="6403731" y="1465386"/>
+          <a:ext cx="1392115" cy="732692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4132,7 +4141,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4184,12 +4193,15 @@
             </a:rPr>
             <a:t>Subfunction</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t> unit testing</a:t>
+            <a:t>unit testing</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -4202,8 +4214,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>100005</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>14802</xdr:rowOff>
     </xdr:from>
@@ -4221,7 +4233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="1443552"/>
+          <a:off x="8110530" y="1443552"/>
           <a:ext cx="1281120" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4301,9 +4313,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>55042</xdr:colOff>
+      <xdr:colOff>128234</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>55261</xdr:rowOff>
+      <xdr:rowOff>17893</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2377574" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -4319,7 +4331,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="883717" y="912511"/>
+          <a:off x="963503" y="897124"/>
           <a:ext cx="2377574" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4609,6 +4621,111 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2A7168-113C-4DD0-AD27-BB94A5C75828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5011615" y="1465385"/>
+          <a:ext cx="1392116" cy="732692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request unit tests</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Class combinations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>unit testing</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5694,57 +5811,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="152" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="170" t="s">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="178" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="181">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="183"/>
       <c r="AJ1" s="47"/>
       <c r="AK1" s="48"/>
       <c r="AL1" s="48"/>
@@ -5752,53 +5869,53 @@
       <c r="AN1" s="49"/>
     </row>
     <row r="2" spans="1:40" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="152" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="149" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="184" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="186"/>
+      <c r="AG2" s="181" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="183"/>
       <c r="AJ2" s="47"/>
       <c r="AK2" s="48"/>
       <c r="AL2" s="48"/>
@@ -5806,43 +5923,43 @@
       <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="183"/>
       <c r="AJ3" s="50"/>
       <c r="AK3" s="51"/>
       <c r="AL3" s="51"/>
@@ -5981,1028 +6098,1028 @@
       <c r="A7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="188"/>
+      <c r="D7" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="128" t="s">
+      <c r="H7" s="189"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="128" t="s">
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="128" t="s">
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="129"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="189"/>
+      <c r="AI7" s="188"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="82">
         <v>1</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="181">
+      <c r="C8" s="165"/>
+      <c r="D8" s="166">
         <v>43336</v>
       </c>
-      <c r="E8" s="182"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="155" t="s">
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="187" t="s">
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188"/>
-      <c r="AC8" s="188"/>
-      <c r="AD8" s="188"/>
-      <c r="AE8" s="189"/>
-      <c r="AF8" s="155" t="s">
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="176"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AG8" s="156"/>
-      <c r="AH8" s="156"/>
-      <c r="AI8" s="157"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="174"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="130"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="67"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="130"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="130"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="67"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="130"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="67"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="130"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="130"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="130"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="67"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="129"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="130"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="67"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="133"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="130"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="67"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="130"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="67"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="134"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="131"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="133"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="130"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="67"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="129"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="67"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="129"/>
+      <c r="AI22" s="130"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="67"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="67"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="129"/>
+      <c r="AH24" s="129"/>
+      <c r="AI24" s="130"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="67"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="129"/>
+      <c r="AH25" s="129"/>
+      <c r="AI25" s="130"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="67"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="130"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="67"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="133"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="129"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="130"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="67"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="131"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="133"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="129"/>
+      <c r="AH28" s="129"/>
+      <c r="AI28" s="130"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="67"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="133"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="129"/>
+      <c r="AH29" s="129"/>
+      <c r="AI29" s="130"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="67"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="131"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="133"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="129"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="130"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="67"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="131"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="133"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="129"/>
+      <c r="AH31" s="129"/>
+      <c r="AI31" s="130"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="67"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="133"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="130"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="67"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="131"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="133"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="129"/>
+      <c r="AH33" s="129"/>
+      <c r="AI33" s="130"/>
       <c r="AJ33" s="53"/>
       <c r="AK33" s="53"/>
       <c r="AL33" s="53"/>
@@ -7011,45 +7128,122 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="D25:F25"/>
@@ -7074,122 +7268,45 @@
     <mergeCell ref="Q9:AE9"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7207,7 +7324,7 @@
   <dimension ref="A1:AW109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7220,31 +7337,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="29" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -7256,23 +7373,23 @@
       <c r="X1" s="191"/>
       <c r="Y1" s="191"/>
       <c r="Z1" s="192"/>
-      <c r="AA1" s="158" t="s">
+      <c r="AA1" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="181">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="183"/>
       <c r="AJ1" s="48"/>
       <c r="AK1" s="48"/>
       <c r="AL1" s="48"/>
@@ -7289,29 +7406,29 @@
       <c r="AW1" s="47"/>
     </row>
     <row r="2" spans="1:49" s="29" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="193"/>
       <c r="T2" s="194"/>
       <c r="U2" s="194"/>
@@ -7320,23 +7437,23 @@
       <c r="X2" s="194"/>
       <c r="Y2" s="194"/>
       <c r="Z2" s="195"/>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="183"/>
       <c r="AJ2" s="48"/>
       <c r="AK2" s="48"/>
       <c r="AL2" s="48"/>
@@ -7353,29 +7470,29 @@
       <c r="AW2" s="47"/>
     </row>
     <row r="3" spans="1:49" s="29" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="196"/>
       <c r="T3" s="197"/>
       <c r="U3" s="197"/>
@@ -7384,21 +7501,21 @@
       <c r="X3" s="197"/>
       <c r="Y3" s="197"/>
       <c r="Z3" s="198"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="183"/>
       <c r="AJ3" s="56"/>
       <c r="AK3" s="56"/>
       <c r="AL3" s="56"/>
@@ -10592,6 +10709,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -10601,14 +10726,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10638,31 +10755,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -10674,48 +10791,48 @@
       <c r="X1" s="191"/>
       <c r="Y1" s="191"/>
       <c r="Z1" s="192"/>
-      <c r="AA1" s="158" t="s">
+      <c r="AA1" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="181">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="183"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="193"/>
       <c r="T2" s="194"/>
       <c r="U2" s="194"/>
@@ -10724,48 +10841,48 @@
       <c r="X2" s="194"/>
       <c r="Y2" s="194"/>
       <c r="Z2" s="195"/>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="183"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="196"/>
       <c r="T3" s="197"/>
       <c r="U3" s="197"/>
@@ -10774,21 +10891,21 @@
       <c r="X3" s="197"/>
       <c r="Y3" s="197"/>
       <c r="Z3" s="198"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="183"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -11272,6 +11389,14 @@
     <row r="17" ht="11.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11281,14 +11406,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11310,7 +11427,7 @@
   </sheetPr>
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -11320,31 +11437,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11356,48 +11473,48 @@
       <c r="X1" s="191"/>
       <c r="Y1" s="191"/>
       <c r="Z1" s="192"/>
-      <c r="AA1" s="158" t="s">
+      <c r="AA1" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="181">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="183"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="193"/>
       <c r="T2" s="194"/>
       <c r="U2" s="194"/>
@@ -11406,48 +11523,48 @@
       <c r="X2" s="194"/>
       <c r="Y2" s="194"/>
       <c r="Z2" s="195"/>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="183"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="196"/>
       <c r="T3" s="197"/>
       <c r="U3" s="197"/>
@@ -11456,21 +11573,21 @@
       <c r="X3" s="197"/>
       <c r="Y3" s="197"/>
       <c r="Z3" s="198"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="183"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -11553,350 +11670,350 @@
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D23" s="218" t="s">
+      <c r="D23" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="218" t="s">
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="219"/>
-      <c r="P23" s="219"/>
-      <c r="Q23" s="219"/>
-      <c r="R23" s="219"/>
-      <c r="S23" s="219"/>
-      <c r="T23" s="219"/>
-      <c r="U23" s="219"/>
-      <c r="V23" s="219"/>
-      <c r="W23" s="219"/>
-      <c r="X23" s="219"/>
-      <c r="Y23" s="219"/>
-      <c r="Z23" s="219"/>
-      <c r="AA23" s="219"/>
-      <c r="AB23" s="219"/>
-      <c r="AC23" s="219"/>
-      <c r="AD23" s="219"/>
-      <c r="AE23" s="219"/>
-      <c r="AF23" s="219"/>
-      <c r="AG23" s="219"/>
-      <c r="AH23" s="220"/>
+      <c r="K23" s="207"/>
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="207"/>
+      <c r="Q23" s="207"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="207"/>
+      <c r="T23" s="207"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="207"/>
+      <c r="AD23" s="207"/>
+      <c r="AE23" s="207"/>
+      <c r="AF23" s="207"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="208"/>
     </row>
     <row r="24" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="202" t="s">
+      <c r="D24" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="221" t="s">
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="222"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="222"/>
-      <c r="N24" s="222"/>
-      <c r="O24" s="222"/>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
-      <c r="U24" s="222"/>
-      <c r="V24" s="222"/>
-      <c r="W24" s="222"/>
-      <c r="X24" s="222"/>
-      <c r="Y24" s="222"/>
-      <c r="Z24" s="222"/>
-      <c r="AA24" s="222"/>
-      <c r="AB24" s="222"/>
-      <c r="AC24" s="222"/>
-      <c r="AD24" s="222"/>
-      <c r="AE24" s="222"/>
-      <c r="AF24" s="222"/>
-      <c r="AG24" s="222"/>
-      <c r="AH24" s="223"/>
+      <c r="K24" s="216"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="216"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="216"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="216"/>
+      <c r="S24" s="216"/>
+      <c r="T24" s="216"/>
+      <c r="U24" s="216"/>
+      <c r="V24" s="216"/>
+      <c r="W24" s="216"/>
+      <c r="X24" s="216"/>
+      <c r="Y24" s="216"/>
+      <c r="Z24" s="216"/>
+      <c r="AA24" s="216"/>
+      <c r="AB24" s="216"/>
+      <c r="AC24" s="216"/>
+      <c r="AD24" s="216"/>
+      <c r="AE24" s="216"/>
+      <c r="AF24" s="216"/>
+      <c r="AG24" s="216"/>
+      <c r="AH24" s="217"/>
     </row>
     <row r="25" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="205"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="225"/>
-      <c r="L25" s="225"/>
-      <c r="M25" s="225"/>
-      <c r="N25" s="225"/>
-      <c r="O25" s="225"/>
-      <c r="P25" s="225"/>
-      <c r="Q25" s="225"/>
-      <c r="R25" s="225"/>
-      <c r="S25" s="225"/>
-      <c r="T25" s="225"/>
-      <c r="U25" s="225"/>
-      <c r="V25" s="225"/>
-      <c r="W25" s="225"/>
-      <c r="X25" s="225"/>
-      <c r="Y25" s="225"/>
-      <c r="Z25" s="225"/>
-      <c r="AA25" s="225"/>
-      <c r="AB25" s="225"/>
-      <c r="AC25" s="225"/>
-      <c r="AD25" s="225"/>
-      <c r="AE25" s="225"/>
-      <c r="AF25" s="225"/>
-      <c r="AG25" s="225"/>
-      <c r="AH25" s="226"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="219"/>
+      <c r="R25" s="219"/>
+      <c r="S25" s="219"/>
+      <c r="T25" s="219"/>
+      <c r="U25" s="219"/>
+      <c r="V25" s="219"/>
+      <c r="W25" s="219"/>
+      <c r="X25" s="219"/>
+      <c r="Y25" s="219"/>
+      <c r="Z25" s="219"/>
+      <c r="AA25" s="219"/>
+      <c r="AB25" s="219"/>
+      <c r="AC25" s="219"/>
+      <c r="AD25" s="219"/>
+      <c r="AE25" s="219"/>
+      <c r="AF25" s="219"/>
+      <c r="AG25" s="219"/>
+      <c r="AH25" s="220"/>
     </row>
     <row r="26" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="208"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="227"/>
-      <c r="K26" s="228"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="228"/>
-      <c r="N26" s="228"/>
-      <c r="O26" s="228"/>
-      <c r="P26" s="228"/>
-      <c r="Q26" s="228"/>
-      <c r="R26" s="228"/>
-      <c r="S26" s="228"/>
-      <c r="T26" s="228"/>
-      <c r="U26" s="228"/>
-      <c r="V26" s="228"/>
-      <c r="W26" s="228"/>
-      <c r="X26" s="228"/>
-      <c r="Y26" s="228"/>
-      <c r="Z26" s="228"/>
-      <c r="AA26" s="228"/>
-      <c r="AB26" s="228"/>
-      <c r="AC26" s="228"/>
-      <c r="AD26" s="228"/>
-      <c r="AE26" s="228"/>
-      <c r="AF26" s="228"/>
-      <c r="AG26" s="228"/>
-      <c r="AH26" s="229"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="222"/>
+      <c r="L26" s="222"/>
+      <c r="M26" s="222"/>
+      <c r="N26" s="222"/>
+      <c r="O26" s="222"/>
+      <c r="P26" s="222"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="222"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="222"/>
+      <c r="AE26" s="222"/>
+      <c r="AF26" s="222"/>
+      <c r="AG26" s="222"/>
+      <c r="AH26" s="223"/>
     </row>
     <row r="27" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="202" t="s">
+      <c r="D27" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="230" t="s">
+      <c r="E27" s="234"/>
+      <c r="F27" s="234"/>
+      <c r="G27" s="234"/>
+      <c r="H27" s="234"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="224" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
-      <c r="Q27" s="231"/>
-      <c r="R27" s="231"/>
-      <c r="S27" s="231"/>
-      <c r="T27" s="231"/>
-      <c r="U27" s="231"/>
-      <c r="V27" s="231"/>
-      <c r="W27" s="231"/>
-      <c r="X27" s="231"/>
-      <c r="Y27" s="231"/>
-      <c r="Z27" s="231"/>
-      <c r="AA27" s="231"/>
-      <c r="AB27" s="231"/>
-      <c r="AC27" s="231"/>
-      <c r="AD27" s="231"/>
-      <c r="AE27" s="231"/>
-      <c r="AF27" s="231"/>
-      <c r="AG27" s="231"/>
-      <c r="AH27" s="232"/>
+      <c r="K27" s="225"/>
+      <c r="L27" s="225"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="225"/>
+      <c r="O27" s="225"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="225"/>
+      <c r="R27" s="225"/>
+      <c r="S27" s="225"/>
+      <c r="T27" s="225"/>
+      <c r="U27" s="225"/>
+      <c r="V27" s="225"/>
+      <c r="W27" s="225"/>
+      <c r="X27" s="225"/>
+      <c r="Y27" s="225"/>
+      <c r="Z27" s="225"/>
+      <c r="AA27" s="225"/>
+      <c r="AB27" s="225"/>
+      <c r="AC27" s="225"/>
+      <c r="AD27" s="225"/>
+      <c r="AE27" s="225"/>
+      <c r="AF27" s="225"/>
+      <c r="AG27" s="225"/>
+      <c r="AH27" s="226"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="205"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="234"/>
-      <c r="P28" s="234"/>
-      <c r="Q28" s="234"/>
-      <c r="R28" s="234"/>
-      <c r="S28" s="234"/>
-      <c r="T28" s="234"/>
-      <c r="U28" s="234"/>
-      <c r="V28" s="234"/>
-      <c r="W28" s="234"/>
-      <c r="X28" s="234"/>
-      <c r="Y28" s="234"/>
-      <c r="Z28" s="234"/>
-      <c r="AA28" s="234"/>
-      <c r="AB28" s="234"/>
-      <c r="AC28" s="234"/>
-      <c r="AD28" s="234"/>
-      <c r="AE28" s="234"/>
-      <c r="AF28" s="234"/>
-      <c r="AG28" s="234"/>
-      <c r="AH28" s="235"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="237"/>
+      <c r="H28" s="237"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="228"/>
+      <c r="L28" s="228"/>
+      <c r="M28" s="228"/>
+      <c r="N28" s="228"/>
+      <c r="O28" s="228"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="228"/>
+      <c r="R28" s="228"/>
+      <c r="S28" s="228"/>
+      <c r="T28" s="228"/>
+      <c r="U28" s="228"/>
+      <c r="V28" s="228"/>
+      <c r="W28" s="228"/>
+      <c r="X28" s="228"/>
+      <c r="Y28" s="228"/>
+      <c r="Z28" s="228"/>
+      <c r="AA28" s="228"/>
+      <c r="AB28" s="228"/>
+      <c r="AC28" s="228"/>
+      <c r="AD28" s="228"/>
+      <c r="AE28" s="228"/>
+      <c r="AF28" s="228"/>
+      <c r="AG28" s="228"/>
+      <c r="AH28" s="229"/>
     </row>
     <row r="29" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="208"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="237"/>
-      <c r="M29" s="237"/>
-      <c r="N29" s="237"/>
-      <c r="O29" s="237"/>
-      <c r="P29" s="237"/>
-      <c r="Q29" s="237"/>
-      <c r="R29" s="237"/>
-      <c r="S29" s="237"/>
-      <c r="T29" s="237"/>
-      <c r="U29" s="237"/>
-      <c r="V29" s="237"/>
-      <c r="W29" s="237"/>
-      <c r="X29" s="237"/>
-      <c r="Y29" s="237"/>
-      <c r="Z29" s="237"/>
-      <c r="AA29" s="237"/>
-      <c r="AB29" s="237"/>
-      <c r="AC29" s="237"/>
-      <c r="AD29" s="237"/>
-      <c r="AE29" s="237"/>
-      <c r="AF29" s="237"/>
-      <c r="AG29" s="237"/>
-      <c r="AH29" s="238"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="240"/>
+      <c r="H29" s="240"/>
+      <c r="I29" s="241"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="231"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="231"/>
+      <c r="R29" s="231"/>
+      <c r="S29" s="231"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="231"/>
+      <c r="W29" s="231"/>
+      <c r="X29" s="231"/>
+      <c r="Y29" s="231"/>
+      <c r="Z29" s="231"/>
+      <c r="AA29" s="231"/>
+      <c r="AB29" s="231"/>
+      <c r="AC29" s="231"/>
+      <c r="AD29" s="231"/>
+      <c r="AE29" s="231"/>
+      <c r="AF29" s="231"/>
+      <c r="AG29" s="231"/>
+      <c r="AH29" s="232"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="202" t="s">
+      <c r="D30" s="233" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="230" t="s">
+      <c r="E30" s="234"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="234"/>
+      <c r="H30" s="234"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="231"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="231"/>
-      <c r="N30" s="231"/>
-      <c r="O30" s="231"/>
-      <c r="P30" s="231"/>
-      <c r="Q30" s="231"/>
-      <c r="R30" s="231"/>
-      <c r="S30" s="231"/>
-      <c r="T30" s="231"/>
-      <c r="U30" s="231"/>
-      <c r="V30" s="231"/>
-      <c r="W30" s="231"/>
-      <c r="X30" s="231"/>
-      <c r="Y30" s="231"/>
-      <c r="Z30" s="231"/>
-      <c r="AA30" s="231"/>
-      <c r="AB30" s="231"/>
-      <c r="AC30" s="231"/>
-      <c r="AD30" s="231"/>
-      <c r="AE30" s="231"/>
-      <c r="AF30" s="231"/>
-      <c r="AG30" s="231"/>
-      <c r="AH30" s="232"/>
+      <c r="K30" s="225"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="225"/>
+      <c r="N30" s="225"/>
+      <c r="O30" s="225"/>
+      <c r="P30" s="225"/>
+      <c r="Q30" s="225"/>
+      <c r="R30" s="225"/>
+      <c r="S30" s="225"/>
+      <c r="T30" s="225"/>
+      <c r="U30" s="225"/>
+      <c r="V30" s="225"/>
+      <c r="W30" s="225"/>
+      <c r="X30" s="225"/>
+      <c r="Y30" s="225"/>
+      <c r="Z30" s="225"/>
+      <c r="AA30" s="225"/>
+      <c r="AB30" s="225"/>
+      <c r="AC30" s="225"/>
+      <c r="AD30" s="225"/>
+      <c r="AE30" s="225"/>
+      <c r="AF30" s="225"/>
+      <c r="AG30" s="225"/>
+      <c r="AH30" s="226"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="205"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
-      <c r="O31" s="234"/>
-      <c r="P31" s="234"/>
-      <c r="Q31" s="234"/>
-      <c r="R31" s="234"/>
-      <c r="S31" s="234"/>
-      <c r="T31" s="234"/>
-      <c r="U31" s="234"/>
-      <c r="V31" s="234"/>
-      <c r="W31" s="234"/>
-      <c r="X31" s="234"/>
-      <c r="Y31" s="234"/>
-      <c r="Z31" s="234"/>
-      <c r="AA31" s="234"/>
-      <c r="AB31" s="234"/>
-      <c r="AC31" s="234"/>
-      <c r="AD31" s="234"/>
-      <c r="AE31" s="234"/>
-      <c r="AF31" s="234"/>
-      <c r="AG31" s="234"/>
-      <c r="AH31" s="235"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="237"/>
+      <c r="I31" s="238"/>
+      <c r="J31" s="227"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="228"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="228"/>
+      <c r="P31" s="228"/>
+      <c r="Q31" s="228"/>
+      <c r="R31" s="228"/>
+      <c r="S31" s="228"/>
+      <c r="T31" s="228"/>
+      <c r="U31" s="228"/>
+      <c r="V31" s="228"/>
+      <c r="W31" s="228"/>
+      <c r="X31" s="228"/>
+      <c r="Y31" s="228"/>
+      <c r="Z31" s="228"/>
+      <c r="AA31" s="228"/>
+      <c r="AB31" s="228"/>
+      <c r="AC31" s="228"/>
+      <c r="AD31" s="228"/>
+      <c r="AE31" s="228"/>
+      <c r="AF31" s="228"/>
+      <c r="AG31" s="228"/>
+      <c r="AH31" s="229"/>
     </row>
     <row r="32" spans="3:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="208"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="237"/>
-      <c r="L32" s="237"/>
-      <c r="M32" s="237"/>
-      <c r="N32" s="237"/>
-      <c r="O32" s="237"/>
-      <c r="P32" s="237"/>
-      <c r="Q32" s="237"/>
-      <c r="R32" s="237"/>
-      <c r="S32" s="237"/>
-      <c r="T32" s="237"/>
-      <c r="U32" s="237"/>
-      <c r="V32" s="237"/>
-      <c r="W32" s="237"/>
-      <c r="X32" s="237"/>
-      <c r="Y32" s="237"/>
-      <c r="Z32" s="237"/>
-      <c r="AA32" s="237"/>
-      <c r="AB32" s="237"/>
-      <c r="AC32" s="237"/>
-      <c r="AD32" s="237"/>
-      <c r="AE32" s="237"/>
-      <c r="AF32" s="237"/>
-      <c r="AG32" s="237"/>
-      <c r="AH32" s="238"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="240"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="240"/>
+      <c r="H32" s="240"/>
+      <c r="I32" s="241"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="231"/>
+      <c r="M32" s="231"/>
+      <c r="N32" s="231"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="231"/>
+      <c r="R32" s="231"/>
+      <c r="S32" s="231"/>
+      <c r="T32" s="231"/>
+      <c r="U32" s="231"/>
+      <c r="V32" s="231"/>
+      <c r="W32" s="231"/>
+      <c r="X32" s="231"/>
+      <c r="Y32" s="231"/>
+      <c r="Z32" s="231"/>
+      <c r="AA32" s="231"/>
+      <c r="AB32" s="231"/>
+      <c r="AC32" s="231"/>
+      <c r="AD32" s="231"/>
+      <c r="AE32" s="231"/>
+      <c r="AF32" s="231"/>
+      <c r="AG32" s="231"/>
+      <c r="AH32" s="232"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D33" s="35" t="s">
@@ -11919,58 +12036,58 @@
     </row>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:34" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="215" t="s">
+      <c r="C38" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="211" t="s">
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="211" t="s">
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="L38" s="239"/>
-      <c r="M38" s="239"/>
-      <c r="N38" s="240"/>
-      <c r="O38" s="211" t="s">
+      <c r="L38" s="210"/>
+      <c r="M38" s="210"/>
+      <c r="N38" s="211"/>
+      <c r="O38" s="209" t="s">
         <v>192</v>
       </c>
-      <c r="P38" s="135"/>
-      <c r="Q38" s="135"/>
-      <c r="R38" s="136"/>
-      <c r="S38" s="211" t="s">
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="209" t="s">
         <v>193</v>
       </c>
-      <c r="T38" s="135"/>
-      <c r="U38" s="135"/>
-      <c r="V38" s="136"/>
-      <c r="W38" s="211" t="s">
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="133"/>
+      <c r="W38" s="209" t="s">
         <v>161</v>
       </c>
-      <c r="X38" s="135"/>
-      <c r="Y38" s="135"/>
-      <c r="Z38" s="136"/>
-      <c r="AA38" s="241"/>
-      <c r="AB38" s="242"/>
-      <c r="AC38" s="242"/>
-      <c r="AD38" s="242"/>
-      <c r="AE38" s="241"/>
-      <c r="AF38" s="242"/>
-      <c r="AG38" s="242"/>
-      <c r="AH38" s="242"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="133"/>
+      <c r="AA38" s="204"/>
+      <c r="AB38" s="205"/>
+      <c r="AC38" s="205"/>
+      <c r="AD38" s="205"/>
+      <c r="AE38" s="204"/>
+      <c r="AF38" s="205"/>
+      <c r="AG38" s="205"/>
+      <c r="AH38" s="205"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C39" s="212" t="s">
+      <c r="C39" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="214"/>
+      <c r="D39" s="243"/>
+      <c r="E39" s="243"/>
+      <c r="F39" s="244"/>
       <c r="G39" s="199" t="s">
         <v>66</v>
       </c>
@@ -12001,14 +12118,14 @@
       <c r="X39" s="200"/>
       <c r="Y39" s="200"/>
       <c r="Z39" s="201"/>
-      <c r="AA39" s="244"/>
-      <c r="AB39" s="243"/>
-      <c r="AC39" s="243"/>
-      <c r="AD39" s="243"/>
-      <c r="AE39" s="243"/>
-      <c r="AF39" s="243"/>
-      <c r="AG39" s="243"/>
-      <c r="AH39" s="243"/>
+      <c r="AA39" s="203"/>
+      <c r="AB39" s="202"/>
+      <c r="AC39" s="202"/>
+      <c r="AD39" s="202"/>
+      <c r="AE39" s="202"/>
+      <c r="AF39" s="202"/>
+      <c r="AG39" s="202"/>
+      <c r="AH39" s="202"/>
     </row>
     <row r="40" spans="3:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="199" t="s">
@@ -12047,14 +12164,14 @@
       <c r="X40" s="200"/>
       <c r="Y40" s="200"/>
       <c r="Z40" s="201"/>
-      <c r="AA40" s="244"/>
-      <c r="AB40" s="243"/>
-      <c r="AC40" s="243"/>
-      <c r="AD40" s="243"/>
-      <c r="AE40" s="243"/>
-      <c r="AF40" s="243"/>
-      <c r="AG40" s="243"/>
-      <c r="AH40" s="243"/>
+      <c r="AA40" s="203"/>
+      <c r="AB40" s="202"/>
+      <c r="AC40" s="202"/>
+      <c r="AD40" s="202"/>
+      <c r="AE40" s="202"/>
+      <c r="AF40" s="202"/>
+      <c r="AG40" s="202"/>
+      <c r="AH40" s="202"/>
     </row>
     <row r="41" spans="3:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="199" t="s">
@@ -12093,14 +12210,14 @@
       <c r="X41" s="200"/>
       <c r="Y41" s="200"/>
       <c r="Z41" s="201"/>
-      <c r="AA41" s="244"/>
-      <c r="AB41" s="243"/>
-      <c r="AC41" s="243"/>
-      <c r="AD41" s="243"/>
-      <c r="AE41" s="243"/>
-      <c r="AF41" s="243"/>
-      <c r="AG41" s="243"/>
-      <c r="AH41" s="243"/>
+      <c r="AA41" s="203"/>
+      <c r="AB41" s="202"/>
+      <c r="AC41" s="202"/>
+      <c r="AD41" s="202"/>
+      <c r="AE41" s="202"/>
+      <c r="AF41" s="202"/>
+      <c r="AG41" s="202"/>
+      <c r="AH41" s="202"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C42" s="34" t="s">
@@ -12298,15 +12415,38 @@
     <row r="62" spans="3:23" ht="11.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="D24:I26"/>
+    <mergeCell ref="D27:I29"/>
+    <mergeCell ref="D30:I32"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J24:AH26"/>
+    <mergeCell ref="J27:AH29"/>
+    <mergeCell ref="J30:AH32"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:V38"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AE41:AH41"/>
@@ -12323,38 +12463,15 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="J23:AH23"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="J24:AH26"/>
-    <mergeCell ref="J27:AH29"/>
-    <mergeCell ref="J30:AH32"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D24:I26"/>
-    <mergeCell ref="D27:I29"/>
-    <mergeCell ref="D30:I32"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O39:R39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12389,31 +12506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -12425,48 +12542,48 @@
       <c r="X1" s="191"/>
       <c r="Y1" s="191"/>
       <c r="Z1" s="192"/>
-      <c r="AA1" s="158" t="s">
+      <c r="AA1" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="181">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="183"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="193"/>
       <c r="T2" s="194"/>
       <c r="U2" s="194"/>
@@ -12475,48 +12592,48 @@
       <c r="X2" s="194"/>
       <c r="Y2" s="194"/>
       <c r="Z2" s="195"/>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="183"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="196"/>
       <c r="T3" s="197"/>
       <c r="U3" s="197"/>
@@ -12525,21 +12642,21 @@
       <c r="X3" s="197"/>
       <c r="Y3" s="197"/>
       <c r="Z3" s="198"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="183"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12605,39 +12722,39 @@
     </row>
     <row r="10" spans="1:35" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="24"/>
-      <c r="D10" s="270" t="s">
+      <c r="D10" s="277" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="270"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="270"/>
-      <c r="K10" s="270"/>
-      <c r="L10" s="270"/>
-      <c r="M10" s="270"/>
-      <c r="N10" s="270"/>
-      <c r="O10" s="270"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="270"/>
-      <c r="R10" s="270"/>
-      <c r="S10" s="270"/>
-      <c r="T10" s="270"/>
-      <c r="U10" s="270"/>
-      <c r="V10" s="270"/>
-      <c r="W10" s="270"/>
-      <c r="X10" s="270"/>
-      <c r="Y10" s="270"/>
-      <c r="Z10" s="270"/>
-      <c r="AA10" s="270"/>
-      <c r="AB10" s="270"/>
-      <c r="AC10" s="270"/>
-      <c r="AD10" s="270"/>
-      <c r="AE10" s="270"/>
-      <c r="AF10" s="270"/>
-      <c r="AG10" s="270"/>
-      <c r="AH10" s="270"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="277"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="277"/>
+      <c r="Z10" s="277"/>
+      <c r="AA10" s="277"/>
+      <c r="AB10" s="277"/>
+      <c r="AC10" s="277"/>
+      <c r="AD10" s="277"/>
+      <c r="AE10" s="277"/>
+      <c r="AF10" s="277"/>
+      <c r="AG10" s="277"/>
+      <c r="AH10" s="277"/>
     </row>
     <row r="11" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="24"/>
@@ -12678,39 +12795,39 @@
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="24"/>
-      <c r="D15" s="271" t="s">
+      <c r="D15" s="278" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="271"/>
-      <c r="F15" s="271"/>
-      <c r="G15" s="271"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="271"/>
-      <c r="M15" s="271"/>
-      <c r="N15" s="271"/>
-      <c r="O15" s="271"/>
-      <c r="P15" s="271"/>
-      <c r="Q15" s="271"/>
-      <c r="R15" s="271"/>
-      <c r="S15" s="271"/>
-      <c r="T15" s="271"/>
-      <c r="U15" s="271"/>
-      <c r="V15" s="271"/>
-      <c r="W15" s="271"/>
-      <c r="X15" s="271"/>
-      <c r="Y15" s="271"/>
-      <c r="Z15" s="271"/>
-      <c r="AA15" s="271"/>
-      <c r="AB15" s="271"/>
-      <c r="AC15" s="271"/>
-      <c r="AD15" s="271"/>
-      <c r="AE15" s="271"/>
-      <c r="AF15" s="271"/>
-      <c r="AG15" s="271"/>
-      <c r="AH15" s="271"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="278"/>
+      <c r="J15" s="278"/>
+      <c r="K15" s="278"/>
+      <c r="L15" s="278"/>
+      <c r="M15" s="278"/>
+      <c r="N15" s="278"/>
+      <c r="O15" s="278"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="278"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="278"/>
+      <c r="AA15" s="278"/>
+      <c r="AB15" s="278"/>
+      <c r="AC15" s="278"/>
+      <c r="AD15" s="278"/>
+      <c r="AE15" s="278"/>
+      <c r="AF15" s="278"/>
+      <c r="AG15" s="278"/>
+      <c r="AH15" s="278"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="24"/>
@@ -12729,38 +12846,38 @@
     </row>
     <row r="19" spans="3:34" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="24"/>
-      <c r="E19" s="271" t="s">
+      <c r="E19" s="278" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="271"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="271"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="271"/>
-      <c r="Q19" s="271"/>
-      <c r="R19" s="271"/>
-      <c r="S19" s="271"/>
-      <c r="T19" s="271"/>
-      <c r="U19" s="271"/>
-      <c r="V19" s="271"/>
-      <c r="W19" s="271"/>
-      <c r="X19" s="271"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="271"/>
-      <c r="AA19" s="271"/>
-      <c r="AB19" s="271"/>
-      <c r="AC19" s="271"/>
-      <c r="AD19" s="271"/>
-      <c r="AE19" s="271"/>
-      <c r="AF19" s="271"/>
-      <c r="AG19" s="271"/>
-      <c r="AH19" s="271"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="278"/>
+      <c r="H19" s="278"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="278"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="278"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="278"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="278"/>
+      <c r="Q19" s="278"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="278"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="278"/>
+      <c r="W19" s="278"/>
+      <c r="X19" s="278"/>
+      <c r="Y19" s="278"/>
+      <c r="Z19" s="278"/>
+      <c r="AA19" s="278"/>
+      <c r="AB19" s="278"/>
+      <c r="AC19" s="278"/>
+      <c r="AD19" s="278"/>
+      <c r="AE19" s="278"/>
+      <c r="AF19" s="278"/>
+      <c r="AG19" s="278"/>
+      <c r="AH19" s="278"/>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D21" s="36" t="s">
@@ -12777,37 +12894,37 @@
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E24" s="60"/>
-      <c r="F24" s="272" t="s">
+      <c r="F24" s="279" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="272"/>
-      <c r="H24" s="272"/>
-      <c r="I24" s="272"/>
-      <c r="J24" s="272"/>
-      <c r="K24" s="272"/>
-      <c r="L24" s="272"/>
-      <c r="M24" s="272"/>
-      <c r="N24" s="272"/>
-      <c r="O24" s="272"/>
-      <c r="P24" s="272"/>
-      <c r="Q24" s="272"/>
-      <c r="R24" s="272"/>
-      <c r="S24" s="272"/>
-      <c r="T24" s="272"/>
-      <c r="U24" s="272"/>
-      <c r="V24" s="272"/>
-      <c r="W24" s="272"/>
-      <c r="X24" s="272"/>
-      <c r="Y24" s="272"/>
-      <c r="Z24" s="272"/>
-      <c r="AA24" s="272"/>
-      <c r="AB24" s="272"/>
-      <c r="AC24" s="272"/>
-      <c r="AD24" s="272"/>
-      <c r="AE24" s="272"/>
-      <c r="AF24" s="272"/>
-      <c r="AG24" s="272"/>
-      <c r="AH24" s="272"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
+      <c r="K24" s="279"/>
+      <c r="L24" s="279"/>
+      <c r="M24" s="279"/>
+      <c r="N24" s="279"/>
+      <c r="O24" s="279"/>
+      <c r="P24" s="279"/>
+      <c r="Q24" s="279"/>
+      <c r="R24" s="279"/>
+      <c r="S24" s="279"/>
+      <c r="T24" s="279"/>
+      <c r="U24" s="279"/>
+      <c r="V24" s="279"/>
+      <c r="W24" s="279"/>
+      <c r="X24" s="279"/>
+      <c r="Y24" s="279"/>
+      <c r="Z24" s="279"/>
+      <c r="AA24" s="279"/>
+      <c r="AB24" s="279"/>
+      <c r="AC24" s="279"/>
+      <c r="AD24" s="279"/>
+      <c r="AE24" s="279"/>
+      <c r="AF24" s="279"/>
+      <c r="AG24" s="279"/>
+      <c r="AH24" s="279"/>
     </row>
     <row r="25" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D25" s="27"/>
@@ -12838,35 +12955,35 @@
       <c r="D28" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="265" t="s">
+      <c r="E28" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="267"/>
-      <c r="I28" s="253" t="s">
+      <c r="F28" s="281"/>
+      <c r="G28" s="281"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="254"/>
-      <c r="K28" s="255"/>
-      <c r="L28" s="248" t="s">
+      <c r="J28" s="270"/>
+      <c r="K28" s="271"/>
+      <c r="L28" s="272" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="249"/>
-      <c r="N28" s="249"/>
-      <c r="O28" s="249"/>
-      <c r="P28" s="249"/>
-      <c r="Q28" s="253" t="s">
+      <c r="M28" s="273"/>
+      <c r="N28" s="273"/>
+      <c r="O28" s="273"/>
+      <c r="P28" s="273"/>
+      <c r="Q28" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="R28" s="254"/>
-      <c r="S28" s="254"/>
-      <c r="T28" s="255"/>
-      <c r="U28" s="250" t="s">
+      <c r="R28" s="270"/>
+      <c r="S28" s="270"/>
+      <c r="T28" s="271"/>
+      <c r="U28" s="251" t="s">
         <v>91</v>
       </c>
-      <c r="V28" s="251"/>
-      <c r="W28" s="252"/>
+      <c r="V28" s="252"/>
+      <c r="W28" s="253"/>
       <c r="X28" s="97" t="s">
         <v>92</v>
       </c>
@@ -12887,82 +13004,82 @@
       <c r="D29" s="75">
         <v>1</v>
       </c>
-      <c r="E29" s="268" t="s">
+      <c r="E29" s="283" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="269"/>
-      <c r="G29" s="269"/>
-      <c r="H29" s="269"/>
-      <c r="I29" s="268" t="s">
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="283" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="263" t="s">
+      <c r="J29" s="284"/>
+      <c r="K29" s="284"/>
+      <c r="L29" s="290" t="s">
         <v>145</v>
       </c>
-      <c r="M29" s="264"/>
-      <c r="N29" s="264"/>
-      <c r="O29" s="264"/>
-      <c r="P29" s="264"/>
-      <c r="Q29" s="256"/>
-      <c r="R29" s="242"/>
-      <c r="S29" s="242"/>
-      <c r="T29" s="257"/>
-      <c r="U29" s="256"/>
-      <c r="V29" s="242"/>
-      <c r="W29" s="257"/>
+      <c r="M29" s="291"/>
+      <c r="N29" s="291"/>
+      <c r="O29" s="291"/>
+      <c r="P29" s="291"/>
+      <c r="Q29" s="285"/>
+      <c r="R29" s="205"/>
+      <c r="S29" s="205"/>
+      <c r="T29" s="286"/>
+      <c r="U29" s="285"/>
+      <c r="V29" s="205"/>
+      <c r="W29" s="286"/>
       <c r="X29" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="Y29" s="291"/>
-      <c r="Z29" s="291"/>
-      <c r="AA29" s="291"/>
-      <c r="AB29" s="291"/>
-      <c r="AC29" s="291"/>
-      <c r="AD29" s="291"/>
-      <c r="AE29" s="292"/>
-      <c r="AF29" s="245" t="s">
+      <c r="Y29" s="245"/>
+      <c r="Z29" s="245"/>
+      <c r="AA29" s="245"/>
+      <c r="AB29" s="245"/>
+      <c r="AC29" s="245"/>
+      <c r="AD29" s="245"/>
+      <c r="AE29" s="246"/>
+      <c r="AF29" s="292" t="s">
         <v>170</v>
       </c>
-      <c r="AG29" s="246"/>
-      <c r="AH29" s="247"/>
+      <c r="AG29" s="293"/>
+      <c r="AH29" s="294"/>
     </row>
     <row r="30" spans="3:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="75">
         <v>2</v>
       </c>
-      <c r="E30" s="269"/>
-      <c r="F30" s="269"/>
-      <c r="G30" s="269"/>
-      <c r="H30" s="269"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="269"/>
-      <c r="K30" s="269"/>
-      <c r="L30" s="261" t="s">
+      <c r="E30" s="284"/>
+      <c r="F30" s="284"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="284"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="284"/>
+      <c r="K30" s="284"/>
+      <c r="L30" s="295" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="262"/>
-      <c r="N30" s="262"/>
-      <c r="O30" s="262"/>
-      <c r="P30" s="262"/>
-      <c r="Q30" s="256"/>
-      <c r="R30" s="242"/>
-      <c r="S30" s="242"/>
-      <c r="T30" s="257"/>
-      <c r="U30" s="256"/>
-      <c r="V30" s="242"/>
-      <c r="W30" s="257"/>
+      <c r="M30" s="296"/>
+      <c r="N30" s="296"/>
+      <c r="O30" s="296"/>
+      <c r="P30" s="296"/>
+      <c r="Q30" s="285"/>
+      <c r="R30" s="205"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="285"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="286"/>
       <c r="X30" s="199" t="s">
         <v>148</v>
       </c>
-      <c r="Y30" s="291"/>
-      <c r="Z30" s="291"/>
-      <c r="AA30" s="291"/>
-      <c r="AB30" s="291"/>
-      <c r="AC30" s="291"/>
-      <c r="AD30" s="291"/>
-      <c r="AE30" s="292"/>
+      <c r="Y30" s="245"/>
+      <c r="Z30" s="245"/>
+      <c r="AA30" s="245"/>
+      <c r="AB30" s="245"/>
+      <c r="AC30" s="245"/>
+      <c r="AD30" s="245"/>
+      <c r="AE30" s="246"/>
       <c r="AF30" s="87"/>
       <c r="AG30" s="47"/>
       <c r="AH30" s="76"/>
@@ -12971,73 +13088,73 @@
       <c r="D31" s="77">
         <v>3</v>
       </c>
-      <c r="E31" s="269"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="269"/>
-      <c r="H31" s="269"/>
-      <c r="I31" s="269"/>
-      <c r="J31" s="269"/>
-      <c r="K31" s="269"/>
-      <c r="L31" s="263" t="s">
+      <c r="E31" s="284"/>
+      <c r="F31" s="284"/>
+      <c r="G31" s="284"/>
+      <c r="H31" s="284"/>
+      <c r="I31" s="284"/>
+      <c r="J31" s="284"/>
+      <c r="K31" s="284"/>
+      <c r="L31" s="290" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="264"/>
-      <c r="N31" s="264"/>
-      <c r="O31" s="264"/>
-      <c r="P31" s="264"/>
-      <c r="Q31" s="258"/>
-      <c r="R31" s="259"/>
-      <c r="S31" s="259"/>
-      <c r="T31" s="260"/>
-      <c r="U31" s="258"/>
-      <c r="V31" s="259"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="293" t="s">
+      <c r="M31" s="291"/>
+      <c r="N31" s="291"/>
+      <c r="O31" s="291"/>
+      <c r="P31" s="291"/>
+      <c r="Q31" s="287"/>
+      <c r="R31" s="288"/>
+      <c r="S31" s="288"/>
+      <c r="T31" s="289"/>
+      <c r="U31" s="287"/>
+      <c r="V31" s="288"/>
+      <c r="W31" s="289"/>
+      <c r="X31" s="247" t="s">
         <v>149</v>
       </c>
-      <c r="Y31" s="294"/>
-      <c r="Z31" s="294"/>
-      <c r="AA31" s="294"/>
-      <c r="AB31" s="294"/>
-      <c r="AC31" s="294"/>
-      <c r="AD31" s="294"/>
-      <c r="AE31" s="295"/>
+      <c r="Y31" s="248"/>
+      <c r="Z31" s="248"/>
+      <c r="AA31" s="248"/>
+      <c r="AB31" s="248"/>
+      <c r="AC31" s="248"/>
+      <c r="AD31" s="248"/>
+      <c r="AE31" s="249"/>
       <c r="AF31" s="78"/>
       <c r="AG31" s="79"/>
       <c r="AH31" s="80"/>
     </row>
     <row r="32" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D32" s="296"/>
-      <c r="E32" s="296"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="296"/>
-      <c r="H32" s="296"/>
-      <c r="I32" s="296"/>
-      <c r="J32" s="296"/>
-      <c r="K32" s="296"/>
-      <c r="L32" s="296"/>
-      <c r="M32" s="296"/>
-      <c r="N32" s="296"/>
-      <c r="O32" s="296"/>
-      <c r="P32" s="296"/>
-      <c r="Q32" s="296"/>
-      <c r="R32" s="296"/>
-      <c r="S32" s="296"/>
-      <c r="T32" s="296"/>
-      <c r="U32" s="296"/>
-      <c r="V32" s="296"/>
-      <c r="W32" s="296"/>
-      <c r="X32" s="296"/>
-      <c r="Y32" s="296"/>
-      <c r="Z32" s="296"/>
-      <c r="AA32" s="296"/>
-      <c r="AB32" s="296"/>
-      <c r="AC32" s="296"/>
-      <c r="AD32" s="296"/>
-      <c r="AE32" s="296"/>
-      <c r="AF32" s="296"/>
-      <c r="AG32" s="296"/>
-      <c r="AH32" s="296"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="250"/>
+      <c r="F32" s="250"/>
+      <c r="G32" s="250"/>
+      <c r="H32" s="250"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="250"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="250"/>
+      <c r="N32" s="250"/>
+      <c r="O32" s="250"/>
+      <c r="P32" s="250"/>
+      <c r="Q32" s="250"/>
+      <c r="R32" s="250"/>
+      <c r="S32" s="250"/>
+      <c r="T32" s="250"/>
+      <c r="U32" s="250"/>
+      <c r="V32" s="250"/>
+      <c r="W32" s="250"/>
+      <c r="X32" s="250"/>
+      <c r="Y32" s="250"/>
+      <c r="Z32" s="250"/>
+      <c r="AA32" s="250"/>
+      <c r="AB32" s="250"/>
+      <c r="AC32" s="250"/>
+      <c r="AD32" s="250"/>
+      <c r="AE32" s="250"/>
+      <c r="AF32" s="250"/>
+      <c r="AG32" s="250"/>
+      <c r="AH32" s="250"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D33" s="27"/>
@@ -13140,35 +13257,35 @@
       <c r="D39" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="285" t="s">
+      <c r="E39" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="286"/>
-      <c r="G39" s="286"/>
-      <c r="H39" s="287"/>
-      <c r="I39" s="253" t="s">
+      <c r="F39" s="255"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="256"/>
+      <c r="I39" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="254"/>
-      <c r="K39" s="255"/>
-      <c r="L39" s="248" t="s">
+      <c r="J39" s="270"/>
+      <c r="K39" s="271"/>
+      <c r="L39" s="272" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="249"/>
-      <c r="N39" s="249"/>
-      <c r="O39" s="249"/>
-      <c r="P39" s="249"/>
-      <c r="Q39" s="253" t="s">
+      <c r="M39" s="273"/>
+      <c r="N39" s="273"/>
+      <c r="O39" s="273"/>
+      <c r="P39" s="273"/>
+      <c r="Q39" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="R39" s="254"/>
-      <c r="S39" s="254"/>
-      <c r="T39" s="255"/>
-      <c r="U39" s="250" t="s">
+      <c r="R39" s="270"/>
+      <c r="S39" s="270"/>
+      <c r="T39" s="271"/>
+      <c r="U39" s="251" t="s">
         <v>91</v>
       </c>
-      <c r="V39" s="251"/>
-      <c r="W39" s="252"/>
+      <c r="V39" s="252"/>
+      <c r="W39" s="253"/>
       <c r="X39" s="83" t="s">
         <v>92</v>
       </c>
@@ -13196,50 +13313,50 @@
       <c r="D40" s="75">
         <v>1</v>
       </c>
-      <c r="E40" s="273" t="s">
+      <c r="E40" s="257" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="274"/>
-      <c r="G40" s="274"/>
-      <c r="H40" s="275"/>
-      <c r="I40" s="273" t="s">
+      <c r="F40" s="258"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="259"/>
+      <c r="I40" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="274"/>
-      <c r="K40" s="275"/>
-      <c r="L40" s="282" t="s">
+      <c r="J40" s="258"/>
+      <c r="K40" s="259"/>
+      <c r="L40" s="274" t="s">
         <v>98</v>
       </c>
-      <c r="M40" s="282"/>
-      <c r="N40" s="282"/>
-      <c r="O40" s="282"/>
-      <c r="P40" s="282"/>
-      <c r="Q40" s="273" t="s">
+      <c r="M40" s="274"/>
+      <c r="N40" s="274"/>
+      <c r="O40" s="274"/>
+      <c r="P40" s="274"/>
+      <c r="Q40" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="R40" s="274"/>
-      <c r="S40" s="274"/>
-      <c r="T40" s="275"/>
-      <c r="U40" s="273" t="s">
+      <c r="R40" s="258"/>
+      <c r="S40" s="258"/>
+      <c r="T40" s="259"/>
+      <c r="U40" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="V40" s="274"/>
-      <c r="W40" s="275"/>
-      <c r="X40" s="288" t="s">
+      <c r="V40" s="258"/>
+      <c r="W40" s="259"/>
+      <c r="X40" s="266" t="s">
         <v>106</v>
       </c>
-      <c r="Y40" s="289"/>
-      <c r="Z40" s="289"/>
-      <c r="AA40" s="289"/>
-      <c r="AB40" s="289"/>
-      <c r="AC40" s="289"/>
-      <c r="AD40" s="289"/>
-      <c r="AE40" s="290"/>
-      <c r="AF40" s="273" t="s">
+      <c r="Y40" s="267"/>
+      <c r="Z40" s="267"/>
+      <c r="AA40" s="267"/>
+      <c r="AB40" s="267"/>
+      <c r="AC40" s="267"/>
+      <c r="AD40" s="267"/>
+      <c r="AE40" s="268"/>
+      <c r="AF40" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="AG40" s="274"/>
-      <c r="AH40" s="275"/>
+      <c r="AG40" s="258"/>
+      <c r="AH40" s="259"/>
       <c r="AJ40" s="38"/>
       <c r="AK40" s="38"/>
       <c r="AL40" s="38"/>
@@ -13252,40 +13369,40 @@
       <c r="D41" s="75">
         <v>2</v>
       </c>
-      <c r="E41" s="276"/>
-      <c r="F41" s="277"/>
-      <c r="G41" s="277"/>
-      <c r="H41" s="278"/>
-      <c r="I41" s="276"/>
-      <c r="J41" s="277"/>
-      <c r="K41" s="278"/>
-      <c r="L41" s="282" t="s">
+      <c r="E41" s="260"/>
+      <c r="F41" s="261"/>
+      <c r="G41" s="261"/>
+      <c r="H41" s="262"/>
+      <c r="I41" s="260"/>
+      <c r="J41" s="261"/>
+      <c r="K41" s="262"/>
+      <c r="L41" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="M41" s="282"/>
-      <c r="N41" s="282"/>
-      <c r="O41" s="282"/>
-      <c r="P41" s="282"/>
-      <c r="Q41" s="276"/>
-      <c r="R41" s="277"/>
-      <c r="S41" s="277"/>
-      <c r="T41" s="278"/>
-      <c r="U41" s="276"/>
-      <c r="V41" s="277"/>
-      <c r="W41" s="278"/>
-      <c r="X41" s="288" t="s">
+      <c r="M41" s="274"/>
+      <c r="N41" s="274"/>
+      <c r="O41" s="274"/>
+      <c r="P41" s="274"/>
+      <c r="Q41" s="260"/>
+      <c r="R41" s="261"/>
+      <c r="S41" s="261"/>
+      <c r="T41" s="262"/>
+      <c r="U41" s="260"/>
+      <c r="V41" s="261"/>
+      <c r="W41" s="262"/>
+      <c r="X41" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="Y41" s="289"/>
-      <c r="Z41" s="289"/>
-      <c r="AA41" s="289"/>
-      <c r="AB41" s="289"/>
-      <c r="AC41" s="289"/>
-      <c r="AD41" s="289"/>
-      <c r="AE41" s="290"/>
-      <c r="AF41" s="276"/>
-      <c r="AG41" s="277"/>
-      <c r="AH41" s="278"/>
+      <c r="Y41" s="267"/>
+      <c r="Z41" s="267"/>
+      <c r="AA41" s="267"/>
+      <c r="AB41" s="267"/>
+      <c r="AC41" s="267"/>
+      <c r="AD41" s="267"/>
+      <c r="AE41" s="268"/>
+      <c r="AF41" s="260"/>
+      <c r="AG41" s="261"/>
+      <c r="AH41" s="262"/>
       <c r="AJ41" s="38"/>
       <c r="AK41" s="38"/>
       <c r="AL41" s="38"/>
@@ -13298,40 +13415,40 @@
       <c r="D42" s="75">
         <v>3</v>
       </c>
-      <c r="E42" s="276"/>
-      <c r="F42" s="277"/>
-      <c r="G42" s="277"/>
-      <c r="H42" s="278"/>
-      <c r="I42" s="276"/>
-      <c r="J42" s="277"/>
-      <c r="K42" s="278"/>
-      <c r="L42" s="282" t="s">
+      <c r="E42" s="260"/>
+      <c r="F42" s="261"/>
+      <c r="G42" s="261"/>
+      <c r="H42" s="262"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="261"/>
+      <c r="K42" s="262"/>
+      <c r="L42" s="274" t="s">
         <v>100</v>
       </c>
-      <c r="M42" s="282"/>
-      <c r="N42" s="282"/>
-      <c r="O42" s="282"/>
-      <c r="P42" s="282"/>
-      <c r="Q42" s="276"/>
-      <c r="R42" s="277"/>
-      <c r="S42" s="277"/>
-      <c r="T42" s="278"/>
-      <c r="U42" s="276"/>
-      <c r="V42" s="277"/>
-      <c r="W42" s="278"/>
-      <c r="X42" s="288" t="s">
+      <c r="M42" s="274"/>
+      <c r="N42" s="274"/>
+      <c r="O42" s="274"/>
+      <c r="P42" s="274"/>
+      <c r="Q42" s="260"/>
+      <c r="R42" s="261"/>
+      <c r="S42" s="261"/>
+      <c r="T42" s="262"/>
+      <c r="U42" s="260"/>
+      <c r="V42" s="261"/>
+      <c r="W42" s="262"/>
+      <c r="X42" s="266" t="s">
         <v>108</v>
       </c>
-      <c r="Y42" s="289"/>
-      <c r="Z42" s="289"/>
-      <c r="AA42" s="289"/>
-      <c r="AB42" s="289"/>
-      <c r="AC42" s="289"/>
-      <c r="AD42" s="289"/>
-      <c r="AE42" s="290"/>
-      <c r="AF42" s="276"/>
-      <c r="AG42" s="277"/>
-      <c r="AH42" s="278"/>
+      <c r="Y42" s="267"/>
+      <c r="Z42" s="267"/>
+      <c r="AA42" s="267"/>
+      <c r="AB42" s="267"/>
+      <c r="AC42" s="267"/>
+      <c r="AD42" s="267"/>
+      <c r="AE42" s="268"/>
+      <c r="AF42" s="260"/>
+      <c r="AG42" s="261"/>
+      <c r="AH42" s="262"/>
       <c r="AJ42" s="38"/>
       <c r="AK42" s="38"/>
       <c r="AL42" s="38"/>
@@ -13344,40 +13461,40 @@
       <c r="D43" s="75">
         <v>4</v>
       </c>
-      <c r="E43" s="276"/>
-      <c r="F43" s="277"/>
-      <c r="G43" s="277"/>
-      <c r="H43" s="278"/>
-      <c r="I43" s="276"/>
-      <c r="J43" s="277"/>
-      <c r="K43" s="278"/>
-      <c r="L43" s="283" t="s">
+      <c r="E43" s="260"/>
+      <c r="F43" s="261"/>
+      <c r="G43" s="261"/>
+      <c r="H43" s="262"/>
+      <c r="I43" s="260"/>
+      <c r="J43" s="261"/>
+      <c r="K43" s="262"/>
+      <c r="L43" s="275" t="s">
         <v>101</v>
       </c>
-      <c r="M43" s="282"/>
-      <c r="N43" s="282"/>
-      <c r="O43" s="282"/>
-      <c r="P43" s="282"/>
-      <c r="Q43" s="276"/>
-      <c r="R43" s="277"/>
-      <c r="S43" s="277"/>
-      <c r="T43" s="278"/>
-      <c r="U43" s="276"/>
-      <c r="V43" s="277"/>
-      <c r="W43" s="278"/>
-      <c r="X43" s="288" t="s">
+      <c r="M43" s="274"/>
+      <c r="N43" s="274"/>
+      <c r="O43" s="274"/>
+      <c r="P43" s="274"/>
+      <c r="Q43" s="260"/>
+      <c r="R43" s="261"/>
+      <c r="S43" s="261"/>
+      <c r="T43" s="262"/>
+      <c r="U43" s="260"/>
+      <c r="V43" s="261"/>
+      <c r="W43" s="262"/>
+      <c r="X43" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="Y43" s="289"/>
-      <c r="Z43" s="289"/>
-      <c r="AA43" s="289"/>
-      <c r="AB43" s="289"/>
-      <c r="AC43" s="289"/>
-      <c r="AD43" s="289"/>
-      <c r="AE43" s="290"/>
-      <c r="AF43" s="276"/>
-      <c r="AG43" s="277"/>
-      <c r="AH43" s="278"/>
+      <c r="Y43" s="267"/>
+      <c r="Z43" s="267"/>
+      <c r="AA43" s="267"/>
+      <c r="AB43" s="267"/>
+      <c r="AC43" s="267"/>
+      <c r="AD43" s="267"/>
+      <c r="AE43" s="268"/>
+      <c r="AF43" s="260"/>
+      <c r="AG43" s="261"/>
+      <c r="AH43" s="262"/>
       <c r="AJ43" s="38"/>
       <c r="AK43" s="38"/>
       <c r="AL43" s="38"/>
@@ -13390,40 +13507,40 @@
       <c r="D44" s="75">
         <v>5</v>
       </c>
-      <c r="E44" s="279"/>
-      <c r="F44" s="280"/>
-      <c r="G44" s="280"/>
-      <c r="H44" s="281"/>
-      <c r="I44" s="279"/>
-      <c r="J44" s="280"/>
-      <c r="K44" s="281"/>
-      <c r="L44" s="284" t="s">
+      <c r="E44" s="263"/>
+      <c r="F44" s="264"/>
+      <c r="G44" s="264"/>
+      <c r="H44" s="265"/>
+      <c r="I44" s="263"/>
+      <c r="J44" s="264"/>
+      <c r="K44" s="265"/>
+      <c r="L44" s="276" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="284"/>
-      <c r="N44" s="284"/>
-      <c r="O44" s="284"/>
-      <c r="P44" s="284"/>
-      <c r="Q44" s="279"/>
-      <c r="R44" s="280"/>
-      <c r="S44" s="280"/>
-      <c r="T44" s="281"/>
-      <c r="U44" s="279"/>
-      <c r="V44" s="280"/>
-      <c r="W44" s="281"/>
-      <c r="X44" s="288" t="s">
+      <c r="M44" s="276"/>
+      <c r="N44" s="276"/>
+      <c r="O44" s="276"/>
+      <c r="P44" s="276"/>
+      <c r="Q44" s="263"/>
+      <c r="R44" s="264"/>
+      <c r="S44" s="264"/>
+      <c r="T44" s="265"/>
+      <c r="U44" s="263"/>
+      <c r="V44" s="264"/>
+      <c r="W44" s="265"/>
+      <c r="X44" s="266" t="s">
         <v>110</v>
       </c>
-      <c r="Y44" s="289"/>
-      <c r="Z44" s="289"/>
-      <c r="AA44" s="289"/>
-      <c r="AB44" s="289"/>
-      <c r="AC44" s="289"/>
-      <c r="AD44" s="289"/>
-      <c r="AE44" s="290"/>
-      <c r="AF44" s="279"/>
-      <c r="AG44" s="280"/>
-      <c r="AH44" s="281"/>
+      <c r="Y44" s="267"/>
+      <c r="Z44" s="267"/>
+      <c r="AA44" s="267"/>
+      <c r="AB44" s="267"/>
+      <c r="AC44" s="267"/>
+      <c r="AD44" s="267"/>
+      <c r="AE44" s="268"/>
+      <c r="AF44" s="263"/>
+      <c r="AG44" s="264"/>
+      <c r="AH44" s="265"/>
       <c r="AJ44" s="38"/>
       <c r="AK44" s="38"/>
       <c r="AL44" s="38"/>
@@ -14408,12 +14525,39 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="X29:AE29"/>
-    <mergeCell ref="X30:AE30"/>
-    <mergeCell ref="X31:AE31"/>
-    <mergeCell ref="D32:AH32"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="D10:AH10"/>
+    <mergeCell ref="D15:AH15"/>
+    <mergeCell ref="E19:AH19"/>
+    <mergeCell ref="F24:AH24"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AF40:AH44"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="X40:AE40"/>
@@ -14422,50 +14566,23 @@
     <mergeCell ref="X43:AE43"/>
     <mergeCell ref="X44:AE44"/>
     <mergeCell ref="I40:K44"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:P39"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q39:T39"/>
     <mergeCell ref="U40:W44"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
     <mergeCell ref="L42:P42"/>
     <mergeCell ref="L43:P43"/>
     <mergeCell ref="L44:P44"/>
-    <mergeCell ref="D10:AH10"/>
-    <mergeCell ref="D15:AH15"/>
-    <mergeCell ref="E19:AH19"/>
-    <mergeCell ref="F24:AH24"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="X29:AE29"/>
+    <mergeCell ref="X30:AE30"/>
+    <mergeCell ref="X31:AE31"/>
+    <mergeCell ref="D32:AH32"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:T39"/>
     <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="I28:K28"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14490,7 +14607,7 @@
   <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14499,31 +14616,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -14535,48 +14652,48 @@
       <c r="X1" s="191"/>
       <c r="Y1" s="191"/>
       <c r="Z1" s="192"/>
-      <c r="AA1" s="158" t="s">
+      <c r="AA1" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="181">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="183"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="193"/>
       <c r="T2" s="194"/>
       <c r="U2" s="194"/>
@@ -14585,48 +14702,48 @@
       <c r="X2" s="194"/>
       <c r="Y2" s="194"/>
       <c r="Z2" s="195"/>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="183"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="196"/>
       <c r="T3" s="197"/>
       <c r="U3" s="197"/>
@@ -14635,21 +14752,21 @@
       <c r="X3" s="197"/>
       <c r="Y3" s="197"/>
       <c r="Z3" s="198"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="183"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -15131,42 +15248,42 @@
     <row r="22" spans="3:39" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
-      <c r="E22" s="285" t="s">
+      <c r="E22" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="286"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="286"/>
-      <c r="I22" s="286"/>
-      <c r="J22" s="287"/>
-      <c r="K22" s="285" t="s">
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="256"/>
+      <c r="K22" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="287"/>
-      <c r="M22" s="285" t="s">
+      <c r="L22" s="256"/>
+      <c r="M22" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="286"/>
-      <c r="O22" s="286"/>
-      <c r="P22" s="286"/>
-      <c r="Q22" s="286"/>
-      <c r="R22" s="286"/>
-      <c r="S22" s="286"/>
-      <c r="T22" s="286"/>
-      <c r="U22" s="286"/>
-      <c r="V22" s="286"/>
-      <c r="W22" s="286"/>
-      <c r="X22" s="286"/>
-      <c r="Y22" s="286"/>
-      <c r="Z22" s="286"/>
-      <c r="AA22" s="286"/>
-      <c r="AB22" s="286"/>
-      <c r="AC22" s="286"/>
-      <c r="AD22" s="286"/>
-      <c r="AE22" s="286"/>
-      <c r="AF22" s="286"/>
-      <c r="AG22" s="286"/>
-      <c r="AH22" s="287"/>
+      <c r="N22" s="255"/>
+      <c r="O22" s="255"/>
+      <c r="P22" s="255"/>
+      <c r="Q22" s="255"/>
+      <c r="R22" s="255"/>
+      <c r="S22" s="255"/>
+      <c r="T22" s="255"/>
+      <c r="U22" s="255"/>
+      <c r="V22" s="255"/>
+      <c r="W22" s="255"/>
+      <c r="X22" s="255"/>
+      <c r="Y22" s="255"/>
+      <c r="Z22" s="255"/>
+      <c r="AA22" s="255"/>
+      <c r="AB22" s="255"/>
+      <c r="AC22" s="255"/>
+      <c r="AD22" s="255"/>
+      <c r="AE22" s="255"/>
+      <c r="AF22" s="255"/>
+      <c r="AG22" s="255"/>
+      <c r="AH22" s="256"/>
     </row>
     <row r="23" spans="3:39" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C23" s="59"/>
@@ -15182,8 +15299,8 @@
       <c r="K23" s="303" t="s">
         <v>227</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="221" t="s">
+      <c r="L23" s="188"/>
+      <c r="M23" s="215" t="s">
         <v>120</v>
       </c>
       <c r="N23" s="306"/>
@@ -15245,117 +15362,117 @@
     <row r="25" spans="3:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
-      <c r="E25" s="321" t="s">
+      <c r="E25" s="311" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="318"/>
-      <c r="K25" s="336" t="s">
+      <c r="F25" s="312"/>
+      <c r="G25" s="312"/>
+      <c r="H25" s="312"/>
+      <c r="I25" s="312"/>
+      <c r="J25" s="313"/>
+      <c r="K25" s="319" t="s">
         <v>227</v>
       </c>
-      <c r="L25" s="337"/>
-      <c r="M25" s="245" t="s">
+      <c r="L25" s="320"/>
+      <c r="M25" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="N25" s="312"/>
-      <c r="O25" s="312"/>
-      <c r="P25" s="312"/>
-      <c r="Q25" s="312"/>
-      <c r="R25" s="312"/>
-      <c r="S25" s="312"/>
-      <c r="T25" s="312"/>
-      <c r="U25" s="312"/>
-      <c r="V25" s="312"/>
-      <c r="W25" s="312"/>
-      <c r="X25" s="312"/>
-      <c r="Y25" s="312"/>
-      <c r="Z25" s="312"/>
-      <c r="AA25" s="312"/>
-      <c r="AB25" s="312"/>
-      <c r="AC25" s="312"/>
-      <c r="AD25" s="312"/>
-      <c r="AE25" s="312"/>
-      <c r="AF25" s="312"/>
-      <c r="AG25" s="312"/>
-      <c r="AH25" s="313"/>
+      <c r="N25" s="325"/>
+      <c r="O25" s="325"/>
+      <c r="P25" s="325"/>
+      <c r="Q25" s="325"/>
+      <c r="R25" s="325"/>
+      <c r="S25" s="325"/>
+      <c r="T25" s="325"/>
+      <c r="U25" s="325"/>
+      <c r="V25" s="325"/>
+      <c r="W25" s="325"/>
+      <c r="X25" s="325"/>
+      <c r="Y25" s="325"/>
+      <c r="Z25" s="325"/>
+      <c r="AA25" s="325"/>
+      <c r="AB25" s="325"/>
+      <c r="AC25" s="325"/>
+      <c r="AD25" s="325"/>
+      <c r="AE25" s="325"/>
+      <c r="AF25" s="325"/>
+      <c r="AG25" s="325"/>
+      <c r="AH25" s="326"/>
       <c r="AM25" s="34"/>
     </row>
     <row r="26" spans="3:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
-      <c r="E26" s="324"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="243"/>
-      <c r="I26" s="243"/>
-      <c r="J26" s="325"/>
-      <c r="K26" s="338"/>
-      <c r="L26" s="339"/>
-      <c r="M26" s="256"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="242"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="242"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="242"/>
-      <c r="U26" s="242"/>
-      <c r="V26" s="242"/>
-      <c r="W26" s="242"/>
-      <c r="X26" s="242"/>
-      <c r="Y26" s="242"/>
-      <c r="Z26" s="242"/>
-      <c r="AA26" s="242"/>
-      <c r="AB26" s="242"/>
-      <c r="AC26" s="242"/>
-      <c r="AD26" s="242"/>
-      <c r="AE26" s="242"/>
-      <c r="AF26" s="242"/>
-      <c r="AG26" s="242"/>
-      <c r="AH26" s="257"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="315"/>
+      <c r="K26" s="321"/>
+      <c r="L26" s="322"/>
+      <c r="M26" s="285"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="205"/>
+      <c r="AA26" s="205"/>
+      <c r="AB26" s="205"/>
+      <c r="AC26" s="205"/>
+      <c r="AD26" s="205"/>
+      <c r="AE26" s="205"/>
+      <c r="AF26" s="205"/>
+      <c r="AG26" s="205"/>
+      <c r="AH26" s="286"/>
       <c r="AM26" s="34"/>
     </row>
     <row r="27" spans="3:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="323"/>
-      <c r="G27" s="323"/>
-      <c r="H27" s="323"/>
-      <c r="I27" s="323"/>
-      <c r="J27" s="320"/>
-      <c r="K27" s="340"/>
-      <c r="L27" s="341"/>
-      <c r="M27" s="314"/>
-      <c r="N27" s="315"/>
-      <c r="O27" s="315"/>
-      <c r="P27" s="315"/>
-      <c r="Q27" s="315"/>
-      <c r="R27" s="315"/>
-      <c r="S27" s="315"/>
-      <c r="T27" s="315"/>
-      <c r="U27" s="315"/>
-      <c r="V27" s="315"/>
-      <c r="W27" s="315"/>
-      <c r="X27" s="315"/>
-      <c r="Y27" s="315"/>
-      <c r="Z27" s="315"/>
-      <c r="AA27" s="315"/>
-      <c r="AB27" s="315"/>
-      <c r="AC27" s="315"/>
-      <c r="AD27" s="315"/>
-      <c r="AE27" s="315"/>
-      <c r="AF27" s="315"/>
-      <c r="AG27" s="315"/>
-      <c r="AH27" s="316"/>
+      <c r="E27" s="316"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="317"/>
+      <c r="H27" s="317"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="318"/>
+      <c r="K27" s="323"/>
+      <c r="L27" s="324"/>
+      <c r="M27" s="327"/>
+      <c r="N27" s="328"/>
+      <c r="O27" s="328"/>
+      <c r="P27" s="328"/>
+      <c r="Q27" s="328"/>
+      <c r="R27" s="328"/>
+      <c r="S27" s="328"/>
+      <c r="T27" s="328"/>
+      <c r="U27" s="328"/>
+      <c r="V27" s="328"/>
+      <c r="W27" s="328"/>
+      <c r="X27" s="328"/>
+      <c r="Y27" s="328"/>
+      <c r="Z27" s="328"/>
+      <c r="AA27" s="328"/>
+      <c r="AB27" s="328"/>
+      <c r="AC27" s="328"/>
+      <c r="AD27" s="328"/>
+      <c r="AE27" s="328"/>
+      <c r="AF27" s="328"/>
+      <c r="AG27" s="328"/>
+      <c r="AH27" s="329"/>
     </row>
     <row r="28" spans="3:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="334" t="s">
+      <c r="E28" s="330" t="s">
         <v>195</v>
       </c>
       <c r="F28" s="298"/>
@@ -15363,11 +15480,11 @@
       <c r="H28" s="298"/>
       <c r="I28" s="298"/>
       <c r="J28" s="299"/>
-      <c r="K28" s="128" t="s">
+      <c r="K28" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="L28" s="129"/>
-      <c r="M28" s="335" t="s">
+      <c r="L28" s="188"/>
+      <c r="M28" s="331" t="s">
         <v>188</v>
       </c>
       <c r="N28" s="306"/>
@@ -15429,7 +15546,7 @@
     <row r="30" spans="3:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
-      <c r="E30" s="334" t="s">
+      <c r="E30" s="330" t="s">
         <v>196</v>
       </c>
       <c r="F30" s="298"/>
@@ -15437,11 +15554,11 @@
       <c r="H30" s="298"/>
       <c r="I30" s="298"/>
       <c r="J30" s="299"/>
-      <c r="K30" s="128" t="s">
+      <c r="K30" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="L30" s="129"/>
-      <c r="M30" s="335" t="s">
+      <c r="L30" s="188"/>
+      <c r="M30" s="331" t="s">
         <v>190</v>
       </c>
       <c r="N30" s="306"/>
@@ -15595,42 +15712,42 @@
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
-      <c r="E35" s="285" t="s">
+      <c r="E35" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="286"/>
-      <c r="G35" s="286"/>
-      <c r="H35" s="286"/>
-      <c r="I35" s="286"/>
-      <c r="J35" s="287"/>
-      <c r="K35" s="285" t="s">
+      <c r="F35" s="255"/>
+      <c r="G35" s="255"/>
+      <c r="H35" s="255"/>
+      <c r="I35" s="255"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="L35" s="287"/>
-      <c r="M35" s="285" t="s">
+      <c r="L35" s="256"/>
+      <c r="M35" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="N35" s="286"/>
-      <c r="O35" s="286"/>
-      <c r="P35" s="286"/>
-      <c r="Q35" s="286"/>
-      <c r="R35" s="286"/>
-      <c r="S35" s="286"/>
-      <c r="T35" s="286"/>
-      <c r="U35" s="286"/>
-      <c r="V35" s="286"/>
-      <c r="W35" s="286"/>
-      <c r="X35" s="286"/>
-      <c r="Y35" s="286"/>
-      <c r="Z35" s="286"/>
-      <c r="AA35" s="286"/>
-      <c r="AB35" s="286"/>
-      <c r="AC35" s="286"/>
-      <c r="AD35" s="286"/>
-      <c r="AE35" s="286"/>
-      <c r="AF35" s="286"/>
-      <c r="AG35" s="286"/>
-      <c r="AH35" s="287"/>
+      <c r="N35" s="255"/>
+      <c r="O35" s="255"/>
+      <c r="P35" s="255"/>
+      <c r="Q35" s="255"/>
+      <c r="R35" s="255"/>
+      <c r="S35" s="255"/>
+      <c r="T35" s="255"/>
+      <c r="U35" s="255"/>
+      <c r="V35" s="255"/>
+      <c r="W35" s="255"/>
+      <c r="X35" s="255"/>
+      <c r="Y35" s="255"/>
+      <c r="Z35" s="255"/>
+      <c r="AA35" s="255"/>
+      <c r="AB35" s="255"/>
+      <c r="AC35" s="255"/>
+      <c r="AD35" s="255"/>
+      <c r="AE35" s="255"/>
+      <c r="AF35" s="255"/>
+      <c r="AG35" s="255"/>
+      <c r="AH35" s="256"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="59"/>
@@ -15646,8 +15763,8 @@
       <c r="K36" s="303" t="s">
         <v>227</v>
       </c>
-      <c r="L36" s="129"/>
-      <c r="M36" s="221" t="s">
+      <c r="L36" s="188"/>
+      <c r="M36" s="215" t="s">
         <v>120</v>
       </c>
       <c r="N36" s="306"/>
@@ -15709,115 +15826,115 @@
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
-      <c r="E38" s="321" t="s">
+      <c r="E38" s="311" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="322"/>
-      <c r="G38" s="322"/>
-      <c r="H38" s="322"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="318"/>
-      <c r="K38" s="336" t="s">
+      <c r="F38" s="312"/>
+      <c r="G38" s="312"/>
+      <c r="H38" s="312"/>
+      <c r="I38" s="312"/>
+      <c r="J38" s="313"/>
+      <c r="K38" s="319" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="337"/>
-      <c r="M38" s="245" t="s">
+      <c r="L38" s="320"/>
+      <c r="M38" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="N38" s="312"/>
-      <c r="O38" s="312"/>
-      <c r="P38" s="312"/>
-      <c r="Q38" s="312"/>
-      <c r="R38" s="312"/>
-      <c r="S38" s="312"/>
-      <c r="T38" s="312"/>
-      <c r="U38" s="312"/>
-      <c r="V38" s="312"/>
-      <c r="W38" s="312"/>
-      <c r="X38" s="312"/>
-      <c r="Y38" s="312"/>
-      <c r="Z38" s="312"/>
-      <c r="AA38" s="312"/>
-      <c r="AB38" s="312"/>
-      <c r="AC38" s="312"/>
-      <c r="AD38" s="312"/>
-      <c r="AE38" s="312"/>
-      <c r="AF38" s="312"/>
-      <c r="AG38" s="312"/>
-      <c r="AH38" s="313"/>
+      <c r="N38" s="325"/>
+      <c r="O38" s="325"/>
+      <c r="P38" s="325"/>
+      <c r="Q38" s="325"/>
+      <c r="R38" s="325"/>
+      <c r="S38" s="325"/>
+      <c r="T38" s="325"/>
+      <c r="U38" s="325"/>
+      <c r="V38" s="325"/>
+      <c r="W38" s="325"/>
+      <c r="X38" s="325"/>
+      <c r="Y38" s="325"/>
+      <c r="Z38" s="325"/>
+      <c r="AA38" s="325"/>
+      <c r="AB38" s="325"/>
+      <c r="AC38" s="325"/>
+      <c r="AD38" s="325"/>
+      <c r="AE38" s="325"/>
+      <c r="AF38" s="325"/>
+      <c r="AG38" s="325"/>
+      <c r="AH38" s="326"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="243"/>
-      <c r="G39" s="243"/>
-      <c r="H39" s="243"/>
-      <c r="I39" s="243"/>
-      <c r="J39" s="325"/>
-      <c r="K39" s="338"/>
-      <c r="L39" s="339"/>
-      <c r="M39" s="256"/>
-      <c r="N39" s="242"/>
-      <c r="O39" s="242"/>
-      <c r="P39" s="242"/>
-      <c r="Q39" s="242"/>
-      <c r="R39" s="242"/>
-      <c r="S39" s="242"/>
-      <c r="T39" s="242"/>
-      <c r="U39" s="242"/>
-      <c r="V39" s="242"/>
-      <c r="W39" s="242"/>
-      <c r="X39" s="242"/>
-      <c r="Y39" s="242"/>
-      <c r="Z39" s="242"/>
-      <c r="AA39" s="242"/>
-      <c r="AB39" s="242"/>
-      <c r="AC39" s="242"/>
-      <c r="AD39" s="242"/>
-      <c r="AE39" s="242"/>
-      <c r="AF39" s="242"/>
-      <c r="AG39" s="242"/>
-      <c r="AH39" s="257"/>
+      <c r="E39" s="314"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="315"/>
+      <c r="K39" s="321"/>
+      <c r="L39" s="322"/>
+      <c r="M39" s="285"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="205"/>
+      <c r="R39" s="205"/>
+      <c r="S39" s="205"/>
+      <c r="T39" s="205"/>
+      <c r="U39" s="205"/>
+      <c r="V39" s="205"/>
+      <c r="W39" s="205"/>
+      <c r="X39" s="205"/>
+      <c r="Y39" s="205"/>
+      <c r="Z39" s="205"/>
+      <c r="AA39" s="205"/>
+      <c r="AB39" s="205"/>
+      <c r="AC39" s="205"/>
+      <c r="AD39" s="205"/>
+      <c r="AE39" s="205"/>
+      <c r="AF39" s="205"/>
+      <c r="AG39" s="205"/>
+      <c r="AH39" s="286"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="323"/>
-      <c r="G40" s="323"/>
-      <c r="H40" s="323"/>
-      <c r="I40" s="323"/>
-      <c r="J40" s="320"/>
-      <c r="K40" s="340"/>
-      <c r="L40" s="341"/>
-      <c r="M40" s="314"/>
-      <c r="N40" s="315"/>
-      <c r="O40" s="315"/>
-      <c r="P40" s="315"/>
-      <c r="Q40" s="315"/>
-      <c r="R40" s="315"/>
-      <c r="S40" s="315"/>
-      <c r="T40" s="315"/>
-      <c r="U40" s="315"/>
-      <c r="V40" s="315"/>
-      <c r="W40" s="315"/>
-      <c r="X40" s="315"/>
-      <c r="Y40" s="315"/>
-      <c r="Z40" s="315"/>
-      <c r="AA40" s="315"/>
-      <c r="AB40" s="315"/>
-      <c r="AC40" s="315"/>
-      <c r="AD40" s="315"/>
-      <c r="AE40" s="315"/>
-      <c r="AF40" s="315"/>
-      <c r="AG40" s="315"/>
-      <c r="AH40" s="316"/>
+      <c r="E40" s="316"/>
+      <c r="F40" s="317"/>
+      <c r="G40" s="317"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="317"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="323"/>
+      <c r="L40" s="324"/>
+      <c r="M40" s="327"/>
+      <c r="N40" s="328"/>
+      <c r="O40" s="328"/>
+      <c r="P40" s="328"/>
+      <c r="Q40" s="328"/>
+      <c r="R40" s="328"/>
+      <c r="S40" s="328"/>
+      <c r="T40" s="328"/>
+      <c r="U40" s="328"/>
+      <c r="V40" s="328"/>
+      <c r="W40" s="328"/>
+      <c r="X40" s="328"/>
+      <c r="Y40" s="328"/>
+      <c r="Z40" s="328"/>
+      <c r="AA40" s="328"/>
+      <c r="AB40" s="328"/>
+      <c r="AC40" s="328"/>
+      <c r="AD40" s="328"/>
+      <c r="AE40" s="328"/>
+      <c r="AF40" s="328"/>
+      <c r="AG40" s="328"/>
+      <c r="AH40" s="329"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
-      <c r="E41" s="334" t="s">
+      <c r="E41" s="330" t="s">
         <v>187</v>
       </c>
       <c r="F41" s="298"/>
@@ -15825,11 +15942,11 @@
       <c r="H41" s="298"/>
       <c r="I41" s="298"/>
       <c r="J41" s="299"/>
-      <c r="K41" s="128" t="s">
+      <c r="K41" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="L41" s="129"/>
-      <c r="M41" s="335" t="s">
+      <c r="L41" s="188"/>
+      <c r="M41" s="331" t="s">
         <v>188</v>
       </c>
       <c r="N41" s="306"/>
@@ -15891,7 +16008,7 @@
     <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
-      <c r="E43" s="334" t="s">
+      <c r="E43" s="330" t="s">
         <v>189</v>
       </c>
       <c r="F43" s="298"/>
@@ -15899,11 +16016,11 @@
       <c r="H43" s="298"/>
       <c r="I43" s="298"/>
       <c r="J43" s="299"/>
-      <c r="K43" s="128" t="s">
+      <c r="K43" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="L43" s="129"/>
-      <c r="M43" s="335" t="s">
+      <c r="L43" s="188"/>
+      <c r="M43" s="331" t="s">
         <v>190</v>
       </c>
       <c r="N43" s="306"/>
@@ -15965,126 +16082,126 @@
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
-      <c r="E45" s="321" t="s">
+      <c r="E45" s="311" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="322"/>
-      <c r="G45" s="322"/>
-      <c r="H45" s="322"/>
-      <c r="I45" s="322"/>
-      <c r="J45" s="318"/>
-      <c r="K45" s="326" t="s">
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="313"/>
+      <c r="K45" s="332" t="s">
         <v>227</v>
       </c>
-      <c r="L45" s="327"/>
-      <c r="M45" s="245" t="s">
+      <c r="L45" s="333"/>
+      <c r="M45" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="N45" s="312"/>
-      <c r="O45" s="312"/>
-      <c r="P45" s="312"/>
-      <c r="Q45" s="312"/>
-      <c r="R45" s="312"/>
-      <c r="S45" s="312"/>
-      <c r="T45" s="312"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="312"/>
-      <c r="X45" s="312"/>
-      <c r="Y45" s="312"/>
-      <c r="Z45" s="312"/>
-      <c r="AA45" s="312"/>
-      <c r="AB45" s="312"/>
-      <c r="AC45" s="312"/>
-      <c r="AD45" s="312"/>
-      <c r="AE45" s="312"/>
-      <c r="AF45" s="312"/>
-      <c r="AG45" s="312"/>
-      <c r="AH45" s="313"/>
+      <c r="N45" s="325"/>
+      <c r="O45" s="325"/>
+      <c r="P45" s="325"/>
+      <c r="Q45" s="325"/>
+      <c r="R45" s="325"/>
+      <c r="S45" s="325"/>
+      <c r="T45" s="325"/>
+      <c r="U45" s="325"/>
+      <c r="V45" s="325"/>
+      <c r="W45" s="325"/>
+      <c r="X45" s="325"/>
+      <c r="Y45" s="325"/>
+      <c r="Z45" s="325"/>
+      <c r="AA45" s="325"/>
+      <c r="AB45" s="325"/>
+      <c r="AC45" s="325"/>
+      <c r="AD45" s="325"/>
+      <c r="AE45" s="325"/>
+      <c r="AF45" s="325"/>
+      <c r="AG45" s="325"/>
+      <c r="AH45" s="326"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
-      <c r="E46" s="324"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="325"/>
-      <c r="K46" s="328"/>
-      <c r="L46" s="329"/>
-      <c r="M46" s="256"/>
-      <c r="N46" s="242"/>
-      <c r="O46" s="242"/>
-      <c r="P46" s="242"/>
-      <c r="Q46" s="242"/>
-      <c r="R46" s="242"/>
-      <c r="S46" s="242"/>
-      <c r="T46" s="242"/>
-      <c r="U46" s="242"/>
-      <c r="V46" s="242"/>
-      <c r="W46" s="242"/>
-      <c r="X46" s="242"/>
-      <c r="Y46" s="242"/>
-      <c r="Z46" s="242"/>
-      <c r="AA46" s="242"/>
-      <c r="AB46" s="242"/>
-      <c r="AC46" s="242"/>
-      <c r="AD46" s="242"/>
-      <c r="AE46" s="242"/>
-      <c r="AF46" s="242"/>
-      <c r="AG46" s="242"/>
-      <c r="AH46" s="257"/>
+      <c r="E46" s="314"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="202"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="202"/>
+      <c r="J46" s="315"/>
+      <c r="K46" s="334"/>
+      <c r="L46" s="335"/>
+      <c r="M46" s="285"/>
+      <c r="N46" s="205"/>
+      <c r="O46" s="205"/>
+      <c r="P46" s="205"/>
+      <c r="Q46" s="205"/>
+      <c r="R46" s="205"/>
+      <c r="S46" s="205"/>
+      <c r="T46" s="205"/>
+      <c r="U46" s="205"/>
+      <c r="V46" s="205"/>
+      <c r="W46" s="205"/>
+      <c r="X46" s="205"/>
+      <c r="Y46" s="205"/>
+      <c r="Z46" s="205"/>
+      <c r="AA46" s="205"/>
+      <c r="AB46" s="205"/>
+      <c r="AC46" s="205"/>
+      <c r="AD46" s="205"/>
+      <c r="AE46" s="205"/>
+      <c r="AF46" s="205"/>
+      <c r="AG46" s="205"/>
+      <c r="AH46" s="286"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
-      <c r="E47" s="319"/>
-      <c r="F47" s="323"/>
-      <c r="G47" s="323"/>
-      <c r="H47" s="323"/>
-      <c r="I47" s="323"/>
-      <c r="J47" s="320"/>
-      <c r="K47" s="330"/>
-      <c r="L47" s="331"/>
-      <c r="M47" s="314"/>
-      <c r="N47" s="315"/>
-      <c r="O47" s="315"/>
-      <c r="P47" s="315"/>
-      <c r="Q47" s="315"/>
-      <c r="R47" s="315"/>
-      <c r="S47" s="315"/>
-      <c r="T47" s="315"/>
-      <c r="U47" s="315"/>
-      <c r="V47" s="315"/>
-      <c r="W47" s="315"/>
-      <c r="X47" s="315"/>
-      <c r="Y47" s="315"/>
-      <c r="Z47" s="315"/>
-      <c r="AA47" s="315"/>
-      <c r="AB47" s="315"/>
-      <c r="AC47" s="315"/>
-      <c r="AD47" s="315"/>
-      <c r="AE47" s="315"/>
-      <c r="AF47" s="315"/>
-      <c r="AG47" s="315"/>
-      <c r="AH47" s="316"/>
+      <c r="E47" s="316"/>
+      <c r="F47" s="317"/>
+      <c r="G47" s="317"/>
+      <c r="H47" s="317"/>
+      <c r="I47" s="317"/>
+      <c r="J47" s="318"/>
+      <c r="K47" s="336"/>
+      <c r="L47" s="337"/>
+      <c r="M47" s="327"/>
+      <c r="N47" s="328"/>
+      <c r="O47" s="328"/>
+      <c r="P47" s="328"/>
+      <c r="Q47" s="328"/>
+      <c r="R47" s="328"/>
+      <c r="S47" s="328"/>
+      <c r="T47" s="328"/>
+      <c r="U47" s="328"/>
+      <c r="V47" s="328"/>
+      <c r="W47" s="328"/>
+      <c r="X47" s="328"/>
+      <c r="Y47" s="328"/>
+      <c r="Z47" s="328"/>
+      <c r="AA47" s="328"/>
+      <c r="AB47" s="328"/>
+      <c r="AC47" s="328"/>
+      <c r="AD47" s="328"/>
+      <c r="AE47" s="328"/>
+      <c r="AF47" s="328"/>
+      <c r="AG47" s="328"/>
+      <c r="AH47" s="329"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
-      <c r="E48" s="321" t="s">
+      <c r="E48" s="311" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="322"/>
-      <c r="G48" s="322"/>
-      <c r="H48" s="322"/>
-      <c r="I48" s="322"/>
-      <c r="J48" s="318"/>
-      <c r="K48" s="326" t="s">
+      <c r="F48" s="312"/>
+      <c r="G48" s="312"/>
+      <c r="H48" s="312"/>
+      <c r="I48" s="312"/>
+      <c r="J48" s="313"/>
+      <c r="K48" s="332" t="s">
         <v>227</v>
       </c>
-      <c r="L48" s="327"/>
+      <c r="L48" s="333"/>
       <c r="M48" s="89" t="s">
         <v>125</v>
       </c>
@@ -16113,50 +16230,50 @@
     <row r="49" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="243"/>
-      <c r="G49" s="243"/>
-      <c r="H49" s="243"/>
-      <c r="I49" s="243"/>
-      <c r="J49" s="325"/>
-      <c r="K49" s="328"/>
-      <c r="L49" s="329"/>
-      <c r="M49" s="332" t="s">
+      <c r="E49" s="314"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="202"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="202"/>
+      <c r="J49" s="315"/>
+      <c r="K49" s="334"/>
+      <c r="L49" s="335"/>
+      <c r="M49" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="N49" s="270"/>
-      <c r="O49" s="270"/>
-      <c r="P49" s="270"/>
-      <c r="Q49" s="270"/>
-      <c r="R49" s="270"/>
-      <c r="S49" s="270"/>
-      <c r="T49" s="270"/>
-      <c r="U49" s="270"/>
-      <c r="V49" s="270"/>
-      <c r="W49" s="270"/>
-      <c r="X49" s="270"/>
-      <c r="Y49" s="270"/>
-      <c r="Z49" s="270"/>
-      <c r="AA49" s="270"/>
-      <c r="AB49" s="270"/>
-      <c r="AC49" s="270"/>
-      <c r="AD49" s="270"/>
-      <c r="AE49" s="270"/>
-      <c r="AF49" s="270"/>
-      <c r="AG49" s="270"/>
-      <c r="AH49" s="333"/>
+      <c r="N49" s="277"/>
+      <c r="O49" s="277"/>
+      <c r="P49" s="277"/>
+      <c r="Q49" s="277"/>
+      <c r="R49" s="277"/>
+      <c r="S49" s="277"/>
+      <c r="T49" s="277"/>
+      <c r="U49" s="277"/>
+      <c r="V49" s="277"/>
+      <c r="W49" s="277"/>
+      <c r="X49" s="277"/>
+      <c r="Y49" s="277"/>
+      <c r="Z49" s="277"/>
+      <c r="AA49" s="277"/>
+      <c r="AB49" s="277"/>
+      <c r="AC49" s="277"/>
+      <c r="AD49" s="277"/>
+      <c r="AE49" s="277"/>
+      <c r="AF49" s="277"/>
+      <c r="AG49" s="277"/>
+      <c r="AH49" s="339"/>
     </row>
     <row r="50" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="243"/>
-      <c r="G50" s="243"/>
-      <c r="H50" s="243"/>
-      <c r="I50" s="243"/>
-      <c r="J50" s="325"/>
-      <c r="K50" s="328"/>
-      <c r="L50" s="329"/>
+      <c r="E50" s="314"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="202"/>
+      <c r="H50" s="202"/>
+      <c r="I50" s="202"/>
+      <c r="J50" s="315"/>
+      <c r="K50" s="334"/>
+      <c r="L50" s="335"/>
       <c r="M50" s="89" t="s">
         <v>128</v>
       </c>
@@ -16185,14 +16302,14 @@
     <row r="51" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="243"/>
-      <c r="G51" s="243"/>
-      <c r="H51" s="243"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="325"/>
-      <c r="K51" s="328"/>
-      <c r="L51" s="329"/>
+      <c r="E51" s="314"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="202"/>
+      <c r="H51" s="202"/>
+      <c r="I51" s="202"/>
+      <c r="J51" s="315"/>
+      <c r="K51" s="334"/>
+      <c r="L51" s="335"/>
       <c r="M51" s="89" t="s">
         <v>129</v>
       </c>
@@ -16209,14 +16326,14 @@
     <row r="52" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="243"/>
-      <c r="G52" s="243"/>
-      <c r="H52" s="243"/>
-      <c r="I52" s="243"/>
-      <c r="J52" s="325"/>
-      <c r="K52" s="328"/>
-      <c r="L52" s="329"/>
+      <c r="E52" s="314"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="315"/>
+      <c r="K52" s="334"/>
+      <c r="L52" s="335"/>
       <c r="M52" s="62"/>
       <c r="N52" s="34" t="s">
         <v>130</v>
@@ -16234,50 +16351,50 @@
     <row r="53" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
-      <c r="E53" s="324"/>
-      <c r="F53" s="243"/>
-      <c r="G53" s="243"/>
-      <c r="H53" s="243"/>
-      <c r="I53" s="243"/>
-      <c r="J53" s="325"/>
-      <c r="K53" s="328"/>
-      <c r="L53" s="329"/>
+      <c r="E53" s="314"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="315"/>
+      <c r="K53" s="334"/>
+      <c r="L53" s="335"/>
       <c r="M53" s="62"/>
-      <c r="N53" s="270" t="s">
+      <c r="N53" s="277" t="s">
         <v>197</v>
       </c>
-      <c r="O53" s="270"/>
-      <c r="P53" s="270"/>
-      <c r="Q53" s="270"/>
-      <c r="R53" s="270"/>
-      <c r="S53" s="270"/>
-      <c r="T53" s="270"/>
-      <c r="U53" s="270"/>
-      <c r="V53" s="270"/>
-      <c r="W53" s="270"/>
-      <c r="X53" s="270"/>
-      <c r="Y53" s="270"/>
-      <c r="Z53" s="270"/>
-      <c r="AA53" s="270"/>
-      <c r="AB53" s="270"/>
-      <c r="AC53" s="270"/>
-      <c r="AD53" s="270"/>
-      <c r="AE53" s="270"/>
-      <c r="AF53" s="270"/>
-      <c r="AG53" s="270"/>
-      <c r="AH53" s="333"/>
+      <c r="O53" s="277"/>
+      <c r="P53" s="277"/>
+      <c r="Q53" s="277"/>
+      <c r="R53" s="277"/>
+      <c r="S53" s="277"/>
+      <c r="T53" s="277"/>
+      <c r="U53" s="277"/>
+      <c r="V53" s="277"/>
+      <c r="W53" s="277"/>
+      <c r="X53" s="277"/>
+      <c r="Y53" s="277"/>
+      <c r="Z53" s="277"/>
+      <c r="AA53" s="277"/>
+      <c r="AB53" s="277"/>
+      <c r="AC53" s="277"/>
+      <c r="AD53" s="277"/>
+      <c r="AE53" s="277"/>
+      <c r="AF53" s="277"/>
+      <c r="AG53" s="277"/>
+      <c r="AH53" s="339"/>
     </row>
     <row r="54" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
-      <c r="E54" s="324"/>
-      <c r="F54" s="243"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="243"/>
-      <c r="I54" s="243"/>
-      <c r="J54" s="325"/>
-      <c r="K54" s="328"/>
-      <c r="L54" s="329"/>
+      <c r="E54" s="314"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="315"/>
+      <c r="K54" s="334"/>
+      <c r="L54" s="335"/>
       <c r="M54" s="62"/>
       <c r="N54" s="113" t="s">
         <v>198</v>
@@ -16306,14 +16423,14 @@
     <row r="55" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
-      <c r="E55" s="324"/>
-      <c r="F55" s="243"/>
-      <c r="G55" s="243"/>
-      <c r="H55" s="243"/>
-      <c r="I55" s="243"/>
-      <c r="J55" s="325"/>
-      <c r="K55" s="328"/>
-      <c r="L55" s="329"/>
+      <c r="E55" s="314"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="315"/>
+      <c r="K55" s="334"/>
+      <c r="L55" s="335"/>
       <c r="M55" s="62"/>
       <c r="N55" s="19"/>
       <c r="O55" s="33" t="s">
@@ -16342,14 +16459,14 @@
     <row r="56" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
-      <c r="E56" s="324"/>
-      <c r="F56" s="243"/>
-      <c r="G56" s="243"/>
-      <c r="H56" s="243"/>
-      <c r="I56" s="243"/>
-      <c r="J56" s="325"/>
-      <c r="K56" s="328"/>
-      <c r="L56" s="329"/>
+      <c r="E56" s="314"/>
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="315"/>
+      <c r="K56" s="334"/>
+      <c r="L56" s="335"/>
       <c r="M56" s="62"/>
       <c r="N56" s="19"/>
       <c r="O56" s="33" t="s">
@@ -16378,14 +16495,14 @@
     <row r="57" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
-      <c r="E57" s="324"/>
-      <c r="F57" s="243"/>
-      <c r="G57" s="243"/>
-      <c r="H57" s="243"/>
-      <c r="I57" s="243"/>
-      <c r="J57" s="325"/>
-      <c r="K57" s="328"/>
-      <c r="L57" s="329"/>
+      <c r="E57" s="314"/>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="315"/>
+      <c r="K57" s="334"/>
+      <c r="L57" s="335"/>
       <c r="M57" s="62"/>
       <c r="N57" s="33" t="s">
         <v>147</v>
@@ -16413,14 +16530,14 @@
     <row r="58" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
-      <c r="E58" s="324"/>
-      <c r="F58" s="243"/>
-      <c r="G58" s="243"/>
-      <c r="H58" s="243"/>
-      <c r="I58" s="243"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="328"/>
-      <c r="L58" s="329"/>
+      <c r="E58" s="314"/>
+      <c r="F58" s="202"/>
+      <c r="G58" s="202"/>
+      <c r="H58" s="202"/>
+      <c r="I58" s="202"/>
+      <c r="J58" s="315"/>
+      <c r="K58" s="334"/>
+      <c r="L58" s="335"/>
       <c r="M58" s="62"/>
       <c r="N58" s="33" t="s">
         <v>132</v>
@@ -16447,14 +16564,14 @@
     <row r="59" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="324"/>
-      <c r="F59" s="243"/>
-      <c r="G59" s="243"/>
-      <c r="H59" s="243"/>
-      <c r="I59" s="243"/>
-      <c r="J59" s="325"/>
-      <c r="K59" s="328"/>
-      <c r="L59" s="329"/>
+      <c r="E59" s="314"/>
+      <c r="F59" s="202"/>
+      <c r="G59" s="202"/>
+      <c r="H59" s="202"/>
+      <c r="I59" s="202"/>
+      <c r="J59" s="315"/>
+      <c r="K59" s="334"/>
+      <c r="L59" s="335"/>
       <c r="M59" s="62"/>
       <c r="N59" s="33" t="s">
         <v>133</v>
@@ -16483,14 +16600,14 @@
     <row r="60" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
-      <c r="E60" s="324"/>
-      <c r="F60" s="243"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="243"/>
-      <c r="I60" s="243"/>
-      <c r="J60" s="325"/>
-      <c r="K60" s="328"/>
-      <c r="L60" s="329"/>
+      <c r="E60" s="314"/>
+      <c r="F60" s="202"/>
+      <c r="G60" s="202"/>
+      <c r="H60" s="202"/>
+      <c r="I60" s="202"/>
+      <c r="J60" s="315"/>
+      <c r="K60" s="334"/>
+      <c r="L60" s="335"/>
       <c r="M60" s="62"/>
       <c r="N60" s="19"/>
       <c r="O60" s="33" t="s">
@@ -16519,14 +16636,14 @@
     <row r="61" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="324"/>
-      <c r="F61" s="243"/>
-      <c r="G61" s="243"/>
-      <c r="H61" s="243"/>
-      <c r="I61" s="243"/>
-      <c r="J61" s="325"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="329"/>
+      <c r="E61" s="314"/>
+      <c r="F61" s="202"/>
+      <c r="G61" s="202"/>
+      <c r="H61" s="202"/>
+      <c r="I61" s="202"/>
+      <c r="J61" s="315"/>
+      <c r="K61" s="334"/>
+      <c r="L61" s="335"/>
       <c r="M61" s="62"/>
       <c r="N61" s="19"/>
       <c r="O61" s="33" t="s">
@@ -16555,14 +16672,14 @@
     <row r="62" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
-      <c r="E62" s="319"/>
-      <c r="F62" s="323"/>
-      <c r="G62" s="323"/>
-      <c r="H62" s="323"/>
-      <c r="I62" s="323"/>
-      <c r="J62" s="320"/>
-      <c r="K62" s="330"/>
-      <c r="L62" s="331"/>
+      <c r="E62" s="316"/>
+      <c r="F62" s="317"/>
+      <c r="G62" s="317"/>
+      <c r="H62" s="317"/>
+      <c r="I62" s="317"/>
+      <c r="J62" s="318"/>
+      <c r="K62" s="336"/>
+      <c r="L62" s="337"/>
       <c r="M62" s="62"/>
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
@@ -16599,9 +16716,9 @@
       <c r="H63" s="298"/>
       <c r="I63" s="298"/>
       <c r="J63" s="299"/>
-      <c r="K63" s="311"/>
+      <c r="K63" s="340"/>
       <c r="L63" s="299"/>
-      <c r="M63" s="221" t="s">
+      <c r="M63" s="215" t="s">
         <v>139</v>
       </c>
       <c r="N63" s="306"/>
@@ -16663,74 +16780,74 @@
     <row r="65" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
-      <c r="E65" s="245" t="s">
+      <c r="E65" s="292" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="312"/>
-      <c r="G65" s="312"/>
-      <c r="H65" s="312"/>
-      <c r="I65" s="312"/>
-      <c r="J65" s="313"/>
-      <c r="K65" s="317"/>
-      <c r="L65" s="318"/>
-      <c r="M65" s="321" t="s">
+      <c r="F65" s="325"/>
+      <c r="G65" s="325"/>
+      <c r="H65" s="325"/>
+      <c r="I65" s="325"/>
+      <c r="J65" s="326"/>
+      <c r="K65" s="341"/>
+      <c r="L65" s="313"/>
+      <c r="M65" s="311" t="s">
         <v>141</v>
       </c>
-      <c r="N65" s="322"/>
-      <c r="O65" s="322"/>
-      <c r="P65" s="322"/>
-      <c r="Q65" s="322"/>
-      <c r="R65" s="322"/>
-      <c r="S65" s="322"/>
-      <c r="T65" s="322"/>
-      <c r="U65" s="322"/>
-      <c r="V65" s="322"/>
-      <c r="W65" s="322"/>
-      <c r="X65" s="322"/>
-      <c r="Y65" s="322"/>
-      <c r="Z65" s="322"/>
-      <c r="AA65" s="322"/>
-      <c r="AB65" s="322"/>
-      <c r="AC65" s="322"/>
-      <c r="AD65" s="322"/>
-      <c r="AE65" s="322"/>
-      <c r="AF65" s="322"/>
-      <c r="AG65" s="322"/>
-      <c r="AH65" s="318"/>
+      <c r="N65" s="312"/>
+      <c r="O65" s="312"/>
+      <c r="P65" s="312"/>
+      <c r="Q65" s="312"/>
+      <c r="R65" s="312"/>
+      <c r="S65" s="312"/>
+      <c r="T65" s="312"/>
+      <c r="U65" s="312"/>
+      <c r="V65" s="312"/>
+      <c r="W65" s="312"/>
+      <c r="X65" s="312"/>
+      <c r="Y65" s="312"/>
+      <c r="Z65" s="312"/>
+      <c r="AA65" s="312"/>
+      <c r="AB65" s="312"/>
+      <c r="AC65" s="312"/>
+      <c r="AD65" s="312"/>
+      <c r="AE65" s="312"/>
+      <c r="AF65" s="312"/>
+      <c r="AG65" s="312"/>
+      <c r="AH65" s="313"/>
     </row>
     <row r="66" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
-      <c r="E66" s="314"/>
-      <c r="F66" s="315"/>
-      <c r="G66" s="315"/>
-      <c r="H66" s="315"/>
-      <c r="I66" s="315"/>
-      <c r="J66" s="316"/>
-      <c r="K66" s="319"/>
-      <c r="L66" s="320"/>
-      <c r="M66" s="319"/>
-      <c r="N66" s="323"/>
-      <c r="O66" s="323"/>
-      <c r="P66" s="323"/>
-      <c r="Q66" s="323"/>
-      <c r="R66" s="323"/>
-      <c r="S66" s="323"/>
-      <c r="T66" s="323"/>
-      <c r="U66" s="323"/>
-      <c r="V66" s="323"/>
-      <c r="W66" s="323"/>
-      <c r="X66" s="323"/>
-      <c r="Y66" s="323"/>
-      <c r="Z66" s="323"/>
-      <c r="AA66" s="323"/>
-      <c r="AB66" s="323"/>
-      <c r="AC66" s="323"/>
-      <c r="AD66" s="323"/>
-      <c r="AE66" s="323"/>
-      <c r="AF66" s="323"/>
-      <c r="AG66" s="323"/>
-      <c r="AH66" s="320"/>
+      <c r="E66" s="327"/>
+      <c r="F66" s="328"/>
+      <c r="G66" s="328"/>
+      <c r="H66" s="328"/>
+      <c r="I66" s="328"/>
+      <c r="J66" s="329"/>
+      <c r="K66" s="316"/>
+      <c r="L66" s="318"/>
+      <c r="M66" s="316"/>
+      <c r="N66" s="317"/>
+      <c r="O66" s="317"/>
+      <c r="P66" s="317"/>
+      <c r="Q66" s="317"/>
+      <c r="R66" s="317"/>
+      <c r="S66" s="317"/>
+      <c r="T66" s="317"/>
+      <c r="U66" s="317"/>
+      <c r="V66" s="317"/>
+      <c r="W66" s="317"/>
+      <c r="X66" s="317"/>
+      <c r="Y66" s="317"/>
+      <c r="Z66" s="317"/>
+      <c r="AA66" s="317"/>
+      <c r="AB66" s="317"/>
+      <c r="AC66" s="317"/>
+      <c r="AD66" s="317"/>
+      <c r="AE66" s="317"/>
+      <c r="AF66" s="317"/>
+      <c r="AG66" s="317"/>
+      <c r="AH66" s="318"/>
     </row>
     <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="59"/>
@@ -16857,42 +16974,42 @@
     <row r="71" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
-      <c r="E71" s="285" t="s">
+      <c r="E71" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="286"/>
-      <c r="G71" s="286"/>
-      <c r="H71" s="286"/>
-      <c r="I71" s="286"/>
-      <c r="J71" s="287"/>
-      <c r="K71" s="285" t="s">
+      <c r="F71" s="255"/>
+      <c r="G71" s="255"/>
+      <c r="H71" s="255"/>
+      <c r="I71" s="255"/>
+      <c r="J71" s="256"/>
+      <c r="K71" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="L71" s="287"/>
-      <c r="M71" s="285" t="s">
+      <c r="L71" s="256"/>
+      <c r="M71" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="N71" s="286"/>
-      <c r="O71" s="286"/>
-      <c r="P71" s="286"/>
-      <c r="Q71" s="286"/>
-      <c r="R71" s="286"/>
-      <c r="S71" s="286"/>
-      <c r="T71" s="286"/>
-      <c r="U71" s="286"/>
-      <c r="V71" s="286"/>
-      <c r="W71" s="286"/>
-      <c r="X71" s="286"/>
-      <c r="Y71" s="286"/>
-      <c r="Z71" s="286"/>
-      <c r="AA71" s="286"/>
-      <c r="AB71" s="286"/>
-      <c r="AC71" s="286"/>
-      <c r="AD71" s="286"/>
-      <c r="AE71" s="286"/>
-      <c r="AF71" s="286"/>
-      <c r="AG71" s="286"/>
-      <c r="AH71" s="287"/>
+      <c r="N71" s="255"/>
+      <c r="O71" s="255"/>
+      <c r="P71" s="255"/>
+      <c r="Q71" s="255"/>
+      <c r="R71" s="255"/>
+      <c r="S71" s="255"/>
+      <c r="T71" s="255"/>
+      <c r="U71" s="255"/>
+      <c r="V71" s="255"/>
+      <c r="W71" s="255"/>
+      <c r="X71" s="255"/>
+      <c r="Y71" s="255"/>
+      <c r="Z71" s="255"/>
+      <c r="AA71" s="255"/>
+      <c r="AB71" s="255"/>
+      <c r="AC71" s="255"/>
+      <c r="AD71" s="255"/>
+      <c r="AE71" s="255"/>
+      <c r="AF71" s="255"/>
+      <c r="AG71" s="255"/>
+      <c r="AH71" s="256"/>
     </row>
     <row r="72" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="59"/>
@@ -16908,8 +17025,8 @@
       <c r="K72" s="303" t="s">
         <v>227</v>
       </c>
-      <c r="L72" s="129"/>
-      <c r="M72" s="221" t="s">
+      <c r="L72" s="188"/>
+      <c r="M72" s="215" t="s">
         <v>120</v>
       </c>
       <c r="N72" s="306"/>
@@ -17010,38 +17127,38 @@
       </c>
     </row>
     <row r="78" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="271" t="s">
+      <c r="E78" s="278" t="s">
         <v>202</v>
       </c>
-      <c r="F78" s="271"/>
-      <c r="G78" s="271"/>
-      <c r="H78" s="271"/>
-      <c r="I78" s="271"/>
-      <c r="J78" s="271"/>
-      <c r="K78" s="271"/>
-      <c r="L78" s="271"/>
-      <c r="M78" s="271"/>
-      <c r="N78" s="271"/>
-      <c r="O78" s="271"/>
-      <c r="P78" s="271"/>
-      <c r="Q78" s="271"/>
-      <c r="R78" s="271"/>
-      <c r="S78" s="271"/>
-      <c r="T78" s="271"/>
-      <c r="U78" s="271"/>
-      <c r="V78" s="271"/>
-      <c r="W78" s="271"/>
-      <c r="X78" s="271"/>
-      <c r="Y78" s="271"/>
-      <c r="Z78" s="271"/>
-      <c r="AA78" s="271"/>
-      <c r="AB78" s="271"/>
-      <c r="AC78" s="271"/>
-      <c r="AD78" s="271"/>
-      <c r="AE78" s="271"/>
-      <c r="AF78" s="271"/>
-      <c r="AG78" s="271"/>
-      <c r="AH78" s="271"/>
+      <c r="F78" s="278"/>
+      <c r="G78" s="278"/>
+      <c r="H78" s="278"/>
+      <c r="I78" s="278"/>
+      <c r="J78" s="278"/>
+      <c r="K78" s="278"/>
+      <c r="L78" s="278"/>
+      <c r="M78" s="278"/>
+      <c r="N78" s="278"/>
+      <c r="O78" s="278"/>
+      <c r="P78" s="278"/>
+      <c r="Q78" s="278"/>
+      <c r="R78" s="278"/>
+      <c r="S78" s="278"/>
+      <c r="T78" s="278"/>
+      <c r="U78" s="278"/>
+      <c r="V78" s="278"/>
+      <c r="W78" s="278"/>
+      <c r="X78" s="278"/>
+      <c r="Y78" s="278"/>
+      <c r="Z78" s="278"/>
+      <c r="AA78" s="278"/>
+      <c r="AB78" s="278"/>
+      <c r="AC78" s="278"/>
+      <c r="AD78" s="278"/>
+      <c r="AE78" s="278"/>
+      <c r="AF78" s="278"/>
+      <c r="AG78" s="278"/>
+      <c r="AH78" s="278"/>
     </row>
     <row r="79" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="90" t="s">
@@ -17462,6 +17579,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:AH73"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:AH71"/>
+    <mergeCell ref="E48:J62"/>
+    <mergeCell ref="K48:L62"/>
+    <mergeCell ref="M49:AH49"/>
+    <mergeCell ref="N53:AH53"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="M43:AH44"/>
+    <mergeCell ref="E45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="M45:AH47"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:AH42"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
     <mergeCell ref="E78:AH78"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -17478,57 +17646,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:AH42"/>
-    <mergeCell ref="E43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="M43:AH44"/>
-    <mergeCell ref="E45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="M45:AH47"/>
-    <mergeCell ref="E48:J62"/>
-    <mergeCell ref="K48:L62"/>
-    <mergeCell ref="M49:AH49"/>
-    <mergeCell ref="N53:AH53"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:AH71"/>
-    <mergeCell ref="E72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:AH73"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225EB323-E238-41D7-AAF7-846AB0F054AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7635C4F-DF26-4762-B84F-D386F2B4C968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10305" windowWidth="38400" windowHeight="10575" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="3585" windowWidth="25395" windowHeight="10080" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" state="hidden" r:id="rId1"/>
@@ -70,7 +70,17 @@
     <definedName name="文字種精査">#REF!</definedName>
     <definedName name="文字列長精査">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1596,10 +1606,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Evidence for a class request unit test is not required.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Screenshots of the tested screens. Save these to digital media.
 Add comments as appropriate to show what you are checking.
 Get a hard copy at the display size defined in the UI standard.</t>
@@ -1798,6 +1804,10 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Evidence for a request unit test is not required.</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -3797,13 +3807,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3821,8 +3831,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8010525" y="857251"/>
-          <a:ext cx="0" cy="1428749"/>
+          <a:off x="7458075" y="857251"/>
+          <a:ext cx="0" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3916,12 +3926,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1107996" cy="392415"/>
+    <xdr:ext cx="1800493" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
@@ -3935,8 +3945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="857250"/>
-          <a:ext cx="1107996" cy="392415"/>
+          <a:off x="7553325" y="990601"/>
+          <a:ext cx="1800493" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3968,16 +3978,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>range after </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            </a:rPr>
-            <a:t>integration test</a:t>
+            <a:t>range after integration test</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -3990,14 +3991,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -4014,8 +4015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3617301" y="1465385"/>
-          <a:ext cx="1392115" cy="732693"/>
+          <a:off x="3590925" y="1476376"/>
+          <a:ext cx="1657350" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4041,7 +4042,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4067,17 +4068,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>Checking</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            </a:rPr>
-            <a:t>individual logic</a:t>
+            <a:t>Checking individual logic</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -4090,13 +4081,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -4114,8 +4105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6403731" y="1465386"/>
-          <a:ext cx="1392115" cy="732692"/>
+          <a:off x="5248275" y="1476376"/>
+          <a:ext cx="1657350" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4141,7 +4132,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4193,15 +4184,12 @@
             </a:rPr>
             <a:t>Subfunction</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>unit testing</a:t>
+            <a:t> unit testing</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -4214,8 +4202,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>100005</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>14802</xdr:rowOff>
     </xdr:from>
@@ -4233,7 +4221,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8110530" y="1443552"/>
+          <a:off x="7734300" y="1443552"/>
           <a:ext cx="1281120" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4313,9 +4301,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>128234</xdr:colOff>
+      <xdr:colOff>55042</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>17893</xdr:rowOff>
+      <xdr:rowOff>55261</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2377574" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -4331,7 +4319,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="963503" y="897124"/>
+          <a:off x="883717" y="912511"/>
           <a:ext cx="2377574" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4621,111 +4609,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2A7168-113C-4DD0-AD27-BB94A5C75828}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5011615" y="1465385"/>
-          <a:ext cx="1392116" cy="732692"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request unit tests</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            </a:rPr>
-            <a:t>Class combinations</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            </a:rPr>
-            <a:t>unit testing</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7324,7 +7207,7 @@
   <dimension ref="A1:AW109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11427,7 +11310,7 @@
   </sheetPr>
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -12055,13 +11938,13 @@
       <c r="M38" s="210"/>
       <c r="N38" s="211"/>
       <c r="O38" s="209" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P38" s="132"/>
       <c r="Q38" s="132"/>
       <c r="R38" s="133"/>
       <c r="S38" s="209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T38" s="132"/>
       <c r="U38" s="132"/>
@@ -12496,7 +12379,7 @@
   <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -13717,7 +13600,7 @@
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
@@ -13960,7 +13843,7 @@
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H58" s="91"/>
       <c r="I58" s="91"/>
@@ -14607,7 +14490,7 @@
   <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15063,7 +14946,7 @@
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
       <c r="E16" s="36" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
@@ -15187,7 +15070,7 @@
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
@@ -15297,7 +15180,7 @@
       <c r="I23" s="298"/>
       <c r="J23" s="299"/>
       <c r="K23" s="303" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L23" s="188"/>
       <c r="M23" s="215" t="s">
@@ -15371,11 +15254,11 @@
       <c r="I25" s="312"/>
       <c r="J25" s="313"/>
       <c r="K25" s="319" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L25" s="320"/>
       <c r="M25" s="292" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N25" s="325"/>
       <c r="O25" s="325"/>
@@ -15473,7 +15356,7 @@
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
       <c r="E28" s="330" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="298"/>
       <c r="G28" s="298"/>
@@ -15481,11 +15364,11 @@
       <c r="I28" s="298"/>
       <c r="J28" s="299"/>
       <c r="K28" s="187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L28" s="188"/>
       <c r="M28" s="331" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N28" s="306"/>
       <c r="O28" s="306"/>
@@ -15547,7 +15430,7 @@
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="330" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30" s="298"/>
       <c r="G30" s="298"/>
@@ -15555,11 +15438,11 @@
       <c r="I30" s="298"/>
       <c r="J30" s="299"/>
       <c r="K30" s="187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L30" s="188"/>
       <c r="M30" s="331" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N30" s="306"/>
       <c r="O30" s="306"/>
@@ -15651,7 +15534,7 @@
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F33" s="59"/>
       <c r="G33" s="59"/>
@@ -15761,7 +15644,7 @@
       <c r="I36" s="298"/>
       <c r="J36" s="299"/>
       <c r="K36" s="303" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L36" s="188"/>
       <c r="M36" s="215" t="s">
@@ -15835,11 +15718,11 @@
       <c r="I38" s="312"/>
       <c r="J38" s="313"/>
       <c r="K38" s="319" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L38" s="320"/>
       <c r="M38" s="292" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N38" s="325"/>
       <c r="O38" s="325"/>
@@ -15935,7 +15818,7 @@
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
       <c r="E41" s="330" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F41" s="298"/>
       <c r="G41" s="298"/>
@@ -15943,11 +15826,11 @@
       <c r="I41" s="298"/>
       <c r="J41" s="299"/>
       <c r="K41" s="187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L41" s="188"/>
       <c r="M41" s="331" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N41" s="306"/>
       <c r="O41" s="306"/>
@@ -16009,7 +15892,7 @@
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
       <c r="E43" s="330" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F43" s="298"/>
       <c r="G43" s="298"/>
@@ -16017,11 +15900,11 @@
       <c r="I43" s="298"/>
       <c r="J43" s="299"/>
       <c r="K43" s="187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L43" s="188"/>
       <c r="M43" s="331" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N43" s="306"/>
       <c r="O43" s="306"/>
@@ -16091,7 +15974,7 @@
       <c r="I45" s="312"/>
       <c r="J45" s="313"/>
       <c r="K45" s="332" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L45" s="333"/>
       <c r="M45" s="292" t="s">
@@ -16199,7 +16082,7 @@
       <c r="I48" s="312"/>
       <c r="J48" s="313"/>
       <c r="K48" s="332" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L48" s="333"/>
       <c r="M48" s="89" t="s">
@@ -16361,7 +16244,7 @@
       <c r="L53" s="335"/>
       <c r="M53" s="62"/>
       <c r="N53" s="277" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O53" s="277"/>
       <c r="P53" s="277"/>
@@ -16397,7 +16280,7 @@
       <c r="L54" s="335"/>
       <c r="M54" s="62"/>
       <c r="N54" s="113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O54" s="93"/>
       <c r="P54" s="93"/>
@@ -16913,7 +16796,7 @@
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
       <c r="E69" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F69" s="59"/>
       <c r="G69" s="59"/>
@@ -17023,7 +16906,7 @@
       <c r="I72" s="298"/>
       <c r="J72" s="299"/>
       <c r="K72" s="303" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L72" s="188"/>
       <c r="M72" s="215" t="s">
@@ -17128,7 +17011,7 @@
     </row>
     <row r="78" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="278" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" s="278"/>
       <c r="G78" s="278"/>
@@ -17162,7 +17045,7 @@
     </row>
     <row r="79" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F79" s="94"/>
       <c r="G79" s="94"/>
@@ -17204,7 +17087,7 @@
     </row>
     <row r="82" spans="5:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="E82" s="114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F82" s="64"/>
       <c r="G82" s="64"/>
@@ -17239,7 +17122,7 @@
     <row r="83" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="65"/>
       <c r="F83" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G83" s="59"/>
       <c r="H83" s="59"/>
@@ -17271,7 +17154,7 @@
       <c r="E84" s="118"/>
       <c r="F84" s="20"/>
       <c r="G84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
@@ -17287,7 +17170,7 @@
         <v>13</v>
       </c>
       <c r="S84" s="111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T84" s="20"/>
       <c r="U84" s="20"/>
@@ -17308,13 +17191,13 @@
       <c r="G85" s="59"/>
       <c r="H85" s="59"/>
       <c r="I85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J85" s="59"/>
       <c r="K85" s="59"/>
       <c r="L85" s="20"/>
       <c r="M85" s="111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N85" s="20"/>
       <c r="O85" s="20"/>
@@ -17341,13 +17224,13 @@
       <c r="G86" s="59"/>
       <c r="H86" s="59"/>
       <c r="I86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J86" s="59"/>
       <c r="K86" s="59"/>
       <c r="L86" s="20"/>
       <c r="M86" s="111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N86" s="20"/>
       <c r="O86" s="20"/>
@@ -17355,7 +17238,7 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="20"/>
       <c r="S86" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T86" s="20"/>
       <c r="U86" s="20"/>
@@ -17376,13 +17259,13 @@
       <c r="G87" s="59"/>
       <c r="H87" s="59"/>
       <c r="I87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J87" s="59"/>
       <c r="K87" s="59"/>
       <c r="L87" s="20"/>
       <c r="M87" s="111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N87" s="20"/>
       <c r="O87" s="20"/>
@@ -17390,7 +17273,7 @@
       <c r="Q87" s="20"/>
       <c r="R87" s="20"/>
       <c r="S87" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T87" s="20"/>
       <c r="U87" s="20"/>
@@ -17411,13 +17294,13 @@
       <c r="G88" s="59"/>
       <c r="H88" s="59"/>
       <c r="I88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J88" s="59"/>
       <c r="K88" s="59"/>
       <c r="L88" s="20"/>
       <c r="M88" s="111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N88" s="20"/>
       <c r="O88" s="20"/>
@@ -17443,13 +17326,13 @@
       <c r="G89" s="59"/>
       <c r="H89" s="59"/>
       <c r="I89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J89" s="59"/>
       <c r="K89" s="59"/>
       <c r="L89" s="20"/>
       <c r="M89" s="111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N89" s="20"/>
       <c r="O89" s="20"/>
@@ -17457,7 +17340,7 @@
       <c r="Q89" s="20"/>
       <c r="R89" s="20"/>
       <c r="S89" s="111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T89" s="20"/>
       <c r="U89" s="20"/>
@@ -17478,13 +17361,13 @@
       <c r="G90" s="59"/>
       <c r="H90" s="59"/>
       <c r="I90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J90" s="59"/>
       <c r="K90" s="59"/>
       <c r="L90" s="20"/>
       <c r="M90" s="111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N90" s="20"/>
       <c r="O90" s="20"/>
@@ -17492,7 +17375,7 @@
       <c r="Q90" s="20"/>
       <c r="R90" s="20"/>
       <c r="S90" s="111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T90" s="20"/>
       <c r="U90" s="20"/>
@@ -17513,13 +17396,13 @@
       <c r="G91" s="59"/>
       <c r="H91" s="59"/>
       <c r="I91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J91" s="59"/>
       <c r="K91" s="59"/>
       <c r="L91" s="20"/>
       <c r="M91" s="111" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N91" s="20"/>
       <c r="O91" s="20"/>
@@ -17527,7 +17410,7 @@
       <c r="Q91" s="20"/>
       <c r="R91" s="20"/>
       <c r="S91" s="111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T91" s="20"/>
       <c r="U91" s="20"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4020470-7058-48ED-86EF-331A514931E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E81504-6F93-4FA3-BA26-74718C51FD69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="3690" windowWidth="28800" windowHeight="15555" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -2115,6 +2115,21 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2133,24 +2148,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2214,15 +2274,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2265,57 +2316,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2352,128 +2352,239 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2487,15 +2598,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2505,18 +2607,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2526,93 +2616,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2637,23 +2640,62 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2672,48 +2714,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3161,14 +3161,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3185,8 +3185,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7458075" y="857251"/>
-          <a:ext cx="0" cy="1285875"/>
+          <a:off x="8020050" y="1371601"/>
+          <a:ext cx="0" cy="1523999"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3280,12 +3280,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>273129</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>7635</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1800493" cy="242374"/>
+    <xdr:ext cx="1107996" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
@@ -3299,8 +3299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="990601"/>
-          <a:ext cx="1800493" cy="242374"/>
+          <a:off x="8007429" y="1379235"/>
+          <a:ext cx="1107996" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3332,7 +3332,16 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>range after integration test</a:t>
+            <a:t>range after</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>integration test</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -3348,13 +3357,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3369,8 +3378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3590925" y="1476376"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="3590925" y="1981200"/>
+          <a:ext cx="1381125" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3435,16 +3444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3459,8 +3468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5248275" y="1476376"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="6353175" y="1981200"/>
+          <a:ext cx="1381125" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3556,10 +3565,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14802</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281120" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -3575,7 +3584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="1443552"/>
+          <a:off x="8010525" y="1828800"/>
           <a:ext cx="1281120" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3730,10 +3739,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2253759" cy="714374"/>
+    <xdr:ext cx="2253759" cy="990598"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -3747,8 +3756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="1428752"/>
-          <a:ext cx="2253759" cy="714374"/>
+          <a:off x="952500" y="1828800"/>
+          <a:ext cx="2253759" cy="990598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3802,7 +3811,7 @@
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Quality assurance by CheckStyle and SpotBugs</a:t>
+            <a:t>Quality assurance by CheckStyle and</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3833,7 +3842,47 @@
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Quality assurance through self-checking</a:t>
+            <a:t>SpotBugs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Quality assurance through</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3864,7 +3913,62 @@
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Source Code Review</a:t>
+            <a:t>self-checking</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Code Review</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3963,6 +4067,96 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4D0580-806E-4CD6-BEFC-A6DCDA145258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4972050" y="1981200"/>
+          <a:ext cx="1381125" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Request unit tests</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Testing with classes in a combined</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5050,153 +5244,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="135" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="126" t="s">
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="114" t="s">
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
       <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="135" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="114" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="122" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
       <c r="AN2" s="18"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153"/>
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5240,1041 +5434,1176 @@
       <c r="A7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="166" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="166" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="166" t="s">
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="166" t="s">
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="168"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="106"/>
     </row>
     <row r="8" spans="1:40" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140">
+      <c r="C8" s="156"/>
+      <c r="D8" s="157">
         <v>43336</v>
       </c>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143" t="s">
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146" t="s">
+      <c r="H8" s="161"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="149" t="s">
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="R8" s="150"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="150"/>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="150"/>
-      <c r="AB8" s="150"/>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="161" t="s">
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="168"/>
+      <c r="AF8" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="AG8" s="162"/>
-      <c r="AH8" s="162"/>
-      <c r="AI8" s="163"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="133"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="104"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="109"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="104"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="109"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="104"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="109"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="104"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="109"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="104"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="112"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="109"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="104"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="109"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="104"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="112"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="109"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="104"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="109"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="104"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="109"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="102"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="104"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="102"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="104"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="109"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="102"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="104"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="112"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="109"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="102"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="109"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="102"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="104"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="112"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="109"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="102"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="104"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="109"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="104"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="109"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="102"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="104"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="112"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="109"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="102"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="104"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="109"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="102"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="104"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="109"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="102"/>
-      <c r="AG28" s="103"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="104"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="109"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="102"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="104"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="111"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="109"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="102"/>
-      <c r="AG30" s="103"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="104"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="112"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="109"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="106"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="102"/>
-      <c r="AG31" s="103"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="104"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="109"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="106"/>
-      <c r="AD32" s="106"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="102"/>
-      <c r="AG32" s="103"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="104"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="109"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="102"/>
-      <c r="AG33" s="103"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="104"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -6299,151 +6628,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -6474,31 +6668,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="135" t="str">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
       <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -6510,52 +6704,52 @@
       <c r="X1" s="170"/>
       <c r="Y1" s="170"/>
       <c r="Z1" s="171"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="135" t="str">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
       <c r="S2" s="172"/>
       <c r="T2" s="173"/>
       <c r="U2" s="173"/>
@@ -6564,52 +6758,52 @@
       <c r="X2" s="173"/>
       <c r="Y2" s="173"/>
       <c r="Z2" s="174"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="135" t="str">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
       <c r="S3" s="175"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
@@ -6618,21 +6812,21 @@
       <c r="X3" s="176"/>
       <c r="Y3" s="176"/>
       <c r="Z3" s="177"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="152" t="str">
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="155" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
@@ -7606,14 +7800,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -7623,6 +7809,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7652,31 +7846,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="135" t="str">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
       <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -7688,48 +7882,48 @@
       <c r="X1" s="170"/>
       <c r="Y1" s="170"/>
       <c r="Z1" s="171"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="135" t="str">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
       <c r="S2" s="172"/>
       <c r="T2" s="173"/>
       <c r="U2" s="173"/>
@@ -7738,48 +7932,48 @@
       <c r="X2" s="173"/>
       <c r="Y2" s="173"/>
       <c r="Z2" s="174"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="135" t="str">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
       <c r="S3" s="175"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
@@ -7788,21 +7982,21 @@
       <c r="X3" s="176"/>
       <c r="Y3" s="176"/>
       <c r="Z3" s="177"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="152" t="str">
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="155" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -7844,14 +8038,6 @@
     <row r="17" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7861,6 +8047,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7892,31 +8086,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="135" t="str">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
       <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -7928,48 +8122,48 @@
       <c r="X1" s="170"/>
       <c r="Y1" s="170"/>
       <c r="Z1" s="171"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="135" t="str">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
       <c r="S2" s="172"/>
       <c r="T2" s="173"/>
       <c r="U2" s="173"/>
@@ -7978,48 +8172,48 @@
       <c r="X2" s="173"/>
       <c r="Y2" s="173"/>
       <c r="Z2" s="174"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="135" t="str">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
       <c r="S3" s="175"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
@@ -8028,21 +8222,21 @@
       <c r="X3" s="176"/>
       <c r="Y3" s="176"/>
       <c r="Z3" s="177"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="152" t="str">
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="155" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -8123,350 +8317,350 @@
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D23" s="183" t="s">
+      <c r="D23" s="197" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="183" t="s">
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="197" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="184"/>
-      <c r="S23" s="184"/>
-      <c r="T23" s="184"/>
-      <c r="U23" s="184"/>
-      <c r="V23" s="184"/>
-      <c r="W23" s="184"/>
-      <c r="X23" s="184"/>
-      <c r="Y23" s="184"/>
-      <c r="Z23" s="184"/>
-      <c r="AA23" s="184"/>
-      <c r="AB23" s="184"/>
-      <c r="AC23" s="184"/>
-      <c r="AD23" s="184"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="184"/>
-      <c r="AG23" s="184"/>
-      <c r="AH23" s="185"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="198"/>
+      <c r="O23" s="198"/>
+      <c r="P23" s="198"/>
+      <c r="Q23" s="198"/>
+      <c r="R23" s="198"/>
+      <c r="S23" s="198"/>
+      <c r="T23" s="198"/>
+      <c r="U23" s="198"/>
+      <c r="V23" s="198"/>
+      <c r="W23" s="198"/>
+      <c r="X23" s="198"/>
+      <c r="Y23" s="198"/>
+      <c r="Z23" s="198"/>
+      <c r="AA23" s="198"/>
+      <c r="AB23" s="198"/>
+      <c r="AC23" s="198"/>
+      <c r="AD23" s="198"/>
+      <c r="AE23" s="198"/>
+      <c r="AF23" s="198"/>
+      <c r="AG23" s="198"/>
+      <c r="AH23" s="199"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D24" s="210" t="s">
+      <c r="D24" s="181" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="192" t="s">
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="193"/>
-      <c r="L24" s="193"/>
-      <c r="M24" s="193"/>
-      <c r="N24" s="193"/>
-      <c r="O24" s="193"/>
-      <c r="P24" s="193"/>
-      <c r="Q24" s="193"/>
-      <c r="R24" s="193"/>
-      <c r="S24" s="193"/>
-      <c r="T24" s="193"/>
-      <c r="U24" s="193"/>
-      <c r="V24" s="193"/>
-      <c r="W24" s="193"/>
-      <c r="X24" s="193"/>
-      <c r="Y24" s="193"/>
-      <c r="Z24" s="193"/>
-      <c r="AA24" s="193"/>
-      <c r="AB24" s="193"/>
-      <c r="AC24" s="193"/>
-      <c r="AD24" s="193"/>
-      <c r="AE24" s="193"/>
-      <c r="AF24" s="193"/>
-      <c r="AG24" s="193"/>
-      <c r="AH24" s="194"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="201"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+      <c r="T24" s="201"/>
+      <c r="U24" s="201"/>
+      <c r="V24" s="201"/>
+      <c r="W24" s="201"/>
+      <c r="X24" s="201"/>
+      <c r="Y24" s="201"/>
+      <c r="Z24" s="201"/>
+      <c r="AA24" s="201"/>
+      <c r="AB24" s="201"/>
+      <c r="AC24" s="201"/>
+      <c r="AD24" s="201"/>
+      <c r="AE24" s="201"/>
+      <c r="AF24" s="201"/>
+      <c r="AG24" s="201"/>
+      <c r="AH24" s="202"/>
     </row>
     <row r="25" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D25" s="213"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
-      <c r="S25" s="196"/>
-      <c r="T25" s="196"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="196"/>
-      <c r="X25" s="196"/>
-      <c r="Y25" s="196"/>
-      <c r="Z25" s="196"/>
-      <c r="AA25" s="196"/>
-      <c r="AB25" s="196"/>
-      <c r="AC25" s="196"/>
-      <c r="AD25" s="196"/>
-      <c r="AE25" s="196"/>
-      <c r="AF25" s="196"/>
-      <c r="AG25" s="196"/>
-      <c r="AH25" s="197"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="204"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="204"/>
+      <c r="S25" s="204"/>
+      <c r="T25" s="204"/>
+      <c r="U25" s="204"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="204"/>
+      <c r="X25" s="204"/>
+      <c r="Y25" s="204"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="204"/>
+      <c r="AC25" s="204"/>
+      <c r="AD25" s="204"/>
+      <c r="AE25" s="204"/>
+      <c r="AF25" s="204"/>
+      <c r="AG25" s="204"/>
+      <c r="AH25" s="205"/>
     </row>
     <row r="26" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D26" s="216"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
-      <c r="T26" s="199"/>
-      <c r="U26" s="199"/>
-      <c r="V26" s="199"/>
-      <c r="W26" s="199"/>
-      <c r="X26" s="199"/>
-      <c r="Y26" s="199"/>
-      <c r="Z26" s="199"/>
-      <c r="AA26" s="199"/>
-      <c r="AB26" s="199"/>
-      <c r="AC26" s="199"/>
-      <c r="AD26" s="199"/>
-      <c r="AE26" s="199"/>
-      <c r="AF26" s="199"/>
-      <c r="AG26" s="199"/>
-      <c r="AH26" s="200"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="207"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="207"/>
+      <c r="S26" s="207"/>
+      <c r="T26" s="207"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="207"/>
+      <c r="W26" s="207"/>
+      <c r="X26" s="207"/>
+      <c r="Y26" s="207"/>
+      <c r="Z26" s="207"/>
+      <c r="AA26" s="207"/>
+      <c r="AB26" s="207"/>
+      <c r="AC26" s="207"/>
+      <c r="AD26" s="207"/>
+      <c r="AE26" s="207"/>
+      <c r="AF26" s="207"/>
+      <c r="AG26" s="207"/>
+      <c r="AH26" s="208"/>
     </row>
     <row r="27" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D27" s="210" t="s">
+      <c r="D27" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="201" t="s">
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="202"/>
-      <c r="O27" s="202"/>
-      <c r="P27" s="202"/>
-      <c r="Q27" s="202"/>
-      <c r="R27" s="202"/>
-      <c r="S27" s="202"/>
-      <c r="T27" s="202"/>
-      <c r="U27" s="202"/>
-      <c r="V27" s="202"/>
-      <c r="W27" s="202"/>
-      <c r="X27" s="202"/>
-      <c r="Y27" s="202"/>
-      <c r="Z27" s="202"/>
-      <c r="AA27" s="202"/>
-      <c r="AB27" s="202"/>
-      <c r="AC27" s="202"/>
-      <c r="AD27" s="202"/>
-      <c r="AE27" s="202"/>
-      <c r="AF27" s="202"/>
-      <c r="AG27" s="202"/>
-      <c r="AH27" s="203"/>
+      <c r="K27" s="210"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="210"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="210"/>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="210"/>
+      <c r="AH27" s="211"/>
     </row>
     <row r="28" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D28" s="213"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="205"/>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="205"/>
-      <c r="Y28" s="205"/>
-      <c r="Z28" s="205"/>
-      <c r="AA28" s="205"/>
-      <c r="AB28" s="205"/>
-      <c r="AC28" s="205"/>
-      <c r="AD28" s="205"/>
-      <c r="AE28" s="205"/>
-      <c r="AF28" s="205"/>
-      <c r="AG28" s="205"/>
-      <c r="AH28" s="206"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="212"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="213"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="213"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="213"/>
+      <c r="S28" s="213"/>
+      <c r="T28" s="213"/>
+      <c r="U28" s="213"/>
+      <c r="V28" s="213"/>
+      <c r="W28" s="213"/>
+      <c r="X28" s="213"/>
+      <c r="Y28" s="213"/>
+      <c r="Z28" s="213"/>
+      <c r="AA28" s="213"/>
+      <c r="AB28" s="213"/>
+      <c r="AC28" s="213"/>
+      <c r="AD28" s="213"/>
+      <c r="AE28" s="213"/>
+      <c r="AF28" s="213"/>
+      <c r="AG28" s="213"/>
+      <c r="AH28" s="214"/>
     </row>
     <row r="29" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="216"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="207"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="208"/>
-      <c r="M29" s="208"/>
-      <c r="N29" s="208"/>
-      <c r="O29" s="208"/>
-      <c r="P29" s="208"/>
-      <c r="Q29" s="208"/>
-      <c r="R29" s="208"/>
-      <c r="S29" s="208"/>
-      <c r="T29" s="208"/>
-      <c r="U29" s="208"/>
-      <c r="V29" s="208"/>
-      <c r="W29" s="208"/>
-      <c r="X29" s="208"/>
-      <c r="Y29" s="208"/>
-      <c r="Z29" s="208"/>
-      <c r="AA29" s="208"/>
-      <c r="AB29" s="208"/>
-      <c r="AC29" s="208"/>
-      <c r="AD29" s="208"/>
-      <c r="AE29" s="208"/>
-      <c r="AF29" s="208"/>
-      <c r="AG29" s="208"/>
-      <c r="AH29" s="209"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="216"/>
+      <c r="M29" s="216"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="216"/>
+      <c r="Q29" s="216"/>
+      <c r="R29" s="216"/>
+      <c r="S29" s="216"/>
+      <c r="T29" s="216"/>
+      <c r="U29" s="216"/>
+      <c r="V29" s="216"/>
+      <c r="W29" s="216"/>
+      <c r="X29" s="216"/>
+      <c r="Y29" s="216"/>
+      <c r="Z29" s="216"/>
+      <c r="AA29" s="216"/>
+      <c r="AB29" s="216"/>
+      <c r="AC29" s="216"/>
+      <c r="AD29" s="216"/>
+      <c r="AE29" s="216"/>
+      <c r="AF29" s="216"/>
+      <c r="AG29" s="216"/>
+      <c r="AH29" s="217"/>
     </row>
     <row r="30" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D30" s="210" t="s">
+      <c r="D30" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="201" t="s">
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
-      <c r="P30" s="202"/>
-      <c r="Q30" s="202"/>
-      <c r="R30" s="202"/>
-      <c r="S30" s="202"/>
-      <c r="T30" s="202"/>
-      <c r="U30" s="202"/>
-      <c r="V30" s="202"/>
-      <c r="W30" s="202"/>
-      <c r="X30" s="202"/>
-      <c r="Y30" s="202"/>
-      <c r="Z30" s="202"/>
-      <c r="AA30" s="202"/>
-      <c r="AB30" s="202"/>
-      <c r="AC30" s="202"/>
-      <c r="AD30" s="202"/>
-      <c r="AE30" s="202"/>
-      <c r="AF30" s="202"/>
-      <c r="AG30" s="202"/>
-      <c r="AH30" s="203"/>
+      <c r="K30" s="210"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="210"/>
+      <c r="N30" s="210"/>
+      <c r="O30" s="210"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="210"/>
+      <c r="R30" s="210"/>
+      <c r="S30" s="210"/>
+      <c r="T30" s="210"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="210"/>
+      <c r="AD30" s="210"/>
+      <c r="AE30" s="210"/>
+      <c r="AF30" s="210"/>
+      <c r="AG30" s="210"/>
+      <c r="AH30" s="211"/>
     </row>
     <row r="31" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D31" s="213"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="205"/>
-      <c r="O31" s="205"/>
-      <c r="P31" s="205"/>
-      <c r="Q31" s="205"/>
-      <c r="R31" s="205"/>
-      <c r="S31" s="205"/>
-      <c r="T31" s="205"/>
-      <c r="U31" s="205"/>
-      <c r="V31" s="205"/>
-      <c r="W31" s="205"/>
-      <c r="X31" s="205"/>
-      <c r="Y31" s="205"/>
-      <c r="Z31" s="205"/>
-      <c r="AA31" s="205"/>
-      <c r="AB31" s="205"/>
-      <c r="AC31" s="205"/>
-      <c r="AD31" s="205"/>
-      <c r="AE31" s="205"/>
-      <c r="AF31" s="205"/>
-      <c r="AG31" s="205"/>
-      <c r="AH31" s="206"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="213"/>
+      <c r="L31" s="213"/>
+      <c r="M31" s="213"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="213"/>
+      <c r="S31" s="213"/>
+      <c r="T31" s="213"/>
+      <c r="U31" s="213"/>
+      <c r="V31" s="213"/>
+      <c r="W31" s="213"/>
+      <c r="X31" s="213"/>
+      <c r="Y31" s="213"/>
+      <c r="Z31" s="213"/>
+      <c r="AA31" s="213"/>
+      <c r="AB31" s="213"/>
+      <c r="AC31" s="213"/>
+      <c r="AD31" s="213"/>
+      <c r="AE31" s="213"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="213"/>
+      <c r="AH31" s="214"/>
     </row>
     <row r="32" spans="3:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="216"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
-      <c r="M32" s="208"/>
-      <c r="N32" s="208"/>
-      <c r="O32" s="208"/>
-      <c r="P32" s="208"/>
-      <c r="Q32" s="208"/>
-      <c r="R32" s="208"/>
-      <c r="S32" s="208"/>
-      <c r="T32" s="208"/>
-      <c r="U32" s="208"/>
-      <c r="V32" s="208"/>
-      <c r="W32" s="208"/>
-      <c r="X32" s="208"/>
-      <c r="Y32" s="208"/>
-      <c r="Z32" s="208"/>
-      <c r="AA32" s="208"/>
-      <c r="AB32" s="208"/>
-      <c r="AC32" s="208"/>
-      <c r="AD32" s="208"/>
-      <c r="AE32" s="208"/>
-      <c r="AF32" s="208"/>
-      <c r="AG32" s="208"/>
-      <c r="AH32" s="209"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="216"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="216"/>
+      <c r="P32" s="216"/>
+      <c r="Q32" s="216"/>
+      <c r="R32" s="216"/>
+      <c r="S32" s="216"/>
+      <c r="T32" s="216"/>
+      <c r="U32" s="216"/>
+      <c r="V32" s="216"/>
+      <c r="W32" s="216"/>
+      <c r="X32" s="216"/>
+      <c r="Y32" s="216"/>
+      <c r="Z32" s="216"/>
+      <c r="AA32" s="216"/>
+      <c r="AB32" s="216"/>
+      <c r="AC32" s="216"/>
+      <c r="AD32" s="216"/>
+      <c r="AE32" s="216"/>
+      <c r="AF32" s="216"/>
+      <c r="AG32" s="216"/>
+      <c r="AH32" s="217"/>
     </row>
     <row r="33" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="D33" s="43" t="s">
@@ -8489,58 +8683,58 @@
     </row>
     <row r="37" spans="3:34" ht="12" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:34" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="189" t="s">
+      <c r="C38" s="194" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="186" t="s">
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="190" t="s">
         <v>160</v>
       </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="186" t="s">
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="187"/>
-      <c r="M38" s="187"/>
-      <c r="N38" s="188"/>
-      <c r="O38" s="186" t="s">
+      <c r="L38" s="218"/>
+      <c r="M38" s="218"/>
+      <c r="N38" s="219"/>
+      <c r="O38" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="186" t="s">
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="T38" s="106"/>
-      <c r="U38" s="106"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="186" t="s">
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="112"/>
+      <c r="W38" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="X38" s="106"/>
-      <c r="Y38" s="106"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="182"/>
-      <c r="AB38" s="182"/>
-      <c r="AC38" s="182"/>
-      <c r="AD38" s="182"/>
-      <c r="AE38" s="182"/>
-      <c r="AF38" s="182"/>
-      <c r="AG38" s="182"/>
-      <c r="AH38" s="182"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="112"/>
+      <c r="AA38" s="220"/>
+      <c r="AB38" s="220"/>
+      <c r="AC38" s="220"/>
+      <c r="AD38" s="220"/>
+      <c r="AE38" s="220"/>
+      <c r="AF38" s="220"/>
+      <c r="AG38" s="220"/>
+      <c r="AH38" s="220"/>
     </row>
     <row r="39" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="C39" s="219" t="s">
+      <c r="C39" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="221"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="193"/>
       <c r="G39" s="178" t="s">
         <v>47</v>
       </c>
@@ -8571,14 +8765,14 @@
       <c r="X39" s="179"/>
       <c r="Y39" s="179"/>
       <c r="Z39" s="180"/>
-      <c r="AA39" s="181"/>
-      <c r="AB39" s="181"/>
-      <c r="AC39" s="181"/>
-      <c r="AD39" s="181"/>
-      <c r="AE39" s="181"/>
-      <c r="AF39" s="181"/>
-      <c r="AG39" s="181"/>
-      <c r="AH39" s="181"/>
+      <c r="AA39" s="221"/>
+      <c r="AB39" s="221"/>
+      <c r="AC39" s="221"/>
+      <c r="AD39" s="221"/>
+      <c r="AE39" s="221"/>
+      <c r="AF39" s="221"/>
+      <c r="AG39" s="221"/>
+      <c r="AH39" s="221"/>
     </row>
     <row r="40" spans="3:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="178" t="s">
@@ -8617,14 +8811,14 @@
       <c r="X40" s="179"/>
       <c r="Y40" s="179"/>
       <c r="Z40" s="180"/>
-      <c r="AA40" s="181"/>
-      <c r="AB40" s="181"/>
-      <c r="AC40" s="181"/>
-      <c r="AD40" s="181"/>
-      <c r="AE40" s="181"/>
-      <c r="AF40" s="181"/>
-      <c r="AG40" s="181"/>
-      <c r="AH40" s="181"/>
+      <c r="AA40" s="221"/>
+      <c r="AB40" s="221"/>
+      <c r="AC40" s="221"/>
+      <c r="AD40" s="221"/>
+      <c r="AE40" s="221"/>
+      <c r="AF40" s="221"/>
+      <c r="AG40" s="221"/>
+      <c r="AH40" s="221"/>
     </row>
     <row r="41" spans="3:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="178" t="s">
@@ -8657,20 +8851,20 @@
       <c r="T41" s="179"/>
       <c r="U41" s="179"/>
       <c r="V41" s="180"/>
-      <c r="W41" s="301" t="s">
+      <c r="W41" s="222" t="s">
         <v>219</v>
       </c>
       <c r="X41" s="179"/>
       <c r="Y41" s="179"/>
       <c r="Z41" s="180"/>
-      <c r="AA41" s="181"/>
-      <c r="AB41" s="181"/>
-      <c r="AC41" s="181"/>
-      <c r="AD41" s="181"/>
-      <c r="AE41" s="181"/>
-      <c r="AF41" s="181"/>
-      <c r="AG41" s="181"/>
-      <c r="AH41" s="181"/>
+      <c r="AA41" s="221"/>
+      <c r="AB41" s="221"/>
+      <c r="AC41" s="221"/>
+      <c r="AD41" s="221"/>
+      <c r="AE41" s="221"/>
+      <c r="AF41" s="221"/>
+      <c r="AG41" s="221"/>
+      <c r="AH41" s="221"/>
     </row>
     <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C42" s="37" t="s">
@@ -8863,16 +9057,37 @@
     <row r="62" spans="3:23" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D24:I26"/>
-    <mergeCell ref="D27:I29"/>
-    <mergeCell ref="D30:I32"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AE41:AH41"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AA41:AD41"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J23:AH23"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:V38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8889,37 +9104,16 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AE41:AH41"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J23:AH23"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="D24:I26"/>
+    <mergeCell ref="D27:I29"/>
+    <mergeCell ref="D30:I32"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C39:F39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8954,31 +9148,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="135" t="str">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
       <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -8990,48 +9184,48 @@
       <c r="X1" s="170"/>
       <c r="Y1" s="170"/>
       <c r="Z1" s="171"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="135" t="str">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
       <c r="S2" s="172"/>
       <c r="T2" s="173"/>
       <c r="U2" s="173"/>
@@ -9040,48 +9234,48 @@
       <c r="X2" s="173"/>
       <c r="Y2" s="173"/>
       <c r="Z2" s="174"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="135" t="str">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
       <c r="S3" s="175"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
@@ -9090,21 +9284,21 @@
       <c r="X3" s="176"/>
       <c r="Y3" s="176"/>
       <c r="Z3" s="177"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="152" t="str">
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="155" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
     </row>
     <row r="4" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -9170,39 +9364,39 @@
     </row>
     <row r="10" spans="1:35" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="36"/>
-      <c r="D10" s="254" t="s">
+      <c r="D10" s="241" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="254"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="254"/>
-      <c r="W10" s="254"/>
-      <c r="X10" s="254"/>
-      <c r="Y10" s="254"/>
-      <c r="Z10" s="254"/>
-      <c r="AA10" s="254"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="254"/>
-      <c r="AD10" s="254"/>
-      <c r="AE10" s="254"/>
-      <c r="AF10" s="254"/>
-      <c r="AG10" s="254"/>
-      <c r="AH10" s="254"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="241"/>
+      <c r="N10" s="241"/>
+      <c r="O10" s="241"/>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="241"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="241"/>
+      <c r="Y10" s="241"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="241"/>
+      <c r="AC10" s="241"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="241"/>
+      <c r="AF10" s="241"/>
+      <c r="AG10" s="241"/>
+      <c r="AH10" s="241"/>
     </row>
     <row r="11" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="36"/>
@@ -9243,39 +9437,39 @@
     </row>
     <row r="15" spans="1:35" s="37" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="36"/>
-      <c r="D15" s="255" t="s">
+      <c r="D15" s="242" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="255"/>
-      <c r="P15" s="255"/>
-      <c r="Q15" s="255"/>
-      <c r="R15" s="255"/>
-      <c r="S15" s="255"/>
-      <c r="T15" s="255"/>
-      <c r="U15" s="255"/>
-      <c r="V15" s="255"/>
-      <c r="W15" s="255"/>
-      <c r="X15" s="255"/>
-      <c r="Y15" s="255"/>
-      <c r="Z15" s="255"/>
-      <c r="AA15" s="255"/>
-      <c r="AB15" s="255"/>
-      <c r="AC15" s="255"/>
-      <c r="AD15" s="255"/>
-      <c r="AE15" s="255"/>
-      <c r="AF15" s="255"/>
-      <c r="AG15" s="255"/>
-      <c r="AH15" s="255"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="242"/>
+      <c r="L15" s="242"/>
+      <c r="M15" s="242"/>
+      <c r="N15" s="242"/>
+      <c r="O15" s="242"/>
+      <c r="P15" s="242"/>
+      <c r="Q15" s="242"/>
+      <c r="R15" s="242"/>
+      <c r="S15" s="242"/>
+      <c r="T15" s="242"/>
+      <c r="U15" s="242"/>
+      <c r="V15" s="242"/>
+      <c r="W15" s="242"/>
+      <c r="X15" s="242"/>
+      <c r="Y15" s="242"/>
+      <c r="Z15" s="242"/>
+      <c r="AA15" s="242"/>
+      <c r="AB15" s="242"/>
+      <c r="AC15" s="242"/>
+      <c r="AD15" s="242"/>
+      <c r="AE15" s="242"/>
+      <c r="AF15" s="242"/>
+      <c r="AG15" s="242"/>
+      <c r="AH15" s="242"/>
     </row>
     <row r="16" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="36"/>
@@ -9294,38 +9488,38 @@
     </row>
     <row r="19" spans="3:34" s="37" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="36"/>
-      <c r="E19" s="255" t="s">
+      <c r="E19" s="242" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="255"/>
-      <c r="G19" s="255"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="255"/>
-      <c r="K19" s="255"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="255"/>
-      <c r="N19" s="255"/>
-      <c r="O19" s="255"/>
-      <c r="P19" s="255"/>
-      <c r="Q19" s="255"/>
-      <c r="R19" s="255"/>
-      <c r="S19" s="255"/>
-      <c r="T19" s="255"/>
-      <c r="U19" s="255"/>
-      <c r="V19" s="255"/>
-      <c r="W19" s="255"/>
-      <c r="X19" s="255"/>
-      <c r="Y19" s="255"/>
-      <c r="Z19" s="255"/>
-      <c r="AA19" s="255"/>
-      <c r="AB19" s="255"/>
-      <c r="AC19" s="255"/>
-      <c r="AD19" s="255"/>
-      <c r="AE19" s="255"/>
-      <c r="AF19" s="255"/>
-      <c r="AG19" s="255"/>
-      <c r="AH19" s="255"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="242"/>
+      <c r="L19" s="242"/>
+      <c r="M19" s="242"/>
+      <c r="N19" s="242"/>
+      <c r="O19" s="242"/>
+      <c r="P19" s="242"/>
+      <c r="Q19" s="242"/>
+      <c r="R19" s="242"/>
+      <c r="S19" s="242"/>
+      <c r="T19" s="242"/>
+      <c r="U19" s="242"/>
+      <c r="V19" s="242"/>
+      <c r="W19" s="242"/>
+      <c r="X19" s="242"/>
+      <c r="Y19" s="242"/>
+      <c r="Z19" s="242"/>
+      <c r="AA19" s="242"/>
+      <c r="AB19" s="242"/>
+      <c r="AC19" s="242"/>
+      <c r="AD19" s="242"/>
+      <c r="AE19" s="242"/>
+      <c r="AF19" s="242"/>
+      <c r="AG19" s="242"/>
+      <c r="AH19" s="242"/>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D21" s="50" t="s">
@@ -9342,37 +9536,37 @@
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E24" s="52"/>
-      <c r="F24" s="256" t="s">
+      <c r="F24" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="256"/>
-      <c r="P24" s="256"/>
-      <c r="Q24" s="256"/>
-      <c r="R24" s="256"/>
-      <c r="S24" s="256"/>
-      <c r="T24" s="256"/>
-      <c r="U24" s="256"/>
-      <c r="V24" s="256"/>
-      <c r="W24" s="256"/>
-      <c r="X24" s="256"/>
-      <c r="Y24" s="256"/>
-      <c r="Z24" s="256"/>
-      <c r="AA24" s="256"/>
-      <c r="AB24" s="256"/>
-      <c r="AC24" s="256"/>
-      <c r="AD24" s="256"/>
-      <c r="AE24" s="256"/>
-      <c r="AF24" s="256"/>
-      <c r="AG24" s="256"/>
-      <c r="AH24" s="256"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="243"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="243"/>
+      <c r="K24" s="243"/>
+      <c r="L24" s="243"/>
+      <c r="M24" s="243"/>
+      <c r="N24" s="243"/>
+      <c r="O24" s="243"/>
+      <c r="P24" s="243"/>
+      <c r="Q24" s="243"/>
+      <c r="R24" s="243"/>
+      <c r="S24" s="243"/>
+      <c r="T24" s="243"/>
+      <c r="U24" s="243"/>
+      <c r="V24" s="243"/>
+      <c r="W24" s="243"/>
+      <c r="X24" s="243"/>
+      <c r="Y24" s="243"/>
+      <c r="Z24" s="243"/>
+      <c r="AA24" s="243"/>
+      <c r="AB24" s="243"/>
+      <c r="AC24" s="243"/>
+      <c r="AD24" s="243"/>
+      <c r="AE24" s="243"/>
+      <c r="AF24" s="243"/>
+      <c r="AG24" s="243"/>
+      <c r="AH24" s="243"/>
     </row>
     <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D25" s="53"/>
@@ -9403,35 +9597,35 @@
       <c r="D28" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="257" t="s">
+      <c r="E28" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="232" t="s">
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="225"/>
+      <c r="I28" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="J28" s="233"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="235" t="s">
+      <c r="J28" s="238"/>
+      <c r="K28" s="239"/>
+      <c r="L28" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="M28" s="235"/>
-      <c r="N28" s="235"/>
-      <c r="O28" s="235"/>
-      <c r="P28" s="235"/>
-      <c r="Q28" s="232" t="s">
+      <c r="M28" s="233"/>
+      <c r="N28" s="233"/>
+      <c r="O28" s="233"/>
+      <c r="P28" s="233"/>
+      <c r="Q28" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="R28" s="233"/>
-      <c r="S28" s="233"/>
-      <c r="T28" s="234"/>
-      <c r="U28" s="226" t="s">
+      <c r="R28" s="238"/>
+      <c r="S28" s="238"/>
+      <c r="T28" s="239"/>
+      <c r="U28" s="234" t="s">
         <v>174</v>
       </c>
-      <c r="V28" s="227"/>
-      <c r="W28" s="228"/>
+      <c r="V28" s="235"/>
+      <c r="W28" s="236"/>
       <c r="X28" s="57" t="s">
         <v>175</v>
       </c>
@@ -9452,31 +9646,31 @@
       <c r="D29" s="60">
         <v>1</v>
       </c>
-      <c r="E29" s="260" t="s">
+      <c r="E29" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="260"/>
-      <c r="G29" s="260"/>
-      <c r="H29" s="260"/>
-      <c r="I29" s="260" t="s">
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="260"/>
-      <c r="K29" s="260"/>
-      <c r="L29" s="266" t="s">
+      <c r="J29" s="226"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="232" t="s">
         <v>177</v>
       </c>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266"/>
-      <c r="Q29" s="261"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="262"/>
-      <c r="U29" s="261"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="262"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="232"/>
+      <c r="Q29" s="227"/>
+      <c r="R29" s="220"/>
+      <c r="S29" s="220"/>
+      <c r="T29" s="228"/>
+      <c r="U29" s="227"/>
+      <c r="V29" s="220"/>
+      <c r="W29" s="228"/>
       <c r="X29" s="178" t="s">
         <v>178</v>
       </c>
@@ -9487,37 +9681,37 @@
       <c r="AC29" s="179"/>
       <c r="AD29" s="179"/>
       <c r="AE29" s="180"/>
-      <c r="AF29" s="236" t="s">
+      <c r="AF29" s="266" t="s">
         <v>75</v>
       </c>
-      <c r="AG29" s="237"/>
-      <c r="AH29" s="238"/>
+      <c r="AG29" s="267"/>
+      <c r="AH29" s="268"/>
     </row>
     <row r="30" spans="3:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="60">
         <v>2</v>
       </c>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="260"/>
-      <c r="I30" s="260"/>
-      <c r="J30" s="260"/>
-      <c r="K30" s="260"/>
-      <c r="L30" s="267" t="s">
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="226"/>
+      <c r="L30" s="240" t="s">
         <v>179</v>
       </c>
-      <c r="M30" s="267"/>
-      <c r="N30" s="267"/>
-      <c r="O30" s="267"/>
-      <c r="P30" s="267"/>
-      <c r="Q30" s="261"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="262"/>
-      <c r="U30" s="261"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="262"/>
+      <c r="M30" s="240"/>
+      <c r="N30" s="240"/>
+      <c r="O30" s="240"/>
+      <c r="P30" s="240"/>
+      <c r="Q30" s="227"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="228"/>
+      <c r="U30" s="227"/>
+      <c r="V30" s="220"/>
+      <c r="W30" s="228"/>
       <c r="X30" s="178" t="s">
         <v>59</v>
       </c>
@@ -9536,73 +9730,73 @@
       <c r="D31" s="63">
         <v>3</v>
       </c>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="260"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="260"/>
-      <c r="K31" s="260"/>
-      <c r="L31" s="266" t="s">
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="M31" s="266"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="266"/>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="263"/>
-      <c r="R31" s="264"/>
-      <c r="S31" s="264"/>
-      <c r="T31" s="265"/>
-      <c r="U31" s="263"/>
-      <c r="V31" s="264"/>
-      <c r="W31" s="265"/>
-      <c r="X31" s="222" t="s">
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="229"/>
+      <c r="R31" s="230"/>
+      <c r="S31" s="230"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="230"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="259" t="s">
         <v>60</v>
       </c>
-      <c r="Y31" s="223"/>
-      <c r="Z31" s="223"/>
-      <c r="AA31" s="223"/>
-      <c r="AB31" s="223"/>
-      <c r="AC31" s="223"/>
-      <c r="AD31" s="223"/>
-      <c r="AE31" s="224"/>
+      <c r="Y31" s="260"/>
+      <c r="Z31" s="260"/>
+      <c r="AA31" s="260"/>
+      <c r="AB31" s="260"/>
+      <c r="AC31" s="260"/>
+      <c r="AD31" s="260"/>
+      <c r="AE31" s="261"/>
       <c r="AF31" s="64"/>
       <c r="AG31" s="65"/>
       <c r="AH31" s="66"/>
     </row>
     <row r="32" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="225"/>
-      <c r="J32" s="225"/>
-      <c r="K32" s="225"/>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="225"/>
-      <c r="O32" s="225"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="225"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="225"/>
-      <c r="T32" s="225"/>
-      <c r="U32" s="225"/>
-      <c r="V32" s="225"/>
-      <c r="W32" s="225"/>
-      <c r="X32" s="225"/>
-      <c r="Y32" s="225"/>
-      <c r="Z32" s="225"/>
-      <c r="AA32" s="225"/>
-      <c r="AB32" s="225"/>
-      <c r="AC32" s="225"/>
-      <c r="AD32" s="225"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="225"/>
-      <c r="AG32" s="225"/>
-      <c r="AH32" s="225"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="262"/>
+      <c r="I32" s="262"/>
+      <c r="J32" s="262"/>
+      <c r="K32" s="262"/>
+      <c r="L32" s="262"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="262"/>
+      <c r="O32" s="262"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="262"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="262"/>
+      <c r="V32" s="262"/>
+      <c r="W32" s="262"/>
+      <c r="X32" s="262"/>
+      <c r="Y32" s="262"/>
+      <c r="Z32" s="262"/>
+      <c r="AA32" s="262"/>
+      <c r="AB32" s="262"/>
+      <c r="AC32" s="262"/>
+      <c r="AD32" s="262"/>
+      <c r="AE32" s="262"/>
+      <c r="AF32" s="262"/>
+      <c r="AG32" s="262"/>
+      <c r="AH32" s="262"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D33" s="53"/>
@@ -9705,35 +9899,35 @@
       <c r="D39" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="229" t="s">
+      <c r="E39" s="263" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="231"/>
-      <c r="I39" s="232" t="s">
+      <c r="F39" s="264"/>
+      <c r="G39" s="264"/>
+      <c r="H39" s="265"/>
+      <c r="I39" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="J39" s="233"/>
-      <c r="K39" s="234"/>
-      <c r="L39" s="235" t="s">
+      <c r="J39" s="238"/>
+      <c r="K39" s="239"/>
+      <c r="L39" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="M39" s="235"/>
-      <c r="N39" s="235"/>
-      <c r="O39" s="235"/>
-      <c r="P39" s="235"/>
-      <c r="Q39" s="232" t="s">
+      <c r="M39" s="233"/>
+      <c r="N39" s="233"/>
+      <c r="O39" s="233"/>
+      <c r="P39" s="233"/>
+      <c r="Q39" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="R39" s="233"/>
-      <c r="S39" s="233"/>
-      <c r="T39" s="234"/>
-      <c r="U39" s="226" t="s">
+      <c r="R39" s="238"/>
+      <c r="S39" s="238"/>
+      <c r="T39" s="239"/>
+      <c r="U39" s="234" t="s">
         <v>174</v>
       </c>
-      <c r="V39" s="227"/>
-      <c r="W39" s="228"/>
+      <c r="V39" s="235"/>
+      <c r="W39" s="236"/>
       <c r="X39" s="57" t="s">
         <v>175</v>
       </c>
@@ -9761,50 +9955,50 @@
       <c r="D40" s="60">
         <v>1</v>
       </c>
-      <c r="E40" s="239" t="s">
+      <c r="E40" s="244" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="240"/>
-      <c r="G40" s="240"/>
-      <c r="H40" s="241"/>
-      <c r="I40" s="239" t="s">
+      <c r="F40" s="245"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="240"/>
-      <c r="K40" s="241"/>
-      <c r="L40" s="251" t="s">
+      <c r="J40" s="245"/>
+      <c r="K40" s="246"/>
+      <c r="L40" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="251"/>
-      <c r="N40" s="251"/>
-      <c r="O40" s="251"/>
-      <c r="P40" s="251"/>
-      <c r="Q40" s="239" t="s">
+      <c r="M40" s="256"/>
+      <c r="N40" s="256"/>
+      <c r="O40" s="256"/>
+      <c r="P40" s="256"/>
+      <c r="Q40" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="R40" s="240"/>
-      <c r="S40" s="240"/>
-      <c r="T40" s="241"/>
-      <c r="U40" s="239" t="s">
+      <c r="R40" s="245"/>
+      <c r="S40" s="245"/>
+      <c r="T40" s="246"/>
+      <c r="U40" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="V40" s="240"/>
-      <c r="W40" s="241"/>
-      <c r="X40" s="248" t="s">
+      <c r="V40" s="245"/>
+      <c r="W40" s="246"/>
+      <c r="X40" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="Y40" s="249"/>
-      <c r="Z40" s="249"/>
-      <c r="AA40" s="249"/>
-      <c r="AB40" s="249"/>
-      <c r="AC40" s="249"/>
-      <c r="AD40" s="249"/>
-      <c r="AE40" s="250"/>
-      <c r="AF40" s="239" t="s">
+      <c r="Y40" s="254"/>
+      <c r="Z40" s="254"/>
+      <c r="AA40" s="254"/>
+      <c r="AB40" s="254"/>
+      <c r="AC40" s="254"/>
+      <c r="AD40" s="254"/>
+      <c r="AE40" s="255"/>
+      <c r="AF40" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="AG40" s="240"/>
-      <c r="AH40" s="241"/>
+      <c r="AG40" s="245"/>
+      <c r="AH40" s="246"/>
       <c r="AJ40" s="51"/>
       <c r="AK40" s="51"/>
       <c r="AL40" s="51"/>
@@ -9817,40 +10011,40 @@
       <c r="D41" s="60">
         <v>2</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="243"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="244"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="243"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="251" t="s">
+      <c r="E41" s="247"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="247"/>
+      <c r="J41" s="248"/>
+      <c r="K41" s="249"/>
+      <c r="L41" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="M41" s="251"/>
-      <c r="N41" s="251"/>
-      <c r="O41" s="251"/>
-      <c r="P41" s="251"/>
-      <c r="Q41" s="242"/>
-      <c r="R41" s="243"/>
-      <c r="S41" s="243"/>
-      <c r="T41" s="244"/>
-      <c r="U41" s="242"/>
-      <c r="V41" s="243"/>
-      <c r="W41" s="244"/>
-      <c r="X41" s="248" t="s">
+      <c r="M41" s="256"/>
+      <c r="N41" s="256"/>
+      <c r="O41" s="256"/>
+      <c r="P41" s="256"/>
+      <c r="Q41" s="247"/>
+      <c r="R41" s="248"/>
+      <c r="S41" s="248"/>
+      <c r="T41" s="249"/>
+      <c r="U41" s="247"/>
+      <c r="V41" s="248"/>
+      <c r="W41" s="249"/>
+      <c r="X41" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="Y41" s="249"/>
-      <c r="Z41" s="249"/>
-      <c r="AA41" s="249"/>
-      <c r="AB41" s="249"/>
-      <c r="AC41" s="249"/>
-      <c r="AD41" s="249"/>
-      <c r="AE41" s="250"/>
-      <c r="AF41" s="242"/>
-      <c r="AG41" s="243"/>
-      <c r="AH41" s="244"/>
+      <c r="Y41" s="254"/>
+      <c r="Z41" s="254"/>
+      <c r="AA41" s="254"/>
+      <c r="AB41" s="254"/>
+      <c r="AC41" s="254"/>
+      <c r="AD41" s="254"/>
+      <c r="AE41" s="255"/>
+      <c r="AF41" s="247"/>
+      <c r="AG41" s="248"/>
+      <c r="AH41" s="249"/>
       <c r="AJ41" s="51"/>
       <c r="AK41" s="51"/>
       <c r="AL41" s="51"/>
@@ -9863,40 +10057,40 @@
       <c r="D42" s="60">
         <v>3</v>
       </c>
-      <c r="E42" s="242"/>
-      <c r="F42" s="243"/>
-      <c r="G42" s="243"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="243"/>
-      <c r="K42" s="244"/>
-      <c r="L42" s="251" t="s">
+      <c r="E42" s="247"/>
+      <c r="F42" s="248"/>
+      <c r="G42" s="248"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="247"/>
+      <c r="J42" s="248"/>
+      <c r="K42" s="249"/>
+      <c r="L42" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="251"/>
-      <c r="N42" s="251"/>
-      <c r="O42" s="251"/>
-      <c r="P42" s="251"/>
-      <c r="Q42" s="242"/>
-      <c r="R42" s="243"/>
-      <c r="S42" s="243"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="242"/>
-      <c r="V42" s="243"/>
-      <c r="W42" s="244"/>
-      <c r="X42" s="248" t="s">
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="256"/>
+      <c r="Q42" s="247"/>
+      <c r="R42" s="248"/>
+      <c r="S42" s="248"/>
+      <c r="T42" s="249"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="248"/>
+      <c r="W42" s="249"/>
+      <c r="X42" s="253" t="s">
         <v>50</v>
       </c>
-      <c r="Y42" s="249"/>
-      <c r="Z42" s="249"/>
-      <c r="AA42" s="249"/>
-      <c r="AB42" s="249"/>
-      <c r="AC42" s="249"/>
-      <c r="AD42" s="249"/>
-      <c r="AE42" s="250"/>
-      <c r="AF42" s="242"/>
-      <c r="AG42" s="243"/>
-      <c r="AH42" s="244"/>
+      <c r="Y42" s="254"/>
+      <c r="Z42" s="254"/>
+      <c r="AA42" s="254"/>
+      <c r="AB42" s="254"/>
+      <c r="AC42" s="254"/>
+      <c r="AD42" s="254"/>
+      <c r="AE42" s="255"/>
+      <c r="AF42" s="247"/>
+      <c r="AG42" s="248"/>
+      <c r="AH42" s="249"/>
       <c r="AJ42" s="51"/>
       <c r="AK42" s="51"/>
       <c r="AL42" s="51"/>
@@ -9909,40 +10103,40 @@
       <c r="D43" s="60">
         <v>4</v>
       </c>
-      <c r="E43" s="242"/>
-      <c r="F43" s="243"/>
-      <c r="G43" s="243"/>
-      <c r="H43" s="244"/>
-      <c r="I43" s="242"/>
-      <c r="J43" s="243"/>
-      <c r="K43" s="244"/>
-      <c r="L43" s="252" t="s">
+      <c r="E43" s="247"/>
+      <c r="F43" s="248"/>
+      <c r="G43" s="248"/>
+      <c r="H43" s="249"/>
+      <c r="I43" s="247"/>
+      <c r="J43" s="248"/>
+      <c r="K43" s="249"/>
+      <c r="L43" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="251"/>
-      <c r="N43" s="251"/>
-      <c r="O43" s="251"/>
-      <c r="P43" s="251"/>
-      <c r="Q43" s="242"/>
-      <c r="R43" s="243"/>
-      <c r="S43" s="243"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="242"/>
-      <c r="V43" s="243"/>
-      <c r="W43" s="244"/>
-      <c r="X43" s="248" t="s">
+      <c r="M43" s="256"/>
+      <c r="N43" s="256"/>
+      <c r="O43" s="256"/>
+      <c r="P43" s="256"/>
+      <c r="Q43" s="247"/>
+      <c r="R43" s="248"/>
+      <c r="S43" s="248"/>
+      <c r="T43" s="249"/>
+      <c r="U43" s="247"/>
+      <c r="V43" s="248"/>
+      <c r="W43" s="249"/>
+      <c r="X43" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="Y43" s="249"/>
-      <c r="Z43" s="249"/>
-      <c r="AA43" s="249"/>
-      <c r="AB43" s="249"/>
-      <c r="AC43" s="249"/>
-      <c r="AD43" s="249"/>
-      <c r="AE43" s="250"/>
-      <c r="AF43" s="242"/>
-      <c r="AG43" s="243"/>
-      <c r="AH43" s="244"/>
+      <c r="Y43" s="254"/>
+      <c r="Z43" s="254"/>
+      <c r="AA43" s="254"/>
+      <c r="AB43" s="254"/>
+      <c r="AC43" s="254"/>
+      <c r="AD43" s="254"/>
+      <c r="AE43" s="255"/>
+      <c r="AF43" s="247"/>
+      <c r="AG43" s="248"/>
+      <c r="AH43" s="249"/>
       <c r="AJ43" s="51"/>
       <c r="AK43" s="51"/>
       <c r="AL43" s="51"/>
@@ -9955,40 +10149,40 @@
       <c r="D44" s="60">
         <v>5</v>
       </c>
-      <c r="E44" s="245"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="245"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="253" t="s">
+      <c r="E44" s="250"/>
+      <c r="F44" s="251"/>
+      <c r="G44" s="251"/>
+      <c r="H44" s="252"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="251"/>
+      <c r="K44" s="252"/>
+      <c r="L44" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="M44" s="253"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="253"/>
-      <c r="P44" s="253"/>
-      <c r="Q44" s="245"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="247"/>
-      <c r="U44" s="245"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="247"/>
-      <c r="X44" s="248" t="s">
+      <c r="M44" s="258"/>
+      <c r="N44" s="258"/>
+      <c r="O44" s="258"/>
+      <c r="P44" s="258"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="251"/>
+      <c r="S44" s="251"/>
+      <c r="T44" s="252"/>
+      <c r="U44" s="250"/>
+      <c r="V44" s="251"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="Y44" s="249"/>
-      <c r="Z44" s="249"/>
-      <c r="AA44" s="249"/>
-      <c r="AB44" s="249"/>
-      <c r="AC44" s="249"/>
-      <c r="AD44" s="249"/>
-      <c r="AE44" s="250"/>
-      <c r="AF44" s="245"/>
-      <c r="AG44" s="246"/>
-      <c r="AH44" s="247"/>
+      <c r="Y44" s="254"/>
+      <c r="Z44" s="254"/>
+      <c r="AA44" s="254"/>
+      <c r="AB44" s="254"/>
+      <c r="AC44" s="254"/>
+      <c r="AD44" s="254"/>
+      <c r="AE44" s="255"/>
+      <c r="AF44" s="250"/>
+      <c r="AG44" s="251"/>
+      <c r="AH44" s="252"/>
       <c r="AJ44" s="51"/>
       <c r="AK44" s="51"/>
       <c r="AL44" s="51"/>
@@ -10973,39 +11167,16 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="D10:AH10"/>
-    <mergeCell ref="D15:AH15"/>
-    <mergeCell ref="E19:AH19"/>
-    <mergeCell ref="F24:AH24"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="X29:AE29"/>
+    <mergeCell ref="X30:AE30"/>
+    <mergeCell ref="X31:AE31"/>
+    <mergeCell ref="D32:AH32"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="AF29:AH29"/>
     <mergeCell ref="AF40:AH44"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="X40:AE40"/>
@@ -11021,16 +11192,39 @@
     <mergeCell ref="L42:P42"/>
     <mergeCell ref="L43:P43"/>
     <mergeCell ref="L44:P44"/>
-    <mergeCell ref="X29:AE29"/>
-    <mergeCell ref="X30:AE30"/>
-    <mergeCell ref="X31:AE31"/>
-    <mergeCell ref="D32:AH32"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="D10:AH10"/>
+    <mergeCell ref="D15:AH15"/>
+    <mergeCell ref="E19:AH19"/>
+    <mergeCell ref="F24:AH24"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11064,31 +11258,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="135" t="str">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
       <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -11100,48 +11294,48 @@
       <c r="X1" s="170"/>
       <c r="Y1" s="170"/>
       <c r="Z1" s="171"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="135" t="str">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
       <c r="S2" s="172"/>
       <c r="T2" s="173"/>
       <c r="U2" s="173"/>
@@ -11150,48 +11344,48 @@
       <c r="X2" s="173"/>
       <c r="Y2" s="173"/>
       <c r="Z2" s="174"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="135" t="str">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
       <c r="S3" s="175"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
@@ -11200,21 +11394,21 @@
       <c r="X3" s="176"/>
       <c r="Y3" s="176"/>
       <c r="Z3" s="177"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="152" t="str">
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="155" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -11696,372 +11890,372 @@
     <row r="22" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
-      <c r="E22" s="229" t="s">
+      <c r="E22" s="263" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="230"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="229" t="s">
+      <c r="F22" s="264"/>
+      <c r="G22" s="264"/>
+      <c r="H22" s="264"/>
+      <c r="I22" s="264"/>
+      <c r="J22" s="265"/>
+      <c r="K22" s="263" t="s">
         <v>185</v>
       </c>
-      <c r="L22" s="231"/>
-      <c r="M22" s="229" t="s">
+      <c r="L22" s="265"/>
+      <c r="M22" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="N22" s="230"/>
-      <c r="O22" s="230"/>
-      <c r="P22" s="230"/>
-      <c r="Q22" s="230"/>
-      <c r="R22" s="230"/>
-      <c r="S22" s="230"/>
-      <c r="T22" s="230"/>
-      <c r="U22" s="230"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="230"/>
-      <c r="Y22" s="230"/>
-      <c r="Z22" s="230"/>
-      <c r="AA22" s="230"/>
-      <c r="AB22" s="230"/>
-      <c r="AC22" s="230"/>
-      <c r="AD22" s="230"/>
-      <c r="AE22" s="230"/>
-      <c r="AF22" s="230"/>
-      <c r="AG22" s="230"/>
-      <c r="AH22" s="231"/>
+      <c r="N22" s="264"/>
+      <c r="O22" s="264"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="264"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="264"/>
+      <c r="T22" s="264"/>
+      <c r="U22" s="264"/>
+      <c r="V22" s="264"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264"/>
+      <c r="Y22" s="264"/>
+      <c r="Z22" s="264"/>
+      <c r="AA22" s="264"/>
+      <c r="AB22" s="264"/>
+      <c r="AC22" s="264"/>
+      <c r="AD22" s="264"/>
+      <c r="AE22" s="264"/>
+      <c r="AF22" s="264"/>
+      <c r="AG22" s="264"/>
+      <c r="AH22" s="265"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
-      <c r="E23" s="268" t="s">
+      <c r="E23" s="269" t="s">
         <v>187</v>
       </c>
-      <c r="F23" s="269"/>
-      <c r="G23" s="269"/>
-      <c r="H23" s="269"/>
-      <c r="I23" s="269"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="166" t="s">
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="271"/>
+      <c r="K23" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="168"/>
-      <c r="M23" s="192" t="s">
+      <c r="L23" s="106"/>
+      <c r="M23" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="N23" s="193"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="193"/>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="193"/>
-      <c r="Z23" s="193"/>
-      <c r="AA23" s="193"/>
-      <c r="AB23" s="193"/>
-      <c r="AC23" s="193"/>
-      <c r="AD23" s="193"/>
-      <c r="AE23" s="193"/>
-      <c r="AF23" s="193"/>
-      <c r="AG23" s="193"/>
-      <c r="AH23" s="194"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
+      <c r="S23" s="201"/>
+      <c r="T23" s="201"/>
+      <c r="U23" s="201"/>
+      <c r="V23" s="201"/>
+      <c r="W23" s="201"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="201"/>
+      <c r="AD23" s="201"/>
+      <c r="AE23" s="201"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="202"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
-      <c r="E24" s="271"/>
-      <c r="F24" s="272"/>
-      <c r="G24" s="272"/>
-      <c r="H24" s="272"/>
-      <c r="I24" s="272"/>
-      <c r="J24" s="273"/>
-      <c r="K24" s="274"/>
-      <c r="L24" s="275"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="199"/>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="199"/>
-      <c r="W24" s="199"/>
-      <c r="X24" s="199"/>
-      <c r="Y24" s="199"/>
-      <c r="Z24" s="199"/>
-      <c r="AA24" s="199"/>
-      <c r="AB24" s="199"/>
-      <c r="AC24" s="199"/>
-      <c r="AD24" s="199"/>
-      <c r="AE24" s="199"/>
-      <c r="AF24" s="199"/>
-      <c r="AG24" s="199"/>
-      <c r="AH24" s="200"/>
+      <c r="E24" s="272"/>
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="273"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="275"/>
+      <c r="L24" s="276"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="207"/>
+      <c r="Q24" s="207"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
+      <c r="W24" s="207"/>
+      <c r="X24" s="207"/>
+      <c r="Y24" s="207"/>
+      <c r="Z24" s="207"/>
+      <c r="AA24" s="207"/>
+      <c r="AB24" s="207"/>
+      <c r="AC24" s="207"/>
+      <c r="AD24" s="207"/>
+      <c r="AE24" s="207"/>
+      <c r="AF24" s="207"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="208"/>
     </row>
     <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="276" t="s">
+      <c r="E25" s="282" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="237"/>
-      <c r="G25" s="237"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="282" t="s">
+      <c r="F25" s="267"/>
+      <c r="G25" s="267"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="268"/>
+      <c r="K25" s="296" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="283"/>
-      <c r="M25" s="236" t="s">
+      <c r="L25" s="297"/>
+      <c r="M25" s="266" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="288"/>
-      <c r="O25" s="288"/>
-      <c r="P25" s="288"/>
-      <c r="Q25" s="288"/>
-      <c r="R25" s="288"/>
-      <c r="S25" s="288"/>
-      <c r="T25" s="288"/>
-      <c r="U25" s="288"/>
-      <c r="V25" s="288"/>
-      <c r="W25" s="288"/>
-      <c r="X25" s="288"/>
-      <c r="Y25" s="288"/>
-      <c r="Z25" s="288"/>
-      <c r="AA25" s="288"/>
-      <c r="AB25" s="288"/>
-      <c r="AC25" s="288"/>
-      <c r="AD25" s="288"/>
-      <c r="AE25" s="288"/>
-      <c r="AF25" s="288"/>
-      <c r="AG25" s="288"/>
-      <c r="AH25" s="289"/>
+      <c r="N25" s="277"/>
+      <c r="O25" s="277"/>
+      <c r="P25" s="277"/>
+      <c r="Q25" s="277"/>
+      <c r="R25" s="277"/>
+      <c r="S25" s="277"/>
+      <c r="T25" s="277"/>
+      <c r="U25" s="277"/>
+      <c r="V25" s="277"/>
+      <c r="W25" s="277"/>
+      <c r="X25" s="277"/>
+      <c r="Y25" s="277"/>
+      <c r="Z25" s="277"/>
+      <c r="AA25" s="277"/>
+      <c r="AB25" s="277"/>
+      <c r="AC25" s="277"/>
+      <c r="AD25" s="277"/>
+      <c r="AE25" s="277"/>
+      <c r="AF25" s="277"/>
+      <c r="AG25" s="277"/>
+      <c r="AH25" s="278"/>
     </row>
     <row r="26" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
-      <c r="E26" s="277"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="278"/>
-      <c r="K26" s="284"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="261"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="182"/>
-      <c r="S26" s="182"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="182"/>
-      <c r="W26" s="182"/>
-      <c r="X26" s="182"/>
-      <c r="Y26" s="182"/>
-      <c r="Z26" s="182"/>
-      <c r="AA26" s="182"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="182"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="262"/>
+      <c r="E26" s="286"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="287"/>
+      <c r="K26" s="298"/>
+      <c r="L26" s="299"/>
+      <c r="M26" s="227"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="220"/>
+      <c r="S26" s="220"/>
+      <c r="T26" s="220"/>
+      <c r="U26" s="220"/>
+      <c r="V26" s="220"/>
+      <c r="W26" s="220"/>
+      <c r="X26" s="220"/>
+      <c r="Y26" s="220"/>
+      <c r="Z26" s="220"/>
+      <c r="AA26" s="220"/>
+      <c r="AB26" s="220"/>
+      <c r="AC26" s="220"/>
+      <c r="AD26" s="220"/>
+      <c r="AE26" s="220"/>
+      <c r="AF26" s="220"/>
+      <c r="AG26" s="220"/>
+      <c r="AH26" s="228"/>
     </row>
     <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="280"/>
-      <c r="H27" s="280"/>
-      <c r="I27" s="280"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="286"/>
-      <c r="L27" s="287"/>
-      <c r="M27" s="290"/>
-      <c r="N27" s="291"/>
-      <c r="O27" s="291"/>
-      <c r="P27" s="291"/>
-      <c r="Q27" s="291"/>
-      <c r="R27" s="291"/>
-      <c r="S27" s="291"/>
-      <c r="T27" s="291"/>
-      <c r="U27" s="291"/>
-      <c r="V27" s="291"/>
-      <c r="W27" s="291"/>
-      <c r="X27" s="291"/>
-      <c r="Y27" s="291"/>
-      <c r="Z27" s="291"/>
-      <c r="AA27" s="291"/>
-      <c r="AB27" s="291"/>
-      <c r="AC27" s="291"/>
-      <c r="AD27" s="291"/>
-      <c r="AE27" s="291"/>
-      <c r="AF27" s="291"/>
-      <c r="AG27" s="291"/>
-      <c r="AH27" s="292"/>
+      <c r="E27" s="283"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="284"/>
+      <c r="K27" s="300"/>
+      <c r="L27" s="301"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="280"/>
+      <c r="O27" s="280"/>
+      <c r="P27" s="280"/>
+      <c r="Q27" s="280"/>
+      <c r="R27" s="280"/>
+      <c r="S27" s="280"/>
+      <c r="T27" s="280"/>
+      <c r="U27" s="280"/>
+      <c r="V27" s="280"/>
+      <c r="W27" s="280"/>
+      <c r="X27" s="280"/>
+      <c r="Y27" s="280"/>
+      <c r="Z27" s="280"/>
+      <c r="AA27" s="280"/>
+      <c r="AB27" s="280"/>
+      <c r="AC27" s="280"/>
+      <c r="AD27" s="280"/>
+      <c r="AE27" s="280"/>
+      <c r="AF27" s="280"/>
+      <c r="AG27" s="280"/>
+      <c r="AH27" s="281"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
-      <c r="E28" s="268" t="s">
+      <c r="E28" s="269" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="269"/>
-      <c r="G28" s="269"/>
-      <c r="H28" s="269"/>
-      <c r="I28" s="269"/>
-      <c r="J28" s="270"/>
-      <c r="K28" s="166" t="s">
+      <c r="F28" s="270"/>
+      <c r="G28" s="270"/>
+      <c r="H28" s="270"/>
+      <c r="I28" s="270"/>
+      <c r="J28" s="271"/>
+      <c r="K28" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="L28" s="168"/>
-      <c r="M28" s="192" t="s">
+      <c r="L28" s="106"/>
+      <c r="M28" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="193"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="193"/>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="193"/>
-      <c r="AH28" s="194"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="201"/>
+      <c r="T28" s="201"/>
+      <c r="U28" s="201"/>
+      <c r="V28" s="201"/>
+      <c r="W28" s="201"/>
+      <c r="X28" s="201"/>
+      <c r="Y28" s="201"/>
+      <c r="Z28" s="201"/>
+      <c r="AA28" s="201"/>
+      <c r="AB28" s="201"/>
+      <c r="AC28" s="201"/>
+      <c r="AD28" s="201"/>
+      <c r="AE28" s="201"/>
+      <c r="AF28" s="201"/>
+      <c r="AG28" s="201"/>
+      <c r="AH28" s="202"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="272"/>
-      <c r="H29" s="272"/>
-      <c r="I29" s="272"/>
-      <c r="J29" s="273"/>
-      <c r="K29" s="274"/>
-      <c r="L29" s="275"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="199"/>
-      <c r="O29" s="199"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="199"/>
-      <c r="S29" s="199"/>
-      <c r="T29" s="199"/>
-      <c r="U29" s="199"/>
-      <c r="V29" s="199"/>
-      <c r="W29" s="199"/>
-      <c r="X29" s="199"/>
-      <c r="Y29" s="199"/>
-      <c r="Z29" s="199"/>
-      <c r="AA29" s="199"/>
-      <c r="AB29" s="199"/>
-      <c r="AC29" s="199"/>
-      <c r="AD29" s="199"/>
-      <c r="AE29" s="199"/>
-      <c r="AF29" s="199"/>
-      <c r="AG29" s="199"/>
-      <c r="AH29" s="200"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="273"/>
+      <c r="G29" s="273"/>
+      <c r="H29" s="273"/>
+      <c r="I29" s="273"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="275"/>
+      <c r="L29" s="276"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="207"/>
+      <c r="Q29" s="207"/>
+      <c r="R29" s="207"/>
+      <c r="S29" s="207"/>
+      <c r="T29" s="207"/>
+      <c r="U29" s="207"/>
+      <c r="V29" s="207"/>
+      <c r="W29" s="207"/>
+      <c r="X29" s="207"/>
+      <c r="Y29" s="207"/>
+      <c r="Z29" s="207"/>
+      <c r="AA29" s="207"/>
+      <c r="AB29" s="207"/>
+      <c r="AC29" s="207"/>
+      <c r="AD29" s="207"/>
+      <c r="AE29" s="207"/>
+      <c r="AF29" s="207"/>
+      <c r="AG29" s="207"/>
+      <c r="AH29" s="208"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
-      <c r="E30" s="268" t="s">
+      <c r="E30" s="269" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="269"/>
-      <c r="G30" s="269"/>
-      <c r="H30" s="269"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="270"/>
-      <c r="K30" s="166" t="s">
+      <c r="F30" s="270"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="271"/>
+      <c r="K30" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="L30" s="168"/>
-      <c r="M30" s="192" t="s">
+      <c r="L30" s="106"/>
+      <c r="M30" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="193"/>
-      <c r="O30" s="193"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="193"/>
-      <c r="R30" s="193"/>
-      <c r="S30" s="193"/>
-      <c r="T30" s="193"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="193"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="193"/>
-      <c r="Y30" s="193"/>
-      <c r="Z30" s="193"/>
-      <c r="AA30" s="193"/>
-      <c r="AB30" s="193"/>
-      <c r="AC30" s="193"/>
-      <c r="AD30" s="193"/>
-      <c r="AE30" s="193"/>
-      <c r="AF30" s="193"/>
-      <c r="AG30" s="193"/>
-      <c r="AH30" s="194"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="201"/>
+      <c r="S30" s="201"/>
+      <c r="T30" s="201"/>
+      <c r="U30" s="201"/>
+      <c r="V30" s="201"/>
+      <c r="W30" s="201"/>
+      <c r="X30" s="201"/>
+      <c r="Y30" s="201"/>
+      <c r="Z30" s="201"/>
+      <c r="AA30" s="201"/>
+      <c r="AB30" s="201"/>
+      <c r="AC30" s="201"/>
+      <c r="AD30" s="201"/>
+      <c r="AE30" s="201"/>
+      <c r="AF30" s="201"/>
+      <c r="AG30" s="201"/>
+      <c r="AH30" s="202"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="272"/>
-      <c r="I31" s="272"/>
-      <c r="J31" s="273"/>
-      <c r="K31" s="274"/>
-      <c r="L31" s="275"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="199"/>
-      <c r="O31" s="199"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="199"/>
-      <c r="S31" s="199"/>
-      <c r="T31" s="199"/>
-      <c r="U31" s="199"/>
-      <c r="V31" s="199"/>
-      <c r="W31" s="199"/>
-      <c r="X31" s="199"/>
-      <c r="Y31" s="199"/>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="199"/>
-      <c r="AB31" s="199"/>
-      <c r="AC31" s="199"/>
-      <c r="AD31" s="199"/>
-      <c r="AE31" s="199"/>
-      <c r="AF31" s="199"/>
-      <c r="AG31" s="199"/>
-      <c r="AH31" s="200"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="273"/>
+      <c r="G31" s="273"/>
+      <c r="H31" s="273"/>
+      <c r="I31" s="273"/>
+      <c r="J31" s="274"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="206"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="207"/>
+      <c r="Q31" s="207"/>
+      <c r="R31" s="207"/>
+      <c r="S31" s="207"/>
+      <c r="T31" s="207"/>
+      <c r="U31" s="207"/>
+      <c r="V31" s="207"/>
+      <c r="W31" s="207"/>
+      <c r="X31" s="207"/>
+      <c r="Y31" s="207"/>
+      <c r="Z31" s="207"/>
+      <c r="AA31" s="207"/>
+      <c r="AB31" s="207"/>
+      <c r="AC31" s="207"/>
+      <c r="AD31" s="207"/>
+      <c r="AE31" s="207"/>
+      <c r="AF31" s="207"/>
+      <c r="AG31" s="207"/>
+      <c r="AH31" s="208"/>
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="50"/>
@@ -12158,496 +12352,496 @@
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
-      <c r="E35" s="229" t="s">
+      <c r="E35" s="263" t="s">
         <v>184</v>
       </c>
-      <c r="F35" s="230"/>
-      <c r="G35" s="230"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="229" t="s">
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="264"/>
+      <c r="I35" s="264"/>
+      <c r="J35" s="265"/>
+      <c r="K35" s="263" t="s">
         <v>185</v>
       </c>
-      <c r="L35" s="231"/>
-      <c r="M35" s="229" t="s">
+      <c r="L35" s="265"/>
+      <c r="M35" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="N35" s="230"/>
-      <c r="O35" s="230"/>
-      <c r="P35" s="230"/>
-      <c r="Q35" s="230"/>
-      <c r="R35" s="230"/>
-      <c r="S35" s="230"/>
-      <c r="T35" s="230"/>
-      <c r="U35" s="230"/>
-      <c r="V35" s="230"/>
-      <c r="W35" s="230"/>
-      <c r="X35" s="230"/>
-      <c r="Y35" s="230"/>
-      <c r="Z35" s="230"/>
-      <c r="AA35" s="230"/>
-      <c r="AB35" s="230"/>
-      <c r="AC35" s="230"/>
-      <c r="AD35" s="230"/>
-      <c r="AE35" s="230"/>
-      <c r="AF35" s="230"/>
-      <c r="AG35" s="230"/>
-      <c r="AH35" s="231"/>
+      <c r="N35" s="264"/>
+      <c r="O35" s="264"/>
+      <c r="P35" s="264"/>
+      <c r="Q35" s="264"/>
+      <c r="R35" s="264"/>
+      <c r="S35" s="264"/>
+      <c r="T35" s="264"/>
+      <c r="U35" s="264"/>
+      <c r="V35" s="264"/>
+      <c r="W35" s="264"/>
+      <c r="X35" s="264"/>
+      <c r="Y35" s="264"/>
+      <c r="Z35" s="264"/>
+      <c r="AA35" s="264"/>
+      <c r="AB35" s="264"/>
+      <c r="AC35" s="264"/>
+      <c r="AD35" s="264"/>
+      <c r="AE35" s="264"/>
+      <c r="AF35" s="264"/>
+      <c r="AG35" s="264"/>
+      <c r="AH35" s="265"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
-      <c r="E36" s="268" t="s">
+      <c r="E36" s="269" t="s">
         <v>187</v>
       </c>
-      <c r="F36" s="269"/>
-      <c r="G36" s="269"/>
-      <c r="H36" s="269"/>
-      <c r="I36" s="269"/>
-      <c r="J36" s="270"/>
-      <c r="K36" s="166" t="s">
+      <c r="F36" s="270"/>
+      <c r="G36" s="270"/>
+      <c r="H36" s="270"/>
+      <c r="I36" s="270"/>
+      <c r="J36" s="271"/>
+      <c r="K36" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="168"/>
-      <c r="M36" s="192" t="s">
+      <c r="L36" s="106"/>
+      <c r="M36" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="N36" s="193"/>
-      <c r="O36" s="193"/>
-      <c r="P36" s="193"/>
-      <c r="Q36" s="193"/>
-      <c r="R36" s="193"/>
-      <c r="S36" s="193"/>
-      <c r="T36" s="193"/>
-      <c r="U36" s="193"/>
-      <c r="V36" s="193"/>
-      <c r="W36" s="193"/>
-      <c r="X36" s="193"/>
-      <c r="Y36" s="193"/>
-      <c r="Z36" s="193"/>
-      <c r="AA36" s="193"/>
-      <c r="AB36" s="193"/>
-      <c r="AC36" s="193"/>
-      <c r="AD36" s="193"/>
-      <c r="AE36" s="193"/>
-      <c r="AF36" s="193"/>
-      <c r="AG36" s="193"/>
-      <c r="AH36" s="194"/>
+      <c r="N36" s="201"/>
+      <c r="O36" s="201"/>
+      <c r="P36" s="201"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="201"/>
+      <c r="S36" s="201"/>
+      <c r="T36" s="201"/>
+      <c r="U36" s="201"/>
+      <c r="V36" s="201"/>
+      <c r="W36" s="201"/>
+      <c r="X36" s="201"/>
+      <c r="Y36" s="201"/>
+      <c r="Z36" s="201"/>
+      <c r="AA36" s="201"/>
+      <c r="AB36" s="201"/>
+      <c r="AC36" s="201"/>
+      <c r="AD36" s="201"/>
+      <c r="AE36" s="201"/>
+      <c r="AF36" s="201"/>
+      <c r="AG36" s="201"/>
+      <c r="AH36" s="202"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="50"/>
       <c r="D37" s="50"/>
-      <c r="E37" s="271"/>
-      <c r="F37" s="272"/>
-      <c r="G37" s="272"/>
-      <c r="H37" s="272"/>
-      <c r="I37" s="272"/>
-      <c r="J37" s="273"/>
-      <c r="K37" s="274"/>
-      <c r="L37" s="275"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="199"/>
-      <c r="O37" s="199"/>
-      <c r="P37" s="199"/>
-      <c r="Q37" s="199"/>
-      <c r="R37" s="199"/>
-      <c r="S37" s="199"/>
-      <c r="T37" s="199"/>
-      <c r="U37" s="199"/>
-      <c r="V37" s="199"/>
-      <c r="W37" s="199"/>
-      <c r="X37" s="199"/>
-      <c r="Y37" s="199"/>
-      <c r="Z37" s="199"/>
-      <c r="AA37" s="199"/>
-      <c r="AB37" s="199"/>
-      <c r="AC37" s="199"/>
-      <c r="AD37" s="199"/>
-      <c r="AE37" s="199"/>
-      <c r="AF37" s="199"/>
-      <c r="AG37" s="199"/>
-      <c r="AH37" s="200"/>
+      <c r="E37" s="272"/>
+      <c r="F37" s="273"/>
+      <c r="G37" s="273"/>
+      <c r="H37" s="273"/>
+      <c r="I37" s="273"/>
+      <c r="J37" s="274"/>
+      <c r="K37" s="275"/>
+      <c r="L37" s="276"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="207"/>
+      <c r="P37" s="207"/>
+      <c r="Q37" s="207"/>
+      <c r="R37" s="207"/>
+      <c r="S37" s="207"/>
+      <c r="T37" s="207"/>
+      <c r="U37" s="207"/>
+      <c r="V37" s="207"/>
+      <c r="W37" s="207"/>
+      <c r="X37" s="207"/>
+      <c r="Y37" s="207"/>
+      <c r="Z37" s="207"/>
+      <c r="AA37" s="207"/>
+      <c r="AB37" s="207"/>
+      <c r="AC37" s="207"/>
+      <c r="AD37" s="207"/>
+      <c r="AE37" s="207"/>
+      <c r="AF37" s="207"/>
+      <c r="AG37" s="207"/>
+      <c r="AH37" s="208"/>
     </row>
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
-      <c r="E38" s="276" t="s">
+      <c r="E38" s="282" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="238"/>
-      <c r="K38" s="282" t="s">
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="268"/>
+      <c r="K38" s="296" t="s">
         <v>121</v>
       </c>
-      <c r="L38" s="283"/>
-      <c r="M38" s="236" t="s">
+      <c r="L38" s="297"/>
+      <c r="M38" s="266" t="s">
         <v>90</v>
       </c>
-      <c r="N38" s="288"/>
-      <c r="O38" s="288"/>
-      <c r="P38" s="288"/>
-      <c r="Q38" s="288"/>
-      <c r="R38" s="288"/>
-      <c r="S38" s="288"/>
-      <c r="T38" s="288"/>
-      <c r="U38" s="288"/>
-      <c r="V38" s="288"/>
-      <c r="W38" s="288"/>
-      <c r="X38" s="288"/>
-      <c r="Y38" s="288"/>
-      <c r="Z38" s="288"/>
-      <c r="AA38" s="288"/>
-      <c r="AB38" s="288"/>
-      <c r="AC38" s="288"/>
-      <c r="AD38" s="288"/>
-      <c r="AE38" s="288"/>
-      <c r="AF38" s="288"/>
-      <c r="AG38" s="288"/>
-      <c r="AH38" s="289"/>
+      <c r="N38" s="277"/>
+      <c r="O38" s="277"/>
+      <c r="P38" s="277"/>
+      <c r="Q38" s="277"/>
+      <c r="R38" s="277"/>
+      <c r="S38" s="277"/>
+      <c r="T38" s="277"/>
+      <c r="U38" s="277"/>
+      <c r="V38" s="277"/>
+      <c r="W38" s="277"/>
+      <c r="X38" s="277"/>
+      <c r="Y38" s="277"/>
+      <c r="Z38" s="277"/>
+      <c r="AA38" s="277"/>
+      <c r="AB38" s="277"/>
+      <c r="AC38" s="277"/>
+      <c r="AD38" s="277"/>
+      <c r="AE38" s="277"/>
+      <c r="AF38" s="277"/>
+      <c r="AG38" s="277"/>
+      <c r="AH38" s="278"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
-      <c r="E39" s="277"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="278"/>
-      <c r="K39" s="284"/>
-      <c r="L39" s="285"/>
-      <c r="M39" s="261"/>
-      <c r="N39" s="182"/>
-      <c r="O39" s="182"/>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182"/>
-      <c r="S39" s="182"/>
-      <c r="T39" s="182"/>
-      <c r="U39" s="182"/>
-      <c r="V39" s="182"/>
-      <c r="W39" s="182"/>
-      <c r="X39" s="182"/>
-      <c r="Y39" s="182"/>
-      <c r="Z39" s="182"/>
-      <c r="AA39" s="182"/>
-      <c r="AB39" s="182"/>
-      <c r="AC39" s="182"/>
-      <c r="AD39" s="182"/>
-      <c r="AE39" s="182"/>
-      <c r="AF39" s="182"/>
-      <c r="AG39" s="182"/>
-      <c r="AH39" s="262"/>
+      <c r="E39" s="286"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="287"/>
+      <c r="K39" s="298"/>
+      <c r="L39" s="299"/>
+      <c r="M39" s="227"/>
+      <c r="N39" s="220"/>
+      <c r="O39" s="220"/>
+      <c r="P39" s="220"/>
+      <c r="Q39" s="220"/>
+      <c r="R39" s="220"/>
+      <c r="S39" s="220"/>
+      <c r="T39" s="220"/>
+      <c r="U39" s="220"/>
+      <c r="V39" s="220"/>
+      <c r="W39" s="220"/>
+      <c r="X39" s="220"/>
+      <c r="Y39" s="220"/>
+      <c r="Z39" s="220"/>
+      <c r="AA39" s="220"/>
+      <c r="AB39" s="220"/>
+      <c r="AC39" s="220"/>
+      <c r="AD39" s="220"/>
+      <c r="AE39" s="220"/>
+      <c r="AF39" s="220"/>
+      <c r="AG39" s="220"/>
+      <c r="AH39" s="228"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
-      <c r="E40" s="279"/>
-      <c r="F40" s="280"/>
-      <c r="G40" s="280"/>
-      <c r="H40" s="280"/>
-      <c r="I40" s="280"/>
-      <c r="J40" s="281"/>
-      <c r="K40" s="286"/>
-      <c r="L40" s="287"/>
-      <c r="M40" s="290"/>
-      <c r="N40" s="291"/>
-      <c r="O40" s="291"/>
-      <c r="P40" s="291"/>
-      <c r="Q40" s="291"/>
-      <c r="R40" s="291"/>
-      <c r="S40" s="291"/>
-      <c r="T40" s="291"/>
-      <c r="U40" s="291"/>
-      <c r="V40" s="291"/>
-      <c r="W40" s="291"/>
-      <c r="X40" s="291"/>
-      <c r="Y40" s="291"/>
-      <c r="Z40" s="291"/>
-      <c r="AA40" s="291"/>
-      <c r="AB40" s="291"/>
-      <c r="AC40" s="291"/>
-      <c r="AD40" s="291"/>
-      <c r="AE40" s="291"/>
-      <c r="AF40" s="291"/>
-      <c r="AG40" s="291"/>
-      <c r="AH40" s="292"/>
+      <c r="E40" s="283"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="285"/>
+      <c r="H40" s="285"/>
+      <c r="I40" s="285"/>
+      <c r="J40" s="284"/>
+      <c r="K40" s="300"/>
+      <c r="L40" s="301"/>
+      <c r="M40" s="279"/>
+      <c r="N40" s="280"/>
+      <c r="O40" s="280"/>
+      <c r="P40" s="280"/>
+      <c r="Q40" s="280"/>
+      <c r="R40" s="280"/>
+      <c r="S40" s="280"/>
+      <c r="T40" s="280"/>
+      <c r="U40" s="280"/>
+      <c r="V40" s="280"/>
+      <c r="W40" s="280"/>
+      <c r="X40" s="280"/>
+      <c r="Y40" s="280"/>
+      <c r="Z40" s="280"/>
+      <c r="AA40" s="280"/>
+      <c r="AB40" s="280"/>
+      <c r="AC40" s="280"/>
+      <c r="AD40" s="280"/>
+      <c r="AE40" s="280"/>
+      <c r="AF40" s="280"/>
+      <c r="AG40" s="280"/>
+      <c r="AH40" s="281"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
-      <c r="E41" s="268" t="s">
+      <c r="E41" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="269"/>
-      <c r="G41" s="269"/>
-      <c r="H41" s="269"/>
-      <c r="I41" s="269"/>
-      <c r="J41" s="270"/>
-      <c r="K41" s="166" t="s">
+      <c r="F41" s="270"/>
+      <c r="G41" s="270"/>
+      <c r="H41" s="270"/>
+      <c r="I41" s="270"/>
+      <c r="J41" s="271"/>
+      <c r="K41" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="L41" s="168"/>
-      <c r="M41" s="192" t="s">
+      <c r="L41" s="106"/>
+      <c r="M41" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="193"/>
-      <c r="O41" s="193"/>
-      <c r="P41" s="193"/>
-      <c r="Q41" s="193"/>
-      <c r="R41" s="193"/>
-      <c r="S41" s="193"/>
-      <c r="T41" s="193"/>
-      <c r="U41" s="193"/>
-      <c r="V41" s="193"/>
-      <c r="W41" s="193"/>
-      <c r="X41" s="193"/>
-      <c r="Y41" s="193"/>
-      <c r="Z41" s="193"/>
-      <c r="AA41" s="193"/>
-      <c r="AB41" s="193"/>
-      <c r="AC41" s="193"/>
-      <c r="AD41" s="193"/>
-      <c r="AE41" s="193"/>
-      <c r="AF41" s="193"/>
-      <c r="AG41" s="193"/>
-      <c r="AH41" s="194"/>
+      <c r="N41" s="201"/>
+      <c r="O41" s="201"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="201"/>
+      <c r="R41" s="201"/>
+      <c r="S41" s="201"/>
+      <c r="T41" s="201"/>
+      <c r="U41" s="201"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="201"/>
+      <c r="X41" s="201"/>
+      <c r="Y41" s="201"/>
+      <c r="Z41" s="201"/>
+      <c r="AA41" s="201"/>
+      <c r="AB41" s="201"/>
+      <c r="AC41" s="201"/>
+      <c r="AD41" s="201"/>
+      <c r="AE41" s="201"/>
+      <c r="AF41" s="201"/>
+      <c r="AG41" s="201"/>
+      <c r="AH41" s="202"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
-      <c r="E42" s="271"/>
-      <c r="F42" s="272"/>
-      <c r="G42" s="272"/>
-      <c r="H42" s="272"/>
-      <c r="I42" s="272"/>
-      <c r="J42" s="273"/>
-      <c r="K42" s="274"/>
-      <c r="L42" s="275"/>
-      <c r="M42" s="198"/>
-      <c r="N42" s="199"/>
-      <c r="O42" s="199"/>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="199"/>
-      <c r="R42" s="199"/>
-      <c r="S42" s="199"/>
-      <c r="T42" s="199"/>
-      <c r="U42" s="199"/>
-      <c r="V42" s="199"/>
-      <c r="W42" s="199"/>
-      <c r="X42" s="199"/>
-      <c r="Y42" s="199"/>
-      <c r="Z42" s="199"/>
-      <c r="AA42" s="199"/>
-      <c r="AB42" s="199"/>
-      <c r="AC42" s="199"/>
-      <c r="AD42" s="199"/>
-      <c r="AE42" s="199"/>
-      <c r="AF42" s="199"/>
-      <c r="AG42" s="199"/>
-      <c r="AH42" s="200"/>
+      <c r="E42" s="272"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="273"/>
+      <c r="H42" s="273"/>
+      <c r="I42" s="273"/>
+      <c r="J42" s="274"/>
+      <c r="K42" s="275"/>
+      <c r="L42" s="276"/>
+      <c r="M42" s="206"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="207"/>
+      <c r="Q42" s="207"/>
+      <c r="R42" s="207"/>
+      <c r="S42" s="207"/>
+      <c r="T42" s="207"/>
+      <c r="U42" s="207"/>
+      <c r="V42" s="207"/>
+      <c r="W42" s="207"/>
+      <c r="X42" s="207"/>
+      <c r="Y42" s="207"/>
+      <c r="Z42" s="207"/>
+      <c r="AA42" s="207"/>
+      <c r="AB42" s="207"/>
+      <c r="AC42" s="207"/>
+      <c r="AD42" s="207"/>
+      <c r="AE42" s="207"/>
+      <c r="AF42" s="207"/>
+      <c r="AG42" s="207"/>
+      <c r="AH42" s="208"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
-      <c r="E43" s="268" t="s">
+      <c r="E43" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="269"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="269"/>
-      <c r="I43" s="269"/>
-      <c r="J43" s="270"/>
-      <c r="K43" s="166" t="s">
+      <c r="F43" s="270"/>
+      <c r="G43" s="270"/>
+      <c r="H43" s="270"/>
+      <c r="I43" s="270"/>
+      <c r="J43" s="271"/>
+      <c r="K43" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="L43" s="168"/>
-      <c r="M43" s="192" t="s">
+      <c r="L43" s="106"/>
+      <c r="M43" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="N43" s="193"/>
-      <c r="O43" s="193"/>
-      <c r="P43" s="193"/>
-      <c r="Q43" s="193"/>
-      <c r="R43" s="193"/>
-      <c r="S43" s="193"/>
-      <c r="T43" s="193"/>
-      <c r="U43" s="193"/>
-      <c r="V43" s="193"/>
-      <c r="W43" s="193"/>
-      <c r="X43" s="193"/>
-      <c r="Y43" s="193"/>
-      <c r="Z43" s="193"/>
-      <c r="AA43" s="193"/>
-      <c r="AB43" s="193"/>
-      <c r="AC43" s="193"/>
-      <c r="AD43" s="193"/>
-      <c r="AE43" s="193"/>
-      <c r="AF43" s="193"/>
-      <c r="AG43" s="193"/>
-      <c r="AH43" s="194"/>
+      <c r="N43" s="201"/>
+      <c r="O43" s="201"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="201"/>
+      <c r="R43" s="201"/>
+      <c r="S43" s="201"/>
+      <c r="T43" s="201"/>
+      <c r="U43" s="201"/>
+      <c r="V43" s="201"/>
+      <c r="W43" s="201"/>
+      <c r="X43" s="201"/>
+      <c r="Y43" s="201"/>
+      <c r="Z43" s="201"/>
+      <c r="AA43" s="201"/>
+      <c r="AB43" s="201"/>
+      <c r="AC43" s="201"/>
+      <c r="AD43" s="201"/>
+      <c r="AE43" s="201"/>
+      <c r="AF43" s="201"/>
+      <c r="AG43" s="201"/>
+      <c r="AH43" s="202"/>
     </row>
     <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
-      <c r="E44" s="271"/>
-      <c r="F44" s="272"/>
-      <c r="G44" s="272"/>
-      <c r="H44" s="272"/>
-      <c r="I44" s="272"/>
-      <c r="J44" s="273"/>
-      <c r="K44" s="274"/>
-      <c r="L44" s="275"/>
-      <c r="M44" s="198"/>
-      <c r="N44" s="199"/>
-      <c r="O44" s="199"/>
-      <c r="P44" s="199"/>
-      <c r="Q44" s="199"/>
-      <c r="R44" s="199"/>
-      <c r="S44" s="199"/>
-      <c r="T44" s="199"/>
-      <c r="U44" s="199"/>
-      <c r="V44" s="199"/>
-      <c r="W44" s="199"/>
-      <c r="X44" s="199"/>
-      <c r="Y44" s="199"/>
-      <c r="Z44" s="199"/>
-      <c r="AA44" s="199"/>
-      <c r="AB44" s="199"/>
-      <c r="AC44" s="199"/>
-      <c r="AD44" s="199"/>
-      <c r="AE44" s="199"/>
-      <c r="AF44" s="199"/>
-      <c r="AG44" s="199"/>
-      <c r="AH44" s="200"/>
+      <c r="E44" s="272"/>
+      <c r="F44" s="273"/>
+      <c r="G44" s="273"/>
+      <c r="H44" s="273"/>
+      <c r="I44" s="273"/>
+      <c r="J44" s="274"/>
+      <c r="K44" s="275"/>
+      <c r="L44" s="276"/>
+      <c r="M44" s="206"/>
+      <c r="N44" s="207"/>
+      <c r="O44" s="207"/>
+      <c r="P44" s="207"/>
+      <c r="Q44" s="207"/>
+      <c r="R44" s="207"/>
+      <c r="S44" s="207"/>
+      <c r="T44" s="207"/>
+      <c r="U44" s="207"/>
+      <c r="V44" s="207"/>
+      <c r="W44" s="207"/>
+      <c r="X44" s="207"/>
+      <c r="Y44" s="207"/>
+      <c r="Z44" s="207"/>
+      <c r="AA44" s="207"/>
+      <c r="AB44" s="207"/>
+      <c r="AC44" s="207"/>
+      <c r="AD44" s="207"/>
+      <c r="AE44" s="207"/>
+      <c r="AF44" s="207"/>
+      <c r="AG44" s="207"/>
+      <c r="AH44" s="208"/>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="50"/>
       <c r="D45" s="50"/>
-      <c r="E45" s="276" t="s">
+      <c r="E45" s="282" t="s">
         <v>190</v>
       </c>
-      <c r="F45" s="237"/>
-      <c r="G45" s="237"/>
-      <c r="H45" s="237"/>
-      <c r="I45" s="237"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="293" t="s">
+      <c r="F45" s="267"/>
+      <c r="G45" s="267"/>
+      <c r="H45" s="267"/>
+      <c r="I45" s="267"/>
+      <c r="J45" s="268"/>
+      <c r="K45" s="288" t="s">
         <v>121</v>
       </c>
-      <c r="L45" s="294"/>
-      <c r="M45" s="236" t="s">
+      <c r="L45" s="289"/>
+      <c r="M45" s="266" t="s">
         <v>191</v>
       </c>
-      <c r="N45" s="288"/>
-      <c r="O45" s="288"/>
-      <c r="P45" s="288"/>
-      <c r="Q45" s="288"/>
-      <c r="R45" s="288"/>
-      <c r="S45" s="288"/>
-      <c r="T45" s="288"/>
-      <c r="U45" s="288"/>
-      <c r="V45" s="288"/>
-      <c r="W45" s="288"/>
-      <c r="X45" s="288"/>
-      <c r="Y45" s="288"/>
-      <c r="Z45" s="288"/>
-      <c r="AA45" s="288"/>
-      <c r="AB45" s="288"/>
-      <c r="AC45" s="288"/>
-      <c r="AD45" s="288"/>
-      <c r="AE45" s="288"/>
-      <c r="AF45" s="288"/>
-      <c r="AG45" s="288"/>
-      <c r="AH45" s="289"/>
+      <c r="N45" s="277"/>
+      <c r="O45" s="277"/>
+      <c r="P45" s="277"/>
+      <c r="Q45" s="277"/>
+      <c r="R45" s="277"/>
+      <c r="S45" s="277"/>
+      <c r="T45" s="277"/>
+      <c r="U45" s="277"/>
+      <c r="V45" s="277"/>
+      <c r="W45" s="277"/>
+      <c r="X45" s="277"/>
+      <c r="Y45" s="277"/>
+      <c r="Z45" s="277"/>
+      <c r="AA45" s="277"/>
+      <c r="AB45" s="277"/>
+      <c r="AC45" s="277"/>
+      <c r="AD45" s="277"/>
+      <c r="AE45" s="277"/>
+      <c r="AF45" s="277"/>
+      <c r="AG45" s="277"/>
+      <c r="AH45" s="278"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
-      <c r="E46" s="277"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="181"/>
-      <c r="H46" s="181"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="278"/>
-      <c r="K46" s="295"/>
-      <c r="L46" s="296"/>
-      <c r="M46" s="261"/>
-      <c r="N46" s="182"/>
-      <c r="O46" s="182"/>
-      <c r="P46" s="182"/>
-      <c r="Q46" s="182"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="182"/>
-      <c r="T46" s="182"/>
-      <c r="U46" s="182"/>
-      <c r="V46" s="182"/>
-      <c r="W46" s="182"/>
-      <c r="X46" s="182"/>
-      <c r="Y46" s="182"/>
-      <c r="Z46" s="182"/>
-      <c r="AA46" s="182"/>
-      <c r="AB46" s="182"/>
-      <c r="AC46" s="182"/>
-      <c r="AD46" s="182"/>
-      <c r="AE46" s="182"/>
-      <c r="AF46" s="182"/>
-      <c r="AG46" s="182"/>
-      <c r="AH46" s="262"/>
+      <c r="E46" s="286"/>
+      <c r="F46" s="221"/>
+      <c r="G46" s="221"/>
+      <c r="H46" s="221"/>
+      <c r="I46" s="221"/>
+      <c r="J46" s="287"/>
+      <c r="K46" s="290"/>
+      <c r="L46" s="291"/>
+      <c r="M46" s="227"/>
+      <c r="N46" s="220"/>
+      <c r="O46" s="220"/>
+      <c r="P46" s="220"/>
+      <c r="Q46" s="220"/>
+      <c r="R46" s="220"/>
+      <c r="S46" s="220"/>
+      <c r="T46" s="220"/>
+      <c r="U46" s="220"/>
+      <c r="V46" s="220"/>
+      <c r="W46" s="220"/>
+      <c r="X46" s="220"/>
+      <c r="Y46" s="220"/>
+      <c r="Z46" s="220"/>
+      <c r="AA46" s="220"/>
+      <c r="AB46" s="220"/>
+      <c r="AC46" s="220"/>
+      <c r="AD46" s="220"/>
+      <c r="AE46" s="220"/>
+      <c r="AF46" s="220"/>
+      <c r="AG46" s="220"/>
+      <c r="AH46" s="228"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
-      <c r="E47" s="279"/>
-      <c r="F47" s="280"/>
-      <c r="G47" s="280"/>
-      <c r="H47" s="280"/>
-      <c r="I47" s="280"/>
-      <c r="J47" s="281"/>
-      <c r="K47" s="297"/>
-      <c r="L47" s="298"/>
-      <c r="M47" s="290"/>
-      <c r="N47" s="291"/>
-      <c r="O47" s="291"/>
-      <c r="P47" s="291"/>
-      <c r="Q47" s="291"/>
-      <c r="R47" s="291"/>
-      <c r="S47" s="291"/>
-      <c r="T47" s="291"/>
-      <c r="U47" s="291"/>
-      <c r="V47" s="291"/>
-      <c r="W47" s="291"/>
-      <c r="X47" s="291"/>
-      <c r="Y47" s="291"/>
-      <c r="Z47" s="291"/>
-      <c r="AA47" s="291"/>
-      <c r="AB47" s="291"/>
-      <c r="AC47" s="291"/>
-      <c r="AD47" s="291"/>
-      <c r="AE47" s="291"/>
-      <c r="AF47" s="291"/>
-      <c r="AG47" s="291"/>
-      <c r="AH47" s="292"/>
+      <c r="E47" s="283"/>
+      <c r="F47" s="285"/>
+      <c r="G47" s="285"/>
+      <c r="H47" s="285"/>
+      <c r="I47" s="285"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="292"/>
+      <c r="L47" s="293"/>
+      <c r="M47" s="279"/>
+      <c r="N47" s="280"/>
+      <c r="O47" s="280"/>
+      <c r="P47" s="280"/>
+      <c r="Q47" s="280"/>
+      <c r="R47" s="280"/>
+      <c r="S47" s="280"/>
+      <c r="T47" s="280"/>
+      <c r="U47" s="280"/>
+      <c r="V47" s="280"/>
+      <c r="W47" s="280"/>
+      <c r="X47" s="280"/>
+      <c r="Y47" s="280"/>
+      <c r="Z47" s="280"/>
+      <c r="AA47" s="280"/>
+      <c r="AB47" s="280"/>
+      <c r="AC47" s="280"/>
+      <c r="AD47" s="280"/>
+      <c r="AE47" s="280"/>
+      <c r="AF47" s="280"/>
+      <c r="AG47" s="280"/>
+      <c r="AH47" s="281"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
-      <c r="E48" s="276" t="s">
+      <c r="E48" s="282" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="237"/>
-      <c r="G48" s="237"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="237"/>
-      <c r="J48" s="238"/>
-      <c r="K48" s="293" t="s">
+      <c r="F48" s="267"/>
+      <c r="G48" s="267"/>
+      <c r="H48" s="267"/>
+      <c r="I48" s="267"/>
+      <c r="J48" s="268"/>
+      <c r="K48" s="288" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="294"/>
+      <c r="L48" s="289"/>
       <c r="M48" s="80" t="s">
         <v>192</v>
       </c>
@@ -12676,50 +12870,50 @@
     <row r="49" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="50"/>
       <c r="D49" s="50"/>
-      <c r="E49" s="277"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="278"/>
-      <c r="K49" s="295"/>
-      <c r="L49" s="296"/>
-      <c r="M49" s="299" t="s">
+      <c r="E49" s="286"/>
+      <c r="F49" s="221"/>
+      <c r="G49" s="221"/>
+      <c r="H49" s="221"/>
+      <c r="I49" s="221"/>
+      <c r="J49" s="287"/>
+      <c r="K49" s="290"/>
+      <c r="L49" s="291"/>
+      <c r="M49" s="294" t="s">
         <v>57</v>
       </c>
-      <c r="N49" s="254"/>
-      <c r="O49" s="254"/>
-      <c r="P49" s="254"/>
-      <c r="Q49" s="254"/>
-      <c r="R49" s="254"/>
-      <c r="S49" s="254"/>
-      <c r="T49" s="254"/>
-      <c r="U49" s="254"/>
-      <c r="V49" s="254"/>
-      <c r="W49" s="254"/>
-      <c r="X49" s="254"/>
-      <c r="Y49" s="254"/>
-      <c r="Z49" s="254"/>
-      <c r="AA49" s="254"/>
-      <c r="AB49" s="254"/>
-      <c r="AC49" s="254"/>
-      <c r="AD49" s="254"/>
-      <c r="AE49" s="254"/>
-      <c r="AF49" s="254"/>
-      <c r="AG49" s="254"/>
-      <c r="AH49" s="300"/>
+      <c r="N49" s="241"/>
+      <c r="O49" s="241"/>
+      <c r="P49" s="241"/>
+      <c r="Q49" s="241"/>
+      <c r="R49" s="241"/>
+      <c r="S49" s="241"/>
+      <c r="T49" s="241"/>
+      <c r="U49" s="241"/>
+      <c r="V49" s="241"/>
+      <c r="W49" s="241"/>
+      <c r="X49" s="241"/>
+      <c r="Y49" s="241"/>
+      <c r="Z49" s="241"/>
+      <c r="AA49" s="241"/>
+      <c r="AB49" s="241"/>
+      <c r="AC49" s="241"/>
+      <c r="AD49" s="241"/>
+      <c r="AE49" s="241"/>
+      <c r="AF49" s="241"/>
+      <c r="AG49" s="241"/>
+      <c r="AH49" s="295"/>
     </row>
     <row r="50" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="50"/>
       <c r="D50" s="50"/>
-      <c r="E50" s="277"/>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="278"/>
-      <c r="K50" s="295"/>
-      <c r="L50" s="296"/>
+      <c r="E50" s="286"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="221"/>
+      <c r="H50" s="221"/>
+      <c r="I50" s="221"/>
+      <c r="J50" s="287"/>
+      <c r="K50" s="290"/>
+      <c r="L50" s="291"/>
       <c r="M50" s="80" t="s">
         <v>193</v>
       </c>
@@ -12748,14 +12942,14 @@
     <row r="51" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="50"/>
       <c r="D51" s="50"/>
-      <c r="E51" s="277"/>
-      <c r="F51" s="181"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="181"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="278"/>
-      <c r="K51" s="295"/>
-      <c r="L51" s="296"/>
+      <c r="E51" s="286"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="221"/>
+      <c r="H51" s="221"/>
+      <c r="I51" s="221"/>
+      <c r="J51" s="287"/>
+      <c r="K51" s="290"/>
+      <c r="L51" s="291"/>
       <c r="M51" s="80" t="s">
         <v>194</v>
       </c>
@@ -12772,14 +12966,14 @@
     <row r="52" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="50"/>
       <c r="D52" s="50"/>
-      <c r="E52" s="277"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="278"/>
-      <c r="K52" s="295"/>
-      <c r="L52" s="296"/>
+      <c r="E52" s="286"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="221"/>
+      <c r="H52" s="221"/>
+      <c r="I52" s="221"/>
+      <c r="J52" s="287"/>
+      <c r="K52" s="290"/>
+      <c r="L52" s="291"/>
       <c r="M52" s="80"/>
       <c r="N52" s="37" t="s">
         <v>195</v>
@@ -12797,50 +12991,50 @@
     <row r="53" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="50"/>
       <c r="D53" s="50"/>
-      <c r="E53" s="277"/>
-      <c r="F53" s="181"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="181"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="278"/>
-      <c r="K53" s="295"/>
-      <c r="L53" s="296"/>
+      <c r="E53" s="286"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="287"/>
+      <c r="K53" s="290"/>
+      <c r="L53" s="291"/>
       <c r="M53" s="80"/>
-      <c r="N53" s="254" t="s">
+      <c r="N53" s="241" t="s">
         <v>196</v>
       </c>
-      <c r="O53" s="254"/>
-      <c r="P53" s="254"/>
-      <c r="Q53" s="254"/>
-      <c r="R53" s="254"/>
-      <c r="S53" s="254"/>
-      <c r="T53" s="254"/>
-      <c r="U53" s="254"/>
-      <c r="V53" s="254"/>
-      <c r="W53" s="254"/>
-      <c r="X53" s="254"/>
-      <c r="Y53" s="254"/>
-      <c r="Z53" s="254"/>
-      <c r="AA53" s="254"/>
-      <c r="AB53" s="254"/>
-      <c r="AC53" s="254"/>
-      <c r="AD53" s="254"/>
-      <c r="AE53" s="254"/>
-      <c r="AF53" s="254"/>
-      <c r="AG53" s="254"/>
-      <c r="AH53" s="300"/>
+      <c r="O53" s="241"/>
+      <c r="P53" s="241"/>
+      <c r="Q53" s="241"/>
+      <c r="R53" s="241"/>
+      <c r="S53" s="241"/>
+      <c r="T53" s="241"/>
+      <c r="U53" s="241"/>
+      <c r="V53" s="241"/>
+      <c r="W53" s="241"/>
+      <c r="X53" s="241"/>
+      <c r="Y53" s="241"/>
+      <c r="Z53" s="241"/>
+      <c r="AA53" s="241"/>
+      <c r="AB53" s="241"/>
+      <c r="AC53" s="241"/>
+      <c r="AD53" s="241"/>
+      <c r="AE53" s="241"/>
+      <c r="AF53" s="241"/>
+      <c r="AG53" s="241"/>
+      <c r="AH53" s="295"/>
     </row>
     <row r="54" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
-      <c r="E54" s="277"/>
-      <c r="F54" s="181"/>
-      <c r="G54" s="181"/>
-      <c r="H54" s="181"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="278"/>
-      <c r="K54" s="295"/>
-      <c r="L54" s="296"/>
+      <c r="E54" s="286"/>
+      <c r="F54" s="221"/>
+      <c r="G54" s="221"/>
+      <c r="H54" s="221"/>
+      <c r="I54" s="221"/>
+      <c r="J54" s="287"/>
+      <c r="K54" s="290"/>
+      <c r="L54" s="291"/>
       <c r="M54" s="80"/>
       <c r="N54" s="82" t="s">
         <v>101</v>
@@ -12869,14 +13063,14 @@
     <row r="55" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
-      <c r="E55" s="277"/>
-      <c r="F55" s="181"/>
-      <c r="G55" s="181"/>
-      <c r="H55" s="181"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="278"/>
-      <c r="K55" s="295"/>
-      <c r="L55" s="296"/>
+      <c r="E55" s="286"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="221"/>
+      <c r="H55" s="221"/>
+      <c r="I55" s="221"/>
+      <c r="J55" s="287"/>
+      <c r="K55" s="290"/>
+      <c r="L55" s="291"/>
       <c r="M55" s="80"/>
       <c r="N55" s="31"/>
       <c r="O55" s="31" t="s">
@@ -12905,14 +13099,14 @@
     <row r="56" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
-      <c r="E56" s="277"/>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="181"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="278"/>
-      <c r="K56" s="295"/>
-      <c r="L56" s="296"/>
+      <c r="E56" s="286"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="221"/>
+      <c r="I56" s="221"/>
+      <c r="J56" s="287"/>
+      <c r="K56" s="290"/>
+      <c r="L56" s="291"/>
       <c r="M56" s="80"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31" t="s">
@@ -12941,14 +13135,14 @@
     <row r="57" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
-      <c r="E57" s="277"/>
-      <c r="F57" s="181"/>
-      <c r="G57" s="181"/>
-      <c r="H57" s="181"/>
-      <c r="I57" s="181"/>
-      <c r="J57" s="278"/>
-      <c r="K57" s="295"/>
-      <c r="L57" s="296"/>
+      <c r="E57" s="286"/>
+      <c r="F57" s="221"/>
+      <c r="G57" s="221"/>
+      <c r="H57" s="221"/>
+      <c r="I57" s="221"/>
+      <c r="J57" s="287"/>
+      <c r="K57" s="290"/>
+      <c r="L57" s="291"/>
       <c r="M57" s="80"/>
       <c r="N57" s="31" t="s">
         <v>198</v>
@@ -12976,14 +13170,14 @@
     <row r="58" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="50"/>
       <c r="D58" s="50"/>
-      <c r="E58" s="277"/>
-      <c r="F58" s="181"/>
-      <c r="G58" s="181"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="181"/>
-      <c r="J58" s="278"/>
-      <c r="K58" s="295"/>
-      <c r="L58" s="296"/>
+      <c r="E58" s="286"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="221"/>
+      <c r="H58" s="221"/>
+      <c r="I58" s="221"/>
+      <c r="J58" s="287"/>
+      <c r="K58" s="290"/>
+      <c r="L58" s="291"/>
       <c r="M58" s="80"/>
       <c r="N58" s="31" t="s">
         <v>199</v>
@@ -13010,14 +13204,14 @@
     <row r="59" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="50"/>
       <c r="D59" s="50"/>
-      <c r="E59" s="277"/>
-      <c r="F59" s="181"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="181"/>
-      <c r="I59" s="181"/>
-      <c r="J59" s="278"/>
-      <c r="K59" s="295"/>
-      <c r="L59" s="296"/>
+      <c r="E59" s="286"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="221"/>
+      <c r="H59" s="221"/>
+      <c r="I59" s="221"/>
+      <c r="J59" s="287"/>
+      <c r="K59" s="290"/>
+      <c r="L59" s="291"/>
       <c r="M59" s="80"/>
       <c r="N59" s="31" t="s">
         <v>200</v>
@@ -13046,14 +13240,14 @@
     <row r="60" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="50"/>
       <c r="D60" s="50"/>
-      <c r="E60" s="277"/>
-      <c r="F60" s="181"/>
-      <c r="G60" s="181"/>
-      <c r="H60" s="181"/>
-      <c r="I60" s="181"/>
-      <c r="J60" s="278"/>
-      <c r="K60" s="295"/>
-      <c r="L60" s="296"/>
+      <c r="E60" s="286"/>
+      <c r="F60" s="221"/>
+      <c r="G60" s="221"/>
+      <c r="H60" s="221"/>
+      <c r="I60" s="221"/>
+      <c r="J60" s="287"/>
+      <c r="K60" s="290"/>
+      <c r="L60" s="291"/>
       <c r="M60" s="80"/>
       <c r="N60" s="31"/>
       <c r="O60" s="31" t="s">
@@ -13082,14 +13276,14 @@
     <row r="61" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="50"/>
       <c r="D61" s="50"/>
-      <c r="E61" s="277"/>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="181"/>
-      <c r="I61" s="181"/>
-      <c r="J61" s="278"/>
-      <c r="K61" s="295"/>
-      <c r="L61" s="296"/>
+      <c r="E61" s="286"/>
+      <c r="F61" s="221"/>
+      <c r="G61" s="221"/>
+      <c r="H61" s="221"/>
+      <c r="I61" s="221"/>
+      <c r="J61" s="287"/>
+      <c r="K61" s="290"/>
+      <c r="L61" s="291"/>
       <c r="M61" s="80"/>
       <c r="N61" s="31"/>
       <c r="O61" s="31" t="s">
@@ -13118,14 +13312,14 @@
     <row r="62" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="50"/>
       <c r="D62" s="50"/>
-      <c r="E62" s="279"/>
-      <c r="F62" s="280"/>
-      <c r="G62" s="280"/>
-      <c r="H62" s="280"/>
-      <c r="I62" s="280"/>
-      <c r="J62" s="281"/>
-      <c r="K62" s="297"/>
-      <c r="L62" s="298"/>
+      <c r="E62" s="283"/>
+      <c r="F62" s="285"/>
+      <c r="G62" s="285"/>
+      <c r="H62" s="285"/>
+      <c r="I62" s="285"/>
+      <c r="J62" s="284"/>
+      <c r="K62" s="292"/>
+      <c r="L62" s="293"/>
       <c r="M62" s="80"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
@@ -13154,146 +13348,146 @@
     <row r="63" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="50"/>
       <c r="D63" s="50"/>
-      <c r="E63" s="268" t="s">
+      <c r="E63" s="269" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="269"/>
-      <c r="G63" s="269"/>
-      <c r="H63" s="269"/>
-      <c r="I63" s="269"/>
-      <c r="J63" s="270"/>
-      <c r="K63" s="268"/>
-      <c r="L63" s="270"/>
-      <c r="M63" s="192" t="s">
+      <c r="F63" s="270"/>
+      <c r="G63" s="270"/>
+      <c r="H63" s="270"/>
+      <c r="I63" s="270"/>
+      <c r="J63" s="271"/>
+      <c r="K63" s="269"/>
+      <c r="L63" s="271"/>
+      <c r="M63" s="200" t="s">
         <v>204</v>
       </c>
-      <c r="N63" s="193"/>
-      <c r="O63" s="193"/>
-      <c r="P63" s="193"/>
-      <c r="Q63" s="193"/>
-      <c r="R63" s="193"/>
-      <c r="S63" s="193"/>
-      <c r="T63" s="193"/>
-      <c r="U63" s="193"/>
-      <c r="V63" s="193"/>
-      <c r="W63" s="193"/>
-      <c r="X63" s="193"/>
-      <c r="Y63" s="193"/>
-      <c r="Z63" s="193"/>
-      <c r="AA63" s="193"/>
-      <c r="AB63" s="193"/>
-      <c r="AC63" s="193"/>
-      <c r="AD63" s="193"/>
-      <c r="AE63" s="193"/>
-      <c r="AF63" s="193"/>
-      <c r="AG63" s="193"/>
-      <c r="AH63" s="194"/>
+      <c r="N63" s="201"/>
+      <c r="O63" s="201"/>
+      <c r="P63" s="201"/>
+      <c r="Q63" s="201"/>
+      <c r="R63" s="201"/>
+      <c r="S63" s="201"/>
+      <c r="T63" s="201"/>
+      <c r="U63" s="201"/>
+      <c r="V63" s="201"/>
+      <c r="W63" s="201"/>
+      <c r="X63" s="201"/>
+      <c r="Y63" s="201"/>
+      <c r="Z63" s="201"/>
+      <c r="AA63" s="201"/>
+      <c r="AB63" s="201"/>
+      <c r="AC63" s="201"/>
+      <c r="AD63" s="201"/>
+      <c r="AE63" s="201"/>
+      <c r="AF63" s="201"/>
+      <c r="AG63" s="201"/>
+      <c r="AH63" s="202"/>
     </row>
     <row r="64" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="50"/>
       <c r="D64" s="50"/>
-      <c r="E64" s="271"/>
-      <c r="F64" s="272"/>
-      <c r="G64" s="272"/>
-      <c r="H64" s="272"/>
-      <c r="I64" s="272"/>
-      <c r="J64" s="273"/>
-      <c r="K64" s="271"/>
-      <c r="L64" s="273"/>
-      <c r="M64" s="198"/>
-      <c r="N64" s="199"/>
-      <c r="O64" s="199"/>
-      <c r="P64" s="199"/>
-      <c r="Q64" s="199"/>
-      <c r="R64" s="199"/>
-      <c r="S64" s="199"/>
-      <c r="T64" s="199"/>
-      <c r="U64" s="199"/>
-      <c r="V64" s="199"/>
-      <c r="W64" s="199"/>
-      <c r="X64" s="199"/>
-      <c r="Y64" s="199"/>
-      <c r="Z64" s="199"/>
-      <c r="AA64" s="199"/>
-      <c r="AB64" s="199"/>
-      <c r="AC64" s="199"/>
-      <c r="AD64" s="199"/>
-      <c r="AE64" s="199"/>
-      <c r="AF64" s="199"/>
-      <c r="AG64" s="199"/>
-      <c r="AH64" s="200"/>
+      <c r="E64" s="272"/>
+      <c r="F64" s="273"/>
+      <c r="G64" s="273"/>
+      <c r="H64" s="273"/>
+      <c r="I64" s="273"/>
+      <c r="J64" s="274"/>
+      <c r="K64" s="272"/>
+      <c r="L64" s="274"/>
+      <c r="M64" s="206"/>
+      <c r="N64" s="207"/>
+      <c r="O64" s="207"/>
+      <c r="P64" s="207"/>
+      <c r="Q64" s="207"/>
+      <c r="R64" s="207"/>
+      <c r="S64" s="207"/>
+      <c r="T64" s="207"/>
+      <c r="U64" s="207"/>
+      <c r="V64" s="207"/>
+      <c r="W64" s="207"/>
+      <c r="X64" s="207"/>
+      <c r="Y64" s="207"/>
+      <c r="Z64" s="207"/>
+      <c r="AA64" s="207"/>
+      <c r="AB64" s="207"/>
+      <c r="AC64" s="207"/>
+      <c r="AD64" s="207"/>
+      <c r="AE64" s="207"/>
+      <c r="AF64" s="207"/>
+      <c r="AG64" s="207"/>
+      <c r="AH64" s="208"/>
     </row>
     <row r="65" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="50"/>
       <c r="D65" s="50"/>
-      <c r="E65" s="236" t="s">
+      <c r="E65" s="266" t="s">
         <v>205</v>
       </c>
-      <c r="F65" s="288"/>
-      <c r="G65" s="288"/>
-      <c r="H65" s="288"/>
-      <c r="I65" s="288"/>
-      <c r="J65" s="289"/>
-      <c r="K65" s="276"/>
-      <c r="L65" s="238"/>
-      <c r="M65" s="276" t="s">
+      <c r="F65" s="277"/>
+      <c r="G65" s="277"/>
+      <c r="H65" s="277"/>
+      <c r="I65" s="277"/>
+      <c r="J65" s="278"/>
+      <c r="K65" s="282"/>
+      <c r="L65" s="268"/>
+      <c r="M65" s="282" t="s">
         <v>206</v>
       </c>
-      <c r="N65" s="237"/>
-      <c r="O65" s="237"/>
-      <c r="P65" s="237"/>
-      <c r="Q65" s="237"/>
-      <c r="R65" s="237"/>
-      <c r="S65" s="237"/>
-      <c r="T65" s="237"/>
-      <c r="U65" s="237"/>
-      <c r="V65" s="237"/>
-      <c r="W65" s="237"/>
-      <c r="X65" s="237"/>
-      <c r="Y65" s="237"/>
-      <c r="Z65" s="237"/>
-      <c r="AA65" s="237"/>
-      <c r="AB65" s="237"/>
-      <c r="AC65" s="237"/>
-      <c r="AD65" s="237"/>
-      <c r="AE65" s="237"/>
-      <c r="AF65" s="237"/>
-      <c r="AG65" s="237"/>
-      <c r="AH65" s="238"/>
+      <c r="N65" s="267"/>
+      <c r="O65" s="267"/>
+      <c r="P65" s="267"/>
+      <c r="Q65" s="267"/>
+      <c r="R65" s="267"/>
+      <c r="S65" s="267"/>
+      <c r="T65" s="267"/>
+      <c r="U65" s="267"/>
+      <c r="V65" s="267"/>
+      <c r="W65" s="267"/>
+      <c r="X65" s="267"/>
+      <c r="Y65" s="267"/>
+      <c r="Z65" s="267"/>
+      <c r="AA65" s="267"/>
+      <c r="AB65" s="267"/>
+      <c r="AC65" s="267"/>
+      <c r="AD65" s="267"/>
+      <c r="AE65" s="267"/>
+      <c r="AF65" s="267"/>
+      <c r="AG65" s="267"/>
+      <c r="AH65" s="268"/>
     </row>
     <row r="66" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="50"/>
       <c r="D66" s="50"/>
-      <c r="E66" s="290"/>
-      <c r="F66" s="291"/>
-      <c r="G66" s="291"/>
-      <c r="H66" s="291"/>
-      <c r="I66" s="291"/>
-      <c r="J66" s="292"/>
-      <c r="K66" s="279"/>
-      <c r="L66" s="281"/>
-      <c r="M66" s="279"/>
-      <c r="N66" s="280"/>
-      <c r="O66" s="280"/>
-      <c r="P66" s="280"/>
-      <c r="Q66" s="280"/>
-      <c r="R66" s="280"/>
-      <c r="S66" s="280"/>
-      <c r="T66" s="280"/>
-      <c r="U66" s="280"/>
-      <c r="V66" s="280"/>
-      <c r="W66" s="280"/>
-      <c r="X66" s="280"/>
-      <c r="Y66" s="280"/>
-      <c r="Z66" s="280"/>
-      <c r="AA66" s="280"/>
-      <c r="AB66" s="280"/>
-      <c r="AC66" s="280"/>
-      <c r="AD66" s="280"/>
-      <c r="AE66" s="280"/>
-      <c r="AF66" s="280"/>
-      <c r="AG66" s="280"/>
-      <c r="AH66" s="281"/>
+      <c r="E66" s="279"/>
+      <c r="F66" s="280"/>
+      <c r="G66" s="280"/>
+      <c r="H66" s="280"/>
+      <c r="I66" s="280"/>
+      <c r="J66" s="281"/>
+      <c r="K66" s="283"/>
+      <c r="L66" s="284"/>
+      <c r="M66" s="283"/>
+      <c r="N66" s="285"/>
+      <c r="O66" s="285"/>
+      <c r="P66" s="285"/>
+      <c r="Q66" s="285"/>
+      <c r="R66" s="285"/>
+      <c r="S66" s="285"/>
+      <c r="T66" s="285"/>
+      <c r="U66" s="285"/>
+      <c r="V66" s="285"/>
+      <c r="W66" s="285"/>
+      <c r="X66" s="285"/>
+      <c r="Y66" s="285"/>
+      <c r="Z66" s="285"/>
+      <c r="AA66" s="285"/>
+      <c r="AB66" s="285"/>
+      <c r="AC66" s="285"/>
+      <c r="AD66" s="285"/>
+      <c r="AE66" s="285"/>
+      <c r="AF66" s="285"/>
+      <c r="AG66" s="285"/>
+      <c r="AH66" s="284"/>
     </row>
     <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="50"/>
@@ -13420,116 +13614,116 @@
     <row r="71" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="50"/>
       <c r="D71" s="50"/>
-      <c r="E71" s="229" t="s">
+      <c r="E71" s="263" t="s">
         <v>184</v>
       </c>
-      <c r="F71" s="230"/>
-      <c r="G71" s="230"/>
-      <c r="H71" s="230"/>
-      <c r="I71" s="230"/>
-      <c r="J71" s="231"/>
-      <c r="K71" s="229" t="s">
+      <c r="F71" s="264"/>
+      <c r="G71" s="264"/>
+      <c r="H71" s="264"/>
+      <c r="I71" s="264"/>
+      <c r="J71" s="265"/>
+      <c r="K71" s="263" t="s">
         <v>185</v>
       </c>
-      <c r="L71" s="231"/>
-      <c r="M71" s="229" t="s">
+      <c r="L71" s="265"/>
+      <c r="M71" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="N71" s="230"/>
-      <c r="O71" s="230"/>
-      <c r="P71" s="230"/>
-      <c r="Q71" s="230"/>
-      <c r="R71" s="230"/>
-      <c r="S71" s="230"/>
-      <c r="T71" s="230"/>
-      <c r="U71" s="230"/>
-      <c r="V71" s="230"/>
-      <c r="W71" s="230"/>
-      <c r="X71" s="230"/>
-      <c r="Y71" s="230"/>
-      <c r="Z71" s="230"/>
-      <c r="AA71" s="230"/>
-      <c r="AB71" s="230"/>
-      <c r="AC71" s="230"/>
-      <c r="AD71" s="230"/>
-      <c r="AE71" s="230"/>
-      <c r="AF71" s="230"/>
-      <c r="AG71" s="230"/>
-      <c r="AH71" s="231"/>
+      <c r="N71" s="264"/>
+      <c r="O71" s="264"/>
+      <c r="P71" s="264"/>
+      <c r="Q71" s="264"/>
+      <c r="R71" s="264"/>
+      <c r="S71" s="264"/>
+      <c r="T71" s="264"/>
+      <c r="U71" s="264"/>
+      <c r="V71" s="264"/>
+      <c r="W71" s="264"/>
+      <c r="X71" s="264"/>
+      <c r="Y71" s="264"/>
+      <c r="Z71" s="264"/>
+      <c r="AA71" s="264"/>
+      <c r="AB71" s="264"/>
+      <c r="AC71" s="264"/>
+      <c r="AD71" s="264"/>
+      <c r="AE71" s="264"/>
+      <c r="AF71" s="264"/>
+      <c r="AG71" s="264"/>
+      <c r="AH71" s="265"/>
     </row>
     <row r="72" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="50"/>
       <c r="D72" s="50"/>
-      <c r="E72" s="268" t="s">
+      <c r="E72" s="269" t="s">
         <v>187</v>
       </c>
-      <c r="F72" s="269"/>
-      <c r="G72" s="269"/>
-      <c r="H72" s="269"/>
-      <c r="I72" s="269"/>
-      <c r="J72" s="270"/>
-      <c r="K72" s="166" t="s">
+      <c r="F72" s="270"/>
+      <c r="G72" s="270"/>
+      <c r="H72" s="270"/>
+      <c r="I72" s="270"/>
+      <c r="J72" s="271"/>
+      <c r="K72" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="L72" s="168"/>
-      <c r="M72" s="192" t="s">
+      <c r="L72" s="106"/>
+      <c r="M72" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="N72" s="193"/>
-      <c r="O72" s="193"/>
-      <c r="P72" s="193"/>
-      <c r="Q72" s="193"/>
-      <c r="R72" s="193"/>
-      <c r="S72" s="193"/>
-      <c r="T72" s="193"/>
-      <c r="U72" s="193"/>
-      <c r="V72" s="193"/>
-      <c r="W72" s="193"/>
-      <c r="X72" s="193"/>
-      <c r="Y72" s="193"/>
-      <c r="Z72" s="193"/>
-      <c r="AA72" s="193"/>
-      <c r="AB72" s="193"/>
-      <c r="AC72" s="193"/>
-      <c r="AD72" s="193"/>
-      <c r="AE72" s="193"/>
-      <c r="AF72" s="193"/>
-      <c r="AG72" s="193"/>
-      <c r="AH72" s="194"/>
+      <c r="N72" s="201"/>
+      <c r="O72" s="201"/>
+      <c r="P72" s="201"/>
+      <c r="Q72" s="201"/>
+      <c r="R72" s="201"/>
+      <c r="S72" s="201"/>
+      <c r="T72" s="201"/>
+      <c r="U72" s="201"/>
+      <c r="V72" s="201"/>
+      <c r="W72" s="201"/>
+      <c r="X72" s="201"/>
+      <c r="Y72" s="201"/>
+      <c r="Z72" s="201"/>
+      <c r="AA72" s="201"/>
+      <c r="AB72" s="201"/>
+      <c r="AC72" s="201"/>
+      <c r="AD72" s="201"/>
+      <c r="AE72" s="201"/>
+      <c r="AF72" s="201"/>
+      <c r="AG72" s="201"/>
+      <c r="AH72" s="202"/>
     </row>
     <row r="73" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="50"/>
       <c r="D73" s="50"/>
-      <c r="E73" s="271"/>
-      <c r="F73" s="272"/>
-      <c r="G73" s="272"/>
-      <c r="H73" s="272"/>
-      <c r="I73" s="272"/>
-      <c r="J73" s="273"/>
-      <c r="K73" s="274"/>
-      <c r="L73" s="275"/>
-      <c r="M73" s="198"/>
-      <c r="N73" s="199"/>
-      <c r="O73" s="199"/>
-      <c r="P73" s="199"/>
-      <c r="Q73" s="199"/>
-      <c r="R73" s="199"/>
-      <c r="S73" s="199"/>
-      <c r="T73" s="199"/>
-      <c r="U73" s="199"/>
-      <c r="V73" s="199"/>
-      <c r="W73" s="199"/>
-      <c r="X73" s="199"/>
-      <c r="Y73" s="199"/>
-      <c r="Z73" s="199"/>
-      <c r="AA73" s="199"/>
-      <c r="AB73" s="199"/>
-      <c r="AC73" s="199"/>
-      <c r="AD73" s="199"/>
-      <c r="AE73" s="199"/>
-      <c r="AF73" s="199"/>
-      <c r="AG73" s="199"/>
-      <c r="AH73" s="200"/>
+      <c r="E73" s="272"/>
+      <c r="F73" s="273"/>
+      <c r="G73" s="273"/>
+      <c r="H73" s="273"/>
+      <c r="I73" s="273"/>
+      <c r="J73" s="274"/>
+      <c r="K73" s="275"/>
+      <c r="L73" s="276"/>
+      <c r="M73" s="206"/>
+      <c r="N73" s="207"/>
+      <c r="O73" s="207"/>
+      <c r="P73" s="207"/>
+      <c r="Q73" s="207"/>
+      <c r="R73" s="207"/>
+      <c r="S73" s="207"/>
+      <c r="T73" s="207"/>
+      <c r="U73" s="207"/>
+      <c r="V73" s="207"/>
+      <c r="W73" s="207"/>
+      <c r="X73" s="207"/>
+      <c r="Y73" s="207"/>
+      <c r="Z73" s="207"/>
+      <c r="AA73" s="207"/>
+      <c r="AB73" s="207"/>
+      <c r="AC73" s="207"/>
+      <c r="AD73" s="207"/>
+      <c r="AE73" s="207"/>
+      <c r="AF73" s="207"/>
+      <c r="AG73" s="207"/>
+      <c r="AH73" s="208"/>
     </row>
     <row r="74" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="50"/>
@@ -13573,38 +13767,38 @@
       </c>
     </row>
     <row r="78" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="255" t="s">
+      <c r="E78" s="242" t="s">
         <v>105</v>
       </c>
-      <c r="F78" s="255"/>
-      <c r="G78" s="255"/>
-      <c r="H78" s="255"/>
-      <c r="I78" s="255"/>
-      <c r="J78" s="255"/>
-      <c r="K78" s="255"/>
-      <c r="L78" s="255"/>
-      <c r="M78" s="255"/>
-      <c r="N78" s="255"/>
-      <c r="O78" s="255"/>
-      <c r="P78" s="255"/>
-      <c r="Q78" s="255"/>
-      <c r="R78" s="255"/>
-      <c r="S78" s="255"/>
-      <c r="T78" s="255"/>
-      <c r="U78" s="255"/>
-      <c r="V78" s="255"/>
-      <c r="W78" s="255"/>
-      <c r="X78" s="255"/>
-      <c r="Y78" s="255"/>
-      <c r="Z78" s="255"/>
-      <c r="AA78" s="255"/>
-      <c r="AB78" s="255"/>
-      <c r="AC78" s="255"/>
-      <c r="AD78" s="255"/>
-      <c r="AE78" s="255"/>
-      <c r="AF78" s="255"/>
-      <c r="AG78" s="255"/>
-      <c r="AH78" s="255"/>
+      <c r="F78" s="242"/>
+      <c r="G78" s="242"/>
+      <c r="H78" s="242"/>
+      <c r="I78" s="242"/>
+      <c r="J78" s="242"/>
+      <c r="K78" s="242"/>
+      <c r="L78" s="242"/>
+      <c r="M78" s="242"/>
+      <c r="N78" s="242"/>
+      <c r="O78" s="242"/>
+      <c r="P78" s="242"/>
+      <c r="Q78" s="242"/>
+      <c r="R78" s="242"/>
+      <c r="S78" s="242"/>
+      <c r="T78" s="242"/>
+      <c r="U78" s="242"/>
+      <c r="V78" s="242"/>
+      <c r="W78" s="242"/>
+      <c r="X78" s="242"/>
+      <c r="Y78" s="242"/>
+      <c r="Z78" s="242"/>
+      <c r="AA78" s="242"/>
+      <c r="AB78" s="242"/>
+      <c r="AC78" s="242"/>
+      <c r="AD78" s="242"/>
+      <c r="AE78" s="242"/>
+      <c r="AF78" s="242"/>
+      <c r="AG78" s="242"/>
+      <c r="AH78" s="242"/>
     </row>
     <row r="79" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="42" t="s">
@@ -14021,57 +14215,6 @@
     <row r="93" spans="5:34" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:AH73"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:AH71"/>
-    <mergeCell ref="E48:J62"/>
-    <mergeCell ref="K48:L62"/>
-    <mergeCell ref="M49:AH49"/>
-    <mergeCell ref="N53:AH53"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="E43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="M43:AH44"/>
-    <mergeCell ref="E45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="M45:AH47"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:AH42"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
     <mergeCell ref="E78:AH78"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -14088,6 +14231,57 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:AH42"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="M43:AH44"/>
+    <mergeCell ref="E45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="M45:AH47"/>
+    <mergeCell ref="E48:J62"/>
+    <mergeCell ref="K48:L62"/>
+    <mergeCell ref="M49:AH49"/>
+    <mergeCell ref="N53:AH53"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="E72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:AH73"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:AH71"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A93457-D926-413D-804C-EABCA021DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FEE0B9-FCE9-4107-8807-EF78FB0C5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1080" windowWidth="18900" windowHeight="14265" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="75" windowWidth="18900" windowHeight="14265" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -1135,10 +1135,6 @@
     <t>All issues raised in the review of the unit test results must be resolved,</t>
   </si>
   <si>
-    <t>Unit test specification creation unit</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <r>
       <t>・</t>
     </r>
@@ -1319,10 +1315,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>All check results of the completion condition checklist of completion conditions for programming and unit test work must pass.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>All unit test cases must have been tested, and must all have passed test.</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1347,7 +1339,14 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>The viewpoint of the test specification format is to transcribe everything described in the test viewpoint catalog.</t>
+    <t>All check results of checklist completion conditions for programming and unit test work must pass.</t>
+  </si>
+  <si>
+    <t>Unit of creation of unit testing specifications</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>All viewpoints listed in the test viewpoint catalog were transcribed into the test specification format.</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2162,6 +2161,21 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2180,24 +2194,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2261,15 +2320,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2312,57 +2362,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2399,132 +2398,132 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2546,6 +2545,66 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2555,53 +2614,41 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2620,54 +2667,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4294,7 +4293,7 @@
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Operational test </a:t>
+            <a:t>Business test </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0">
@@ -6255,153 +6254,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="141" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="132" t="s">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="120" t="s">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="125" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="128">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="130"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
       <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="120" t="s">
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="164" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="131" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="128">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
       <c r="AN2" s="18"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="130"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6445,1069 +6444,1204 @@
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="172" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="172" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="172" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="172" t="s">
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="174"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="112"/>
     </row>
     <row r="8" spans="1:40" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="146">
+      <c r="C8" s="162"/>
+      <c r="D8" s="163">
         <v>43336</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149" t="s">
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="150"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152" t="s">
+      <c r="H8" s="167"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155" t="s">
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="156"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="157"/>
-      <c r="AF8" s="167" t="s">
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="169"/>
+      <c r="AG8" s="138"/>
+      <c r="AH8" s="138"/>
+      <c r="AI8" s="139"/>
     </row>
     <row r="9" spans="1:40" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116">
+      <c r="C9" s="123"/>
+      <c r="D9" s="119">
         <v>43850</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="114" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="108" t="s">
+      <c r="H9" s="124"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="111" t="s">
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="108" t="s">
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="110"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="115"/>
     </row>
     <row r="10" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88">
         <v>3</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116">
+      <c r="C10" s="123"/>
+      <c r="D10" s="119">
         <v>44777</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="114" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="108" t="s">
+      <c r="H10" s="124"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="111" t="s">
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="108" t="s">
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="110"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="115"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="109"/>
-      <c r="AH11" s="109"/>
-      <c r="AI11" s="110"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="115"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="112"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="110"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="115"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="110"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="115"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="112"/>
-      <c r="AB14" s="112"/>
-      <c r="AC14" s="112"/>
-      <c r="AD14" s="112"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="110"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="115"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="112"/>
-      <c r="W15" s="112"/>
-      <c r="X15" s="112"/>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="112"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="112"/>
-      <c r="AD15" s="112"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="110"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="115"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="112"/>
-      <c r="W16" s="112"/>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="112"/>
-      <c r="AA16" s="112"/>
-      <c r="AB16" s="112"/>
-      <c r="AC16" s="112"/>
-      <c r="AD16" s="112"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="110"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="115"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="112"/>
-      <c r="AA17" s="112"/>
-      <c r="AB17" s="112"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="112"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="110"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="115"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="112"/>
-      <c r="AA18" s="112"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="110"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="115"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="112"/>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="112"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="109"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="110"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="115"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="112"/>
-      <c r="AC20" s="112"/>
-      <c r="AD20" s="112"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="110"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="115"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112"/>
-      <c r="AB21" s="112"/>
-      <c r="AC21" s="112"/>
-      <c r="AD21" s="112"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="110"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="115"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="112"/>
-      <c r="AA22" s="112"/>
-      <c r="AB22" s="112"/>
-      <c r="AC22" s="112"/>
-      <c r="AD22" s="112"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="110"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="115"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="112"/>
-      <c r="AD23" s="112"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="109"/>
-      <c r="AH23" s="109"/>
-      <c r="AI23" s="110"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="115"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="112"/>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="109"/>
-      <c r="AH24" s="109"/>
-      <c r="AI24" s="110"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="114"/>
+      <c r="AI24" s="115"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="110"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="114"/>
+      <c r="AI25" s="115"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="110"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="115"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="110"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="118"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="114"/>
+      <c r="AH27" s="114"/>
+      <c r="AI27" s="115"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="109"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="110"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="118"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="114"/>
+      <c r="AH28" s="114"/>
+      <c r="AI28" s="115"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="109"/>
-      <c r="AH29" s="109"/>
-      <c r="AI29" s="110"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="116"/>
+      <c r="R29" s="117"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="115"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="109"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="110"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="117"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="118"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="115"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="109"/>
-      <c r="AH31" s="109"/>
-      <c r="AI31" s="110"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="118"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="115"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="109"/>
-      <c r="AH32" s="109"/>
-      <c r="AI32" s="110"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="114"/>
+      <c r="AH32" s="114"/>
+      <c r="AI32" s="115"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="112"/>
-      <c r="AB33" s="112"/>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="112"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="110"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -7532,151 +7666,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7707,31 +7706,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -7743,52 +7742,52 @@
       <c r="X1" s="176"/>
       <c r="Y1" s="176"/>
       <c r="Z1" s="177"/>
-      <c r="AA1" s="120" t="s">
+      <c r="AA1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="130"/>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="178"/>
       <c r="T2" s="179"/>
       <c r="U2" s="179"/>
@@ -7797,52 +7796,52 @@
       <c r="X2" s="179"/>
       <c r="Y2" s="179"/>
       <c r="Z2" s="180"/>
-      <c r="AA2" s="120" t="s">
+      <c r="AA2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="181"/>
       <c r="T3" s="182"/>
       <c r="U3" s="182"/>
@@ -7851,21 +7850,21 @@
       <c r="X3" s="182"/>
       <c r="Y3" s="182"/>
       <c r="Z3" s="183"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="158" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="130"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
@@ -7999,7 +7998,7 @@
     <row r="11" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="23"/>
@@ -8068,7 +8067,7 @@
     <row r="14" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="C14" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -8089,7 +8088,7 @@
     <row r="15" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="C15" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -8131,7 +8130,7 @@
     </row>
     <row r="17" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="B17" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -8146,7 +8145,7 @@
     <row r="18" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="C18" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -8166,7 +8165,7 @@
     <row r="19" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="C19" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -8192,7 +8191,7 @@
     <row r="20" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -8865,14 +8864,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -8882,6 +8873,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8911,31 +8910,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -8947,48 +8946,48 @@
       <c r="X1" s="176"/>
       <c r="Y1" s="176"/>
       <c r="Z1" s="177"/>
-      <c r="AA1" s="120" t="s">
+      <c r="AA1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="130"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="178"/>
       <c r="T2" s="179"/>
       <c r="U2" s="179"/>
@@ -8997,48 +8996,48 @@
       <c r="X2" s="179"/>
       <c r="Y2" s="179"/>
       <c r="Z2" s="180"/>
-      <c r="AA2" s="120" t="s">
+      <c r="AA2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="181"/>
       <c r="T3" s="182"/>
       <c r="U3" s="182"/>
@@ -9047,21 +9046,21 @@
       <c r="X3" s="182"/>
       <c r="Y3" s="182"/>
       <c r="Z3" s="183"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="158" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="130"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9077,23 +9076,23 @@
     <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D8" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D9" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D11" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D12" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
@@ -9107,7 +9106,7 @@
     <row r="17" spans="4:4" ht="12" x14ac:dyDescent="0.15"/>
     <row r="18" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9137,14 +9136,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -9154,6 +9145,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -9188,31 +9187,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -9224,48 +9223,48 @@
       <c r="X1" s="176"/>
       <c r="Y1" s="176"/>
       <c r="Z1" s="177"/>
-      <c r="AA1" s="120" t="s">
+      <c r="AA1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="130"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="178"/>
       <c r="T2" s="179"/>
       <c r="U2" s="179"/>
@@ -9274,48 +9273,48 @@
       <c r="X2" s="179"/>
       <c r="Y2" s="179"/>
       <c r="Z2" s="180"/>
-      <c r="AA2" s="120" t="s">
+      <c r="AA2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="181"/>
       <c r="T3" s="182"/>
       <c r="U3" s="182"/>
@@ -9324,27 +9323,27 @@
       <c r="X3" s="182"/>
       <c r="Y3" s="182"/>
       <c r="Z3" s="183"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="158" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="130"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9362,7 +9361,7 @@
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="36"/>
       <c r="D8" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9384,7 +9383,7 @@
     <row r="12" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="36"/>
       <c r="D12" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9418,7 +9417,7 @@
     <row r="18" spans="3:4" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="36"/>
       <c r="D18" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="12" x14ac:dyDescent="0.15">
@@ -9497,350 +9496,350 @@
       <c r="D36" s="32"/>
     </row>
     <row r="37" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D37" s="190" t="s">
+      <c r="D37" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="190" t="s">
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="191"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="191"/>
-      <c r="P37" s="191"/>
-      <c r="Q37" s="191"/>
-      <c r="R37" s="191"/>
-      <c r="S37" s="191"/>
-      <c r="T37" s="191"/>
-      <c r="U37" s="191"/>
-      <c r="V37" s="191"/>
-      <c r="W37" s="191"/>
-      <c r="X37" s="191"/>
-      <c r="Y37" s="191"/>
-      <c r="Z37" s="191"/>
-      <c r="AA37" s="191"/>
-      <c r="AB37" s="191"/>
-      <c r="AC37" s="191"/>
-      <c r="AD37" s="191"/>
-      <c r="AE37" s="191"/>
-      <c r="AF37" s="191"/>
-      <c r="AG37" s="191"/>
-      <c r="AH37" s="192"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="204"/>
+      <c r="O37" s="204"/>
+      <c r="P37" s="204"/>
+      <c r="Q37" s="204"/>
+      <c r="R37" s="204"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="204"/>
+      <c r="U37" s="204"/>
+      <c r="V37" s="204"/>
+      <c r="W37" s="204"/>
+      <c r="X37" s="204"/>
+      <c r="Y37" s="204"/>
+      <c r="Z37" s="204"/>
+      <c r="AA37" s="204"/>
+      <c r="AB37" s="204"/>
+      <c r="AC37" s="204"/>
+      <c r="AD37" s="204"/>
+      <c r="AE37" s="204"/>
+      <c r="AF37" s="204"/>
+      <c r="AG37" s="204"/>
+      <c r="AH37" s="205"/>
     </row>
     <row r="38" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D38" s="217" t="s">
+      <c r="D38" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="199" t="s">
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="206" t="s">
         <v>171</v>
       </c>
-      <c r="K38" s="200"/>
-      <c r="L38" s="200"/>
-      <c r="M38" s="200"/>
-      <c r="N38" s="200"/>
-      <c r="O38" s="200"/>
-      <c r="P38" s="200"/>
-      <c r="Q38" s="200"/>
-      <c r="R38" s="200"/>
-      <c r="S38" s="200"/>
-      <c r="T38" s="200"/>
-      <c r="U38" s="200"/>
-      <c r="V38" s="200"/>
-      <c r="W38" s="200"/>
-      <c r="X38" s="200"/>
-      <c r="Y38" s="200"/>
-      <c r="Z38" s="200"/>
-      <c r="AA38" s="200"/>
-      <c r="AB38" s="200"/>
-      <c r="AC38" s="200"/>
-      <c r="AD38" s="200"/>
-      <c r="AE38" s="200"/>
-      <c r="AF38" s="200"/>
-      <c r="AG38" s="200"/>
-      <c r="AH38" s="201"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+      <c r="O38" s="207"/>
+      <c r="P38" s="207"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="207"/>
+      <c r="S38" s="207"/>
+      <c r="T38" s="207"/>
+      <c r="U38" s="207"/>
+      <c r="V38" s="207"/>
+      <c r="W38" s="207"/>
+      <c r="X38" s="207"/>
+      <c r="Y38" s="207"/>
+      <c r="Z38" s="207"/>
+      <c r="AA38" s="207"/>
+      <c r="AB38" s="207"/>
+      <c r="AC38" s="207"/>
+      <c r="AD38" s="207"/>
+      <c r="AE38" s="207"/>
+      <c r="AF38" s="207"/>
+      <c r="AG38" s="207"/>
+      <c r="AH38" s="208"/>
     </row>
     <row r="39" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D39" s="220"/>
-      <c r="E39" s="221"/>
-      <c r="F39" s="221"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="221"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="203"/>
-      <c r="L39" s="203"/>
-      <c r="M39" s="203"/>
-      <c r="N39" s="203"/>
-      <c r="O39" s="203"/>
-      <c r="P39" s="203"/>
-      <c r="Q39" s="203"/>
-      <c r="R39" s="203"/>
-      <c r="S39" s="203"/>
-      <c r="T39" s="203"/>
-      <c r="U39" s="203"/>
-      <c r="V39" s="203"/>
-      <c r="W39" s="203"/>
-      <c r="X39" s="203"/>
-      <c r="Y39" s="203"/>
-      <c r="Z39" s="203"/>
-      <c r="AA39" s="203"/>
-      <c r="AB39" s="203"/>
-      <c r="AC39" s="203"/>
-      <c r="AD39" s="203"/>
-      <c r="AE39" s="203"/>
-      <c r="AF39" s="203"/>
-      <c r="AG39" s="203"/>
-      <c r="AH39" s="204"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="210"/>
+      <c r="L39" s="210"/>
+      <c r="M39" s="210"/>
+      <c r="N39" s="210"/>
+      <c r="O39" s="210"/>
+      <c r="P39" s="210"/>
+      <c r="Q39" s="210"/>
+      <c r="R39" s="210"/>
+      <c r="S39" s="210"/>
+      <c r="T39" s="210"/>
+      <c r="U39" s="210"/>
+      <c r="V39" s="210"/>
+      <c r="W39" s="210"/>
+      <c r="X39" s="210"/>
+      <c r="Y39" s="210"/>
+      <c r="Z39" s="210"/>
+      <c r="AA39" s="210"/>
+      <c r="AB39" s="210"/>
+      <c r="AC39" s="210"/>
+      <c r="AD39" s="210"/>
+      <c r="AE39" s="210"/>
+      <c r="AF39" s="210"/>
+      <c r="AG39" s="210"/>
+      <c r="AH39" s="211"/>
     </row>
     <row r="40" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D40" s="223"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="225"/>
-      <c r="J40" s="205"/>
-      <c r="K40" s="206"/>
-      <c r="L40" s="206"/>
-      <c r="M40" s="206"/>
-      <c r="N40" s="206"/>
-      <c r="O40" s="206"/>
-      <c r="P40" s="206"/>
-      <c r="Q40" s="206"/>
-      <c r="R40" s="206"/>
-      <c r="S40" s="206"/>
-      <c r="T40" s="206"/>
-      <c r="U40" s="206"/>
-      <c r="V40" s="206"/>
-      <c r="W40" s="206"/>
-      <c r="X40" s="206"/>
-      <c r="Y40" s="206"/>
-      <c r="Z40" s="206"/>
-      <c r="AA40" s="206"/>
-      <c r="AB40" s="206"/>
-      <c r="AC40" s="206"/>
-      <c r="AD40" s="206"/>
-      <c r="AE40" s="206"/>
-      <c r="AF40" s="206"/>
-      <c r="AG40" s="206"/>
-      <c r="AH40" s="207"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="212"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="213"/>
+      <c r="O40" s="213"/>
+      <c r="P40" s="213"/>
+      <c r="Q40" s="213"/>
+      <c r="R40" s="213"/>
+      <c r="S40" s="213"/>
+      <c r="T40" s="213"/>
+      <c r="U40" s="213"/>
+      <c r="V40" s="213"/>
+      <c r="W40" s="213"/>
+      <c r="X40" s="213"/>
+      <c r="Y40" s="213"/>
+      <c r="Z40" s="213"/>
+      <c r="AA40" s="213"/>
+      <c r="AB40" s="213"/>
+      <c r="AC40" s="213"/>
+      <c r="AD40" s="213"/>
+      <c r="AE40" s="213"/>
+      <c r="AF40" s="213"/>
+      <c r="AG40" s="213"/>
+      <c r="AH40" s="214"/>
     </row>
     <row r="41" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D41" s="217" t="s">
+      <c r="D41" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="208" t="s">
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="215" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216"/>
+      <c r="N41" s="216"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="216"/>
+      <c r="Q41" s="216"/>
+      <c r="R41" s="216"/>
+      <c r="S41" s="216"/>
+      <c r="T41" s="216"/>
+      <c r="U41" s="216"/>
+      <c r="V41" s="216"/>
+      <c r="W41" s="216"/>
+      <c r="X41" s="216"/>
+      <c r="Y41" s="216"/>
+      <c r="Z41" s="216"/>
+      <c r="AA41" s="216"/>
+      <c r="AB41" s="216"/>
+      <c r="AC41" s="216"/>
+      <c r="AD41" s="216"/>
+      <c r="AE41" s="216"/>
+      <c r="AF41" s="216"/>
+      <c r="AG41" s="216"/>
+      <c r="AH41" s="217"/>
+    </row>
+    <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="D42" s="190"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="218"/>
+      <c r="K42" s="219"/>
+      <c r="L42" s="219"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
+      <c r="O42" s="219"/>
+      <c r="P42" s="219"/>
+      <c r="Q42" s="219"/>
+      <c r="R42" s="219"/>
+      <c r="S42" s="219"/>
+      <c r="T42" s="219"/>
+      <c r="U42" s="219"/>
+      <c r="V42" s="219"/>
+      <c r="W42" s="219"/>
+      <c r="X42" s="219"/>
+      <c r="Y42" s="219"/>
+      <c r="Z42" s="219"/>
+      <c r="AA42" s="219"/>
+      <c r="AB42" s="219"/>
+      <c r="AC42" s="219"/>
+      <c r="AD42" s="219"/>
+      <c r="AE42" s="219"/>
+      <c r="AF42" s="219"/>
+      <c r="AG42" s="219"/>
+      <c r="AH42" s="220"/>
+    </row>
+    <row r="43" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="193"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="222"/>
+      <c r="L43" s="222"/>
+      <c r="M43" s="222"/>
+      <c r="N43" s="222"/>
+      <c r="O43" s="222"/>
+      <c r="P43" s="222"/>
+      <c r="Q43" s="222"/>
+      <c r="R43" s="222"/>
+      <c r="S43" s="222"/>
+      <c r="T43" s="222"/>
+      <c r="U43" s="222"/>
+      <c r="V43" s="222"/>
+      <c r="W43" s="222"/>
+      <c r="X43" s="222"/>
+      <c r="Y43" s="222"/>
+      <c r="Z43" s="222"/>
+      <c r="AA43" s="222"/>
+      <c r="AB43" s="222"/>
+      <c r="AC43" s="222"/>
+      <c r="AD43" s="222"/>
+      <c r="AE43" s="222"/>
+      <c r="AF43" s="222"/>
+      <c r="AG43" s="222"/>
+      <c r="AH43" s="223"/>
+    </row>
+    <row r="44" spans="3:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="D44" s="187" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="189"/>
+      <c r="J44" s="215" t="s">
         <v>204</v>
       </c>
-      <c r="K41" s="209"/>
-      <c r="L41" s="209"/>
-      <c r="M41" s="209"/>
-      <c r="N41" s="209"/>
-      <c r="O41" s="209"/>
-      <c r="P41" s="209"/>
-      <c r="Q41" s="209"/>
-      <c r="R41" s="209"/>
-      <c r="S41" s="209"/>
-      <c r="T41" s="209"/>
-      <c r="U41" s="209"/>
-      <c r="V41" s="209"/>
-      <c r="W41" s="209"/>
-      <c r="X41" s="209"/>
-      <c r="Y41" s="209"/>
-      <c r="Z41" s="209"/>
-      <c r="AA41" s="209"/>
-      <c r="AB41" s="209"/>
-      <c r="AC41" s="209"/>
-      <c r="AD41" s="209"/>
-      <c r="AE41" s="209"/>
-      <c r="AF41" s="209"/>
-      <c r="AG41" s="209"/>
-      <c r="AH41" s="210"/>
-    </row>
-    <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D42" s="220"/>
-      <c r="E42" s="221"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="221"/>
-      <c r="I42" s="222"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="212"/>
-      <c r="L42" s="212"/>
-      <c r="M42" s="212"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="212"/>
-      <c r="P42" s="212"/>
-      <c r="Q42" s="212"/>
-      <c r="R42" s="212"/>
-      <c r="S42" s="212"/>
-      <c r="T42" s="212"/>
-      <c r="U42" s="212"/>
-      <c r="V42" s="212"/>
-      <c r="W42" s="212"/>
-      <c r="X42" s="212"/>
-      <c r="Y42" s="212"/>
-      <c r="Z42" s="212"/>
-      <c r="AA42" s="212"/>
-      <c r="AB42" s="212"/>
-      <c r="AC42" s="212"/>
-      <c r="AD42" s="212"/>
-      <c r="AE42" s="212"/>
-      <c r="AF42" s="212"/>
-      <c r="AG42" s="212"/>
-      <c r="AH42" s="213"/>
-    </row>
-    <row r="43" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="223"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="224"/>
-      <c r="G43" s="224"/>
-      <c r="H43" s="224"/>
-      <c r="I43" s="225"/>
-      <c r="J43" s="214"/>
-      <c r="K43" s="215"/>
-      <c r="L43" s="215"/>
-      <c r="M43" s="215"/>
-      <c r="N43" s="215"/>
-      <c r="O43" s="215"/>
-      <c r="P43" s="215"/>
-      <c r="Q43" s="215"/>
-      <c r="R43" s="215"/>
-      <c r="S43" s="215"/>
-      <c r="T43" s="215"/>
-      <c r="U43" s="215"/>
-      <c r="V43" s="215"/>
-      <c r="W43" s="215"/>
-      <c r="X43" s="215"/>
-      <c r="Y43" s="215"/>
-      <c r="Z43" s="215"/>
-      <c r="AA43" s="215"/>
-      <c r="AB43" s="215"/>
-      <c r="AC43" s="215"/>
-      <c r="AD43" s="215"/>
-      <c r="AE43" s="215"/>
-      <c r="AF43" s="215"/>
-      <c r="AG43" s="215"/>
-      <c r="AH43" s="216"/>
-    </row>
-    <row r="44" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D44" s="217" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="218"/>
-      <c r="F44" s="218"/>
-      <c r="G44" s="218"/>
-      <c r="H44" s="218"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="208" t="s">
-        <v>205</v>
-      </c>
-      <c r="K44" s="209"/>
-      <c r="L44" s="209"/>
-      <c r="M44" s="209"/>
-      <c r="N44" s="209"/>
-      <c r="O44" s="209"/>
-      <c r="P44" s="209"/>
-      <c r="Q44" s="209"/>
-      <c r="R44" s="209"/>
-      <c r="S44" s="209"/>
-      <c r="T44" s="209"/>
-      <c r="U44" s="209"/>
-      <c r="V44" s="209"/>
-      <c r="W44" s="209"/>
-      <c r="X44" s="209"/>
-      <c r="Y44" s="209"/>
-      <c r="Z44" s="209"/>
-      <c r="AA44" s="209"/>
-      <c r="AB44" s="209"/>
-      <c r="AC44" s="209"/>
-      <c r="AD44" s="209"/>
-      <c r="AE44" s="209"/>
-      <c r="AF44" s="209"/>
-      <c r="AG44" s="209"/>
-      <c r="AH44" s="210"/>
+      <c r="K44" s="216"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="216"/>
+      <c r="N44" s="216"/>
+      <c r="O44" s="216"/>
+      <c r="P44" s="216"/>
+      <c r="Q44" s="216"/>
+      <c r="R44" s="216"/>
+      <c r="S44" s="216"/>
+      <c r="T44" s="216"/>
+      <c r="U44" s="216"/>
+      <c r="V44" s="216"/>
+      <c r="W44" s="216"/>
+      <c r="X44" s="216"/>
+      <c r="Y44" s="216"/>
+      <c r="Z44" s="216"/>
+      <c r="AA44" s="216"/>
+      <c r="AB44" s="216"/>
+      <c r="AC44" s="216"/>
+      <c r="AD44" s="216"/>
+      <c r="AE44" s="216"/>
+      <c r="AF44" s="216"/>
+      <c r="AG44" s="216"/>
+      <c r="AH44" s="217"/>
     </row>
     <row r="45" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D45" s="220"/>
-      <c r="E45" s="221"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="221"/>
-      <c r="I45" s="222"/>
-      <c r="J45" s="211"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="212"/>
-      <c r="M45" s="212"/>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
-      <c r="P45" s="212"/>
-      <c r="Q45" s="212"/>
-      <c r="R45" s="212"/>
-      <c r="S45" s="212"/>
-      <c r="T45" s="212"/>
-      <c r="U45" s="212"/>
-      <c r="V45" s="212"/>
-      <c r="W45" s="212"/>
-      <c r="X45" s="212"/>
-      <c r="Y45" s="212"/>
-      <c r="Z45" s="212"/>
-      <c r="AA45" s="212"/>
-      <c r="AB45" s="212"/>
-      <c r="AC45" s="212"/>
-      <c r="AD45" s="212"/>
-      <c r="AE45" s="212"/>
-      <c r="AF45" s="212"/>
-      <c r="AG45" s="212"/>
-      <c r="AH45" s="213"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="218"/>
+      <c r="K45" s="219"/>
+      <c r="L45" s="219"/>
+      <c r="M45" s="219"/>
+      <c r="N45" s="219"/>
+      <c r="O45" s="219"/>
+      <c r="P45" s="219"/>
+      <c r="Q45" s="219"/>
+      <c r="R45" s="219"/>
+      <c r="S45" s="219"/>
+      <c r="T45" s="219"/>
+      <c r="U45" s="219"/>
+      <c r="V45" s="219"/>
+      <c r="W45" s="219"/>
+      <c r="X45" s="219"/>
+      <c r="Y45" s="219"/>
+      <c r="Z45" s="219"/>
+      <c r="AA45" s="219"/>
+      <c r="AB45" s="219"/>
+      <c r="AC45" s="219"/>
+      <c r="AD45" s="219"/>
+      <c r="AE45" s="219"/>
+      <c r="AF45" s="219"/>
+      <c r="AG45" s="219"/>
+      <c r="AH45" s="220"/>
     </row>
     <row r="46" spans="3:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="223"/>
-      <c r="E46" s="224"/>
-      <c r="F46" s="224"/>
-      <c r="G46" s="224"/>
-      <c r="H46" s="224"/>
-      <c r="I46" s="225"/>
-      <c r="J46" s="214"/>
-      <c r="K46" s="215"/>
-      <c r="L46" s="215"/>
-      <c r="M46" s="215"/>
-      <c r="N46" s="215"/>
-      <c r="O46" s="215"/>
-      <c r="P46" s="215"/>
-      <c r="Q46" s="215"/>
-      <c r="R46" s="215"/>
-      <c r="S46" s="215"/>
-      <c r="T46" s="215"/>
-      <c r="U46" s="215"/>
-      <c r="V46" s="215"/>
-      <c r="W46" s="215"/>
-      <c r="X46" s="215"/>
-      <c r="Y46" s="215"/>
-      <c r="Z46" s="215"/>
-      <c r="AA46" s="215"/>
-      <c r="AB46" s="215"/>
-      <c r="AC46" s="215"/>
-      <c r="AD46" s="215"/>
-      <c r="AE46" s="215"/>
-      <c r="AF46" s="215"/>
-      <c r="AG46" s="215"/>
-      <c r="AH46" s="216"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="221"/>
+      <c r="K46" s="222"/>
+      <c r="L46" s="222"/>
+      <c r="M46" s="222"/>
+      <c r="N46" s="222"/>
+      <c r="O46" s="222"/>
+      <c r="P46" s="222"/>
+      <c r="Q46" s="222"/>
+      <c r="R46" s="222"/>
+      <c r="S46" s="222"/>
+      <c r="T46" s="222"/>
+      <c r="U46" s="222"/>
+      <c r="V46" s="222"/>
+      <c r="W46" s="222"/>
+      <c r="X46" s="222"/>
+      <c r="Y46" s="222"/>
+      <c r="Z46" s="222"/>
+      <c r="AA46" s="222"/>
+      <c r="AB46" s="222"/>
+      <c r="AC46" s="222"/>
+      <c r="AD46" s="222"/>
+      <c r="AE46" s="222"/>
+      <c r="AF46" s="222"/>
+      <c r="AG46" s="222"/>
+      <c r="AH46" s="223"/>
     </row>
     <row r="47" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="D47" s="43" t="s">
@@ -9863,195 +9862,195 @@
     </row>
     <row r="51" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="52" spans="3:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="196" t="s">
+      <c r="D52" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="198"/>
-      <c r="H52" s="193" t="s">
+      <c r="E52" s="201"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="193" t="s">
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="194"/>
-      <c r="N52" s="194"/>
-      <c r="O52" s="195"/>
-      <c r="P52" s="193" t="s">
+      <c r="M52" s="224"/>
+      <c r="N52" s="224"/>
+      <c r="O52" s="225"/>
+      <c r="P52" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="Q52" s="112"/>
-      <c r="R52" s="112"/>
-      <c r="S52" s="113"/>
-      <c r="T52" s="193" t="s">
+      <c r="Q52" s="117"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="U52" s="112"/>
-      <c r="V52" s="112"/>
-      <c r="W52" s="113"/>
-      <c r="X52" s="193" t="s">
+      <c r="U52" s="117"/>
+      <c r="V52" s="117"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="Y52" s="112"/>
-      <c r="Z52" s="112"/>
-      <c r="AA52" s="113"/>
-      <c r="AB52" s="189"/>
-      <c r="AC52" s="189"/>
-      <c r="AD52" s="189"/>
-      <c r="AE52" s="189"/>
-      <c r="AF52" s="189"/>
-      <c r="AG52" s="189"/>
-      <c r="AH52" s="189"/>
-      <c r="AI52" s="189"/>
+      <c r="Y52" s="117"/>
+      <c r="Z52" s="117"/>
+      <c r="AA52" s="118"/>
+      <c r="AB52" s="226"/>
+      <c r="AC52" s="226"/>
+      <c r="AD52" s="226"/>
+      <c r="AE52" s="226"/>
+      <c r="AF52" s="226"/>
+      <c r="AG52" s="226"/>
+      <c r="AH52" s="226"/>
+      <c r="AI52" s="226"/>
     </row>
     <row r="53" spans="3:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="226" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="227"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="228"/>
+      <c r="D53" s="197" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="198"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="199"/>
       <c r="H53" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I53" s="185"/>
       <c r="J53" s="185"/>
       <c r="K53" s="186"/>
       <c r="L53" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M53" s="185"/>
       <c r="N53" s="185"/>
       <c r="O53" s="186"/>
       <c r="P53" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q53" s="185"/>
       <c r="R53" s="185"/>
       <c r="S53" s="186"/>
       <c r="T53" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U53" s="185"/>
       <c r="V53" s="185"/>
       <c r="W53" s="186"/>
       <c r="X53" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y53" s="185"/>
       <c r="Z53" s="185"/>
       <c r="AA53" s="186"/>
-      <c r="AB53" s="187"/>
-      <c r="AC53" s="187"/>
-      <c r="AD53" s="187"/>
-      <c r="AE53" s="187"/>
-      <c r="AF53" s="187"/>
-      <c r="AG53" s="187"/>
-      <c r="AH53" s="187"/>
-      <c r="AI53" s="187"/>
+      <c r="AB53" s="227"/>
+      <c r="AC53" s="227"/>
+      <c r="AD53" s="227"/>
+      <c r="AE53" s="227"/>
+      <c r="AF53" s="227"/>
+      <c r="AG53" s="227"/>
+      <c r="AH53" s="227"/>
+      <c r="AI53" s="227"/>
     </row>
     <row r="54" spans="3:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E54" s="185"/>
       <c r="F54" s="185"/>
       <c r="G54" s="186"/>
       <c r="H54" s="184" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I54" s="185"/>
       <c r="J54" s="185"/>
       <c r="K54" s="186"/>
       <c r="L54" s="184" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M54" s="185"/>
       <c r="N54" s="185"/>
       <c r="O54" s="186"/>
       <c r="P54" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q54" s="185"/>
       <c r="R54" s="185"/>
       <c r="S54" s="186"/>
       <c r="T54" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U54" s="185"/>
       <c r="V54" s="185"/>
       <c r="W54" s="186"/>
       <c r="X54" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y54" s="185"/>
       <c r="Z54" s="185"/>
       <c r="AA54" s="186"/>
-      <c r="AB54" s="187"/>
-      <c r="AC54" s="187"/>
-      <c r="AD54" s="187"/>
-      <c r="AE54" s="187"/>
-      <c r="AF54" s="187"/>
-      <c r="AG54" s="187"/>
-      <c r="AH54" s="187"/>
-      <c r="AI54" s="187"/>
+      <c r="AB54" s="227"/>
+      <c r="AC54" s="227"/>
+      <c r="AD54" s="227"/>
+      <c r="AE54" s="227"/>
+      <c r="AF54" s="227"/>
+      <c r="AG54" s="227"/>
+      <c r="AH54" s="227"/>
+      <c r="AI54" s="227"/>
     </row>
     <row r="55" spans="3:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="184" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E55" s="185"/>
       <c r="F55" s="185"/>
       <c r="G55" s="186"/>
       <c r="H55" s="184" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I55" s="185"/>
       <c r="J55" s="185"/>
       <c r="K55" s="186"/>
       <c r="L55" s="184" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M55" s="185"/>
       <c r="N55" s="185"/>
       <c r="O55" s="186"/>
       <c r="P55" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q55" s="185"/>
       <c r="R55" s="185"/>
       <c r="S55" s="186"/>
       <c r="T55" s="184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U55" s="185"/>
       <c r="V55" s="185"/>
       <c r="W55" s="186"/>
-      <c r="X55" s="188" t="s">
+      <c r="X55" s="228" t="s">
         <v>133</v>
       </c>
       <c r="Y55" s="185"/>
       <c r="Z55" s="185"/>
       <c r="AA55" s="186"/>
-      <c r="AB55" s="187"/>
-      <c r="AC55" s="187"/>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
+      <c r="AB55" s="227"/>
+      <c r="AC55" s="227"/>
+      <c r="AD55" s="227"/>
+      <c r="AE55" s="227"/>
+      <c r="AF55" s="227"/>
+      <c r="AG55" s="227"/>
+      <c r="AH55" s="227"/>
+      <c r="AI55" s="227"/>
     </row>
     <row r="56" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D56" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="3:35" ht="12" x14ac:dyDescent="0.15">
@@ -10059,7 +10058,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="3:35" ht="12" x14ac:dyDescent="0.15">
@@ -10075,13 +10074,13 @@
         <v>135</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="61" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C61" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D61" s="31"/>
       <c r="G61" s="31"/>
@@ -10147,14 +10146,14 @@
     </row>
     <row r="63" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D63" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="65" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
     <row r="66" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C66" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="31"/>
     </row>
@@ -10164,7 +10163,7 @@
     </row>
     <row r="68" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="D68" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
@@ -10173,7 +10172,7 @@
         <v>172</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10182,7 +10181,7 @@
         <v>172</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10196,22 +10195,43 @@
     </row>
     <row r="73" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="E73" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="D41:I43"/>
-    <mergeCell ref="D44:I46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AF55:AI55"/>
+    <mergeCell ref="X55:AA55"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="AB54:AE54"/>
+    <mergeCell ref="AB55:AE55"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J37:AH37"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -10228,37 +10248,16 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X52:AA52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AF55:AI55"/>
-    <mergeCell ref="X55:AA55"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="AB54:AE54"/>
-    <mergeCell ref="AB55:AE55"/>
-    <mergeCell ref="AF53:AI53"/>
-    <mergeCell ref="AF54:AI54"/>
-    <mergeCell ref="X54:AA54"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AF52:AI52"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J37:AH37"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="D41:I43"/>
+    <mergeCell ref="D44:I46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10293,31 +10292,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -10329,48 +10328,48 @@
       <c r="X1" s="176"/>
       <c r="Y1" s="176"/>
       <c r="Z1" s="177"/>
-      <c r="AA1" s="120" t="s">
+      <c r="AA1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="130"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="178"/>
       <c r="T2" s="179"/>
       <c r="U2" s="179"/>
@@ -10379,48 +10378,48 @@
       <c r="X2" s="179"/>
       <c r="Y2" s="179"/>
       <c r="Z2" s="180"/>
-      <c r="AA2" s="120" t="s">
+      <c r="AA2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="181"/>
       <c r="T3" s="182"/>
       <c r="U3" s="182"/>
@@ -10429,26 +10428,26 @@
       <c r="X3" s="182"/>
       <c r="Y3" s="182"/>
       <c r="Z3" s="183"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="158" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="130"/>
     </row>
     <row r="4" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="31"/>
     </row>
@@ -10456,8 +10455,8 @@
       <c r="C6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>174</v>
+      <c r="D6" s="32" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -10568,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -10577,13 +10576,13 @@
     <row r="14" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="84"/>
       <c r="D15" s="234" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="234"/>
       <c r="F15" s="234"/>
@@ -10975,7 +10974,7 @@
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
@@ -11101,7 +11100,7 @@
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
       <c r="D42" s="235" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="235"/>
       <c r="F42" s="235"/>
@@ -11181,7 +11180,7 @@
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
       <c r="D44" s="235" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" s="235"/>
       <c r="F44" s="235"/>
@@ -11257,7 +11256,7 @@
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
       <c r="D46" s="89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="90"/>
       <c r="F46" s="91"/>
@@ -11307,7 +11306,7 @@
       <c r="E47" s="93"/>
       <c r="F47" s="94"/>
       <c r="G47" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H47" s="96"/>
       <c r="I47" s="96"/>
@@ -11350,7 +11349,7 @@
       <c r="E48" s="99"/>
       <c r="F48" s="100"/>
       <c r="G48" s="95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H48" s="96"/>
       <c r="I48" s="96"/>
@@ -11395,7 +11394,7 @@
       <c r="E49" s="93"/>
       <c r="F49" s="94"/>
       <c r="G49" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H49" s="96"/>
       <c r="I49" s="96"/>
@@ -11438,7 +11437,7 @@
       <c r="E50" s="99"/>
       <c r="F50" s="100"/>
       <c r="G50" s="95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H50" s="96"/>
       <c r="I50" s="96"/>
@@ -11483,7 +11482,7 @@
       <c r="E51" s="93"/>
       <c r="F51" s="94"/>
       <c r="G51" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H51" s="96"/>
       <c r="I51" s="96"/>
@@ -11526,7 +11525,7 @@
       <c r="E52" s="99"/>
       <c r="F52" s="100"/>
       <c r="G52" s="95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H52" s="96"/>
       <c r="I52" s="96"/>
@@ -11643,7 +11642,7 @@
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
       <c r="D55" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -11751,7 +11750,7 @@
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
       <c r="D58" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -11780,7 +11779,7 @@
       <c r="B59" s="49"/>
       <c r="C59" s="49"/>
       <c r="D59" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
@@ -11821,20 +11820,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D28:AH28"/>
     <mergeCell ref="D56:AD56"/>
     <mergeCell ref="E19:AH19"/>
@@ -11846,6 +11831,20 @@
     <mergeCell ref="D15:AF15"/>
     <mergeCell ref="D42:AG42"/>
     <mergeCell ref="D44:AD44"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11880,31 +11879,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -11916,48 +11915,48 @@
       <c r="X1" s="176"/>
       <c r="Y1" s="176"/>
       <c r="Z1" s="177"/>
-      <c r="AA1" s="120" t="s">
+      <c r="AA1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="130"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="178"/>
       <c r="T2" s="179"/>
       <c r="U2" s="179"/>
@@ -11966,48 +11965,48 @@
       <c r="X2" s="179"/>
       <c r="Y2" s="179"/>
       <c r="Z2" s="180"/>
-      <c r="AA2" s="120" t="s">
+      <c r="AA2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="181"/>
       <c r="T3" s="182"/>
       <c r="U3" s="182"/>
@@ -12016,27 +12015,27 @@
       <c r="X3" s="182"/>
       <c r="Y3" s="182"/>
       <c r="Z3" s="183"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="158" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="128" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="130"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="C5" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -12046,7 +12045,7 @@
     <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -12078,7 +12077,7 @@
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -12512,372 +12511,372 @@
     <row r="22" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
-      <c r="E22" s="236" t="s">
+      <c r="E22" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="237"/>
-      <c r="G22" s="237"/>
-      <c r="H22" s="237"/>
-      <c r="I22" s="237"/>
-      <c r="J22" s="238"/>
-      <c r="K22" s="236" t="s">
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
+      <c r="H22" s="257"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="256" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="238"/>
-      <c r="M22" s="236" t="s">
+      <c r="L22" s="258"/>
+      <c r="M22" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="237"/>
-      <c r="O22" s="237"/>
-      <c r="P22" s="237"/>
-      <c r="Q22" s="237"/>
-      <c r="R22" s="237"/>
-      <c r="S22" s="237"/>
-      <c r="T22" s="237"/>
-      <c r="U22" s="237"/>
-      <c r="V22" s="237"/>
-      <c r="W22" s="237"/>
-      <c r="X22" s="237"/>
-      <c r="Y22" s="237"/>
-      <c r="Z22" s="237"/>
-      <c r="AA22" s="237"/>
-      <c r="AB22" s="237"/>
-      <c r="AC22" s="237"/>
-      <c r="AD22" s="237"/>
-      <c r="AE22" s="237"/>
-      <c r="AF22" s="237"/>
-      <c r="AG22" s="237"/>
-      <c r="AH22" s="238"/>
+      <c r="N22" s="257"/>
+      <c r="O22" s="257"/>
+      <c r="P22" s="257"/>
+      <c r="Q22" s="257"/>
+      <c r="R22" s="257"/>
+      <c r="S22" s="257"/>
+      <c r="T22" s="257"/>
+      <c r="U22" s="257"/>
+      <c r="V22" s="257"/>
+      <c r="W22" s="257"/>
+      <c r="X22" s="257"/>
+      <c r="Y22" s="257"/>
+      <c r="Z22" s="257"/>
+      <c r="AA22" s="257"/>
+      <c r="AB22" s="257"/>
+      <c r="AC22" s="257"/>
+      <c r="AD22" s="257"/>
+      <c r="AE22" s="257"/>
+      <c r="AF22" s="257"/>
+      <c r="AG22" s="257"/>
+      <c r="AH22" s="258"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="239" t="s">
+      <c r="E23" s="236" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="240"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="172" t="s">
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="238"/>
+      <c r="K23" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="174"/>
-      <c r="M23" s="199" t="s">
+      <c r="L23" s="112"/>
+      <c r="M23" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="200"/>
-      <c r="Q23" s="200"/>
-      <c r="R23" s="200"/>
-      <c r="S23" s="200"/>
-      <c r="T23" s="200"/>
-      <c r="U23" s="200"/>
-      <c r="V23" s="200"/>
-      <c r="W23" s="200"/>
-      <c r="X23" s="200"/>
-      <c r="Y23" s="200"/>
-      <c r="Z23" s="200"/>
-      <c r="AA23" s="200"/>
-      <c r="AB23" s="200"/>
-      <c r="AC23" s="200"/>
-      <c r="AD23" s="200"/>
-      <c r="AE23" s="200"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="201"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="207"/>
+      <c r="Q23" s="207"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="207"/>
+      <c r="T23" s="207"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="207"/>
+      <c r="AD23" s="207"/>
+      <c r="AE23" s="207"/>
+      <c r="AF23" s="207"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="208"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="243"/>
-      <c r="H24" s="243"/>
-      <c r="I24" s="243"/>
-      <c r="J24" s="244"/>
-      <c r="K24" s="245"/>
-      <c r="L24" s="246"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="206"/>
-      <c r="O24" s="206"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
-      <c r="U24" s="206"/>
-      <c r="V24" s="206"/>
-      <c r="W24" s="206"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="206"/>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="206"/>
-      <c r="AB24" s="206"/>
-      <c r="AC24" s="206"/>
-      <c r="AD24" s="206"/>
-      <c r="AE24" s="206"/>
-      <c r="AF24" s="206"/>
-      <c r="AG24" s="206"/>
-      <c r="AH24" s="207"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="242"/>
+      <c r="L24" s="243"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="213"/>
+      <c r="Y24" s="213"/>
+      <c r="Z24" s="213"/>
+      <c r="AA24" s="213"/>
+      <c r="AB24" s="213"/>
+      <c r="AC24" s="213"/>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="213"/>
+      <c r="AH24" s="214"/>
     </row>
     <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
-      <c r="E25" s="247" t="s">
+      <c r="E25" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="248"/>
-      <c r="G25" s="248"/>
-      <c r="H25" s="248"/>
-      <c r="I25" s="248"/>
-      <c r="J25" s="249"/>
-      <c r="K25" s="255" t="s">
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="256"/>
-      <c r="M25" s="261" t="s">
+      <c r="L25" s="272"/>
+      <c r="M25" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="262"/>
-      <c r="O25" s="262"/>
-      <c r="P25" s="262"/>
-      <c r="Q25" s="262"/>
-      <c r="R25" s="262"/>
-      <c r="S25" s="262"/>
-      <c r="T25" s="262"/>
-      <c r="U25" s="262"/>
-      <c r="V25" s="262"/>
-      <c r="W25" s="262"/>
-      <c r="X25" s="262"/>
-      <c r="Y25" s="262"/>
-      <c r="Z25" s="262"/>
-      <c r="AA25" s="262"/>
-      <c r="AB25" s="262"/>
-      <c r="AC25" s="262"/>
-      <c r="AD25" s="262"/>
-      <c r="AE25" s="262"/>
-      <c r="AF25" s="262"/>
-      <c r="AG25" s="262"/>
-      <c r="AH25" s="263"/>
+      <c r="N25" s="245"/>
+      <c r="O25" s="245"/>
+      <c r="P25" s="245"/>
+      <c r="Q25" s="245"/>
+      <c r="R25" s="245"/>
+      <c r="S25" s="245"/>
+      <c r="T25" s="245"/>
+      <c r="U25" s="245"/>
+      <c r="V25" s="245"/>
+      <c r="W25" s="245"/>
+      <c r="X25" s="245"/>
+      <c r="Y25" s="245"/>
+      <c r="Z25" s="245"/>
+      <c r="AA25" s="245"/>
+      <c r="AB25" s="245"/>
+      <c r="AC25" s="245"/>
+      <c r="AD25" s="245"/>
+      <c r="AE25" s="245"/>
+      <c r="AF25" s="245"/>
+      <c r="AG25" s="245"/>
+      <c r="AH25" s="246"/>
     </row>
     <row r="26" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="257"/>
-      <c r="L26" s="258"/>
-      <c r="M26" s="264"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="189"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="189"/>
-      <c r="S26" s="189"/>
-      <c r="T26" s="189"/>
-      <c r="U26" s="189"/>
-      <c r="V26" s="189"/>
-      <c r="W26" s="189"/>
-      <c r="X26" s="189"/>
-      <c r="Y26" s="189"/>
-      <c r="Z26" s="189"/>
-      <c r="AA26" s="189"/>
-      <c r="AB26" s="189"/>
-      <c r="AC26" s="189"/>
-      <c r="AD26" s="189"/>
-      <c r="AE26" s="189"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="189"/>
-      <c r="AH26" s="265"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="260"/>
+      <c r="K26" s="273"/>
+      <c r="L26" s="274"/>
+      <c r="M26" s="269"/>
+      <c r="N26" s="226"/>
+      <c r="O26" s="226"/>
+      <c r="P26" s="226"/>
+      <c r="Q26" s="226"/>
+      <c r="R26" s="226"/>
+      <c r="S26" s="226"/>
+      <c r="T26" s="226"/>
+      <c r="U26" s="226"/>
+      <c r="V26" s="226"/>
+      <c r="W26" s="226"/>
+      <c r="X26" s="226"/>
+      <c r="Y26" s="226"/>
+      <c r="Z26" s="226"/>
+      <c r="AA26" s="226"/>
+      <c r="AB26" s="226"/>
+      <c r="AC26" s="226"/>
+      <c r="AD26" s="226"/>
+      <c r="AE26" s="226"/>
+      <c r="AF26" s="226"/>
+      <c r="AG26" s="226"/>
+      <c r="AH26" s="270"/>
     </row>
     <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="252"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="254"/>
-      <c r="K27" s="259"/>
-      <c r="L27" s="260"/>
-      <c r="M27" s="266"/>
-      <c r="N27" s="267"/>
-      <c r="O27" s="267"/>
-      <c r="P27" s="267"/>
-      <c r="Q27" s="267"/>
-      <c r="R27" s="267"/>
-      <c r="S27" s="267"/>
-      <c r="T27" s="267"/>
-      <c r="U27" s="267"/>
-      <c r="V27" s="267"/>
-      <c r="W27" s="267"/>
-      <c r="X27" s="267"/>
-      <c r="Y27" s="267"/>
-      <c r="Z27" s="267"/>
-      <c r="AA27" s="267"/>
-      <c r="AB27" s="267"/>
-      <c r="AC27" s="267"/>
-      <c r="AD27" s="267"/>
-      <c r="AE27" s="267"/>
-      <c r="AF27" s="267"/>
-      <c r="AG27" s="267"/>
-      <c r="AH27" s="268"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="255"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="255"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="275"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="247"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
+      <c r="S27" s="248"/>
+      <c r="T27" s="248"/>
+      <c r="U27" s="248"/>
+      <c r="V27" s="248"/>
+      <c r="W27" s="248"/>
+      <c r="X27" s="248"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="248"/>
+      <c r="AA27" s="248"/>
+      <c r="AB27" s="248"/>
+      <c r="AC27" s="248"/>
+      <c r="AD27" s="248"/>
+      <c r="AE27" s="248"/>
+      <c r="AF27" s="248"/>
+      <c r="AG27" s="248"/>
+      <c r="AH27" s="249"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="239" t="s">
+      <c r="E28" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="240"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="172" t="s">
+      <c r="F28" s="237"/>
+      <c r="G28" s="237"/>
+      <c r="H28" s="237"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="174"/>
-      <c r="M28" s="199" t="s">
+      <c r="L28" s="112"/>
+      <c r="M28" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="200"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="200"/>
-      <c r="Q28" s="200"/>
-      <c r="R28" s="200"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="200"/>
-      <c r="U28" s="200"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="200"/>
-      <c r="Y28" s="200"/>
-      <c r="Z28" s="200"/>
-      <c r="AA28" s="200"/>
-      <c r="AB28" s="200"/>
-      <c r="AC28" s="200"/>
-      <c r="AD28" s="200"/>
-      <c r="AE28" s="200"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="201"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="207"/>
+      <c r="Q28" s="207"/>
+      <c r="R28" s="207"/>
+      <c r="S28" s="207"/>
+      <c r="T28" s="207"/>
+      <c r="U28" s="207"/>
+      <c r="V28" s="207"/>
+      <c r="W28" s="207"/>
+      <c r="X28" s="207"/>
+      <c r="Y28" s="207"/>
+      <c r="Z28" s="207"/>
+      <c r="AA28" s="207"/>
+      <c r="AB28" s="207"/>
+      <c r="AC28" s="207"/>
+      <c r="AD28" s="207"/>
+      <c r="AE28" s="207"/>
+      <c r="AF28" s="207"/>
+      <c r="AG28" s="207"/>
+      <c r="AH28" s="208"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="243"/>
-      <c r="J29" s="244"/>
-      <c r="K29" s="245"/>
-      <c r="L29" s="246"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="206"/>
-      <c r="O29" s="206"/>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="206"/>
-      <c r="T29" s="206"/>
-      <c r="U29" s="206"/>
-      <c r="V29" s="206"/>
-      <c r="W29" s="206"/>
-      <c r="X29" s="206"/>
-      <c r="Y29" s="206"/>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="206"/>
-      <c r="AC29" s="206"/>
-      <c r="AD29" s="206"/>
-      <c r="AE29" s="206"/>
-      <c r="AF29" s="206"/>
-      <c r="AG29" s="206"/>
-      <c r="AH29" s="207"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="240"/>
+      <c r="H29" s="240"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="241"/>
+      <c r="K29" s="242"/>
+      <c r="L29" s="243"/>
+      <c r="M29" s="212"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="213"/>
+      <c r="Q29" s="213"/>
+      <c r="R29" s="213"/>
+      <c r="S29" s="213"/>
+      <c r="T29" s="213"/>
+      <c r="U29" s="213"/>
+      <c r="V29" s="213"/>
+      <c r="W29" s="213"/>
+      <c r="X29" s="213"/>
+      <c r="Y29" s="213"/>
+      <c r="Z29" s="213"/>
+      <c r="AA29" s="213"/>
+      <c r="AB29" s="213"/>
+      <c r="AC29" s="213"/>
+      <c r="AD29" s="213"/>
+      <c r="AE29" s="213"/>
+      <c r="AF29" s="213"/>
+      <c r="AG29" s="213"/>
+      <c r="AH29" s="214"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
-      <c r="E30" s="239" t="s">
+      <c r="E30" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="172" t="s">
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="237"/>
+      <c r="J30" s="238"/>
+      <c r="K30" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="174"/>
-      <c r="M30" s="199" t="s">
+      <c r="L30" s="112"/>
+      <c r="M30" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="200"/>
-      <c r="O30" s="200"/>
-      <c r="P30" s="200"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="200"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="200"/>
-      <c r="Y30" s="200"/>
-      <c r="Z30" s="200"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="200"/>
-      <c r="AC30" s="200"/>
-      <c r="AD30" s="200"/>
-      <c r="AE30" s="200"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="200"/>
-      <c r="AH30" s="201"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="207"/>
+      <c r="Q30" s="207"/>
+      <c r="R30" s="207"/>
+      <c r="S30" s="207"/>
+      <c r="T30" s="207"/>
+      <c r="U30" s="207"/>
+      <c r="V30" s="207"/>
+      <c r="W30" s="207"/>
+      <c r="X30" s="207"/>
+      <c r="Y30" s="207"/>
+      <c r="Z30" s="207"/>
+      <c r="AA30" s="207"/>
+      <c r="AB30" s="207"/>
+      <c r="AC30" s="207"/>
+      <c r="AD30" s="207"/>
+      <c r="AE30" s="207"/>
+      <c r="AF30" s="207"/>
+      <c r="AG30" s="207"/>
+      <c r="AH30" s="208"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="244"/>
-      <c r="K31" s="245"/>
-      <c r="L31" s="246"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="206"/>
-      <c r="O31" s="206"/>
-      <c r="P31" s="206"/>
-      <c r="Q31" s="206"/>
-      <c r="R31" s="206"/>
-      <c r="S31" s="206"/>
-      <c r="T31" s="206"/>
-      <c r="U31" s="206"/>
-      <c r="V31" s="206"/>
-      <c r="W31" s="206"/>
-      <c r="X31" s="206"/>
-      <c r="Y31" s="206"/>
-      <c r="Z31" s="206"/>
-      <c r="AA31" s="206"/>
-      <c r="AB31" s="206"/>
-      <c r="AC31" s="206"/>
-      <c r="AD31" s="206"/>
-      <c r="AE31" s="206"/>
-      <c r="AF31" s="206"/>
-      <c r="AG31" s="206"/>
-      <c r="AH31" s="207"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="240"/>
+      <c r="I31" s="240"/>
+      <c r="J31" s="241"/>
+      <c r="K31" s="242"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="212"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="213"/>
+      <c r="S31" s="213"/>
+      <c r="T31" s="213"/>
+      <c r="U31" s="213"/>
+      <c r="V31" s="213"/>
+      <c r="W31" s="213"/>
+      <c r="X31" s="213"/>
+      <c r="Y31" s="213"/>
+      <c r="Z31" s="213"/>
+      <c r="AA31" s="213"/>
+      <c r="AB31" s="213"/>
+      <c r="AC31" s="213"/>
+      <c r="AD31" s="213"/>
+      <c r="AE31" s="213"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="213"/>
+      <c r="AH31" s="214"/>
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="48"/>
@@ -12974,496 +12973,496 @@
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="236" t="s">
+      <c r="E35" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="237"/>
-      <c r="G35" s="237"/>
-      <c r="H35" s="237"/>
-      <c r="I35" s="237"/>
-      <c r="J35" s="238"/>
-      <c r="K35" s="236" t="s">
+      <c r="F35" s="257"/>
+      <c r="G35" s="257"/>
+      <c r="H35" s="257"/>
+      <c r="I35" s="257"/>
+      <c r="J35" s="258"/>
+      <c r="K35" s="256" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="238"/>
-      <c r="M35" s="236" t="s">
+      <c r="L35" s="258"/>
+      <c r="M35" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="237"/>
-      <c r="O35" s="237"/>
-      <c r="P35" s="237"/>
-      <c r="Q35" s="237"/>
-      <c r="R35" s="237"/>
-      <c r="S35" s="237"/>
-      <c r="T35" s="237"/>
-      <c r="U35" s="237"/>
-      <c r="V35" s="237"/>
-      <c r="W35" s="237"/>
-      <c r="X35" s="237"/>
-      <c r="Y35" s="237"/>
-      <c r="Z35" s="237"/>
-      <c r="AA35" s="237"/>
-      <c r="AB35" s="237"/>
-      <c r="AC35" s="237"/>
-      <c r="AD35" s="237"/>
-      <c r="AE35" s="237"/>
-      <c r="AF35" s="237"/>
-      <c r="AG35" s="237"/>
-      <c r="AH35" s="238"/>
+      <c r="N35" s="257"/>
+      <c r="O35" s="257"/>
+      <c r="P35" s="257"/>
+      <c r="Q35" s="257"/>
+      <c r="R35" s="257"/>
+      <c r="S35" s="257"/>
+      <c r="T35" s="257"/>
+      <c r="U35" s="257"/>
+      <c r="V35" s="257"/>
+      <c r="W35" s="257"/>
+      <c r="X35" s="257"/>
+      <c r="Y35" s="257"/>
+      <c r="Z35" s="257"/>
+      <c r="AA35" s="257"/>
+      <c r="AB35" s="257"/>
+      <c r="AC35" s="257"/>
+      <c r="AD35" s="257"/>
+      <c r="AE35" s="257"/>
+      <c r="AF35" s="257"/>
+      <c r="AG35" s="257"/>
+      <c r="AH35" s="258"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="239" t="s">
+      <c r="E36" s="236" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="240"/>
-      <c r="G36" s="240"/>
-      <c r="H36" s="240"/>
-      <c r="I36" s="240"/>
-      <c r="J36" s="241"/>
-      <c r="K36" s="172" t="s">
+      <c r="F36" s="237"/>
+      <c r="G36" s="237"/>
+      <c r="H36" s="237"/>
+      <c r="I36" s="237"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="174"/>
-      <c r="M36" s="199" t="s">
+      <c r="L36" s="112"/>
+      <c r="M36" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="200"/>
-      <c r="O36" s="200"/>
-      <c r="P36" s="200"/>
-      <c r="Q36" s="200"/>
-      <c r="R36" s="200"/>
-      <c r="S36" s="200"/>
-      <c r="T36" s="200"/>
-      <c r="U36" s="200"/>
-      <c r="V36" s="200"/>
-      <c r="W36" s="200"/>
-      <c r="X36" s="200"/>
-      <c r="Y36" s="200"/>
-      <c r="Z36" s="200"/>
-      <c r="AA36" s="200"/>
-      <c r="AB36" s="200"/>
-      <c r="AC36" s="200"/>
-      <c r="AD36" s="200"/>
-      <c r="AE36" s="200"/>
-      <c r="AF36" s="200"/>
-      <c r="AG36" s="200"/>
-      <c r="AH36" s="201"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="207"/>
+      <c r="P36" s="207"/>
+      <c r="Q36" s="207"/>
+      <c r="R36" s="207"/>
+      <c r="S36" s="207"/>
+      <c r="T36" s="207"/>
+      <c r="U36" s="207"/>
+      <c r="V36" s="207"/>
+      <c r="W36" s="207"/>
+      <c r="X36" s="207"/>
+      <c r="Y36" s="207"/>
+      <c r="Z36" s="207"/>
+      <c r="AA36" s="207"/>
+      <c r="AB36" s="207"/>
+      <c r="AC36" s="207"/>
+      <c r="AD36" s="207"/>
+      <c r="AE36" s="207"/>
+      <c r="AF36" s="207"/>
+      <c r="AG36" s="207"/>
+      <c r="AH36" s="208"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="243"/>
-      <c r="G37" s="243"/>
-      <c r="H37" s="243"/>
-      <c r="I37" s="243"/>
-      <c r="J37" s="244"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="206"/>
-      <c r="O37" s="206"/>
-      <c r="P37" s="206"/>
-      <c r="Q37" s="206"/>
-      <c r="R37" s="206"/>
-      <c r="S37" s="206"/>
-      <c r="T37" s="206"/>
-      <c r="U37" s="206"/>
-      <c r="V37" s="206"/>
-      <c r="W37" s="206"/>
-      <c r="X37" s="206"/>
-      <c r="Y37" s="206"/>
-      <c r="Z37" s="206"/>
-      <c r="AA37" s="206"/>
-      <c r="AB37" s="206"/>
-      <c r="AC37" s="206"/>
-      <c r="AD37" s="206"/>
-      <c r="AE37" s="206"/>
-      <c r="AF37" s="206"/>
-      <c r="AG37" s="206"/>
-      <c r="AH37" s="207"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="240"/>
+      <c r="G37" s="240"/>
+      <c r="H37" s="240"/>
+      <c r="I37" s="240"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
+      <c r="M37" s="212"/>
+      <c r="N37" s="213"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="213"/>
+      <c r="R37" s="213"/>
+      <c r="S37" s="213"/>
+      <c r="T37" s="213"/>
+      <c r="U37" s="213"/>
+      <c r="V37" s="213"/>
+      <c r="W37" s="213"/>
+      <c r="X37" s="213"/>
+      <c r="Y37" s="213"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="213"/>
+      <c r="AC37" s="213"/>
+      <c r="AD37" s="213"/>
+      <c r="AE37" s="213"/>
+      <c r="AF37" s="213"/>
+      <c r="AG37" s="213"/>
+      <c r="AH37" s="214"/>
     </row>
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="247" t="s">
+      <c r="E38" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="248"/>
-      <c r="G38" s="248"/>
-      <c r="H38" s="248"/>
-      <c r="I38" s="248"/>
-      <c r="J38" s="249"/>
-      <c r="K38" s="255" t="s">
+      <c r="F38" s="254"/>
+      <c r="G38" s="254"/>
+      <c r="H38" s="254"/>
+      <c r="I38" s="254"/>
+      <c r="J38" s="251"/>
+      <c r="K38" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="256"/>
-      <c r="M38" s="261" t="s">
+      <c r="L38" s="272"/>
+      <c r="M38" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262"/>
-      <c r="P38" s="262"/>
-      <c r="Q38" s="262"/>
-      <c r="R38" s="262"/>
-      <c r="S38" s="262"/>
-      <c r="T38" s="262"/>
-      <c r="U38" s="262"/>
-      <c r="V38" s="262"/>
-      <c r="W38" s="262"/>
-      <c r="X38" s="262"/>
-      <c r="Y38" s="262"/>
-      <c r="Z38" s="262"/>
-      <c r="AA38" s="262"/>
-      <c r="AB38" s="262"/>
-      <c r="AC38" s="262"/>
-      <c r="AD38" s="262"/>
-      <c r="AE38" s="262"/>
-      <c r="AF38" s="262"/>
-      <c r="AG38" s="262"/>
-      <c r="AH38" s="263"/>
+      <c r="N38" s="245"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="245"/>
+      <c r="Q38" s="245"/>
+      <c r="R38" s="245"/>
+      <c r="S38" s="245"/>
+      <c r="T38" s="245"/>
+      <c r="U38" s="245"/>
+      <c r="V38" s="245"/>
+      <c r="W38" s="245"/>
+      <c r="X38" s="245"/>
+      <c r="Y38" s="245"/>
+      <c r="Z38" s="245"/>
+      <c r="AA38" s="245"/>
+      <c r="AB38" s="245"/>
+      <c r="AC38" s="245"/>
+      <c r="AD38" s="245"/>
+      <c r="AE38" s="245"/>
+      <c r="AF38" s="245"/>
+      <c r="AG38" s="245"/>
+      <c r="AH38" s="246"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="250"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="251"/>
-      <c r="K39" s="257"/>
-      <c r="L39" s="258"/>
-      <c r="M39" s="264"/>
-      <c r="N39" s="189"/>
-      <c r="O39" s="189"/>
-      <c r="P39" s="189"/>
-      <c r="Q39" s="189"/>
-      <c r="R39" s="189"/>
-      <c r="S39" s="189"/>
-      <c r="T39" s="189"/>
-      <c r="U39" s="189"/>
-      <c r="V39" s="189"/>
-      <c r="W39" s="189"/>
-      <c r="X39" s="189"/>
-      <c r="Y39" s="189"/>
-      <c r="Z39" s="189"/>
-      <c r="AA39" s="189"/>
-      <c r="AB39" s="189"/>
-      <c r="AC39" s="189"/>
-      <c r="AD39" s="189"/>
-      <c r="AE39" s="189"/>
-      <c r="AF39" s="189"/>
-      <c r="AG39" s="189"/>
-      <c r="AH39" s="265"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="227"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
+      <c r="I39" s="227"/>
+      <c r="J39" s="260"/>
+      <c r="K39" s="273"/>
+      <c r="L39" s="274"/>
+      <c r="M39" s="269"/>
+      <c r="N39" s="226"/>
+      <c r="O39" s="226"/>
+      <c r="P39" s="226"/>
+      <c r="Q39" s="226"/>
+      <c r="R39" s="226"/>
+      <c r="S39" s="226"/>
+      <c r="T39" s="226"/>
+      <c r="U39" s="226"/>
+      <c r="V39" s="226"/>
+      <c r="W39" s="226"/>
+      <c r="X39" s="226"/>
+      <c r="Y39" s="226"/>
+      <c r="Z39" s="226"/>
+      <c r="AA39" s="226"/>
+      <c r="AB39" s="226"/>
+      <c r="AC39" s="226"/>
+      <c r="AD39" s="226"/>
+      <c r="AE39" s="226"/>
+      <c r="AF39" s="226"/>
+      <c r="AG39" s="226"/>
+      <c r="AH39" s="270"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
       <c r="E40" s="252"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="253"/>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="259"/>
-      <c r="L40" s="260"/>
-      <c r="M40" s="266"/>
-      <c r="N40" s="267"/>
-      <c r="O40" s="267"/>
-      <c r="P40" s="267"/>
-      <c r="Q40" s="267"/>
-      <c r="R40" s="267"/>
-      <c r="S40" s="267"/>
-      <c r="T40" s="267"/>
-      <c r="U40" s="267"/>
-      <c r="V40" s="267"/>
-      <c r="W40" s="267"/>
-      <c r="X40" s="267"/>
-      <c r="Y40" s="267"/>
-      <c r="Z40" s="267"/>
-      <c r="AA40" s="267"/>
-      <c r="AB40" s="267"/>
-      <c r="AC40" s="267"/>
-      <c r="AD40" s="267"/>
-      <c r="AE40" s="267"/>
-      <c r="AF40" s="267"/>
-      <c r="AG40" s="267"/>
-      <c r="AH40" s="268"/>
+      <c r="F40" s="255"/>
+      <c r="G40" s="255"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="255"/>
+      <c r="J40" s="253"/>
+      <c r="K40" s="275"/>
+      <c r="L40" s="276"/>
+      <c r="M40" s="247"/>
+      <c r="N40" s="248"/>
+      <c r="O40" s="248"/>
+      <c r="P40" s="248"/>
+      <c r="Q40" s="248"/>
+      <c r="R40" s="248"/>
+      <c r="S40" s="248"/>
+      <c r="T40" s="248"/>
+      <c r="U40" s="248"/>
+      <c r="V40" s="248"/>
+      <c r="W40" s="248"/>
+      <c r="X40" s="248"/>
+      <c r="Y40" s="248"/>
+      <c r="Z40" s="248"/>
+      <c r="AA40" s="248"/>
+      <c r="AB40" s="248"/>
+      <c r="AC40" s="248"/>
+      <c r="AD40" s="248"/>
+      <c r="AE40" s="248"/>
+      <c r="AF40" s="248"/>
+      <c r="AG40" s="248"/>
+      <c r="AH40" s="249"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
-      <c r="E41" s="239" t="s">
+      <c r="E41" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="240"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="241"/>
-      <c r="K41" s="172" t="s">
+      <c r="F41" s="237"/>
+      <c r="G41" s="237"/>
+      <c r="H41" s="237"/>
+      <c r="I41" s="237"/>
+      <c r="J41" s="238"/>
+      <c r="K41" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="174"/>
-      <c r="M41" s="199" t="s">
+      <c r="L41" s="112"/>
+      <c r="M41" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="200"/>
-      <c r="O41" s="200"/>
-      <c r="P41" s="200"/>
-      <c r="Q41" s="200"/>
-      <c r="R41" s="200"/>
-      <c r="S41" s="200"/>
-      <c r="T41" s="200"/>
-      <c r="U41" s="200"/>
-      <c r="V41" s="200"/>
-      <c r="W41" s="200"/>
-      <c r="X41" s="200"/>
-      <c r="Y41" s="200"/>
-      <c r="Z41" s="200"/>
-      <c r="AA41" s="200"/>
-      <c r="AB41" s="200"/>
-      <c r="AC41" s="200"/>
-      <c r="AD41" s="200"/>
-      <c r="AE41" s="200"/>
-      <c r="AF41" s="200"/>
-      <c r="AG41" s="200"/>
-      <c r="AH41" s="201"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="207"/>
+      <c r="P41" s="207"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="207"/>
+      <c r="S41" s="207"/>
+      <c r="T41" s="207"/>
+      <c r="U41" s="207"/>
+      <c r="V41" s="207"/>
+      <c r="W41" s="207"/>
+      <c r="X41" s="207"/>
+      <c r="Y41" s="207"/>
+      <c r="Z41" s="207"/>
+      <c r="AA41" s="207"/>
+      <c r="AB41" s="207"/>
+      <c r="AC41" s="207"/>
+      <c r="AD41" s="207"/>
+      <c r="AE41" s="207"/>
+      <c r="AF41" s="207"/>
+      <c r="AG41" s="207"/>
+      <c r="AH41" s="208"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="243"/>
-      <c r="G42" s="243"/>
-      <c r="H42" s="243"/>
-      <c r="I42" s="243"/>
-      <c r="J42" s="244"/>
-      <c r="K42" s="245"/>
-      <c r="L42" s="246"/>
-      <c r="M42" s="205"/>
-      <c r="N42" s="206"/>
-      <c r="O42" s="206"/>
-      <c r="P42" s="206"/>
-      <c r="Q42" s="206"/>
-      <c r="R42" s="206"/>
-      <c r="S42" s="206"/>
-      <c r="T42" s="206"/>
-      <c r="U42" s="206"/>
-      <c r="V42" s="206"/>
-      <c r="W42" s="206"/>
-      <c r="X42" s="206"/>
-      <c r="Y42" s="206"/>
-      <c r="Z42" s="206"/>
-      <c r="AA42" s="206"/>
-      <c r="AB42" s="206"/>
-      <c r="AC42" s="206"/>
-      <c r="AD42" s="206"/>
-      <c r="AE42" s="206"/>
-      <c r="AF42" s="206"/>
-      <c r="AG42" s="206"/>
-      <c r="AH42" s="207"/>
+      <c r="E42" s="239"/>
+      <c r="F42" s="240"/>
+      <c r="G42" s="240"/>
+      <c r="H42" s="240"/>
+      <c r="I42" s="240"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="242"/>
+      <c r="L42" s="243"/>
+      <c r="M42" s="212"/>
+      <c r="N42" s="213"/>
+      <c r="O42" s="213"/>
+      <c r="P42" s="213"/>
+      <c r="Q42" s="213"/>
+      <c r="R42" s="213"/>
+      <c r="S42" s="213"/>
+      <c r="T42" s="213"/>
+      <c r="U42" s="213"/>
+      <c r="V42" s="213"/>
+      <c r="W42" s="213"/>
+      <c r="X42" s="213"/>
+      <c r="Y42" s="213"/>
+      <c r="Z42" s="213"/>
+      <c r="AA42" s="213"/>
+      <c r="AB42" s="213"/>
+      <c r="AC42" s="213"/>
+      <c r="AD42" s="213"/>
+      <c r="AE42" s="213"/>
+      <c r="AF42" s="213"/>
+      <c r="AG42" s="213"/>
+      <c r="AH42" s="214"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="239" t="s">
+      <c r="E43" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="240"/>
-      <c r="G43" s="240"/>
-      <c r="H43" s="240"/>
-      <c r="I43" s="240"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="172" t="s">
+      <c r="F43" s="237"/>
+      <c r="G43" s="237"/>
+      <c r="H43" s="237"/>
+      <c r="I43" s="237"/>
+      <c r="J43" s="238"/>
+      <c r="K43" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="174"/>
-      <c r="M43" s="199" t="s">
+      <c r="L43" s="112"/>
+      <c r="M43" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="200"/>
-      <c r="O43" s="200"/>
-      <c r="P43" s="200"/>
-      <c r="Q43" s="200"/>
-      <c r="R43" s="200"/>
-      <c r="S43" s="200"/>
-      <c r="T43" s="200"/>
-      <c r="U43" s="200"/>
-      <c r="V43" s="200"/>
-      <c r="W43" s="200"/>
-      <c r="X43" s="200"/>
-      <c r="Y43" s="200"/>
-      <c r="Z43" s="200"/>
-      <c r="AA43" s="200"/>
-      <c r="AB43" s="200"/>
-      <c r="AC43" s="200"/>
-      <c r="AD43" s="200"/>
-      <c r="AE43" s="200"/>
-      <c r="AF43" s="200"/>
-      <c r="AG43" s="200"/>
-      <c r="AH43" s="201"/>
+      <c r="N43" s="207"/>
+      <c r="O43" s="207"/>
+      <c r="P43" s="207"/>
+      <c r="Q43" s="207"/>
+      <c r="R43" s="207"/>
+      <c r="S43" s="207"/>
+      <c r="T43" s="207"/>
+      <c r="U43" s="207"/>
+      <c r="V43" s="207"/>
+      <c r="W43" s="207"/>
+      <c r="X43" s="207"/>
+      <c r="Y43" s="207"/>
+      <c r="Z43" s="207"/>
+      <c r="AA43" s="207"/>
+      <c r="AB43" s="207"/>
+      <c r="AC43" s="207"/>
+      <c r="AD43" s="207"/>
+      <c r="AE43" s="207"/>
+      <c r="AF43" s="207"/>
+      <c r="AG43" s="207"/>
+      <c r="AH43" s="208"/>
     </row>
     <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="242"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="243"/>
-      <c r="I44" s="243"/>
-      <c r="J44" s="244"/>
-      <c r="K44" s="245"/>
-      <c r="L44" s="246"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="206"/>
-      <c r="P44" s="206"/>
-      <c r="Q44" s="206"/>
-      <c r="R44" s="206"/>
-      <c r="S44" s="206"/>
-      <c r="T44" s="206"/>
-      <c r="U44" s="206"/>
-      <c r="V44" s="206"/>
-      <c r="W44" s="206"/>
-      <c r="X44" s="206"/>
-      <c r="Y44" s="206"/>
-      <c r="Z44" s="206"/>
-      <c r="AA44" s="206"/>
-      <c r="AB44" s="206"/>
-      <c r="AC44" s="206"/>
-      <c r="AD44" s="206"/>
-      <c r="AE44" s="206"/>
-      <c r="AF44" s="206"/>
-      <c r="AG44" s="206"/>
-      <c r="AH44" s="207"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="240"/>
+      <c r="G44" s="240"/>
+      <c r="H44" s="240"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="242"/>
+      <c r="L44" s="243"/>
+      <c r="M44" s="212"/>
+      <c r="N44" s="213"/>
+      <c r="O44" s="213"/>
+      <c r="P44" s="213"/>
+      <c r="Q44" s="213"/>
+      <c r="R44" s="213"/>
+      <c r="S44" s="213"/>
+      <c r="T44" s="213"/>
+      <c r="U44" s="213"/>
+      <c r="V44" s="213"/>
+      <c r="W44" s="213"/>
+      <c r="X44" s="213"/>
+      <c r="Y44" s="213"/>
+      <c r="Z44" s="213"/>
+      <c r="AA44" s="213"/>
+      <c r="AB44" s="213"/>
+      <c r="AC44" s="213"/>
+      <c r="AD44" s="213"/>
+      <c r="AE44" s="213"/>
+      <c r="AF44" s="213"/>
+      <c r="AG44" s="213"/>
+      <c r="AH44" s="214"/>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="247" t="s">
+      <c r="E45" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="248"/>
-      <c r="I45" s="248"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="269" t="s">
+      <c r="F45" s="254"/>
+      <c r="G45" s="254"/>
+      <c r="H45" s="254"/>
+      <c r="I45" s="254"/>
+      <c r="J45" s="251"/>
+      <c r="K45" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="270"/>
-      <c r="M45" s="261" t="s">
+      <c r="L45" s="262"/>
+      <c r="M45" s="244" t="s">
         <v>94</v>
       </c>
-      <c r="N45" s="262"/>
-      <c r="O45" s="262"/>
-      <c r="P45" s="262"/>
-      <c r="Q45" s="262"/>
-      <c r="R45" s="262"/>
-      <c r="S45" s="262"/>
-      <c r="T45" s="262"/>
-      <c r="U45" s="262"/>
-      <c r="V45" s="262"/>
-      <c r="W45" s="262"/>
-      <c r="X45" s="262"/>
-      <c r="Y45" s="262"/>
-      <c r="Z45" s="262"/>
-      <c r="AA45" s="262"/>
-      <c r="AB45" s="262"/>
-      <c r="AC45" s="262"/>
-      <c r="AD45" s="262"/>
-      <c r="AE45" s="262"/>
-      <c r="AF45" s="262"/>
-      <c r="AG45" s="262"/>
-      <c r="AH45" s="263"/>
+      <c r="N45" s="245"/>
+      <c r="O45" s="245"/>
+      <c r="P45" s="245"/>
+      <c r="Q45" s="245"/>
+      <c r="R45" s="245"/>
+      <c r="S45" s="245"/>
+      <c r="T45" s="245"/>
+      <c r="U45" s="245"/>
+      <c r="V45" s="245"/>
+      <c r="W45" s="245"/>
+      <c r="X45" s="245"/>
+      <c r="Y45" s="245"/>
+      <c r="Z45" s="245"/>
+      <c r="AA45" s="245"/>
+      <c r="AB45" s="245"/>
+      <c r="AC45" s="245"/>
+      <c r="AD45" s="245"/>
+      <c r="AE45" s="245"/>
+      <c r="AF45" s="245"/>
+      <c r="AG45" s="245"/>
+      <c r="AH45" s="246"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="250"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="251"/>
-      <c r="K46" s="271"/>
-      <c r="L46" s="272"/>
-      <c r="M46" s="264"/>
-      <c r="N46" s="189"/>
-      <c r="O46" s="189"/>
-      <c r="P46" s="189"/>
-      <c r="Q46" s="189"/>
-      <c r="R46" s="189"/>
-      <c r="S46" s="189"/>
-      <c r="T46" s="189"/>
-      <c r="U46" s="189"/>
-      <c r="V46" s="189"/>
-      <c r="W46" s="189"/>
-      <c r="X46" s="189"/>
-      <c r="Y46" s="189"/>
-      <c r="Z46" s="189"/>
-      <c r="AA46" s="189"/>
-      <c r="AB46" s="189"/>
-      <c r="AC46" s="189"/>
-      <c r="AD46" s="189"/>
-      <c r="AE46" s="189"/>
-      <c r="AF46" s="189"/>
-      <c r="AG46" s="189"/>
-      <c r="AH46" s="265"/>
+      <c r="E46" s="259"/>
+      <c r="F46" s="227"/>
+      <c r="G46" s="227"/>
+      <c r="H46" s="227"/>
+      <c r="I46" s="227"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="263"/>
+      <c r="L46" s="264"/>
+      <c r="M46" s="269"/>
+      <c r="N46" s="226"/>
+      <c r="O46" s="226"/>
+      <c r="P46" s="226"/>
+      <c r="Q46" s="226"/>
+      <c r="R46" s="226"/>
+      <c r="S46" s="226"/>
+      <c r="T46" s="226"/>
+      <c r="U46" s="226"/>
+      <c r="V46" s="226"/>
+      <c r="W46" s="226"/>
+      <c r="X46" s="226"/>
+      <c r="Y46" s="226"/>
+      <c r="Z46" s="226"/>
+      <c r="AA46" s="226"/>
+      <c r="AB46" s="226"/>
+      <c r="AC46" s="226"/>
+      <c r="AD46" s="226"/>
+      <c r="AE46" s="226"/>
+      <c r="AF46" s="226"/>
+      <c r="AG46" s="226"/>
+      <c r="AH46" s="270"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
       <c r="E47" s="252"/>
-      <c r="F47" s="253"/>
-      <c r="G47" s="253"/>
-      <c r="H47" s="253"/>
-      <c r="I47" s="253"/>
-      <c r="J47" s="254"/>
-      <c r="K47" s="273"/>
-      <c r="L47" s="274"/>
-      <c r="M47" s="266"/>
-      <c r="N47" s="267"/>
-      <c r="O47" s="267"/>
-      <c r="P47" s="267"/>
-      <c r="Q47" s="267"/>
-      <c r="R47" s="267"/>
-      <c r="S47" s="267"/>
-      <c r="T47" s="267"/>
-      <c r="U47" s="267"/>
-      <c r="V47" s="267"/>
-      <c r="W47" s="267"/>
-      <c r="X47" s="267"/>
-      <c r="Y47" s="267"/>
-      <c r="Z47" s="267"/>
-      <c r="AA47" s="267"/>
-      <c r="AB47" s="267"/>
-      <c r="AC47" s="267"/>
-      <c r="AD47" s="267"/>
-      <c r="AE47" s="267"/>
-      <c r="AF47" s="267"/>
-      <c r="AG47" s="267"/>
-      <c r="AH47" s="268"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="255"/>
+      <c r="H47" s="255"/>
+      <c r="I47" s="255"/>
+      <c r="J47" s="253"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="266"/>
+      <c r="M47" s="247"/>
+      <c r="N47" s="248"/>
+      <c r="O47" s="248"/>
+      <c r="P47" s="248"/>
+      <c r="Q47" s="248"/>
+      <c r="R47" s="248"/>
+      <c r="S47" s="248"/>
+      <c r="T47" s="248"/>
+      <c r="U47" s="248"/>
+      <c r="V47" s="248"/>
+      <c r="W47" s="248"/>
+      <c r="X47" s="248"/>
+      <c r="Y47" s="248"/>
+      <c r="Z47" s="248"/>
+      <c r="AA47" s="248"/>
+      <c r="AB47" s="248"/>
+      <c r="AC47" s="248"/>
+      <c r="AD47" s="248"/>
+      <c r="AE47" s="248"/>
+      <c r="AF47" s="248"/>
+      <c r="AG47" s="248"/>
+      <c r="AH47" s="249"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="247" t="s">
+      <c r="E48" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="248"/>
-      <c r="G48" s="248"/>
-      <c r="H48" s="248"/>
-      <c r="I48" s="248"/>
-      <c r="J48" s="249"/>
-      <c r="K48" s="269" t="s">
+      <c r="F48" s="254"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="251"/>
+      <c r="K48" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="270"/>
+      <c r="L48" s="262"/>
       <c r="M48" s="65" t="s">
         <v>95</v>
       </c>
@@ -13492,15 +13491,15 @@
     <row r="49" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
-      <c r="J49" s="251"/>
-      <c r="K49" s="271"/>
-      <c r="L49" s="272"/>
-      <c r="M49" s="275" t="s">
+      <c r="E49" s="259"/>
+      <c r="F49" s="227"/>
+      <c r="G49" s="227"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="227"/>
+      <c r="J49" s="260"/>
+      <c r="K49" s="263"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="267" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="233"/>
@@ -13523,19 +13522,19 @@
       <c r="AE49" s="233"/>
       <c r="AF49" s="233"/>
       <c r="AG49" s="233"/>
-      <c r="AH49" s="276"/>
+      <c r="AH49" s="268"/>
     </row>
     <row r="50" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
-      <c r="J50" s="251"/>
-      <c r="K50" s="271"/>
-      <c r="L50" s="272"/>
+      <c r="E50" s="259"/>
+      <c r="F50" s="227"/>
+      <c r="G50" s="227"/>
+      <c r="H50" s="227"/>
+      <c r="I50" s="227"/>
+      <c r="J50" s="260"/>
+      <c r="K50" s="263"/>
+      <c r="L50" s="264"/>
       <c r="M50" s="65" t="s">
         <v>96</v>
       </c>
@@ -13564,14 +13563,14 @@
     <row r="51" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="250"/>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
-      <c r="J51" s="251"/>
-      <c r="K51" s="271"/>
-      <c r="L51" s="272"/>
+      <c r="E51" s="259"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="227"/>
+      <c r="I51" s="227"/>
+      <c r="J51" s="260"/>
+      <c r="K51" s="263"/>
+      <c r="L51" s="264"/>
       <c r="M51" s="65" t="s">
         <v>97</v>
       </c>
@@ -13588,14 +13587,14 @@
     <row r="52" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="250"/>
-      <c r="F52" s="187"/>
-      <c r="G52" s="187"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
-      <c r="J52" s="251"/>
-      <c r="K52" s="271"/>
-      <c r="L52" s="272"/>
+      <c r="E52" s="259"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="227"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="227"/>
+      <c r="J52" s="260"/>
+      <c r="K52" s="263"/>
+      <c r="L52" s="264"/>
       <c r="M52" s="65"/>
       <c r="N52" s="37" t="s">
         <v>98</v>
@@ -13613,14 +13612,14 @@
     <row r="53" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="48"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="250"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="187"/>
-      <c r="H53" s="187"/>
-      <c r="I53" s="187"/>
-      <c r="J53" s="251"/>
-      <c r="K53" s="271"/>
-      <c r="L53" s="272"/>
+      <c r="E53" s="259"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="227"/>
+      <c r="H53" s="227"/>
+      <c r="I53" s="227"/>
+      <c r="J53" s="260"/>
+      <c r="K53" s="263"/>
+      <c r="L53" s="264"/>
       <c r="M53" s="65"/>
       <c r="N53" s="233" t="s">
         <v>99</v>
@@ -13644,19 +13643,19 @@
       <c r="AE53" s="233"/>
       <c r="AF53" s="233"/>
       <c r="AG53" s="233"/>
-      <c r="AH53" s="276"/>
+      <c r="AH53" s="268"/>
     </row>
     <row r="54" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="250"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="187"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-      <c r="J54" s="251"/>
-      <c r="K54" s="271"/>
-      <c r="L54" s="272"/>
+      <c r="E54" s="259"/>
+      <c r="F54" s="227"/>
+      <c r="G54" s="227"/>
+      <c r="H54" s="227"/>
+      <c r="I54" s="227"/>
+      <c r="J54" s="260"/>
+      <c r="K54" s="263"/>
+      <c r="L54" s="264"/>
       <c r="M54" s="65"/>
       <c r="N54" s="67" t="s">
         <v>32</v>
@@ -13685,14 +13684,14 @@
     <row r="55" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="250"/>
-      <c r="F55" s="187"/>
-      <c r="G55" s="187"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
-      <c r="J55" s="251"/>
-      <c r="K55" s="271"/>
-      <c r="L55" s="272"/>
+      <c r="E55" s="259"/>
+      <c r="F55" s="227"/>
+      <c r="G55" s="227"/>
+      <c r="H55" s="227"/>
+      <c r="I55" s="227"/>
+      <c r="J55" s="260"/>
+      <c r="K55" s="263"/>
+      <c r="L55" s="264"/>
       <c r="M55" s="65"/>
       <c r="N55" s="31"/>
       <c r="O55" s="31" t="s">
@@ -13721,14 +13720,14 @@
     <row r="56" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="250"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="187"/>
-      <c r="H56" s="187"/>
-      <c r="I56" s="187"/>
-      <c r="J56" s="251"/>
-      <c r="K56" s="271"/>
-      <c r="L56" s="272"/>
+      <c r="E56" s="259"/>
+      <c r="F56" s="227"/>
+      <c r="G56" s="227"/>
+      <c r="H56" s="227"/>
+      <c r="I56" s="227"/>
+      <c r="J56" s="260"/>
+      <c r="K56" s="263"/>
+      <c r="L56" s="264"/>
       <c r="M56" s="65"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31" t="s">
@@ -13757,14 +13756,14 @@
     <row r="57" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="250"/>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
-      <c r="J57" s="251"/>
-      <c r="K57" s="271"/>
-      <c r="L57" s="272"/>
+      <c r="E57" s="259"/>
+      <c r="F57" s="227"/>
+      <c r="G57" s="227"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="227"/>
+      <c r="J57" s="260"/>
+      <c r="K57" s="263"/>
+      <c r="L57" s="264"/>
       <c r="M57" s="65"/>
       <c r="N57" s="31" t="s">
         <v>101</v>
@@ -13792,14 +13791,14 @@
     <row r="58" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="250"/>
-      <c r="F58" s="187"/>
-      <c r="G58" s="187"/>
-      <c r="H58" s="187"/>
-      <c r="I58" s="187"/>
-      <c r="J58" s="251"/>
-      <c r="K58" s="271"/>
-      <c r="L58" s="272"/>
+      <c r="E58" s="259"/>
+      <c r="F58" s="227"/>
+      <c r="G58" s="227"/>
+      <c r="H58" s="227"/>
+      <c r="I58" s="227"/>
+      <c r="J58" s="260"/>
+      <c r="K58" s="263"/>
+      <c r="L58" s="264"/>
       <c r="M58" s="65"/>
       <c r="N58" s="31" t="s">
         <v>102</v>
@@ -13826,14 +13825,14 @@
     <row r="59" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="187"/>
-      <c r="G59" s="187"/>
-      <c r="H59" s="187"/>
-      <c r="I59" s="187"/>
-      <c r="J59" s="251"/>
-      <c r="K59" s="271"/>
-      <c r="L59" s="272"/>
+      <c r="E59" s="259"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="227"/>
+      <c r="H59" s="227"/>
+      <c r="I59" s="227"/>
+      <c r="J59" s="260"/>
+      <c r="K59" s="263"/>
+      <c r="L59" s="264"/>
       <c r="M59" s="65"/>
       <c r="N59" s="31" t="s">
         <v>103</v>
@@ -13862,14 +13861,14 @@
     <row r="60" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="250"/>
-      <c r="F60" s="187"/>
-      <c r="G60" s="187"/>
-      <c r="H60" s="187"/>
-      <c r="I60" s="187"/>
-      <c r="J60" s="251"/>
-      <c r="K60" s="271"/>
-      <c r="L60" s="272"/>
+      <c r="E60" s="259"/>
+      <c r="F60" s="227"/>
+      <c r="G60" s="227"/>
+      <c r="H60" s="227"/>
+      <c r="I60" s="227"/>
+      <c r="J60" s="260"/>
+      <c r="K60" s="263"/>
+      <c r="L60" s="264"/>
       <c r="M60" s="65"/>
       <c r="N60" s="31"/>
       <c r="O60" s="31" t="s">
@@ -13898,14 +13897,14 @@
     <row r="61" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
-      <c r="E61" s="250"/>
-      <c r="F61" s="187"/>
-      <c r="G61" s="187"/>
-      <c r="H61" s="187"/>
-      <c r="I61" s="187"/>
-      <c r="J61" s="251"/>
-      <c r="K61" s="271"/>
-      <c r="L61" s="272"/>
+      <c r="E61" s="259"/>
+      <c r="F61" s="227"/>
+      <c r="G61" s="227"/>
+      <c r="H61" s="227"/>
+      <c r="I61" s="227"/>
+      <c r="J61" s="260"/>
+      <c r="K61" s="263"/>
+      <c r="L61" s="264"/>
       <c r="M61" s="65"/>
       <c r="N61" s="31"/>
       <c r="O61" s="31" t="s">
@@ -13935,13 +13934,13 @@
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
       <c r="E62" s="252"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="254"/>
-      <c r="K62" s="273"/>
-      <c r="L62" s="274"/>
+      <c r="F62" s="255"/>
+      <c r="G62" s="255"/>
+      <c r="H62" s="255"/>
+      <c r="I62" s="255"/>
+      <c r="J62" s="253"/>
+      <c r="K62" s="265"/>
+      <c r="L62" s="266"/>
       <c r="M62" s="65"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
@@ -13970,146 +13969,146 @@
     <row r="63" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="239" t="s">
+      <c r="E63" s="236" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="240"/>
-      <c r="G63" s="240"/>
-      <c r="H63" s="240"/>
-      <c r="I63" s="240"/>
-      <c r="J63" s="241"/>
-      <c r="K63" s="239"/>
-      <c r="L63" s="241"/>
-      <c r="M63" s="199" t="s">
+      <c r="F63" s="237"/>
+      <c r="G63" s="237"/>
+      <c r="H63" s="237"/>
+      <c r="I63" s="237"/>
+      <c r="J63" s="238"/>
+      <c r="K63" s="236"/>
+      <c r="L63" s="238"/>
+      <c r="M63" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="N63" s="200"/>
-      <c r="O63" s="200"/>
-      <c r="P63" s="200"/>
-      <c r="Q63" s="200"/>
-      <c r="R63" s="200"/>
-      <c r="S63" s="200"/>
-      <c r="T63" s="200"/>
-      <c r="U63" s="200"/>
-      <c r="V63" s="200"/>
-      <c r="W63" s="200"/>
-      <c r="X63" s="200"/>
-      <c r="Y63" s="200"/>
-      <c r="Z63" s="200"/>
-      <c r="AA63" s="200"/>
-      <c r="AB63" s="200"/>
-      <c r="AC63" s="200"/>
-      <c r="AD63" s="200"/>
-      <c r="AE63" s="200"/>
-      <c r="AF63" s="200"/>
-      <c r="AG63" s="200"/>
-      <c r="AH63" s="201"/>
+      <c r="N63" s="207"/>
+      <c r="O63" s="207"/>
+      <c r="P63" s="207"/>
+      <c r="Q63" s="207"/>
+      <c r="R63" s="207"/>
+      <c r="S63" s="207"/>
+      <c r="T63" s="207"/>
+      <c r="U63" s="207"/>
+      <c r="V63" s="207"/>
+      <c r="W63" s="207"/>
+      <c r="X63" s="207"/>
+      <c r="Y63" s="207"/>
+      <c r="Z63" s="207"/>
+      <c r="AA63" s="207"/>
+      <c r="AB63" s="207"/>
+      <c r="AC63" s="207"/>
+      <c r="AD63" s="207"/>
+      <c r="AE63" s="207"/>
+      <c r="AF63" s="207"/>
+      <c r="AG63" s="207"/>
+      <c r="AH63" s="208"/>
     </row>
     <row r="64" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="242"/>
-      <c r="F64" s="243"/>
-      <c r="G64" s="243"/>
-      <c r="H64" s="243"/>
-      <c r="I64" s="243"/>
-      <c r="J64" s="244"/>
-      <c r="K64" s="242"/>
-      <c r="L64" s="244"/>
-      <c r="M64" s="205"/>
-      <c r="N64" s="206"/>
-      <c r="O64" s="206"/>
-      <c r="P64" s="206"/>
-      <c r="Q64" s="206"/>
-      <c r="R64" s="206"/>
-      <c r="S64" s="206"/>
-      <c r="T64" s="206"/>
-      <c r="U64" s="206"/>
-      <c r="V64" s="206"/>
-      <c r="W64" s="206"/>
-      <c r="X64" s="206"/>
-      <c r="Y64" s="206"/>
-      <c r="Z64" s="206"/>
-      <c r="AA64" s="206"/>
-      <c r="AB64" s="206"/>
-      <c r="AC64" s="206"/>
-      <c r="AD64" s="206"/>
-      <c r="AE64" s="206"/>
-      <c r="AF64" s="206"/>
-      <c r="AG64" s="206"/>
-      <c r="AH64" s="207"/>
+      <c r="E64" s="239"/>
+      <c r="F64" s="240"/>
+      <c r="G64" s="240"/>
+      <c r="H64" s="240"/>
+      <c r="I64" s="240"/>
+      <c r="J64" s="241"/>
+      <c r="K64" s="239"/>
+      <c r="L64" s="241"/>
+      <c r="M64" s="212"/>
+      <c r="N64" s="213"/>
+      <c r="O64" s="213"/>
+      <c r="P64" s="213"/>
+      <c r="Q64" s="213"/>
+      <c r="R64" s="213"/>
+      <c r="S64" s="213"/>
+      <c r="T64" s="213"/>
+      <c r="U64" s="213"/>
+      <c r="V64" s="213"/>
+      <c r="W64" s="213"/>
+      <c r="X64" s="213"/>
+      <c r="Y64" s="213"/>
+      <c r="Z64" s="213"/>
+      <c r="AA64" s="213"/>
+      <c r="AB64" s="213"/>
+      <c r="AC64" s="213"/>
+      <c r="AD64" s="213"/>
+      <c r="AE64" s="213"/>
+      <c r="AF64" s="213"/>
+      <c r="AG64" s="213"/>
+      <c r="AH64" s="214"/>
     </row>
     <row r="65" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="261" t="s">
+      <c r="E65" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="262"/>
-      <c r="G65" s="262"/>
-      <c r="H65" s="262"/>
-      <c r="I65" s="262"/>
-      <c r="J65" s="263"/>
-      <c r="K65" s="247"/>
-      <c r="L65" s="249"/>
-      <c r="M65" s="247" t="s">
+      <c r="F65" s="245"/>
+      <c r="G65" s="245"/>
+      <c r="H65" s="245"/>
+      <c r="I65" s="245"/>
+      <c r="J65" s="246"/>
+      <c r="K65" s="250"/>
+      <c r="L65" s="251"/>
+      <c r="M65" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="248"/>
-      <c r="O65" s="248"/>
-      <c r="P65" s="248"/>
-      <c r="Q65" s="248"/>
-      <c r="R65" s="248"/>
-      <c r="S65" s="248"/>
-      <c r="T65" s="248"/>
-      <c r="U65" s="248"/>
-      <c r="V65" s="248"/>
-      <c r="W65" s="248"/>
-      <c r="X65" s="248"/>
-      <c r="Y65" s="248"/>
-      <c r="Z65" s="248"/>
-      <c r="AA65" s="248"/>
-      <c r="AB65" s="248"/>
-      <c r="AC65" s="248"/>
-      <c r="AD65" s="248"/>
-      <c r="AE65" s="248"/>
-      <c r="AF65" s="248"/>
-      <c r="AG65" s="248"/>
-      <c r="AH65" s="249"/>
+      <c r="N65" s="254"/>
+      <c r="O65" s="254"/>
+      <c r="P65" s="254"/>
+      <c r="Q65" s="254"/>
+      <c r="R65" s="254"/>
+      <c r="S65" s="254"/>
+      <c r="T65" s="254"/>
+      <c r="U65" s="254"/>
+      <c r="V65" s="254"/>
+      <c r="W65" s="254"/>
+      <c r="X65" s="254"/>
+      <c r="Y65" s="254"/>
+      <c r="Z65" s="254"/>
+      <c r="AA65" s="254"/>
+      <c r="AB65" s="254"/>
+      <c r="AC65" s="254"/>
+      <c r="AD65" s="254"/>
+      <c r="AE65" s="254"/>
+      <c r="AF65" s="254"/>
+      <c r="AG65" s="254"/>
+      <c r="AH65" s="251"/>
     </row>
     <row r="66" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
-      <c r="E66" s="266"/>
-      <c r="F66" s="267"/>
-      <c r="G66" s="267"/>
-      <c r="H66" s="267"/>
-      <c r="I66" s="267"/>
-      <c r="J66" s="268"/>
+      <c r="E66" s="247"/>
+      <c r="F66" s="248"/>
+      <c r="G66" s="248"/>
+      <c r="H66" s="248"/>
+      <c r="I66" s="248"/>
+      <c r="J66" s="249"/>
       <c r="K66" s="252"/>
-      <c r="L66" s="254"/>
+      <c r="L66" s="253"/>
       <c r="M66" s="252"/>
-      <c r="N66" s="253"/>
-      <c r="O66" s="253"/>
-      <c r="P66" s="253"/>
-      <c r="Q66" s="253"/>
-      <c r="R66" s="253"/>
-      <c r="S66" s="253"/>
-      <c r="T66" s="253"/>
-      <c r="U66" s="253"/>
-      <c r="V66" s="253"/>
-      <c r="W66" s="253"/>
-      <c r="X66" s="253"/>
-      <c r="Y66" s="253"/>
-      <c r="Z66" s="253"/>
-      <c r="AA66" s="253"/>
-      <c r="AB66" s="253"/>
-      <c r="AC66" s="253"/>
-      <c r="AD66" s="253"/>
-      <c r="AE66" s="253"/>
-      <c r="AF66" s="253"/>
-      <c r="AG66" s="253"/>
-      <c r="AH66" s="254"/>
+      <c r="N66" s="255"/>
+      <c r="O66" s="255"/>
+      <c r="P66" s="255"/>
+      <c r="Q66" s="255"/>
+      <c r="R66" s="255"/>
+      <c r="S66" s="255"/>
+      <c r="T66" s="255"/>
+      <c r="U66" s="255"/>
+      <c r="V66" s="255"/>
+      <c r="W66" s="255"/>
+      <c r="X66" s="255"/>
+      <c r="Y66" s="255"/>
+      <c r="Z66" s="255"/>
+      <c r="AA66" s="255"/>
+      <c r="AB66" s="255"/>
+      <c r="AC66" s="255"/>
+      <c r="AD66" s="255"/>
+      <c r="AE66" s="255"/>
+      <c r="AF66" s="255"/>
+      <c r="AG66" s="255"/>
+      <c r="AH66" s="253"/>
     </row>
     <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="48"/>
@@ -14236,116 +14235,116 @@
     <row r="71" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="48"/>
       <c r="D71" s="48"/>
-      <c r="E71" s="236" t="s">
+      <c r="E71" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="237"/>
-      <c r="G71" s="237"/>
-      <c r="H71" s="237"/>
-      <c r="I71" s="237"/>
-      <c r="J71" s="238"/>
-      <c r="K71" s="236" t="s">
+      <c r="F71" s="257"/>
+      <c r="G71" s="257"/>
+      <c r="H71" s="257"/>
+      <c r="I71" s="257"/>
+      <c r="J71" s="258"/>
+      <c r="K71" s="256" t="s">
         <v>88</v>
       </c>
-      <c r="L71" s="238"/>
-      <c r="M71" s="236" t="s">
+      <c r="L71" s="258"/>
+      <c r="M71" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="N71" s="237"/>
-      <c r="O71" s="237"/>
-      <c r="P71" s="237"/>
-      <c r="Q71" s="237"/>
-      <c r="R71" s="237"/>
-      <c r="S71" s="237"/>
-      <c r="T71" s="237"/>
-      <c r="U71" s="237"/>
-      <c r="V71" s="237"/>
-      <c r="W71" s="237"/>
-      <c r="X71" s="237"/>
-      <c r="Y71" s="237"/>
-      <c r="Z71" s="237"/>
-      <c r="AA71" s="237"/>
-      <c r="AB71" s="237"/>
-      <c r="AC71" s="237"/>
-      <c r="AD71" s="237"/>
-      <c r="AE71" s="237"/>
-      <c r="AF71" s="237"/>
-      <c r="AG71" s="237"/>
-      <c r="AH71" s="238"/>
+      <c r="N71" s="257"/>
+      <c r="O71" s="257"/>
+      <c r="P71" s="257"/>
+      <c r="Q71" s="257"/>
+      <c r="R71" s="257"/>
+      <c r="S71" s="257"/>
+      <c r="T71" s="257"/>
+      <c r="U71" s="257"/>
+      <c r="V71" s="257"/>
+      <c r="W71" s="257"/>
+      <c r="X71" s="257"/>
+      <c r="Y71" s="257"/>
+      <c r="Z71" s="257"/>
+      <c r="AA71" s="257"/>
+      <c r="AB71" s="257"/>
+      <c r="AC71" s="257"/>
+      <c r="AD71" s="257"/>
+      <c r="AE71" s="257"/>
+      <c r="AF71" s="257"/>
+      <c r="AG71" s="257"/>
+      <c r="AH71" s="258"/>
     </row>
     <row r="72" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="48"/>
       <c r="D72" s="48"/>
-      <c r="E72" s="239" t="s">
+      <c r="E72" s="236" t="s">
         <v>90</v>
       </c>
-      <c r="F72" s="240"/>
-      <c r="G72" s="240"/>
-      <c r="H72" s="240"/>
-      <c r="I72" s="240"/>
-      <c r="J72" s="241"/>
-      <c r="K72" s="172" t="s">
+      <c r="F72" s="237"/>
+      <c r="G72" s="237"/>
+      <c r="H72" s="237"/>
+      <c r="I72" s="237"/>
+      <c r="J72" s="238"/>
+      <c r="K72" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="174"/>
-      <c r="M72" s="199" t="s">
+      <c r="L72" s="112"/>
+      <c r="M72" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="N72" s="200"/>
-      <c r="O72" s="200"/>
-      <c r="P72" s="200"/>
-      <c r="Q72" s="200"/>
-      <c r="R72" s="200"/>
-      <c r="S72" s="200"/>
-      <c r="T72" s="200"/>
-      <c r="U72" s="200"/>
-      <c r="V72" s="200"/>
-      <c r="W72" s="200"/>
-      <c r="X72" s="200"/>
-      <c r="Y72" s="200"/>
-      <c r="Z72" s="200"/>
-      <c r="AA72" s="200"/>
-      <c r="AB72" s="200"/>
-      <c r="AC72" s="200"/>
-      <c r="AD72" s="200"/>
-      <c r="AE72" s="200"/>
-      <c r="AF72" s="200"/>
-      <c r="AG72" s="200"/>
-      <c r="AH72" s="201"/>
+      <c r="N72" s="207"/>
+      <c r="O72" s="207"/>
+      <c r="P72" s="207"/>
+      <c r="Q72" s="207"/>
+      <c r="R72" s="207"/>
+      <c r="S72" s="207"/>
+      <c r="T72" s="207"/>
+      <c r="U72" s="207"/>
+      <c r="V72" s="207"/>
+      <c r="W72" s="207"/>
+      <c r="X72" s="207"/>
+      <c r="Y72" s="207"/>
+      <c r="Z72" s="207"/>
+      <c r="AA72" s="207"/>
+      <c r="AB72" s="207"/>
+      <c r="AC72" s="207"/>
+      <c r="AD72" s="207"/>
+      <c r="AE72" s="207"/>
+      <c r="AF72" s="207"/>
+      <c r="AG72" s="207"/>
+      <c r="AH72" s="208"/>
     </row>
     <row r="73" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="48"/>
       <c r="D73" s="48"/>
-      <c r="E73" s="242"/>
-      <c r="F73" s="243"/>
-      <c r="G73" s="243"/>
-      <c r="H73" s="243"/>
-      <c r="I73" s="243"/>
-      <c r="J73" s="244"/>
-      <c r="K73" s="245"/>
-      <c r="L73" s="246"/>
-      <c r="M73" s="205"/>
-      <c r="N73" s="206"/>
-      <c r="O73" s="206"/>
-      <c r="P73" s="206"/>
-      <c r="Q73" s="206"/>
-      <c r="R73" s="206"/>
-      <c r="S73" s="206"/>
-      <c r="T73" s="206"/>
-      <c r="U73" s="206"/>
-      <c r="V73" s="206"/>
-      <c r="W73" s="206"/>
-      <c r="X73" s="206"/>
-      <c r="Y73" s="206"/>
-      <c r="Z73" s="206"/>
-      <c r="AA73" s="206"/>
-      <c r="AB73" s="206"/>
-      <c r="AC73" s="206"/>
-      <c r="AD73" s="206"/>
-      <c r="AE73" s="206"/>
-      <c r="AF73" s="206"/>
-      <c r="AG73" s="206"/>
-      <c r="AH73" s="207"/>
+      <c r="E73" s="239"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="240"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="240"/>
+      <c r="J73" s="241"/>
+      <c r="K73" s="242"/>
+      <c r="L73" s="243"/>
+      <c r="M73" s="212"/>
+      <c r="N73" s="213"/>
+      <c r="O73" s="213"/>
+      <c r="P73" s="213"/>
+      <c r="Q73" s="213"/>
+      <c r="R73" s="213"/>
+      <c r="S73" s="213"/>
+      <c r="T73" s="213"/>
+      <c r="U73" s="213"/>
+      <c r="V73" s="213"/>
+      <c r="W73" s="213"/>
+      <c r="X73" s="213"/>
+      <c r="Y73" s="213"/>
+      <c r="Z73" s="213"/>
+      <c r="AA73" s="213"/>
+      <c r="AB73" s="213"/>
+      <c r="AC73" s="213"/>
+      <c r="AD73" s="213"/>
+      <c r="AE73" s="213"/>
+      <c r="AF73" s="213"/>
+      <c r="AG73" s="213"/>
+      <c r="AH73" s="214"/>
     </row>
     <row r="74" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="48"/>
@@ -14424,7 +14423,7 @@
     </row>
     <row r="79" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F79" s="70"/>
       <c r="G79" s="70"/>
@@ -14458,7 +14457,7 @@
     </row>
     <row r="80" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -14837,57 +14836,6 @@
     <row r="93" spans="5:34" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:AH73"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:AH71"/>
-    <mergeCell ref="E48:J62"/>
-    <mergeCell ref="K48:L62"/>
-    <mergeCell ref="M49:AH49"/>
-    <mergeCell ref="N53:AH53"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="E43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="M43:AH44"/>
-    <mergeCell ref="E45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="M45:AH47"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:AH42"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
     <mergeCell ref="E78:AH78"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -14904,6 +14852,57 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:AH42"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="M43:AH44"/>
+    <mergeCell ref="E45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="M45:AH47"/>
+    <mergeCell ref="E48:J62"/>
+    <mergeCell ref="K48:L62"/>
+    <mergeCell ref="M49:AH49"/>
+    <mergeCell ref="N53:AH53"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="E72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:AH73"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:AH71"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FEE0B9-FCE9-4107-8807-EF78FB0C5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F08AA45-6349-4D7C-9877-26D83DD85F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="75" windowWidth="18900" windowHeight="14265" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="1335" windowWidth="18900" windowHeight="14265" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -931,12 +931,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>One unit test specification is prepared for one system function design document or common component design document.</t>
-  </si>
-  <si>
-    <t>*If test specifications are prepared for each request unit test, it is difficult to confirm whether the test cases are sufficient overall.</t>
-  </si>
-  <si>
     <t>The test specification format provides the following sheets for each test type.</t>
   </si>
   <si>
@@ -1076,10 +1070,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>The unit test specifications shall describe the class unit test cases, request unit test cases, and subfunction unit test cases included in the relevant subfunction.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Tests for simple validation of Forms should not be automated by NTF regardless of the processing architectures.</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1348,6 +1338,15 @@
   <si>
     <t>All viewpoints listed in the test viewpoint catalog were transcribed into the test specification format.</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Create one set of unit testing specifications for each set of system function design specifications or common component design specifications.</t>
+  </si>
+  <si>
+    <t>Unit testing specifications should indicate the class unit, request unit and subfunction unit test cases in the subfunction.</t>
+  </si>
+  <si>
+    <t>(This is because it is difficult to confirm whether the test cases are sufficient overall if unit testing specifications are created for each request unit test.)</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1897,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -2143,6 +2142,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2161,6 +2163,192 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2176,192 +2364,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2398,6 +2400,96 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2425,9 +2517,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2437,93 +2526,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2545,6 +2547,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2570,6 +2581,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2578,6 +2631,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2588,39 +2647,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2643,30 +2669,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5610,12 +5612,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="107">
+      <c r="I25" s="108">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>44777</v>
       </c>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5707,39 +5709,39 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
     </row>
     <row r="35" spans="6:19" x14ac:dyDescent="0.15">
       <c r="P35" s="9"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="9"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="105"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="106"/>
       <c r="S36" s="11"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="9"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="102"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="103"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="9"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="9"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6254,153 +6256,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="134" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="152" t="s">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="159" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="162">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
       <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="134" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="131" t="str">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="128">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="162">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
       <c r="AN2" s="18"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6444,1098 +6446,1175 @@
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="110" t="s">
+      <c r="E7" s="174"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="110" t="s">
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="110" t="s">
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="110" t="s">
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="175"/>
+      <c r="AF7" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="112"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="175"/>
     </row>
     <row r="8" spans="1:40" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163">
+      <c r="C8" s="146"/>
+      <c r="D8" s="147">
         <v>43336</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="166" t="s">
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="151"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="172" t="s">
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="137" t="s">
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="157"/>
+      <c r="X8" s="157"/>
+      <c r="Y8" s="157"/>
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="139"/>
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="169"/>
+      <c r="AI8" s="170"/>
     </row>
     <row r="9" spans="1:40" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117">
+        <v>43850</v>
+      </c>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="119">
-        <v>43850</v>
-      </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="124"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="113" t="s">
+      <c r="H9" s="120"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="116" t="s">
-        <v>159</v>
-      </c>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="115"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="111"/>
     </row>
     <row r="10" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88">
         <v>3</v>
       </c>
-      <c r="B10" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="119">
+      <c r="B10" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117">
         <v>44777</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122" t="s">
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="120"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="113" t="s">
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="117"/>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="117"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="115"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="111"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="111"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="111"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="111"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="114"/>
-      <c r="AI14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="111"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="115"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="109"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="111"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="114"/>
-      <c r="AH16" s="114"/>
-      <c r="AI16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="111"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="114"/>
-      <c r="AH17" s="114"/>
-      <c r="AI17" s="115"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="111"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="114"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="109"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="111"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="114"/>
-      <c r="AH19" s="114"/>
-      <c r="AI19" s="115"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="114"/>
+      <c r="AF19" s="109"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="111"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="111"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="115"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="111"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="115"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="111"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="115"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="109"/>
+      <c r="AG23" s="110"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="111"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="109"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="111"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="115"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="114"/>
+      <c r="AF25" s="109"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="111"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="113"/>
-      <c r="AG26" s="114"/>
-      <c r="AH26" s="114"/>
-      <c r="AI26" s="115"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="109"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="111"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="118"/>
-      <c r="AF27" s="113"/>
-      <c r="AG27" s="114"/>
-      <c r="AH27" s="114"/>
-      <c r="AI27" s="115"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="114"/>
+      <c r="AF27" s="109"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="111"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="118"/>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="114"/>
-      <c r="AH28" s="114"/>
-      <c r="AI28" s="115"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="114"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="111"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="118"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="115"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="111"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="118"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="114"/>
-      <c r="AI30" s="115"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="109"/>
+      <c r="AG30" s="110"/>
+      <c r="AH30" s="110"/>
+      <c r="AI30" s="111"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="118"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="115"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="109"/>
+      <c r="AG31" s="110"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="111"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="117"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="118"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="114"/>
-      <c r="AH32" s="114"/>
-      <c r="AI32" s="115"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="109"/>
+      <c r="AG32" s="110"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="111"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="118"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="115"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="D25:F25"/>
@@ -7560,122 +7639,45 @@
     <mergeCell ref="Q9:AE9"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7706,165 +7708,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="134" t="str">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="175" t="str">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="134" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="128">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="134" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="128" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
@@ -7998,7 +8000,7 @@
     <row r="11" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="23"/>
@@ -8023,7 +8025,7 @@
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -8045,7 +8047,7 @@
     <row r="13" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="C13" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -8067,7 +8069,7 @@
     <row r="14" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="C14" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -8088,7 +8090,7 @@
     <row r="15" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="C15" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -8130,7 +8132,7 @@
     </row>
     <row r="17" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="B17" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -8145,7 +8147,7 @@
     <row r="18" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="C18" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -8165,7 +8167,7 @@
     <row r="19" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="C19" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -8191,7 +8193,7 @@
     <row r="20" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -8864,6 +8866,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -8873,14 +8883,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8910,157 +8912,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="134" t="str">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="175" t="str">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="134" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="128">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="134" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="128" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9076,23 +9078,23 @@
     <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D8" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D9" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D11" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D12" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
@@ -9106,7 +9108,7 @@
     <row r="17" spans="4:4" ht="12" x14ac:dyDescent="0.15"/>
     <row r="18" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9121,7 +9123,7 @@
     </row>
     <row r="23" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9136,6 +9138,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -9145,14 +9155,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -9187,163 +9189,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="134" t="str">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="175" t="str">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="134" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="128">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="134" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="128" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9361,7 +9363,7 @@
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="36"/>
       <c r="D8" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9383,13 +9385,13 @@
     <row r="12" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="36"/>
       <c r="D12" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C13" s="36"/>
       <c r="D13" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9399,7 +9401,7 @@
     <row r="15" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C15" s="36"/>
       <c r="D15" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9417,7 +9419,7 @@
     <row r="18" spans="3:4" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="36"/>
       <c r="D18" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="12" x14ac:dyDescent="0.15">
@@ -9439,7 +9441,7 @@
     <row r="22" spans="3:4" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="36"/>
       <c r="D22" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="12" x14ac:dyDescent="0.15">
@@ -9496,350 +9498,350 @@
       <c r="D36" s="32"/>
     </row>
     <row r="37" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D37" s="203" t="s">
+      <c r="D37" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="203" t="s">
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="204"/>
-      <c r="P37" s="204"/>
-      <c r="Q37" s="204"/>
-      <c r="R37" s="204"/>
-      <c r="S37" s="204"/>
-      <c r="T37" s="204"/>
-      <c r="U37" s="204"/>
-      <c r="V37" s="204"/>
-      <c r="W37" s="204"/>
-      <c r="X37" s="204"/>
-      <c r="Y37" s="204"/>
-      <c r="Z37" s="204"/>
-      <c r="AA37" s="204"/>
-      <c r="AB37" s="204"/>
-      <c r="AC37" s="204"/>
-      <c r="AD37" s="204"/>
-      <c r="AE37" s="204"/>
-      <c r="AF37" s="204"/>
-      <c r="AG37" s="204"/>
-      <c r="AH37" s="205"/>
+      <c r="K37" s="192"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="192"/>
+      <c r="N37" s="192"/>
+      <c r="O37" s="192"/>
+      <c r="P37" s="192"/>
+      <c r="Q37" s="192"/>
+      <c r="R37" s="192"/>
+      <c r="S37" s="192"/>
+      <c r="T37" s="192"/>
+      <c r="U37" s="192"/>
+      <c r="V37" s="192"/>
+      <c r="W37" s="192"/>
+      <c r="X37" s="192"/>
+      <c r="Y37" s="192"/>
+      <c r="Z37" s="192"/>
+      <c r="AA37" s="192"/>
+      <c r="AB37" s="192"/>
+      <c r="AC37" s="192"/>
+      <c r="AD37" s="192"/>
+      <c r="AE37" s="192"/>
+      <c r="AF37" s="192"/>
+      <c r="AG37" s="192"/>
+      <c r="AH37" s="193"/>
     </row>
     <row r="38" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D38" s="187" t="s">
+      <c r="D38" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="206" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="207"/>
-      <c r="N38" s="207"/>
-      <c r="O38" s="207"/>
-      <c r="P38" s="207"/>
-      <c r="Q38" s="207"/>
-      <c r="R38" s="207"/>
-      <c r="S38" s="207"/>
-      <c r="T38" s="207"/>
-      <c r="U38" s="207"/>
-      <c r="V38" s="207"/>
-      <c r="W38" s="207"/>
-      <c r="X38" s="207"/>
-      <c r="Y38" s="207"/>
-      <c r="Z38" s="207"/>
-      <c r="AA38" s="207"/>
-      <c r="AB38" s="207"/>
-      <c r="AC38" s="207"/>
-      <c r="AD38" s="207"/>
-      <c r="AE38" s="207"/>
-      <c r="AF38" s="207"/>
-      <c r="AG38" s="207"/>
-      <c r="AH38" s="208"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="200" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="201"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="201"/>
+      <c r="N38" s="201"/>
+      <c r="O38" s="201"/>
+      <c r="P38" s="201"/>
+      <c r="Q38" s="201"/>
+      <c r="R38" s="201"/>
+      <c r="S38" s="201"/>
+      <c r="T38" s="201"/>
+      <c r="U38" s="201"/>
+      <c r="V38" s="201"/>
+      <c r="W38" s="201"/>
+      <c r="X38" s="201"/>
+      <c r="Y38" s="201"/>
+      <c r="Z38" s="201"/>
+      <c r="AA38" s="201"/>
+      <c r="AB38" s="201"/>
+      <c r="AC38" s="201"/>
+      <c r="AD38" s="201"/>
+      <c r="AE38" s="201"/>
+      <c r="AF38" s="201"/>
+      <c r="AG38" s="201"/>
+      <c r="AH38" s="202"/>
     </row>
     <row r="39" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D39" s="190"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="210"/>
-      <c r="M39" s="210"/>
-      <c r="N39" s="210"/>
-      <c r="O39" s="210"/>
-      <c r="P39" s="210"/>
-      <c r="Q39" s="210"/>
-      <c r="R39" s="210"/>
-      <c r="S39" s="210"/>
-      <c r="T39" s="210"/>
-      <c r="U39" s="210"/>
-      <c r="V39" s="210"/>
-      <c r="W39" s="210"/>
-      <c r="X39" s="210"/>
-      <c r="Y39" s="210"/>
-      <c r="Z39" s="210"/>
-      <c r="AA39" s="210"/>
-      <c r="AB39" s="210"/>
-      <c r="AC39" s="210"/>
-      <c r="AD39" s="210"/>
-      <c r="AE39" s="210"/>
-      <c r="AF39" s="210"/>
-      <c r="AG39" s="210"/>
-      <c r="AH39" s="211"/>
+      <c r="D39" s="221"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="203"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="204"/>
+      <c r="O39" s="204"/>
+      <c r="P39" s="204"/>
+      <c r="Q39" s="204"/>
+      <c r="R39" s="204"/>
+      <c r="S39" s="204"/>
+      <c r="T39" s="204"/>
+      <c r="U39" s="204"/>
+      <c r="V39" s="204"/>
+      <c r="W39" s="204"/>
+      <c r="X39" s="204"/>
+      <c r="Y39" s="204"/>
+      <c r="Z39" s="204"/>
+      <c r="AA39" s="204"/>
+      <c r="AB39" s="204"/>
+      <c r="AC39" s="204"/>
+      <c r="AD39" s="204"/>
+      <c r="AE39" s="204"/>
+      <c r="AF39" s="204"/>
+      <c r="AG39" s="204"/>
+      <c r="AH39" s="205"/>
     </row>
     <row r="40" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D40" s="193"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="213"/>
-      <c r="M40" s="213"/>
-      <c r="N40" s="213"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="213"/>
-      <c r="Q40" s="213"/>
-      <c r="R40" s="213"/>
-      <c r="S40" s="213"/>
-      <c r="T40" s="213"/>
-      <c r="U40" s="213"/>
-      <c r="V40" s="213"/>
-      <c r="W40" s="213"/>
-      <c r="X40" s="213"/>
-      <c r="Y40" s="213"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="213"/>
-      <c r="AB40" s="213"/>
-      <c r="AC40" s="213"/>
-      <c r="AD40" s="213"/>
-      <c r="AE40" s="213"/>
-      <c r="AF40" s="213"/>
-      <c r="AG40" s="213"/>
-      <c r="AH40" s="214"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="225"/>
+      <c r="G40" s="225"/>
+      <c r="H40" s="225"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="207"/>
+      <c r="P40" s="207"/>
+      <c r="Q40" s="207"/>
+      <c r="R40" s="207"/>
+      <c r="S40" s="207"/>
+      <c r="T40" s="207"/>
+      <c r="U40" s="207"/>
+      <c r="V40" s="207"/>
+      <c r="W40" s="207"/>
+      <c r="X40" s="207"/>
+      <c r="Y40" s="207"/>
+      <c r="Z40" s="207"/>
+      <c r="AA40" s="207"/>
+      <c r="AB40" s="207"/>
+      <c r="AC40" s="207"/>
+      <c r="AD40" s="207"/>
+      <c r="AE40" s="207"/>
+      <c r="AF40" s="207"/>
+      <c r="AG40" s="207"/>
+      <c r="AH40" s="208"/>
     </row>
     <row r="41" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D41" s="187" t="s">
+      <c r="D41" s="218" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="215" t="s">
-        <v>203</v>
-      </c>
-      <c r="K41" s="216"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216"/>
-      <c r="N41" s="216"/>
-      <c r="O41" s="216"/>
-      <c r="P41" s="216"/>
-      <c r="Q41" s="216"/>
-      <c r="R41" s="216"/>
-      <c r="S41" s="216"/>
-      <c r="T41" s="216"/>
-      <c r="U41" s="216"/>
-      <c r="V41" s="216"/>
-      <c r="W41" s="216"/>
-      <c r="X41" s="216"/>
-      <c r="Y41" s="216"/>
-      <c r="Z41" s="216"/>
-      <c r="AA41" s="216"/>
-      <c r="AB41" s="216"/>
-      <c r="AC41" s="216"/>
-      <c r="AD41" s="216"/>
-      <c r="AE41" s="216"/>
-      <c r="AF41" s="216"/>
-      <c r="AG41" s="216"/>
-      <c r="AH41" s="217"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="K41" s="210"/>
+      <c r="L41" s="210"/>
+      <c r="M41" s="210"/>
+      <c r="N41" s="210"/>
+      <c r="O41" s="210"/>
+      <c r="P41" s="210"/>
+      <c r="Q41" s="210"/>
+      <c r="R41" s="210"/>
+      <c r="S41" s="210"/>
+      <c r="T41" s="210"/>
+      <c r="U41" s="210"/>
+      <c r="V41" s="210"/>
+      <c r="W41" s="210"/>
+      <c r="X41" s="210"/>
+      <c r="Y41" s="210"/>
+      <c r="Z41" s="210"/>
+      <c r="AA41" s="210"/>
+      <c r="AB41" s="210"/>
+      <c r="AC41" s="210"/>
+      <c r="AD41" s="210"/>
+      <c r="AE41" s="210"/>
+      <c r="AF41" s="210"/>
+      <c r="AG41" s="210"/>
+      <c r="AH41" s="211"/>
     </row>
     <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D42" s="190"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="219"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="219"/>
-      <c r="O42" s="219"/>
-      <c r="P42" s="219"/>
-      <c r="Q42" s="219"/>
-      <c r="R42" s="219"/>
-      <c r="S42" s="219"/>
-      <c r="T42" s="219"/>
-      <c r="U42" s="219"/>
-      <c r="V42" s="219"/>
-      <c r="W42" s="219"/>
-      <c r="X42" s="219"/>
-      <c r="Y42" s="219"/>
-      <c r="Z42" s="219"/>
-      <c r="AA42" s="219"/>
-      <c r="AB42" s="219"/>
-      <c r="AC42" s="219"/>
-      <c r="AD42" s="219"/>
-      <c r="AE42" s="219"/>
-      <c r="AF42" s="219"/>
-      <c r="AG42" s="219"/>
-      <c r="AH42" s="220"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="222"/>
+      <c r="G42" s="222"/>
+      <c r="H42" s="222"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="213"/>
+      <c r="L42" s="213"/>
+      <c r="M42" s="213"/>
+      <c r="N42" s="213"/>
+      <c r="O42" s="213"/>
+      <c r="P42" s="213"/>
+      <c r="Q42" s="213"/>
+      <c r="R42" s="213"/>
+      <c r="S42" s="213"/>
+      <c r="T42" s="213"/>
+      <c r="U42" s="213"/>
+      <c r="V42" s="213"/>
+      <c r="W42" s="213"/>
+      <c r="X42" s="213"/>
+      <c r="Y42" s="213"/>
+      <c r="Z42" s="213"/>
+      <c r="AA42" s="213"/>
+      <c r="AB42" s="213"/>
+      <c r="AC42" s="213"/>
+      <c r="AD42" s="213"/>
+      <c r="AE42" s="213"/>
+      <c r="AF42" s="213"/>
+      <c r="AG42" s="213"/>
+      <c r="AH42" s="214"/>
     </row>
     <row r="43" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="193"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="222"/>
-      <c r="M43" s="222"/>
-      <c r="N43" s="222"/>
-      <c r="O43" s="222"/>
-      <c r="P43" s="222"/>
-      <c r="Q43" s="222"/>
-      <c r="R43" s="222"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="222"/>
-      <c r="U43" s="222"/>
-      <c r="V43" s="222"/>
-      <c r="W43" s="222"/>
-      <c r="X43" s="222"/>
-      <c r="Y43" s="222"/>
-      <c r="Z43" s="222"/>
-      <c r="AA43" s="222"/>
-      <c r="AB43" s="222"/>
-      <c r="AC43" s="222"/>
-      <c r="AD43" s="222"/>
-      <c r="AE43" s="222"/>
-      <c r="AF43" s="222"/>
-      <c r="AG43" s="222"/>
-      <c r="AH43" s="223"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="226"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="216"/>
+      <c r="L43" s="216"/>
+      <c r="M43" s="216"/>
+      <c r="N43" s="216"/>
+      <c r="O43" s="216"/>
+      <c r="P43" s="216"/>
+      <c r="Q43" s="216"/>
+      <c r="R43" s="216"/>
+      <c r="S43" s="216"/>
+      <c r="T43" s="216"/>
+      <c r="U43" s="216"/>
+      <c r="V43" s="216"/>
+      <c r="W43" s="216"/>
+      <c r="X43" s="216"/>
+      <c r="Y43" s="216"/>
+      <c r="Z43" s="216"/>
+      <c r="AA43" s="216"/>
+      <c r="AB43" s="216"/>
+      <c r="AC43" s="216"/>
+      <c r="AD43" s="216"/>
+      <c r="AE43" s="216"/>
+      <c r="AF43" s="216"/>
+      <c r="AG43" s="216"/>
+      <c r="AH43" s="217"/>
     </row>
     <row r="44" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D44" s="187" t="s">
+      <c r="D44" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="189"/>
-      <c r="J44" s="215" t="s">
-        <v>204</v>
-      </c>
-      <c r="K44" s="216"/>
-      <c r="L44" s="216"/>
-      <c r="M44" s="216"/>
-      <c r="N44" s="216"/>
-      <c r="O44" s="216"/>
-      <c r="P44" s="216"/>
-      <c r="Q44" s="216"/>
-      <c r="R44" s="216"/>
-      <c r="S44" s="216"/>
-      <c r="T44" s="216"/>
-      <c r="U44" s="216"/>
-      <c r="V44" s="216"/>
-      <c r="W44" s="216"/>
-      <c r="X44" s="216"/>
-      <c r="Y44" s="216"/>
-      <c r="Z44" s="216"/>
-      <c r="AA44" s="216"/>
-      <c r="AB44" s="216"/>
-      <c r="AC44" s="216"/>
-      <c r="AD44" s="216"/>
-      <c r="AE44" s="216"/>
-      <c r="AF44" s="216"/>
-      <c r="AG44" s="216"/>
-      <c r="AH44" s="217"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="219"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44" s="210"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="210"/>
+      <c r="P44" s="210"/>
+      <c r="Q44" s="210"/>
+      <c r="R44" s="210"/>
+      <c r="S44" s="210"/>
+      <c r="T44" s="210"/>
+      <c r="U44" s="210"/>
+      <c r="V44" s="210"/>
+      <c r="W44" s="210"/>
+      <c r="X44" s="210"/>
+      <c r="Y44" s="210"/>
+      <c r="Z44" s="210"/>
+      <c r="AA44" s="210"/>
+      <c r="AB44" s="210"/>
+      <c r="AC44" s="210"/>
+      <c r="AD44" s="210"/>
+      <c r="AE44" s="210"/>
+      <c r="AF44" s="210"/>
+      <c r="AG44" s="210"/>
+      <c r="AH44" s="211"/>
     </row>
     <row r="45" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D45" s="190"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="218"/>
-      <c r="K45" s="219"/>
-      <c r="L45" s="219"/>
-      <c r="M45" s="219"/>
-      <c r="N45" s="219"/>
-      <c r="O45" s="219"/>
-      <c r="P45" s="219"/>
-      <c r="Q45" s="219"/>
-      <c r="R45" s="219"/>
-      <c r="S45" s="219"/>
-      <c r="T45" s="219"/>
-      <c r="U45" s="219"/>
-      <c r="V45" s="219"/>
-      <c r="W45" s="219"/>
-      <c r="X45" s="219"/>
-      <c r="Y45" s="219"/>
-      <c r="Z45" s="219"/>
-      <c r="AA45" s="219"/>
-      <c r="AB45" s="219"/>
-      <c r="AC45" s="219"/>
-      <c r="AD45" s="219"/>
-      <c r="AE45" s="219"/>
-      <c r="AF45" s="219"/>
-      <c r="AG45" s="219"/>
-      <c r="AH45" s="220"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="222"/>
+      <c r="F45" s="222"/>
+      <c r="G45" s="222"/>
+      <c r="H45" s="222"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="213"/>
+      <c r="M45" s="213"/>
+      <c r="N45" s="213"/>
+      <c r="O45" s="213"/>
+      <c r="P45" s="213"/>
+      <c r="Q45" s="213"/>
+      <c r="R45" s="213"/>
+      <c r="S45" s="213"/>
+      <c r="T45" s="213"/>
+      <c r="U45" s="213"/>
+      <c r="V45" s="213"/>
+      <c r="W45" s="213"/>
+      <c r="X45" s="213"/>
+      <c r="Y45" s="213"/>
+      <c r="Z45" s="213"/>
+      <c r="AA45" s="213"/>
+      <c r="AB45" s="213"/>
+      <c r="AC45" s="213"/>
+      <c r="AD45" s="213"/>
+      <c r="AE45" s="213"/>
+      <c r="AF45" s="213"/>
+      <c r="AG45" s="213"/>
+      <c r="AH45" s="214"/>
     </row>
     <row r="46" spans="3:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="193"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="221"/>
-      <c r="K46" s="222"/>
-      <c r="L46" s="222"/>
-      <c r="M46" s="222"/>
-      <c r="N46" s="222"/>
-      <c r="O46" s="222"/>
-      <c r="P46" s="222"/>
-      <c r="Q46" s="222"/>
-      <c r="R46" s="222"/>
-      <c r="S46" s="222"/>
-      <c r="T46" s="222"/>
-      <c r="U46" s="222"/>
-      <c r="V46" s="222"/>
-      <c r="W46" s="222"/>
-      <c r="X46" s="222"/>
-      <c r="Y46" s="222"/>
-      <c r="Z46" s="222"/>
-      <c r="AA46" s="222"/>
-      <c r="AB46" s="222"/>
-      <c r="AC46" s="222"/>
-      <c r="AD46" s="222"/>
-      <c r="AE46" s="222"/>
-      <c r="AF46" s="222"/>
-      <c r="AG46" s="222"/>
-      <c r="AH46" s="223"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
+      <c r="I46" s="226"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="216"/>
+      <c r="L46" s="216"/>
+      <c r="M46" s="216"/>
+      <c r="N46" s="216"/>
+      <c r="O46" s="216"/>
+      <c r="P46" s="216"/>
+      <c r="Q46" s="216"/>
+      <c r="R46" s="216"/>
+      <c r="S46" s="216"/>
+      <c r="T46" s="216"/>
+      <c r="U46" s="216"/>
+      <c r="V46" s="216"/>
+      <c r="W46" s="216"/>
+      <c r="X46" s="216"/>
+      <c r="Y46" s="216"/>
+      <c r="Z46" s="216"/>
+      <c r="AA46" s="216"/>
+      <c r="AB46" s="216"/>
+      <c r="AC46" s="216"/>
+      <c r="AD46" s="216"/>
+      <c r="AE46" s="216"/>
+      <c r="AF46" s="216"/>
+      <c r="AG46" s="216"/>
+      <c r="AH46" s="217"/>
     </row>
     <row r="47" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="D47" s="43" t="s">
@@ -9852,7 +9854,7 @@
     <row r="48" spans="3:34" ht="12" x14ac:dyDescent="0.15"/>
     <row r="49" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D49" s="37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="3:35" ht="12" x14ac:dyDescent="0.15">
@@ -9862,195 +9864,195 @@
     </row>
     <row r="51" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="52" spans="3:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="200" t="s">
+      <c r="D52" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="202"/>
-      <c r="H52" s="196" t="s">
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="196" t="s">
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="224"/>
-      <c r="N52" s="224"/>
-      <c r="O52" s="225"/>
-      <c r="P52" s="196" t="s">
+      <c r="M52" s="195"/>
+      <c r="N52" s="195"/>
+      <c r="O52" s="196"/>
+      <c r="P52" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="Q52" s="117"/>
-      <c r="R52" s="117"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="196" t="s">
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="U52" s="117"/>
-      <c r="V52" s="117"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="196" t="s">
+      <c r="U52" s="113"/>
+      <c r="V52" s="113"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="Y52" s="117"/>
-      <c r="Z52" s="117"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="226"/>
-      <c r="AC52" s="226"/>
-      <c r="AD52" s="226"/>
-      <c r="AE52" s="226"/>
-      <c r="AF52" s="226"/>
-      <c r="AG52" s="226"/>
-      <c r="AH52" s="226"/>
-      <c r="AI52" s="226"/>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="113"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="190"/>
+      <c r="AC52" s="190"/>
+      <c r="AD52" s="190"/>
+      <c r="AE52" s="190"/>
+      <c r="AF52" s="190"/>
+      <c r="AG52" s="190"/>
+      <c r="AH52" s="190"/>
+      <c r="AI52" s="190"/>
     </row>
     <row r="53" spans="3:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="197" t="s">
+      <c r="D53" s="227" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="228"/>
+      <c r="F53" s="228"/>
+      <c r="G53" s="229"/>
+      <c r="H53" s="185" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="198"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="199"/>
-      <c r="H53" s="184" t="s">
+      <c r="I53" s="186"/>
+      <c r="J53" s="186"/>
+      <c r="K53" s="187"/>
+      <c r="L53" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" s="186"/>
+      <c r="N53" s="186"/>
+      <c r="O53" s="187"/>
+      <c r="P53" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q53" s="186"/>
+      <c r="R53" s="186"/>
+      <c r="S53" s="187"/>
+      <c r="T53" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="U53" s="186"/>
+      <c r="V53" s="186"/>
+      <c r="W53" s="187"/>
+      <c r="X53" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y53" s="186"/>
+      <c r="Z53" s="186"/>
+      <c r="AA53" s="187"/>
+      <c r="AB53" s="188"/>
+      <c r="AC53" s="188"/>
+      <c r="AD53" s="188"/>
+      <c r="AE53" s="188"/>
+      <c r="AF53" s="188"/>
+      <c r="AG53" s="188"/>
+      <c r="AH53" s="188"/>
+      <c r="AI53" s="188"/>
+    </row>
+    <row r="54" spans="3:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="185" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="186"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="187"/>
+      <c r="H54" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="186"/>
+      <c r="J54" s="186"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="185" t="s">
+        <v>207</v>
+      </c>
+      <c r="M54" s="186"/>
+      <c r="N54" s="186"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q54" s="186"/>
+      <c r="R54" s="186"/>
+      <c r="S54" s="187"/>
+      <c r="T54" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="U54" s="186"/>
+      <c r="V54" s="186"/>
+      <c r="W54" s="187"/>
+      <c r="X54" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y54" s="186"/>
+      <c r="Z54" s="186"/>
+      <c r="AA54" s="187"/>
+      <c r="AB54" s="188"/>
+      <c r="AC54" s="188"/>
+      <c r="AD54" s="188"/>
+      <c r="AE54" s="188"/>
+      <c r="AF54" s="188"/>
+      <c r="AG54" s="188"/>
+      <c r="AH54" s="188"/>
+      <c r="AI54" s="188"/>
+    </row>
+    <row r="55" spans="3:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="185" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="186"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="187"/>
+      <c r="H55" s="185" t="s">
         <v>208</v>
       </c>
-      <c r="I53" s="185"/>
-      <c r="J53" s="185"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="184" t="s">
+      <c r="I55" s="186"/>
+      <c r="J55" s="186"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="185" t="s">
         <v>208</v>
       </c>
-      <c r="M53" s="185"/>
-      <c r="N53" s="185"/>
-      <c r="O53" s="186"/>
-      <c r="P53" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q53" s="185"/>
-      <c r="R53" s="185"/>
-      <c r="S53" s="186"/>
-      <c r="T53" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="U53" s="185"/>
-      <c r="V53" s="185"/>
-      <c r="W53" s="186"/>
-      <c r="X53" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y53" s="185"/>
-      <c r="Z53" s="185"/>
-      <c r="AA53" s="186"/>
-      <c r="AB53" s="227"/>
-      <c r="AC53" s="227"/>
-      <c r="AD53" s="227"/>
-      <c r="AE53" s="227"/>
-      <c r="AF53" s="227"/>
-      <c r="AG53" s="227"/>
-      <c r="AH53" s="227"/>
-      <c r="AI53" s="227"/>
-    </row>
-    <row r="54" spans="3:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="184" t="s">
-        <v>206</v>
-      </c>
-      <c r="E54" s="185"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="184" t="s">
-        <v>209</v>
-      </c>
-      <c r="I54" s="185"/>
-      <c r="J54" s="185"/>
-      <c r="K54" s="186"/>
-      <c r="L54" s="184" t="s">
-        <v>210</v>
-      </c>
-      <c r="M54" s="185"/>
-      <c r="N54" s="185"/>
-      <c r="O54" s="186"/>
-      <c r="P54" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q54" s="185"/>
-      <c r="R54" s="185"/>
-      <c r="S54" s="186"/>
-      <c r="T54" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="U54" s="185"/>
-      <c r="V54" s="185"/>
-      <c r="W54" s="186"/>
-      <c r="X54" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y54" s="185"/>
-      <c r="Z54" s="185"/>
-      <c r="AA54" s="186"/>
-      <c r="AB54" s="227"/>
-      <c r="AC54" s="227"/>
-      <c r="AD54" s="227"/>
-      <c r="AE54" s="227"/>
-      <c r="AF54" s="227"/>
-      <c r="AG54" s="227"/>
-      <c r="AH54" s="227"/>
-      <c r="AI54" s="227"/>
-    </row>
-    <row r="55" spans="3:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="184" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186"/>
-      <c r="H55" s="184" t="s">
-        <v>211</v>
-      </c>
-      <c r="I55" s="185"/>
-      <c r="J55" s="185"/>
-      <c r="K55" s="186"/>
-      <c r="L55" s="184" t="s">
-        <v>211</v>
-      </c>
-      <c r="M55" s="185"/>
-      <c r="N55" s="185"/>
-      <c r="O55" s="186"/>
-      <c r="P55" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q55" s="185"/>
-      <c r="R55" s="185"/>
-      <c r="S55" s="186"/>
-      <c r="T55" s="184" t="s">
-        <v>208</v>
-      </c>
-      <c r="U55" s="185"/>
-      <c r="V55" s="185"/>
-      <c r="W55" s="186"/>
-      <c r="X55" s="228" t="s">
+      <c r="M55" s="186"/>
+      <c r="N55" s="186"/>
+      <c r="O55" s="187"/>
+      <c r="P55" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q55" s="186"/>
+      <c r="R55" s="186"/>
+      <c r="S55" s="187"/>
+      <c r="T55" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="U55" s="186"/>
+      <c r="V55" s="186"/>
+      <c r="W55" s="187"/>
+      <c r="X55" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="Y55" s="185"/>
-      <c r="Z55" s="185"/>
-      <c r="AA55" s="186"/>
-      <c r="AB55" s="227"/>
-      <c r="AC55" s="227"/>
-      <c r="AD55" s="227"/>
-      <c r="AE55" s="227"/>
-      <c r="AF55" s="227"/>
-      <c r="AG55" s="227"/>
-      <c r="AH55" s="227"/>
-      <c r="AI55" s="227"/>
+      <c r="Y55" s="186"/>
+      <c r="Z55" s="186"/>
+      <c r="AA55" s="187"/>
+      <c r="AB55" s="188"/>
+      <c r="AC55" s="188"/>
+      <c r="AD55" s="188"/>
+      <c r="AE55" s="188"/>
+      <c r="AF55" s="188"/>
+      <c r="AG55" s="188"/>
+      <c r="AH55" s="188"/>
+      <c r="AI55" s="188"/>
     </row>
     <row r="56" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D56" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="3:35" ht="12" x14ac:dyDescent="0.15">
@@ -10058,7 +10060,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="3:35" ht="12" x14ac:dyDescent="0.15">
@@ -10074,13 +10076,13 @@
         <v>135</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="61" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C61" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D61" s="31"/>
       <c r="G61" s="31"/>
@@ -10146,14 +10148,14 @@
     </row>
     <row r="63" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D63" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="65" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
     <row r="66" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C66" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="31"/>
     </row>
@@ -10163,53 +10165,76 @@
     </row>
     <row r="68" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="D68" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
     <row r="70" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="D70" s="101" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="45"/>
       <c r="D71" s="101" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="45"/>
       <c r="D72" s="101" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E72" s="46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="E73" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="D41:I43"/>
+    <mergeCell ref="D44:I46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J38:AH40"/>
+    <mergeCell ref="J41:AH43"/>
+    <mergeCell ref="J44:AH46"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AF55:AI55"/>
@@ -10226,38 +10251,15 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="J37:AH37"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X52:AA52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J38:AH40"/>
-    <mergeCell ref="J41:AH43"/>
-    <mergeCell ref="J44:AH46"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="D41:I43"/>
-    <mergeCell ref="D44:I46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P53:S53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10292,162 +10294,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="134" t="str">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="175" t="str">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="134" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="128">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="134" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="128" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
     </row>
     <row r="4" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5" s="31"/>
     </row>
@@ -10456,7 +10458,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -10465,7 +10467,7 @@
     <row r="8" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="36"/>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -10487,7 +10489,7 @@
     <row r="9" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="36"/>
       <c r="D9" s="31" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -10508,38 +10510,38 @@
     </row>
     <row r="10" spans="1:35" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="36"/>
-      <c r="D10" s="233" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="233"/>
-      <c r="S10" s="233"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="233"/>
-      <c r="W10" s="233"/>
-      <c r="X10" s="233"/>
-      <c r="Y10" s="233"/>
-      <c r="Z10" s="233"/>
-      <c r="AA10" s="233"/>
-      <c r="AB10" s="233"/>
-      <c r="AC10" s="233"/>
-      <c r="AD10" s="233"/>
-      <c r="AE10" s="233"/>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="233"/>
+      <c r="D10" s="234" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="234"/>
+      <c r="Q10" s="234"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="234"/>
+      <c r="W10" s="234"/>
+      <c r="X10" s="234"/>
+      <c r="Y10" s="234"/>
+      <c r="Z10" s="234"/>
+      <c r="AA10" s="234"/>
+      <c r="AB10" s="234"/>
+      <c r="AC10" s="234"/>
+      <c r="AD10" s="234"/>
+      <c r="AE10" s="234"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
       <c r="AH10" s="57"/>
     </row>
     <row r="11" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -10567,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -10576,42 +10578,42 @@
     <row r="14" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="84"/>
-      <c r="D15" s="234" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="234"/>
-      <c r="R15" s="234"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="234"/>
-      <c r="U15" s="234"/>
-      <c r="V15" s="234"/>
-      <c r="W15" s="234"/>
-      <c r="X15" s="234"/>
-      <c r="Y15" s="234"/>
-      <c r="Z15" s="234"/>
-      <c r="AA15" s="234"/>
-      <c r="AB15" s="234"/>
-      <c r="AC15" s="234"/>
-      <c r="AD15" s="234"/>
-      <c r="AE15" s="234"/>
-      <c r="AF15" s="234"/>
+      <c r="D15" s="235" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
+      <c r="K15" s="235"/>
+      <c r="L15" s="235"/>
+      <c r="M15" s="235"/>
+      <c r="N15" s="235"/>
+      <c r="O15" s="235"/>
+      <c r="P15" s="235"/>
+      <c r="Q15" s="235"/>
+      <c r="R15" s="235"/>
+      <c r="S15" s="235"/>
+      <c r="T15" s="235"/>
+      <c r="U15" s="235"/>
+      <c r="V15" s="235"/>
+      <c r="W15" s="235"/>
+      <c r="X15" s="235"/>
+      <c r="Y15" s="235"/>
+      <c r="Z15" s="235"/>
+      <c r="AA15" s="235"/>
+      <c r="AB15" s="235"/>
+      <c r="AC15" s="235"/>
+      <c r="AD15" s="235"/>
+      <c r="AE15" s="235"/>
+      <c r="AF15" s="235"/>
       <c r="AG15" s="81"/>
       <c r="AH15" s="81"/>
     </row>
@@ -10626,36 +10628,36 @@
     </row>
     <row r="19" spans="3:34" s="37" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="36"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
-      <c r="O19" s="231"/>
-      <c r="P19" s="231"/>
-      <c r="Q19" s="231"/>
-      <c r="R19" s="231"/>
-      <c r="S19" s="231"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="231"/>
-      <c r="W19" s="231"/>
-      <c r="X19" s="231"/>
-      <c r="Y19" s="231"/>
-      <c r="Z19" s="231"/>
-      <c r="AA19" s="231"/>
-      <c r="AB19" s="231"/>
-      <c r="AC19" s="231"/>
-      <c r="AD19" s="231"/>
-      <c r="AE19" s="231"/>
-      <c r="AF19" s="231"/>
-      <c r="AG19" s="231"/>
-      <c r="AH19" s="231"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="232"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="232"/>
+      <c r="Q19" s="232"/>
+      <c r="R19" s="232"/>
+      <c r="S19" s="232"/>
+      <c r="T19" s="232"/>
+      <c r="U19" s="232"/>
+      <c r="V19" s="232"/>
+      <c r="W19" s="232"/>
+      <c r="X19" s="232"/>
+      <c r="Y19" s="232"/>
+      <c r="Z19" s="232"/>
+      <c r="AA19" s="232"/>
+      <c r="AB19" s="232"/>
+      <c r="AC19" s="232"/>
+      <c r="AD19" s="232"/>
+      <c r="AE19" s="232"/>
+      <c r="AF19" s="232"/>
+      <c r="AG19" s="232"/>
+      <c r="AH19" s="232"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E22" s="49"/>
@@ -10665,35 +10667,35 @@
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E24" s="50"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="232"/>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="232"/>
-      <c r="O24" s="232"/>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="232"/>
-      <c r="R24" s="232"/>
-      <c r="S24" s="232"/>
-      <c r="T24" s="232"/>
-      <c r="U24" s="232"/>
-      <c r="V24" s="232"/>
-      <c r="W24" s="232"/>
-      <c r="X24" s="232"/>
-      <c r="Y24" s="232"/>
-      <c r="Z24" s="232"/>
-      <c r="AA24" s="232"/>
-      <c r="AB24" s="232"/>
-      <c r="AC24" s="232"/>
-      <c r="AD24" s="232"/>
-      <c r="AE24" s="232"/>
-      <c r="AF24" s="232"/>
-      <c r="AG24" s="232"/>
-      <c r="AH24" s="232"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="233"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="233"/>
+      <c r="N24" s="233"/>
+      <c r="O24" s="233"/>
+      <c r="P24" s="233"/>
+      <c r="Q24" s="233"/>
+      <c r="R24" s="233"/>
+      <c r="S24" s="233"/>
+      <c r="T24" s="233"/>
+      <c r="U24" s="233"/>
+      <c r="V24" s="233"/>
+      <c r="W24" s="233"/>
+      <c r="X24" s="233"/>
+      <c r="Y24" s="233"/>
+      <c r="Z24" s="233"/>
+      <c r="AA24" s="233"/>
+      <c r="AB24" s="233"/>
+      <c r="AC24" s="233"/>
+      <c r="AD24" s="233"/>
+      <c r="AE24" s="233"/>
+      <c r="AF24" s="233"/>
+      <c r="AG24" s="233"/>
+      <c r="AH24" s="233"/>
     </row>
     <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D25" s="51"/>
@@ -10719,37 +10721,37 @@
       <c r="E26" s="53"/>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="D28" s="229"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
-      <c r="J28" s="229"/>
-      <c r="K28" s="229"/>
-      <c r="L28" s="229"/>
-      <c r="M28" s="229"/>
-      <c r="N28" s="229"/>
-      <c r="O28" s="229"/>
-      <c r="P28" s="229"/>
-      <c r="Q28" s="229"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="229"/>
-      <c r="T28" s="229"/>
-      <c r="U28" s="229"/>
-      <c r="V28" s="229"/>
-      <c r="W28" s="229"/>
-      <c r="X28" s="229"/>
-      <c r="Y28" s="229"/>
-      <c r="Z28" s="229"/>
-      <c r="AA28" s="229"/>
-      <c r="AB28" s="229"/>
-      <c r="AC28" s="229"/>
-      <c r="AD28" s="229"/>
-      <c r="AE28" s="229"/>
-      <c r="AF28" s="229"/>
-      <c r="AG28" s="229"/>
-      <c r="AH28" s="229"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="230"/>
+      <c r="M28" s="230"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="230"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
+      <c r="R28" s="230"/>
+      <c r="S28" s="230"/>
+      <c r="T28" s="230"/>
+      <c r="U28" s="230"/>
+      <c r="V28" s="230"/>
+      <c r="W28" s="230"/>
+      <c r="X28" s="230"/>
+      <c r="Y28" s="230"/>
+      <c r="Z28" s="230"/>
+      <c r="AA28" s="230"/>
+      <c r="AB28" s="230"/>
+      <c r="AC28" s="230"/>
+      <c r="AD28" s="230"/>
+      <c r="AE28" s="230"/>
+      <c r="AF28" s="230"/>
+      <c r="AG28" s="230"/>
+      <c r="AH28" s="230"/>
     </row>
     <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D29" s="51"/>
@@ -10890,7 +10892,7 @@
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
       <c r="D35" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
@@ -10945,7 +10947,7 @@
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" s="85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
@@ -10974,7 +10976,7 @@
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="86" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
@@ -11003,7 +11005,7 @@
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
       <c r="D39" s="87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
@@ -11059,7 +11061,7 @@
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
       <c r="D41" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
@@ -11099,38 +11101,38 @@
       <c r="A42" s="49"/>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
-      <c r="D42" s="235" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="235"/>
-      <c r="F42" s="235"/>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="235"/>
-      <c r="K42" s="235"/>
-      <c r="L42" s="235"/>
-      <c r="M42" s="235"/>
-      <c r="N42" s="235"/>
-      <c r="O42" s="235"/>
-      <c r="P42" s="235"/>
-      <c r="Q42" s="235"/>
-      <c r="R42" s="235"/>
-      <c r="S42" s="235"/>
-      <c r="T42" s="235"/>
-      <c r="U42" s="235"/>
-      <c r="V42" s="235"/>
-      <c r="W42" s="235"/>
-      <c r="X42" s="235"/>
-      <c r="Y42" s="235"/>
-      <c r="Z42" s="235"/>
-      <c r="AA42" s="235"/>
-      <c r="AB42" s="235"/>
-      <c r="AC42" s="235"/>
-      <c r="AD42" s="235"/>
-      <c r="AE42" s="235"/>
-      <c r="AF42" s="235"/>
-      <c r="AG42" s="235"/>
+      <c r="D42" s="236" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="236"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="236"/>
+      <c r="L42" s="236"/>
+      <c r="M42" s="236"/>
+      <c r="N42" s="236"/>
+      <c r="O42" s="236"/>
+      <c r="P42" s="236"/>
+      <c r="Q42" s="236"/>
+      <c r="R42" s="236"/>
+      <c r="S42" s="236"/>
+      <c r="T42" s="236"/>
+      <c r="U42" s="236"/>
+      <c r="V42" s="236"/>
+      <c r="W42" s="236"/>
+      <c r="X42" s="236"/>
+      <c r="Y42" s="236"/>
+      <c r="Z42" s="236"/>
+      <c r="AA42" s="236"/>
+      <c r="AB42" s="236"/>
+      <c r="AC42" s="236"/>
+      <c r="AD42" s="236"/>
+      <c r="AE42" s="236"/>
+      <c r="AF42" s="236"/>
+      <c r="AG42" s="236"/>
       <c r="AH42" s="59"/>
       <c r="AJ42" s="49"/>
       <c r="AK42" s="49"/>
@@ -11179,35 +11181,35 @@
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="235" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="235"/>
-      <c r="I44" s="235"/>
-      <c r="J44" s="235"/>
-      <c r="K44" s="235"/>
-      <c r="L44" s="235"/>
-      <c r="M44" s="235"/>
-      <c r="N44" s="235"/>
-      <c r="O44" s="235"/>
-      <c r="P44" s="235"/>
-      <c r="Q44" s="235"/>
-      <c r="R44" s="235"/>
-      <c r="S44" s="235"/>
-      <c r="T44" s="235"/>
-      <c r="U44" s="235"/>
-      <c r="V44" s="235"/>
-      <c r="W44" s="235"/>
-      <c r="X44" s="235"/>
-      <c r="Y44" s="235"/>
-      <c r="Z44" s="235"/>
-      <c r="AA44" s="235"/>
-      <c r="AB44" s="235"/>
-      <c r="AC44" s="235"/>
-      <c r="AD44" s="235"/>
+      <c r="D44" s="236" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="236"/>
+      <c r="F44" s="236"/>
+      <c r="G44" s="236"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="236"/>
+      <c r="L44" s="236"/>
+      <c r="M44" s="236"/>
+      <c r="N44" s="236"/>
+      <c r="O44" s="236"/>
+      <c r="P44" s="236"/>
+      <c r="Q44" s="236"/>
+      <c r="R44" s="236"/>
+      <c r="S44" s="236"/>
+      <c r="T44" s="236"/>
+      <c r="U44" s="236"/>
+      <c r="V44" s="236"/>
+      <c r="W44" s="236"/>
+      <c r="X44" s="236"/>
+      <c r="Y44" s="236"/>
+      <c r="Z44" s="236"/>
+      <c r="AA44" s="236"/>
+      <c r="AB44" s="236"/>
+      <c r="AC44" s="236"/>
+      <c r="AD44" s="236"/>
       <c r="AE44" s="61"/>
       <c r="AF44" s="59"/>
       <c r="AG44" s="59"/>
@@ -11256,12 +11258,12 @@
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
       <c r="D46" s="89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E46" s="90"/>
       <c r="F46" s="91"/>
       <c r="G46" s="89" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H46" s="90"/>
       <c r="I46" s="90"/>
@@ -11269,7 +11271,7 @@
       <c r="K46" s="90"/>
       <c r="L46" s="91"/>
       <c r="M46" s="90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N46" s="90"/>
       <c r="O46" s="90"/>
@@ -11301,12 +11303,12 @@
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
       <c r="D47" s="92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E47" s="93"/>
       <c r="F47" s="94"/>
       <c r="G47" s="95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H47" s="96"/>
       <c r="I47" s="96"/>
@@ -11314,7 +11316,7 @@
       <c r="K47" s="96"/>
       <c r="L47" s="97"/>
       <c r="M47" s="96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N47" s="96"/>
       <c r="O47" s="96"/>
@@ -11349,7 +11351,7 @@
       <c r="E48" s="99"/>
       <c r="F48" s="100"/>
       <c r="G48" s="95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H48" s="96"/>
       <c r="I48" s="96"/>
@@ -11357,7 +11359,7 @@
       <c r="K48" s="96"/>
       <c r="L48" s="97"/>
       <c r="M48" s="96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N48" s="96"/>
       <c r="O48" s="96"/>
@@ -11389,12 +11391,12 @@
       <c r="B49" s="49"/>
       <c r="C49" s="49"/>
       <c r="D49" s="92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E49" s="93"/>
       <c r="F49" s="94"/>
       <c r="G49" s="95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H49" s="96"/>
       <c r="I49" s="96"/>
@@ -11402,7 +11404,7 @@
       <c r="K49" s="96"/>
       <c r="L49" s="97"/>
       <c r="M49" s="96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N49" s="96"/>
       <c r="O49" s="96"/>
@@ -11437,7 +11439,7 @@
       <c r="E50" s="99"/>
       <c r="F50" s="100"/>
       <c r="G50" s="95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H50" s="96"/>
       <c r="I50" s="96"/>
@@ -11445,7 +11447,7 @@
       <c r="K50" s="96"/>
       <c r="L50" s="97"/>
       <c r="M50" s="96" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N50" s="96"/>
       <c r="O50" s="96"/>
@@ -11477,12 +11479,12 @@
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
       <c r="D51" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E51" s="93"/>
       <c r="F51" s="94"/>
       <c r="G51" s="95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H51" s="96"/>
       <c r="I51" s="96"/>
@@ -11490,7 +11492,7 @@
       <c r="K51" s="96"/>
       <c r="L51" s="97"/>
       <c r="M51" s="96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N51" s="96"/>
       <c r="O51" s="96"/>
@@ -11525,7 +11527,7 @@
       <c r="E52" s="99"/>
       <c r="F52" s="100"/>
       <c r="G52" s="95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H52" s="96"/>
       <c r="I52" s="96"/>
@@ -11533,7 +11535,7 @@
       <c r="K52" s="96"/>
       <c r="L52" s="97"/>
       <c r="M52" s="96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N52" s="96"/>
       <c r="O52" s="96"/>
@@ -11602,7 +11604,7 @@
       <c r="B54" s="49"/>
       <c r="C54" s="49"/>
       <c r="D54" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
@@ -11642,7 +11644,7 @@
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
       <c r="D55" s="48" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -11681,35 +11683,35 @@
       <c r="A56" s="49"/>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
-      <c r="D56" s="230" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="230"/>
-      <c r="F56" s="230"/>
-      <c r="G56" s="230"/>
-      <c r="H56" s="230"/>
-      <c r="I56" s="230"/>
-      <c r="J56" s="230"/>
-      <c r="K56" s="230"/>
-      <c r="L56" s="230"/>
-      <c r="M56" s="230"/>
-      <c r="N56" s="230"/>
-      <c r="O56" s="230"/>
-      <c r="P56" s="230"/>
-      <c r="Q56" s="230"/>
-      <c r="R56" s="230"/>
-      <c r="S56" s="230"/>
-      <c r="T56" s="230"/>
-      <c r="U56" s="230"/>
-      <c r="V56" s="230"/>
-      <c r="W56" s="230"/>
-      <c r="X56" s="230"/>
-      <c r="Y56" s="230"/>
-      <c r="Z56" s="230"/>
-      <c r="AA56" s="230"/>
-      <c r="AB56" s="230"/>
-      <c r="AC56" s="230"/>
-      <c r="AD56" s="230"/>
+      <c r="D56" s="231" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
+      <c r="K56" s="231"/>
+      <c r="L56" s="231"/>
+      <c r="M56" s="231"/>
+      <c r="N56" s="231"/>
+      <c r="O56" s="231"/>
+      <c r="P56" s="231"/>
+      <c r="Q56" s="231"/>
+      <c r="R56" s="231"/>
+      <c r="S56" s="231"/>
+      <c r="T56" s="231"/>
+      <c r="U56" s="231"/>
+      <c r="V56" s="231"/>
+      <c r="W56" s="231"/>
+      <c r="X56" s="231"/>
+      <c r="Y56" s="231"/>
+      <c r="Z56" s="231"/>
+      <c r="AA56" s="231"/>
+      <c r="AB56" s="231"/>
+      <c r="AC56" s="231"/>
+      <c r="AD56" s="231"/>
       <c r="AE56" s="61"/>
       <c r="AF56" s="59"/>
       <c r="AG56" s="59"/>
@@ -11750,7 +11752,7 @@
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
       <c r="D58" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -11779,7 +11781,7 @@
       <c r="B59" s="49"/>
       <c r="C59" s="49"/>
       <c r="D59" s="49" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
@@ -11805,32 +11807,27 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D61" s="48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D62" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D63" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D28:AH28"/>
-    <mergeCell ref="D56:AD56"/>
-    <mergeCell ref="E19:AH19"/>
-    <mergeCell ref="F24:AH24"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D10:AG10"/>
-    <mergeCell ref="D15:AF15"/>
-    <mergeCell ref="D42:AG42"/>
-    <mergeCell ref="D44:AD44"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11839,12 +11836,17 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="D28:AH28"/>
+    <mergeCell ref="D56:AD56"/>
+    <mergeCell ref="E19:AH19"/>
+    <mergeCell ref="F24:AH24"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D15:AF15"/>
+    <mergeCell ref="D42:AG42"/>
+    <mergeCell ref="D44:AD44"/>
+    <mergeCell ref="D10:AE10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11879,163 +11881,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="134" t="str">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="175" t="str">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="134" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="128">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="162">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="134" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="142" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="128" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="C5" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -12045,7 +12047,7 @@
     <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -12077,7 +12079,7 @@
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -12511,372 +12513,372 @@
     <row r="22" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
-      <c r="E22" s="256" t="s">
+      <c r="E22" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="258"/>
-      <c r="K22" s="256" t="s">
+      <c r="F22" s="238"/>
+      <c r="G22" s="238"/>
+      <c r="H22" s="238"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="239"/>
+      <c r="K22" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="258"/>
-      <c r="M22" s="256" t="s">
+      <c r="L22" s="239"/>
+      <c r="M22" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="257"/>
-      <c r="O22" s="257"/>
-      <c r="P22" s="257"/>
-      <c r="Q22" s="257"/>
-      <c r="R22" s="257"/>
-      <c r="S22" s="257"/>
-      <c r="T22" s="257"/>
-      <c r="U22" s="257"/>
-      <c r="V22" s="257"/>
-      <c r="W22" s="257"/>
-      <c r="X22" s="257"/>
-      <c r="Y22" s="257"/>
-      <c r="Z22" s="257"/>
-      <c r="AA22" s="257"/>
-      <c r="AB22" s="257"/>
-      <c r="AC22" s="257"/>
-      <c r="AD22" s="257"/>
-      <c r="AE22" s="257"/>
-      <c r="AF22" s="257"/>
-      <c r="AG22" s="257"/>
-      <c r="AH22" s="258"/>
+      <c r="N22" s="238"/>
+      <c r="O22" s="238"/>
+      <c r="P22" s="238"/>
+      <c r="Q22" s="238"/>
+      <c r="R22" s="238"/>
+      <c r="S22" s="238"/>
+      <c r="T22" s="238"/>
+      <c r="U22" s="238"/>
+      <c r="V22" s="238"/>
+      <c r="W22" s="238"/>
+      <c r="X22" s="238"/>
+      <c r="Y22" s="238"/>
+      <c r="Z22" s="238"/>
+      <c r="AA22" s="238"/>
+      <c r="AB22" s="238"/>
+      <c r="AC22" s="238"/>
+      <c r="AD22" s="238"/>
+      <c r="AE22" s="238"/>
+      <c r="AF22" s="238"/>
+      <c r="AG22" s="238"/>
+      <c r="AH22" s="239"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="236" t="s">
+      <c r="E23" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="237"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="110" t="s">
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="112"/>
-      <c r="M23" s="206" t="s">
+      <c r="L23" s="175"/>
+      <c r="M23" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="207"/>
-      <c r="O23" s="207"/>
-      <c r="P23" s="207"/>
-      <c r="Q23" s="207"/>
-      <c r="R23" s="207"/>
-      <c r="S23" s="207"/>
-      <c r="T23" s="207"/>
-      <c r="U23" s="207"/>
-      <c r="V23" s="207"/>
-      <c r="W23" s="207"/>
-      <c r="X23" s="207"/>
-      <c r="Y23" s="207"/>
-      <c r="Z23" s="207"/>
-      <c r="AA23" s="207"/>
-      <c r="AB23" s="207"/>
-      <c r="AC23" s="207"/>
-      <c r="AD23" s="207"/>
-      <c r="AE23" s="207"/>
-      <c r="AF23" s="207"/>
-      <c r="AG23" s="207"/>
-      <c r="AH23" s="208"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
+      <c r="S23" s="201"/>
+      <c r="T23" s="201"/>
+      <c r="U23" s="201"/>
+      <c r="V23" s="201"/>
+      <c r="W23" s="201"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="201"/>
+      <c r="AD23" s="201"/>
+      <c r="AE23" s="201"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="202"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="242"/>
-      <c r="L24" s="243"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
-      <c r="P24" s="213"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="213"/>
-      <c r="Y24" s="213"/>
-      <c r="Z24" s="213"/>
-      <c r="AA24" s="213"/>
-      <c r="AB24" s="213"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="213"/>
-      <c r="AH24" s="214"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="245"/>
+      <c r="K24" s="246"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="207"/>
+      <c r="Q24" s="207"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
+      <c r="W24" s="207"/>
+      <c r="X24" s="207"/>
+      <c r="Y24" s="207"/>
+      <c r="Z24" s="207"/>
+      <c r="AA24" s="207"/>
+      <c r="AB24" s="207"/>
+      <c r="AC24" s="207"/>
+      <c r="AD24" s="207"/>
+      <c r="AE24" s="207"/>
+      <c r="AF24" s="207"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="208"/>
     </row>
     <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
-      <c r="E25" s="250" t="s">
+      <c r="E25" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="271" t="s">
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="256" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="272"/>
-      <c r="M25" s="244" t="s">
+      <c r="L25" s="257"/>
+      <c r="M25" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="245"/>
-      <c r="O25" s="245"/>
-      <c r="P25" s="245"/>
-      <c r="Q25" s="245"/>
-      <c r="R25" s="245"/>
-      <c r="S25" s="245"/>
-      <c r="T25" s="245"/>
-      <c r="U25" s="245"/>
-      <c r="V25" s="245"/>
-      <c r="W25" s="245"/>
-      <c r="X25" s="245"/>
-      <c r="Y25" s="245"/>
-      <c r="Z25" s="245"/>
-      <c r="AA25" s="245"/>
-      <c r="AB25" s="245"/>
-      <c r="AC25" s="245"/>
-      <c r="AD25" s="245"/>
-      <c r="AE25" s="245"/>
-      <c r="AF25" s="245"/>
-      <c r="AG25" s="245"/>
-      <c r="AH25" s="246"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="263"/>
+      <c r="Q25" s="263"/>
+      <c r="R25" s="263"/>
+      <c r="S25" s="263"/>
+      <c r="T25" s="263"/>
+      <c r="U25" s="263"/>
+      <c r="V25" s="263"/>
+      <c r="W25" s="263"/>
+      <c r="X25" s="263"/>
+      <c r="Y25" s="263"/>
+      <c r="Z25" s="263"/>
+      <c r="AA25" s="263"/>
+      <c r="AB25" s="263"/>
+      <c r="AC25" s="263"/>
+      <c r="AD25" s="263"/>
+      <c r="AE25" s="263"/>
+      <c r="AF25" s="263"/>
+      <c r="AG25" s="263"/>
+      <c r="AH25" s="264"/>
     </row>
     <row r="26" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
-      <c r="J26" s="260"/>
-      <c r="K26" s="273"/>
-      <c r="L26" s="274"/>
-      <c r="M26" s="269"/>
-      <c r="N26" s="226"/>
-      <c r="O26" s="226"/>
-      <c r="P26" s="226"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="226"/>
-      <c r="S26" s="226"/>
-      <c r="T26" s="226"/>
-      <c r="U26" s="226"/>
-      <c r="V26" s="226"/>
-      <c r="W26" s="226"/>
-      <c r="X26" s="226"/>
-      <c r="Y26" s="226"/>
-      <c r="Z26" s="226"/>
-      <c r="AA26" s="226"/>
-      <c r="AB26" s="226"/>
-      <c r="AC26" s="226"/>
-      <c r="AD26" s="226"/>
-      <c r="AE26" s="226"/>
-      <c r="AF26" s="226"/>
-      <c r="AG26" s="226"/>
-      <c r="AH26" s="270"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="252"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="265"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="190"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="190"/>
+      <c r="W26" s="190"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="190"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="190"/>
+      <c r="AH26" s="266"/>
     </row>
     <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
-      <c r="E27" s="252"/>
-      <c r="F27" s="255"/>
-      <c r="G27" s="255"/>
-      <c r="H27" s="255"/>
-      <c r="I27" s="255"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="275"/>
-      <c r="L27" s="276"/>
-      <c r="M27" s="247"/>
-      <c r="N27" s="248"/>
-      <c r="O27" s="248"/>
-      <c r="P27" s="248"/>
-      <c r="Q27" s="248"/>
-      <c r="R27" s="248"/>
-      <c r="S27" s="248"/>
-      <c r="T27" s="248"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="248"/>
-      <c r="X27" s="248"/>
-      <c r="Y27" s="248"/>
-      <c r="Z27" s="248"/>
-      <c r="AA27" s="248"/>
-      <c r="AB27" s="248"/>
-      <c r="AC27" s="248"/>
-      <c r="AD27" s="248"/>
-      <c r="AE27" s="248"/>
-      <c r="AF27" s="248"/>
-      <c r="AG27" s="248"/>
-      <c r="AH27" s="249"/>
+      <c r="E27" s="253"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="260"/>
+      <c r="L27" s="261"/>
+      <c r="M27" s="267"/>
+      <c r="N27" s="268"/>
+      <c r="O27" s="268"/>
+      <c r="P27" s="268"/>
+      <c r="Q27" s="268"/>
+      <c r="R27" s="268"/>
+      <c r="S27" s="268"/>
+      <c r="T27" s="268"/>
+      <c r="U27" s="268"/>
+      <c r="V27" s="268"/>
+      <c r="W27" s="268"/>
+      <c r="X27" s="268"/>
+      <c r="Y27" s="268"/>
+      <c r="Z27" s="268"/>
+      <c r="AA27" s="268"/>
+      <c r="AB27" s="268"/>
+      <c r="AC27" s="268"/>
+      <c r="AD27" s="268"/>
+      <c r="AE27" s="268"/>
+      <c r="AF27" s="268"/>
+      <c r="AG27" s="268"/>
+      <c r="AH27" s="269"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="236" t="s">
+      <c r="E28" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="237"/>
-      <c r="G28" s="237"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="110" t="s">
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="242"/>
+      <c r="K28" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="112"/>
-      <c r="M28" s="206" t="s">
+      <c r="L28" s="175"/>
+      <c r="M28" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
-      <c r="P28" s="207"/>
-      <c r="Q28" s="207"/>
-      <c r="R28" s="207"/>
-      <c r="S28" s="207"/>
-      <c r="T28" s="207"/>
-      <c r="U28" s="207"/>
-      <c r="V28" s="207"/>
-      <c r="W28" s="207"/>
-      <c r="X28" s="207"/>
-      <c r="Y28" s="207"/>
-      <c r="Z28" s="207"/>
-      <c r="AA28" s="207"/>
-      <c r="AB28" s="207"/>
-      <c r="AC28" s="207"/>
-      <c r="AD28" s="207"/>
-      <c r="AE28" s="207"/>
-      <c r="AF28" s="207"/>
-      <c r="AG28" s="207"/>
-      <c r="AH28" s="208"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="201"/>
+      <c r="T28" s="201"/>
+      <c r="U28" s="201"/>
+      <c r="V28" s="201"/>
+      <c r="W28" s="201"/>
+      <c r="X28" s="201"/>
+      <c r="Y28" s="201"/>
+      <c r="Z28" s="201"/>
+      <c r="AA28" s="201"/>
+      <c r="AB28" s="201"/>
+      <c r="AC28" s="201"/>
+      <c r="AD28" s="201"/>
+      <c r="AE28" s="201"/>
+      <c r="AF28" s="201"/>
+      <c r="AG28" s="201"/>
+      <c r="AH28" s="202"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="242"/>
-      <c r="L29" s="243"/>
-      <c r="M29" s="212"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="213"/>
-      <c r="P29" s="213"/>
-      <c r="Q29" s="213"/>
-      <c r="R29" s="213"/>
-      <c r="S29" s="213"/>
-      <c r="T29" s="213"/>
-      <c r="U29" s="213"/>
-      <c r="V29" s="213"/>
-      <c r="W29" s="213"/>
-      <c r="X29" s="213"/>
-      <c r="Y29" s="213"/>
-      <c r="Z29" s="213"/>
-      <c r="AA29" s="213"/>
-      <c r="AB29" s="213"/>
-      <c r="AC29" s="213"/>
-      <c r="AD29" s="213"/>
-      <c r="AE29" s="213"/>
-      <c r="AF29" s="213"/>
-      <c r="AG29" s="213"/>
-      <c r="AH29" s="214"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="207"/>
+      <c r="Q29" s="207"/>
+      <c r="R29" s="207"/>
+      <c r="S29" s="207"/>
+      <c r="T29" s="207"/>
+      <c r="U29" s="207"/>
+      <c r="V29" s="207"/>
+      <c r="W29" s="207"/>
+      <c r="X29" s="207"/>
+      <c r="Y29" s="207"/>
+      <c r="Z29" s="207"/>
+      <c r="AA29" s="207"/>
+      <c r="AB29" s="207"/>
+      <c r="AC29" s="207"/>
+      <c r="AD29" s="207"/>
+      <c r="AE29" s="207"/>
+      <c r="AF29" s="207"/>
+      <c r="AG29" s="207"/>
+      <c r="AH29" s="208"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
-      <c r="E30" s="236" t="s">
+      <c r="E30" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="237"/>
-      <c r="J30" s="238"/>
-      <c r="K30" s="110" t="s">
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="112"/>
-      <c r="M30" s="206" t="s">
+      <c r="L30" s="175"/>
+      <c r="M30" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="207"/>
-      <c r="R30" s="207"/>
-      <c r="S30" s="207"/>
-      <c r="T30" s="207"/>
-      <c r="U30" s="207"/>
-      <c r="V30" s="207"/>
-      <c r="W30" s="207"/>
-      <c r="X30" s="207"/>
-      <c r="Y30" s="207"/>
-      <c r="Z30" s="207"/>
-      <c r="AA30" s="207"/>
-      <c r="AB30" s="207"/>
-      <c r="AC30" s="207"/>
-      <c r="AD30" s="207"/>
-      <c r="AE30" s="207"/>
-      <c r="AF30" s="207"/>
-      <c r="AG30" s="207"/>
-      <c r="AH30" s="208"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="201"/>
+      <c r="S30" s="201"/>
+      <c r="T30" s="201"/>
+      <c r="U30" s="201"/>
+      <c r="V30" s="201"/>
+      <c r="W30" s="201"/>
+      <c r="X30" s="201"/>
+      <c r="Y30" s="201"/>
+      <c r="Z30" s="201"/>
+      <c r="AA30" s="201"/>
+      <c r="AB30" s="201"/>
+      <c r="AC30" s="201"/>
+      <c r="AD30" s="201"/>
+      <c r="AE30" s="201"/>
+      <c r="AF30" s="201"/>
+      <c r="AG30" s="201"/>
+      <c r="AH30" s="202"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
-      <c r="I31" s="240"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="242"/>
-      <c r="L31" s="243"/>
-      <c r="M31" s="212"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="213"/>
-      <c r="P31" s="213"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-      <c r="T31" s="213"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="213"/>
-      <c r="X31" s="213"/>
-      <c r="Y31" s="213"/>
-      <c r="Z31" s="213"/>
-      <c r="AA31" s="213"/>
-      <c r="AB31" s="213"/>
-      <c r="AC31" s="213"/>
-      <c r="AD31" s="213"/>
-      <c r="AE31" s="213"/>
-      <c r="AF31" s="213"/>
-      <c r="AG31" s="213"/>
-      <c r="AH31" s="214"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="246"/>
+      <c r="L31" s="247"/>
+      <c r="M31" s="206"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="207"/>
+      <c r="Q31" s="207"/>
+      <c r="R31" s="207"/>
+      <c r="S31" s="207"/>
+      <c r="T31" s="207"/>
+      <c r="U31" s="207"/>
+      <c r="V31" s="207"/>
+      <c r="W31" s="207"/>
+      <c r="X31" s="207"/>
+      <c r="Y31" s="207"/>
+      <c r="Z31" s="207"/>
+      <c r="AA31" s="207"/>
+      <c r="AB31" s="207"/>
+      <c r="AC31" s="207"/>
+      <c r="AD31" s="207"/>
+      <c r="AE31" s="207"/>
+      <c r="AF31" s="207"/>
+      <c r="AG31" s="207"/>
+      <c r="AH31" s="208"/>
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="48"/>
@@ -12973,496 +12975,496 @@
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="256" t="s">
+      <c r="E35" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="257"/>
-      <c r="G35" s="257"/>
-      <c r="H35" s="257"/>
-      <c r="I35" s="257"/>
-      <c r="J35" s="258"/>
-      <c r="K35" s="256" t="s">
+      <c r="F35" s="238"/>
+      <c r="G35" s="238"/>
+      <c r="H35" s="238"/>
+      <c r="I35" s="238"/>
+      <c r="J35" s="239"/>
+      <c r="K35" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="258"/>
-      <c r="M35" s="256" t="s">
+      <c r="L35" s="239"/>
+      <c r="M35" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="257"/>
-      <c r="O35" s="257"/>
-      <c r="P35" s="257"/>
-      <c r="Q35" s="257"/>
-      <c r="R35" s="257"/>
-      <c r="S35" s="257"/>
-      <c r="T35" s="257"/>
-      <c r="U35" s="257"/>
-      <c r="V35" s="257"/>
-      <c r="W35" s="257"/>
-      <c r="X35" s="257"/>
-      <c r="Y35" s="257"/>
-      <c r="Z35" s="257"/>
-      <c r="AA35" s="257"/>
-      <c r="AB35" s="257"/>
-      <c r="AC35" s="257"/>
-      <c r="AD35" s="257"/>
-      <c r="AE35" s="257"/>
-      <c r="AF35" s="257"/>
-      <c r="AG35" s="257"/>
-      <c r="AH35" s="258"/>
+      <c r="N35" s="238"/>
+      <c r="O35" s="238"/>
+      <c r="P35" s="238"/>
+      <c r="Q35" s="238"/>
+      <c r="R35" s="238"/>
+      <c r="S35" s="238"/>
+      <c r="T35" s="238"/>
+      <c r="U35" s="238"/>
+      <c r="V35" s="238"/>
+      <c r="W35" s="238"/>
+      <c r="X35" s="238"/>
+      <c r="Y35" s="238"/>
+      <c r="Z35" s="238"/>
+      <c r="AA35" s="238"/>
+      <c r="AB35" s="238"/>
+      <c r="AC35" s="238"/>
+      <c r="AD35" s="238"/>
+      <c r="AE35" s="238"/>
+      <c r="AF35" s="238"/>
+      <c r="AG35" s="238"/>
+      <c r="AH35" s="239"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="236" t="s">
+      <c r="E36" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="237"/>
-      <c r="G36" s="237"/>
-      <c r="H36" s="237"/>
-      <c r="I36" s="237"/>
-      <c r="J36" s="238"/>
-      <c r="K36" s="110" t="s">
+      <c r="F36" s="241"/>
+      <c r="G36" s="241"/>
+      <c r="H36" s="241"/>
+      <c r="I36" s="241"/>
+      <c r="J36" s="242"/>
+      <c r="K36" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="112"/>
-      <c r="M36" s="206" t="s">
+      <c r="L36" s="175"/>
+      <c r="M36" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="207"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="207"/>
-      <c r="Q36" s="207"/>
-      <c r="R36" s="207"/>
-      <c r="S36" s="207"/>
-      <c r="T36" s="207"/>
-      <c r="U36" s="207"/>
-      <c r="V36" s="207"/>
-      <c r="W36" s="207"/>
-      <c r="X36" s="207"/>
-      <c r="Y36" s="207"/>
-      <c r="Z36" s="207"/>
-      <c r="AA36" s="207"/>
-      <c r="AB36" s="207"/>
-      <c r="AC36" s="207"/>
-      <c r="AD36" s="207"/>
-      <c r="AE36" s="207"/>
-      <c r="AF36" s="207"/>
-      <c r="AG36" s="207"/>
-      <c r="AH36" s="208"/>
+      <c r="N36" s="201"/>
+      <c r="O36" s="201"/>
+      <c r="P36" s="201"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="201"/>
+      <c r="S36" s="201"/>
+      <c r="T36" s="201"/>
+      <c r="U36" s="201"/>
+      <c r="V36" s="201"/>
+      <c r="W36" s="201"/>
+      <c r="X36" s="201"/>
+      <c r="Y36" s="201"/>
+      <c r="Z36" s="201"/>
+      <c r="AA36" s="201"/>
+      <c r="AB36" s="201"/>
+      <c r="AC36" s="201"/>
+      <c r="AD36" s="201"/>
+      <c r="AE36" s="201"/>
+      <c r="AF36" s="201"/>
+      <c r="AG36" s="201"/>
+      <c r="AH36" s="202"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="239"/>
-      <c r="F37" s="240"/>
-      <c r="G37" s="240"/>
-      <c r="H37" s="240"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="242"/>
-      <c r="L37" s="243"/>
-      <c r="M37" s="212"/>
-      <c r="N37" s="213"/>
-      <c r="O37" s="213"/>
-      <c r="P37" s="213"/>
-      <c r="Q37" s="213"/>
-      <c r="R37" s="213"/>
-      <c r="S37" s="213"/>
-      <c r="T37" s="213"/>
-      <c r="U37" s="213"/>
-      <c r="V37" s="213"/>
-      <c r="W37" s="213"/>
-      <c r="X37" s="213"/>
-      <c r="Y37" s="213"/>
-      <c r="Z37" s="213"/>
-      <c r="AA37" s="213"/>
-      <c r="AB37" s="213"/>
-      <c r="AC37" s="213"/>
-      <c r="AD37" s="213"/>
-      <c r="AE37" s="213"/>
-      <c r="AF37" s="213"/>
-      <c r="AG37" s="213"/>
-      <c r="AH37" s="214"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244"/>
+      <c r="J37" s="245"/>
+      <c r="K37" s="246"/>
+      <c r="L37" s="247"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="207"/>
+      <c r="P37" s="207"/>
+      <c r="Q37" s="207"/>
+      <c r="R37" s="207"/>
+      <c r="S37" s="207"/>
+      <c r="T37" s="207"/>
+      <c r="U37" s="207"/>
+      <c r="V37" s="207"/>
+      <c r="W37" s="207"/>
+      <c r="X37" s="207"/>
+      <c r="Y37" s="207"/>
+      <c r="Z37" s="207"/>
+      <c r="AA37" s="207"/>
+      <c r="AB37" s="207"/>
+      <c r="AC37" s="207"/>
+      <c r="AD37" s="207"/>
+      <c r="AE37" s="207"/>
+      <c r="AF37" s="207"/>
+      <c r="AG37" s="207"/>
+      <c r="AH37" s="208"/>
     </row>
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="250" t="s">
+      <c r="E38" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="254"/>
-      <c r="G38" s="254"/>
-      <c r="H38" s="254"/>
-      <c r="I38" s="254"/>
-      <c r="J38" s="251"/>
-      <c r="K38" s="271" t="s">
+      <c r="F38" s="249"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="249"/>
+      <c r="I38" s="249"/>
+      <c r="J38" s="250"/>
+      <c r="K38" s="256" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="272"/>
-      <c r="M38" s="244" t="s">
+      <c r="L38" s="257"/>
+      <c r="M38" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="245"/>
-      <c r="O38" s="245"/>
-      <c r="P38" s="245"/>
-      <c r="Q38" s="245"/>
-      <c r="R38" s="245"/>
-      <c r="S38" s="245"/>
-      <c r="T38" s="245"/>
-      <c r="U38" s="245"/>
-      <c r="V38" s="245"/>
-      <c r="W38" s="245"/>
-      <c r="X38" s="245"/>
-      <c r="Y38" s="245"/>
-      <c r="Z38" s="245"/>
-      <c r="AA38" s="245"/>
-      <c r="AB38" s="245"/>
-      <c r="AC38" s="245"/>
-      <c r="AD38" s="245"/>
-      <c r="AE38" s="245"/>
-      <c r="AF38" s="245"/>
-      <c r="AG38" s="245"/>
-      <c r="AH38" s="246"/>
+      <c r="N38" s="263"/>
+      <c r="O38" s="263"/>
+      <c r="P38" s="263"/>
+      <c r="Q38" s="263"/>
+      <c r="R38" s="263"/>
+      <c r="S38" s="263"/>
+      <c r="T38" s="263"/>
+      <c r="U38" s="263"/>
+      <c r="V38" s="263"/>
+      <c r="W38" s="263"/>
+      <c r="X38" s="263"/>
+      <c r="Y38" s="263"/>
+      <c r="Z38" s="263"/>
+      <c r="AA38" s="263"/>
+      <c r="AB38" s="263"/>
+      <c r="AC38" s="263"/>
+      <c r="AD38" s="263"/>
+      <c r="AE38" s="263"/>
+      <c r="AF38" s="263"/>
+      <c r="AG38" s="263"/>
+      <c r="AH38" s="264"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="259"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
-      <c r="I39" s="227"/>
-      <c r="J39" s="260"/>
-      <c r="K39" s="273"/>
-      <c r="L39" s="274"/>
-      <c r="M39" s="269"/>
-      <c r="N39" s="226"/>
-      <c r="O39" s="226"/>
-      <c r="P39" s="226"/>
-      <c r="Q39" s="226"/>
-      <c r="R39" s="226"/>
-      <c r="S39" s="226"/>
-      <c r="T39" s="226"/>
-      <c r="U39" s="226"/>
-      <c r="V39" s="226"/>
-      <c r="W39" s="226"/>
-      <c r="X39" s="226"/>
-      <c r="Y39" s="226"/>
-      <c r="Z39" s="226"/>
-      <c r="AA39" s="226"/>
-      <c r="AB39" s="226"/>
-      <c r="AC39" s="226"/>
-      <c r="AD39" s="226"/>
-      <c r="AE39" s="226"/>
-      <c r="AF39" s="226"/>
-      <c r="AG39" s="226"/>
-      <c r="AH39" s="270"/>
+      <c r="E39" s="251"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="252"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="259"/>
+      <c r="M39" s="265"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="190"/>
+      <c r="S39" s="190"/>
+      <c r="T39" s="190"/>
+      <c r="U39" s="190"/>
+      <c r="V39" s="190"/>
+      <c r="W39" s="190"/>
+      <c r="X39" s="190"/>
+      <c r="Y39" s="190"/>
+      <c r="Z39" s="190"/>
+      <c r="AA39" s="190"/>
+      <c r="AB39" s="190"/>
+      <c r="AC39" s="190"/>
+      <c r="AD39" s="190"/>
+      <c r="AE39" s="190"/>
+      <c r="AF39" s="190"/>
+      <c r="AG39" s="190"/>
+      <c r="AH39" s="266"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="252"/>
-      <c r="F40" s="255"/>
-      <c r="G40" s="255"/>
-      <c r="H40" s="255"/>
-      <c r="I40" s="255"/>
-      <c r="J40" s="253"/>
-      <c r="K40" s="275"/>
-      <c r="L40" s="276"/>
-      <c r="M40" s="247"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="248"/>
-      <c r="P40" s="248"/>
-      <c r="Q40" s="248"/>
-      <c r="R40" s="248"/>
-      <c r="S40" s="248"/>
-      <c r="T40" s="248"/>
-      <c r="U40" s="248"/>
-      <c r="V40" s="248"/>
-      <c r="W40" s="248"/>
-      <c r="X40" s="248"/>
-      <c r="Y40" s="248"/>
-      <c r="Z40" s="248"/>
-      <c r="AA40" s="248"/>
-      <c r="AB40" s="248"/>
-      <c r="AC40" s="248"/>
-      <c r="AD40" s="248"/>
-      <c r="AE40" s="248"/>
-      <c r="AF40" s="248"/>
-      <c r="AG40" s="248"/>
-      <c r="AH40" s="249"/>
+      <c r="E40" s="253"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="254"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="255"/>
+      <c r="K40" s="260"/>
+      <c r="L40" s="261"/>
+      <c r="M40" s="267"/>
+      <c r="N40" s="268"/>
+      <c r="O40" s="268"/>
+      <c r="P40" s="268"/>
+      <c r="Q40" s="268"/>
+      <c r="R40" s="268"/>
+      <c r="S40" s="268"/>
+      <c r="T40" s="268"/>
+      <c r="U40" s="268"/>
+      <c r="V40" s="268"/>
+      <c r="W40" s="268"/>
+      <c r="X40" s="268"/>
+      <c r="Y40" s="268"/>
+      <c r="Z40" s="268"/>
+      <c r="AA40" s="268"/>
+      <c r="AB40" s="268"/>
+      <c r="AC40" s="268"/>
+      <c r="AD40" s="268"/>
+      <c r="AE40" s="268"/>
+      <c r="AF40" s="268"/>
+      <c r="AG40" s="268"/>
+      <c r="AH40" s="269"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
-      <c r="E41" s="236" t="s">
+      <c r="E41" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="237"/>
-      <c r="G41" s="237"/>
-      <c r="H41" s="237"/>
-      <c r="I41" s="237"/>
-      <c r="J41" s="238"/>
-      <c r="K41" s="110" t="s">
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="242"/>
+      <c r="K41" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="112"/>
-      <c r="M41" s="206" t="s">
+      <c r="L41" s="175"/>
+      <c r="M41" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="207"/>
-      <c r="O41" s="207"/>
-      <c r="P41" s="207"/>
-      <c r="Q41" s="207"/>
-      <c r="R41" s="207"/>
-      <c r="S41" s="207"/>
-      <c r="T41" s="207"/>
-      <c r="U41" s="207"/>
-      <c r="V41" s="207"/>
-      <c r="W41" s="207"/>
-      <c r="X41" s="207"/>
-      <c r="Y41" s="207"/>
-      <c r="Z41" s="207"/>
-      <c r="AA41" s="207"/>
-      <c r="AB41" s="207"/>
-      <c r="AC41" s="207"/>
-      <c r="AD41" s="207"/>
-      <c r="AE41" s="207"/>
-      <c r="AF41" s="207"/>
-      <c r="AG41" s="207"/>
-      <c r="AH41" s="208"/>
+      <c r="N41" s="201"/>
+      <c r="O41" s="201"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="201"/>
+      <c r="R41" s="201"/>
+      <c r="S41" s="201"/>
+      <c r="T41" s="201"/>
+      <c r="U41" s="201"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="201"/>
+      <c r="X41" s="201"/>
+      <c r="Y41" s="201"/>
+      <c r="Z41" s="201"/>
+      <c r="AA41" s="201"/>
+      <c r="AB41" s="201"/>
+      <c r="AC41" s="201"/>
+      <c r="AD41" s="201"/>
+      <c r="AE41" s="201"/>
+      <c r="AF41" s="201"/>
+      <c r="AG41" s="201"/>
+      <c r="AH41" s="202"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="240"/>
-      <c r="G42" s="240"/>
-      <c r="H42" s="240"/>
-      <c r="I42" s="240"/>
-      <c r="J42" s="241"/>
-      <c r="K42" s="242"/>
-      <c r="L42" s="243"/>
-      <c r="M42" s="212"/>
-      <c r="N42" s="213"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213"/>
-      <c r="Q42" s="213"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="213"/>
-      <c r="T42" s="213"/>
-      <c r="U42" s="213"/>
-      <c r="V42" s="213"/>
-      <c r="W42" s="213"/>
-      <c r="X42" s="213"/>
-      <c r="Y42" s="213"/>
-      <c r="Z42" s="213"/>
-      <c r="AA42" s="213"/>
-      <c r="AB42" s="213"/>
-      <c r="AC42" s="213"/>
-      <c r="AD42" s="213"/>
-      <c r="AE42" s="213"/>
-      <c r="AF42" s="213"/>
-      <c r="AG42" s="213"/>
-      <c r="AH42" s="214"/>
+      <c r="E42" s="243"/>
+      <c r="F42" s="244"/>
+      <c r="G42" s="244"/>
+      <c r="H42" s="244"/>
+      <c r="I42" s="244"/>
+      <c r="J42" s="245"/>
+      <c r="K42" s="246"/>
+      <c r="L42" s="247"/>
+      <c r="M42" s="206"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="207"/>
+      <c r="Q42" s="207"/>
+      <c r="R42" s="207"/>
+      <c r="S42" s="207"/>
+      <c r="T42" s="207"/>
+      <c r="U42" s="207"/>
+      <c r="V42" s="207"/>
+      <c r="W42" s="207"/>
+      <c r="X42" s="207"/>
+      <c r="Y42" s="207"/>
+      <c r="Z42" s="207"/>
+      <c r="AA42" s="207"/>
+      <c r="AB42" s="207"/>
+      <c r="AC42" s="207"/>
+      <c r="AD42" s="207"/>
+      <c r="AE42" s="207"/>
+      <c r="AF42" s="207"/>
+      <c r="AG42" s="207"/>
+      <c r="AH42" s="208"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="236" t="s">
+      <c r="E43" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="237"/>
-      <c r="G43" s="237"/>
-      <c r="H43" s="237"/>
-      <c r="I43" s="237"/>
-      <c r="J43" s="238"/>
-      <c r="K43" s="110" t="s">
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="242"/>
+      <c r="K43" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="112"/>
-      <c r="M43" s="206" t="s">
+      <c r="L43" s="175"/>
+      <c r="M43" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="207"/>
-      <c r="O43" s="207"/>
-      <c r="P43" s="207"/>
-      <c r="Q43" s="207"/>
-      <c r="R43" s="207"/>
-      <c r="S43" s="207"/>
-      <c r="T43" s="207"/>
-      <c r="U43" s="207"/>
-      <c r="V43" s="207"/>
-      <c r="W43" s="207"/>
-      <c r="X43" s="207"/>
-      <c r="Y43" s="207"/>
-      <c r="Z43" s="207"/>
-      <c r="AA43" s="207"/>
-      <c r="AB43" s="207"/>
-      <c r="AC43" s="207"/>
-      <c r="AD43" s="207"/>
-      <c r="AE43" s="207"/>
-      <c r="AF43" s="207"/>
-      <c r="AG43" s="207"/>
-      <c r="AH43" s="208"/>
+      <c r="N43" s="201"/>
+      <c r="O43" s="201"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="201"/>
+      <c r="R43" s="201"/>
+      <c r="S43" s="201"/>
+      <c r="T43" s="201"/>
+      <c r="U43" s="201"/>
+      <c r="V43" s="201"/>
+      <c r="W43" s="201"/>
+      <c r="X43" s="201"/>
+      <c r="Y43" s="201"/>
+      <c r="Z43" s="201"/>
+      <c r="AA43" s="201"/>
+      <c r="AB43" s="201"/>
+      <c r="AC43" s="201"/>
+      <c r="AD43" s="201"/>
+      <c r="AE43" s="201"/>
+      <c r="AF43" s="201"/>
+      <c r="AG43" s="201"/>
+      <c r="AH43" s="202"/>
     </row>
     <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
-      <c r="H44" s="240"/>
-      <c r="I44" s="240"/>
-      <c r="J44" s="241"/>
-      <c r="K44" s="242"/>
-      <c r="L44" s="243"/>
-      <c r="M44" s="212"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="213"/>
-      <c r="P44" s="213"/>
-      <c r="Q44" s="213"/>
-      <c r="R44" s="213"/>
-      <c r="S44" s="213"/>
-      <c r="T44" s="213"/>
-      <c r="U44" s="213"/>
-      <c r="V44" s="213"/>
-      <c r="W44" s="213"/>
-      <c r="X44" s="213"/>
-      <c r="Y44" s="213"/>
-      <c r="Z44" s="213"/>
-      <c r="AA44" s="213"/>
-      <c r="AB44" s="213"/>
-      <c r="AC44" s="213"/>
-      <c r="AD44" s="213"/>
-      <c r="AE44" s="213"/>
-      <c r="AF44" s="213"/>
-      <c r="AG44" s="213"/>
-      <c r="AH44" s="214"/>
+      <c r="E44" s="243"/>
+      <c r="F44" s="244"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="244"/>
+      <c r="I44" s="244"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="246"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="206"/>
+      <c r="N44" s="207"/>
+      <c r="O44" s="207"/>
+      <c r="P44" s="207"/>
+      <c r="Q44" s="207"/>
+      <c r="R44" s="207"/>
+      <c r="S44" s="207"/>
+      <c r="T44" s="207"/>
+      <c r="U44" s="207"/>
+      <c r="V44" s="207"/>
+      <c r="W44" s="207"/>
+      <c r="X44" s="207"/>
+      <c r="Y44" s="207"/>
+      <c r="Z44" s="207"/>
+      <c r="AA44" s="207"/>
+      <c r="AB44" s="207"/>
+      <c r="AC44" s="207"/>
+      <c r="AD44" s="207"/>
+      <c r="AE44" s="207"/>
+      <c r="AF44" s="207"/>
+      <c r="AG44" s="207"/>
+      <c r="AH44" s="208"/>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="250" t="s">
+      <c r="E45" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="254"/>
-      <c r="G45" s="254"/>
-      <c r="H45" s="254"/>
-      <c r="I45" s="254"/>
-      <c r="J45" s="251"/>
-      <c r="K45" s="261" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="249"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="250"/>
+      <c r="K45" s="270" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="262"/>
-      <c r="M45" s="244" t="s">
+      <c r="L45" s="271"/>
+      <c r="M45" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="N45" s="245"/>
-      <c r="O45" s="245"/>
-      <c r="P45" s="245"/>
-      <c r="Q45" s="245"/>
-      <c r="R45" s="245"/>
-      <c r="S45" s="245"/>
-      <c r="T45" s="245"/>
-      <c r="U45" s="245"/>
-      <c r="V45" s="245"/>
-      <c r="W45" s="245"/>
-      <c r="X45" s="245"/>
-      <c r="Y45" s="245"/>
-      <c r="Z45" s="245"/>
-      <c r="AA45" s="245"/>
-      <c r="AB45" s="245"/>
-      <c r="AC45" s="245"/>
-      <c r="AD45" s="245"/>
-      <c r="AE45" s="245"/>
-      <c r="AF45" s="245"/>
-      <c r="AG45" s="245"/>
-      <c r="AH45" s="246"/>
+      <c r="N45" s="263"/>
+      <c r="O45" s="263"/>
+      <c r="P45" s="263"/>
+      <c r="Q45" s="263"/>
+      <c r="R45" s="263"/>
+      <c r="S45" s="263"/>
+      <c r="T45" s="263"/>
+      <c r="U45" s="263"/>
+      <c r="V45" s="263"/>
+      <c r="W45" s="263"/>
+      <c r="X45" s="263"/>
+      <c r="Y45" s="263"/>
+      <c r="Z45" s="263"/>
+      <c r="AA45" s="263"/>
+      <c r="AB45" s="263"/>
+      <c r="AC45" s="263"/>
+      <c r="AD45" s="263"/>
+      <c r="AE45" s="263"/>
+      <c r="AF45" s="263"/>
+      <c r="AG45" s="263"/>
+      <c r="AH45" s="264"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="259"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="227"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="260"/>
-      <c r="K46" s="263"/>
-      <c r="L46" s="264"/>
-      <c r="M46" s="269"/>
-      <c r="N46" s="226"/>
-      <c r="O46" s="226"/>
-      <c r="P46" s="226"/>
-      <c r="Q46" s="226"/>
-      <c r="R46" s="226"/>
-      <c r="S46" s="226"/>
-      <c r="T46" s="226"/>
-      <c r="U46" s="226"/>
-      <c r="V46" s="226"/>
-      <c r="W46" s="226"/>
-      <c r="X46" s="226"/>
-      <c r="Y46" s="226"/>
-      <c r="Z46" s="226"/>
-      <c r="AA46" s="226"/>
-      <c r="AB46" s="226"/>
-      <c r="AC46" s="226"/>
-      <c r="AD46" s="226"/>
-      <c r="AE46" s="226"/>
-      <c r="AF46" s="226"/>
-      <c r="AG46" s="226"/>
-      <c r="AH46" s="270"/>
+      <c r="E46" s="251"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="188"/>
+      <c r="J46" s="252"/>
+      <c r="K46" s="272"/>
+      <c r="L46" s="273"/>
+      <c r="M46" s="265"/>
+      <c r="N46" s="190"/>
+      <c r="O46" s="190"/>
+      <c r="P46" s="190"/>
+      <c r="Q46" s="190"/>
+      <c r="R46" s="190"/>
+      <c r="S46" s="190"/>
+      <c r="T46" s="190"/>
+      <c r="U46" s="190"/>
+      <c r="V46" s="190"/>
+      <c r="W46" s="190"/>
+      <c r="X46" s="190"/>
+      <c r="Y46" s="190"/>
+      <c r="Z46" s="190"/>
+      <c r="AA46" s="190"/>
+      <c r="AB46" s="190"/>
+      <c r="AC46" s="190"/>
+      <c r="AD46" s="190"/>
+      <c r="AE46" s="190"/>
+      <c r="AF46" s="190"/>
+      <c r="AG46" s="190"/>
+      <c r="AH46" s="266"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="252"/>
-      <c r="F47" s="255"/>
-      <c r="G47" s="255"/>
-      <c r="H47" s="255"/>
-      <c r="I47" s="255"/>
-      <c r="J47" s="253"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="266"/>
-      <c r="M47" s="247"/>
-      <c r="N47" s="248"/>
-      <c r="O47" s="248"/>
-      <c r="P47" s="248"/>
-      <c r="Q47" s="248"/>
-      <c r="R47" s="248"/>
-      <c r="S47" s="248"/>
-      <c r="T47" s="248"/>
-      <c r="U47" s="248"/>
-      <c r="V47" s="248"/>
-      <c r="W47" s="248"/>
-      <c r="X47" s="248"/>
-      <c r="Y47" s="248"/>
-      <c r="Z47" s="248"/>
-      <c r="AA47" s="248"/>
-      <c r="AB47" s="248"/>
-      <c r="AC47" s="248"/>
-      <c r="AD47" s="248"/>
-      <c r="AE47" s="248"/>
-      <c r="AF47" s="248"/>
-      <c r="AG47" s="248"/>
-      <c r="AH47" s="249"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="254"/>
+      <c r="G47" s="254"/>
+      <c r="H47" s="254"/>
+      <c r="I47" s="254"/>
+      <c r="J47" s="255"/>
+      <c r="K47" s="274"/>
+      <c r="L47" s="275"/>
+      <c r="M47" s="267"/>
+      <c r="N47" s="268"/>
+      <c r="O47" s="268"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="268"/>
+      <c r="R47" s="268"/>
+      <c r="S47" s="268"/>
+      <c r="T47" s="268"/>
+      <c r="U47" s="268"/>
+      <c r="V47" s="268"/>
+      <c r="W47" s="268"/>
+      <c r="X47" s="268"/>
+      <c r="Y47" s="268"/>
+      <c r="Z47" s="268"/>
+      <c r="AA47" s="268"/>
+      <c r="AB47" s="268"/>
+      <c r="AC47" s="268"/>
+      <c r="AD47" s="268"/>
+      <c r="AE47" s="268"/>
+      <c r="AF47" s="268"/>
+      <c r="AG47" s="268"/>
+      <c r="AH47" s="269"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="250" t="s">
+      <c r="E48" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="254"/>
-      <c r="G48" s="254"/>
-      <c r="H48" s="254"/>
-      <c r="I48" s="254"/>
-      <c r="J48" s="251"/>
-      <c r="K48" s="261" t="s">
+      <c r="F48" s="249"/>
+      <c r="G48" s="249"/>
+      <c r="H48" s="249"/>
+      <c r="I48" s="249"/>
+      <c r="J48" s="250"/>
+      <c r="K48" s="270" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="262"/>
+      <c r="L48" s="271"/>
       <c r="M48" s="65" t="s">
         <v>95</v>
       </c>
@@ -13491,50 +13493,50 @@
     <row r="49" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="227"/>
-      <c r="G49" s="227"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="227"/>
-      <c r="J49" s="260"/>
-      <c r="K49" s="263"/>
-      <c r="L49" s="264"/>
-      <c r="M49" s="267" t="s">
+      <c r="E49" s="251"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="252"/>
+      <c r="K49" s="272"/>
+      <c r="L49" s="273"/>
+      <c r="M49" s="276" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="233"/>
-      <c r="O49" s="233"/>
-      <c r="P49" s="233"/>
-      <c r="Q49" s="233"/>
-      <c r="R49" s="233"/>
-      <c r="S49" s="233"/>
-      <c r="T49" s="233"/>
-      <c r="U49" s="233"/>
-      <c r="V49" s="233"/>
-      <c r="W49" s="233"/>
-      <c r="X49" s="233"/>
-      <c r="Y49" s="233"/>
-      <c r="Z49" s="233"/>
-      <c r="AA49" s="233"/>
-      <c r="AB49" s="233"/>
-      <c r="AC49" s="233"/>
-      <c r="AD49" s="233"/>
-      <c r="AE49" s="233"/>
-      <c r="AF49" s="233"/>
-      <c r="AG49" s="233"/>
-      <c r="AH49" s="268"/>
+      <c r="N49" s="234"/>
+      <c r="O49" s="234"/>
+      <c r="P49" s="234"/>
+      <c r="Q49" s="234"/>
+      <c r="R49" s="234"/>
+      <c r="S49" s="234"/>
+      <c r="T49" s="234"/>
+      <c r="U49" s="234"/>
+      <c r="V49" s="234"/>
+      <c r="W49" s="234"/>
+      <c r="X49" s="234"/>
+      <c r="Y49" s="234"/>
+      <c r="Z49" s="234"/>
+      <c r="AA49" s="234"/>
+      <c r="AB49" s="234"/>
+      <c r="AC49" s="234"/>
+      <c r="AD49" s="234"/>
+      <c r="AE49" s="234"/>
+      <c r="AF49" s="234"/>
+      <c r="AG49" s="234"/>
+      <c r="AH49" s="277"/>
     </row>
     <row r="50" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="227"/>
-      <c r="G50" s="227"/>
-      <c r="H50" s="227"/>
-      <c r="I50" s="227"/>
-      <c r="J50" s="260"/>
-      <c r="K50" s="263"/>
-      <c r="L50" s="264"/>
+      <c r="E50" s="251"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="272"/>
+      <c r="L50" s="273"/>
       <c r="M50" s="65" t="s">
         <v>96</v>
       </c>
@@ -13563,14 +13565,14 @@
     <row r="51" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="259"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="227"/>
-      <c r="H51" s="227"/>
-      <c r="I51" s="227"/>
-      <c r="J51" s="260"/>
-      <c r="K51" s="263"/>
-      <c r="L51" s="264"/>
+      <c r="E51" s="251"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="252"/>
+      <c r="K51" s="272"/>
+      <c r="L51" s="273"/>
       <c r="M51" s="65" t="s">
         <v>97</v>
       </c>
@@ -13587,14 +13589,14 @@
     <row r="52" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="259"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="260"/>
-      <c r="K52" s="263"/>
-      <c r="L52" s="264"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="272"/>
+      <c r="L52" s="273"/>
       <c r="M52" s="65"/>
       <c r="N52" s="37" t="s">
         <v>98</v>
@@ -13612,50 +13614,50 @@
     <row r="53" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="48"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="259"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="227"/>
-      <c r="H53" s="227"/>
-      <c r="I53" s="227"/>
-      <c r="J53" s="260"/>
-      <c r="K53" s="263"/>
-      <c r="L53" s="264"/>
+      <c r="E53" s="251"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="252"/>
+      <c r="K53" s="272"/>
+      <c r="L53" s="273"/>
       <c r="M53" s="65"/>
-      <c r="N53" s="233" t="s">
+      <c r="N53" s="234" t="s">
         <v>99</v>
       </c>
-      <c r="O53" s="233"/>
-      <c r="P53" s="233"/>
-      <c r="Q53" s="233"/>
-      <c r="R53" s="233"/>
-      <c r="S53" s="233"/>
-      <c r="T53" s="233"/>
-      <c r="U53" s="233"/>
-      <c r="V53" s="233"/>
-      <c r="W53" s="233"/>
-      <c r="X53" s="233"/>
-      <c r="Y53" s="233"/>
-      <c r="Z53" s="233"/>
-      <c r="AA53" s="233"/>
-      <c r="AB53" s="233"/>
-      <c r="AC53" s="233"/>
-      <c r="AD53" s="233"/>
-      <c r="AE53" s="233"/>
-      <c r="AF53" s="233"/>
-      <c r="AG53" s="233"/>
-      <c r="AH53" s="268"/>
+      <c r="O53" s="234"/>
+      <c r="P53" s="234"/>
+      <c r="Q53" s="234"/>
+      <c r="R53" s="234"/>
+      <c r="S53" s="234"/>
+      <c r="T53" s="234"/>
+      <c r="U53" s="234"/>
+      <c r="V53" s="234"/>
+      <c r="W53" s="234"/>
+      <c r="X53" s="234"/>
+      <c r="Y53" s="234"/>
+      <c r="Z53" s="234"/>
+      <c r="AA53" s="234"/>
+      <c r="AB53" s="234"/>
+      <c r="AC53" s="234"/>
+      <c r="AD53" s="234"/>
+      <c r="AE53" s="234"/>
+      <c r="AF53" s="234"/>
+      <c r="AG53" s="234"/>
+      <c r="AH53" s="277"/>
     </row>
     <row r="54" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="259"/>
-      <c r="F54" s="227"/>
-      <c r="G54" s="227"/>
-      <c r="H54" s="227"/>
-      <c r="I54" s="227"/>
-      <c r="J54" s="260"/>
-      <c r="K54" s="263"/>
-      <c r="L54" s="264"/>
+      <c r="E54" s="251"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="188"/>
+      <c r="H54" s="188"/>
+      <c r="I54" s="188"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="272"/>
+      <c r="L54" s="273"/>
       <c r="M54" s="65"/>
       <c r="N54" s="67" t="s">
         <v>32</v>
@@ -13684,14 +13686,14 @@
     <row r="55" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="259"/>
-      <c r="F55" s="227"/>
-      <c r="G55" s="227"/>
-      <c r="H55" s="227"/>
-      <c r="I55" s="227"/>
-      <c r="J55" s="260"/>
-      <c r="K55" s="263"/>
-      <c r="L55" s="264"/>
+      <c r="E55" s="251"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
+      <c r="I55" s="188"/>
+      <c r="J55" s="252"/>
+      <c r="K55" s="272"/>
+      <c r="L55" s="273"/>
       <c r="M55" s="65"/>
       <c r="N55" s="31"/>
       <c r="O55" s="31" t="s">
@@ -13720,14 +13722,14 @@
     <row r="56" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="259"/>
-      <c r="F56" s="227"/>
-      <c r="G56" s="227"/>
-      <c r="H56" s="227"/>
-      <c r="I56" s="227"/>
-      <c r="J56" s="260"/>
-      <c r="K56" s="263"/>
-      <c r="L56" s="264"/>
+      <c r="E56" s="251"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="188"/>
+      <c r="J56" s="252"/>
+      <c r="K56" s="272"/>
+      <c r="L56" s="273"/>
       <c r="M56" s="65"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31" t="s">
@@ -13756,14 +13758,14 @@
     <row r="57" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="259"/>
-      <c r="F57" s="227"/>
-      <c r="G57" s="227"/>
-      <c r="H57" s="227"/>
-      <c r="I57" s="227"/>
-      <c r="J57" s="260"/>
-      <c r="K57" s="263"/>
-      <c r="L57" s="264"/>
+      <c r="E57" s="251"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="252"/>
+      <c r="K57" s="272"/>
+      <c r="L57" s="273"/>
       <c r="M57" s="65"/>
       <c r="N57" s="31" t="s">
         <v>101</v>
@@ -13791,14 +13793,14 @@
     <row r="58" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="259"/>
-      <c r="F58" s="227"/>
-      <c r="G58" s="227"/>
-      <c r="H58" s="227"/>
-      <c r="I58" s="227"/>
-      <c r="J58" s="260"/>
-      <c r="K58" s="263"/>
-      <c r="L58" s="264"/>
+      <c r="E58" s="251"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="188"/>
+      <c r="H58" s="188"/>
+      <c r="I58" s="188"/>
+      <c r="J58" s="252"/>
+      <c r="K58" s="272"/>
+      <c r="L58" s="273"/>
       <c r="M58" s="65"/>
       <c r="N58" s="31" t="s">
         <v>102</v>
@@ -13825,14 +13827,14 @@
     <row r="59" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="259"/>
-      <c r="F59" s="227"/>
-      <c r="G59" s="227"/>
-      <c r="H59" s="227"/>
-      <c r="I59" s="227"/>
-      <c r="J59" s="260"/>
-      <c r="K59" s="263"/>
-      <c r="L59" s="264"/>
+      <c r="E59" s="251"/>
+      <c r="F59" s="188"/>
+      <c r="G59" s="188"/>
+      <c r="H59" s="188"/>
+      <c r="I59" s="188"/>
+      <c r="J59" s="252"/>
+      <c r="K59" s="272"/>
+      <c r="L59" s="273"/>
       <c r="M59" s="65"/>
       <c r="N59" s="31" t="s">
         <v>103</v>
@@ -13861,14 +13863,14 @@
     <row r="60" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="259"/>
-      <c r="F60" s="227"/>
-      <c r="G60" s="227"/>
-      <c r="H60" s="227"/>
-      <c r="I60" s="227"/>
-      <c r="J60" s="260"/>
-      <c r="K60" s="263"/>
-      <c r="L60" s="264"/>
+      <c r="E60" s="251"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
+      <c r="H60" s="188"/>
+      <c r="I60" s="188"/>
+      <c r="J60" s="252"/>
+      <c r="K60" s="272"/>
+      <c r="L60" s="273"/>
       <c r="M60" s="65"/>
       <c r="N60" s="31"/>
       <c r="O60" s="31" t="s">
@@ -13897,14 +13899,14 @@
     <row r="61" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
-      <c r="E61" s="259"/>
-      <c r="F61" s="227"/>
-      <c r="G61" s="227"/>
-      <c r="H61" s="227"/>
-      <c r="I61" s="227"/>
-      <c r="J61" s="260"/>
-      <c r="K61" s="263"/>
-      <c r="L61" s="264"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="188"/>
+      <c r="H61" s="188"/>
+      <c r="I61" s="188"/>
+      <c r="J61" s="252"/>
+      <c r="K61" s="272"/>
+      <c r="L61" s="273"/>
       <c r="M61" s="65"/>
       <c r="N61" s="31"/>
       <c r="O61" s="31" t="s">
@@ -13933,14 +13935,14 @@
     <row r="62" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
-      <c r="E62" s="252"/>
-      <c r="F62" s="255"/>
-      <c r="G62" s="255"/>
-      <c r="H62" s="255"/>
-      <c r="I62" s="255"/>
-      <c r="J62" s="253"/>
-      <c r="K62" s="265"/>
-      <c r="L62" s="266"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="254"/>
+      <c r="G62" s="254"/>
+      <c r="H62" s="254"/>
+      <c r="I62" s="254"/>
+      <c r="J62" s="255"/>
+      <c r="K62" s="274"/>
+      <c r="L62" s="275"/>
       <c r="M62" s="65"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
@@ -13969,146 +13971,146 @@
     <row r="63" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="236" t="s">
+      <c r="E63" s="240" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="237"/>
-      <c r="G63" s="237"/>
-      <c r="H63" s="237"/>
-      <c r="I63" s="237"/>
-      <c r="J63" s="238"/>
-      <c r="K63" s="236"/>
-      <c r="L63" s="238"/>
-      <c r="M63" s="206" t="s">
+      <c r="F63" s="241"/>
+      <c r="G63" s="241"/>
+      <c r="H63" s="241"/>
+      <c r="I63" s="241"/>
+      <c r="J63" s="242"/>
+      <c r="K63" s="240"/>
+      <c r="L63" s="242"/>
+      <c r="M63" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="N63" s="207"/>
-      <c r="O63" s="207"/>
-      <c r="P63" s="207"/>
-      <c r="Q63" s="207"/>
-      <c r="R63" s="207"/>
-      <c r="S63" s="207"/>
-      <c r="T63" s="207"/>
-      <c r="U63" s="207"/>
-      <c r="V63" s="207"/>
-      <c r="W63" s="207"/>
-      <c r="X63" s="207"/>
-      <c r="Y63" s="207"/>
-      <c r="Z63" s="207"/>
-      <c r="AA63" s="207"/>
-      <c r="AB63" s="207"/>
-      <c r="AC63" s="207"/>
-      <c r="AD63" s="207"/>
-      <c r="AE63" s="207"/>
-      <c r="AF63" s="207"/>
-      <c r="AG63" s="207"/>
-      <c r="AH63" s="208"/>
+      <c r="N63" s="201"/>
+      <c r="O63" s="201"/>
+      <c r="P63" s="201"/>
+      <c r="Q63" s="201"/>
+      <c r="R63" s="201"/>
+      <c r="S63" s="201"/>
+      <c r="T63" s="201"/>
+      <c r="U63" s="201"/>
+      <c r="V63" s="201"/>
+      <c r="W63" s="201"/>
+      <c r="X63" s="201"/>
+      <c r="Y63" s="201"/>
+      <c r="Z63" s="201"/>
+      <c r="AA63" s="201"/>
+      <c r="AB63" s="201"/>
+      <c r="AC63" s="201"/>
+      <c r="AD63" s="201"/>
+      <c r="AE63" s="201"/>
+      <c r="AF63" s="201"/>
+      <c r="AG63" s="201"/>
+      <c r="AH63" s="202"/>
     </row>
     <row r="64" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="239"/>
-      <c r="F64" s="240"/>
-      <c r="G64" s="240"/>
-      <c r="H64" s="240"/>
-      <c r="I64" s="240"/>
-      <c r="J64" s="241"/>
-      <c r="K64" s="239"/>
-      <c r="L64" s="241"/>
-      <c r="M64" s="212"/>
-      <c r="N64" s="213"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="213"/>
-      <c r="R64" s="213"/>
-      <c r="S64" s="213"/>
-      <c r="T64" s="213"/>
-      <c r="U64" s="213"/>
-      <c r="V64" s="213"/>
-      <c r="W64" s="213"/>
-      <c r="X64" s="213"/>
-      <c r="Y64" s="213"/>
-      <c r="Z64" s="213"/>
-      <c r="AA64" s="213"/>
-      <c r="AB64" s="213"/>
-      <c r="AC64" s="213"/>
-      <c r="AD64" s="213"/>
-      <c r="AE64" s="213"/>
-      <c r="AF64" s="213"/>
-      <c r="AG64" s="213"/>
-      <c r="AH64" s="214"/>
+      <c r="E64" s="243"/>
+      <c r="F64" s="244"/>
+      <c r="G64" s="244"/>
+      <c r="H64" s="244"/>
+      <c r="I64" s="244"/>
+      <c r="J64" s="245"/>
+      <c r="K64" s="243"/>
+      <c r="L64" s="245"/>
+      <c r="M64" s="206"/>
+      <c r="N64" s="207"/>
+      <c r="O64" s="207"/>
+      <c r="P64" s="207"/>
+      <c r="Q64" s="207"/>
+      <c r="R64" s="207"/>
+      <c r="S64" s="207"/>
+      <c r="T64" s="207"/>
+      <c r="U64" s="207"/>
+      <c r="V64" s="207"/>
+      <c r="W64" s="207"/>
+      <c r="X64" s="207"/>
+      <c r="Y64" s="207"/>
+      <c r="Z64" s="207"/>
+      <c r="AA64" s="207"/>
+      <c r="AB64" s="207"/>
+      <c r="AC64" s="207"/>
+      <c r="AD64" s="207"/>
+      <c r="AE64" s="207"/>
+      <c r="AF64" s="207"/>
+      <c r="AG64" s="207"/>
+      <c r="AH64" s="208"/>
     </row>
     <row r="65" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="244" t="s">
+      <c r="E65" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="245"/>
-      <c r="G65" s="245"/>
-      <c r="H65" s="245"/>
-      <c r="I65" s="245"/>
-      <c r="J65" s="246"/>
-      <c r="K65" s="250"/>
-      <c r="L65" s="251"/>
-      <c r="M65" s="250" t="s">
+      <c r="F65" s="263"/>
+      <c r="G65" s="263"/>
+      <c r="H65" s="263"/>
+      <c r="I65" s="263"/>
+      <c r="J65" s="264"/>
+      <c r="K65" s="248"/>
+      <c r="L65" s="250"/>
+      <c r="M65" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="254"/>
-      <c r="O65" s="254"/>
-      <c r="P65" s="254"/>
-      <c r="Q65" s="254"/>
-      <c r="R65" s="254"/>
-      <c r="S65" s="254"/>
-      <c r="T65" s="254"/>
-      <c r="U65" s="254"/>
-      <c r="V65" s="254"/>
-      <c r="W65" s="254"/>
-      <c r="X65" s="254"/>
-      <c r="Y65" s="254"/>
-      <c r="Z65" s="254"/>
-      <c r="AA65" s="254"/>
-      <c r="AB65" s="254"/>
-      <c r="AC65" s="254"/>
-      <c r="AD65" s="254"/>
-      <c r="AE65" s="254"/>
-      <c r="AF65" s="254"/>
-      <c r="AG65" s="254"/>
-      <c r="AH65" s="251"/>
+      <c r="N65" s="249"/>
+      <c r="O65" s="249"/>
+      <c r="P65" s="249"/>
+      <c r="Q65" s="249"/>
+      <c r="R65" s="249"/>
+      <c r="S65" s="249"/>
+      <c r="T65" s="249"/>
+      <c r="U65" s="249"/>
+      <c r="V65" s="249"/>
+      <c r="W65" s="249"/>
+      <c r="X65" s="249"/>
+      <c r="Y65" s="249"/>
+      <c r="Z65" s="249"/>
+      <c r="AA65" s="249"/>
+      <c r="AB65" s="249"/>
+      <c r="AC65" s="249"/>
+      <c r="AD65" s="249"/>
+      <c r="AE65" s="249"/>
+      <c r="AF65" s="249"/>
+      <c r="AG65" s="249"/>
+      <c r="AH65" s="250"/>
     </row>
     <row r="66" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
-      <c r="E66" s="247"/>
-      <c r="F66" s="248"/>
-      <c r="G66" s="248"/>
-      <c r="H66" s="248"/>
-      <c r="I66" s="248"/>
-      <c r="J66" s="249"/>
-      <c r="K66" s="252"/>
-      <c r="L66" s="253"/>
-      <c r="M66" s="252"/>
-      <c r="N66" s="255"/>
-      <c r="O66" s="255"/>
-      <c r="P66" s="255"/>
-      <c r="Q66" s="255"/>
-      <c r="R66" s="255"/>
-      <c r="S66" s="255"/>
-      <c r="T66" s="255"/>
-      <c r="U66" s="255"/>
-      <c r="V66" s="255"/>
-      <c r="W66" s="255"/>
-      <c r="X66" s="255"/>
-      <c r="Y66" s="255"/>
-      <c r="Z66" s="255"/>
-      <c r="AA66" s="255"/>
-      <c r="AB66" s="255"/>
-      <c r="AC66" s="255"/>
-      <c r="AD66" s="255"/>
-      <c r="AE66" s="255"/>
-      <c r="AF66" s="255"/>
-      <c r="AG66" s="255"/>
-      <c r="AH66" s="253"/>
+      <c r="E66" s="267"/>
+      <c r="F66" s="268"/>
+      <c r="G66" s="268"/>
+      <c r="H66" s="268"/>
+      <c r="I66" s="268"/>
+      <c r="J66" s="269"/>
+      <c r="K66" s="253"/>
+      <c r="L66" s="255"/>
+      <c r="M66" s="253"/>
+      <c r="N66" s="254"/>
+      <c r="O66" s="254"/>
+      <c r="P66" s="254"/>
+      <c r="Q66" s="254"/>
+      <c r="R66" s="254"/>
+      <c r="S66" s="254"/>
+      <c r="T66" s="254"/>
+      <c r="U66" s="254"/>
+      <c r="V66" s="254"/>
+      <c r="W66" s="254"/>
+      <c r="X66" s="254"/>
+      <c r="Y66" s="254"/>
+      <c r="Z66" s="254"/>
+      <c r="AA66" s="254"/>
+      <c r="AB66" s="254"/>
+      <c r="AC66" s="254"/>
+      <c r="AD66" s="254"/>
+      <c r="AE66" s="254"/>
+      <c r="AF66" s="254"/>
+      <c r="AG66" s="254"/>
+      <c r="AH66" s="255"/>
     </row>
     <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="48"/>
@@ -14235,116 +14237,116 @@
     <row r="71" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="48"/>
       <c r="D71" s="48"/>
-      <c r="E71" s="256" t="s">
+      <c r="E71" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="257"/>
-      <c r="G71" s="257"/>
-      <c r="H71" s="257"/>
-      <c r="I71" s="257"/>
-      <c r="J71" s="258"/>
-      <c r="K71" s="256" t="s">
+      <c r="F71" s="238"/>
+      <c r="G71" s="238"/>
+      <c r="H71" s="238"/>
+      <c r="I71" s="238"/>
+      <c r="J71" s="239"/>
+      <c r="K71" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="L71" s="258"/>
-      <c r="M71" s="256" t="s">
+      <c r="L71" s="239"/>
+      <c r="M71" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="N71" s="257"/>
-      <c r="O71" s="257"/>
-      <c r="P71" s="257"/>
-      <c r="Q71" s="257"/>
-      <c r="R71" s="257"/>
-      <c r="S71" s="257"/>
-      <c r="T71" s="257"/>
-      <c r="U71" s="257"/>
-      <c r="V71" s="257"/>
-      <c r="W71" s="257"/>
-      <c r="X71" s="257"/>
-      <c r="Y71" s="257"/>
-      <c r="Z71" s="257"/>
-      <c r="AA71" s="257"/>
-      <c r="AB71" s="257"/>
-      <c r="AC71" s="257"/>
-      <c r="AD71" s="257"/>
-      <c r="AE71" s="257"/>
-      <c r="AF71" s="257"/>
-      <c r="AG71" s="257"/>
-      <c r="AH71" s="258"/>
+      <c r="N71" s="238"/>
+      <c r="O71" s="238"/>
+      <c r="P71" s="238"/>
+      <c r="Q71" s="238"/>
+      <c r="R71" s="238"/>
+      <c r="S71" s="238"/>
+      <c r="T71" s="238"/>
+      <c r="U71" s="238"/>
+      <c r="V71" s="238"/>
+      <c r="W71" s="238"/>
+      <c r="X71" s="238"/>
+      <c r="Y71" s="238"/>
+      <c r="Z71" s="238"/>
+      <c r="AA71" s="238"/>
+      <c r="AB71" s="238"/>
+      <c r="AC71" s="238"/>
+      <c r="AD71" s="238"/>
+      <c r="AE71" s="238"/>
+      <c r="AF71" s="238"/>
+      <c r="AG71" s="238"/>
+      <c r="AH71" s="239"/>
     </row>
     <row r="72" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="48"/>
       <c r="D72" s="48"/>
-      <c r="E72" s="236" t="s">
+      <c r="E72" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="F72" s="237"/>
-      <c r="G72" s="237"/>
-      <c r="H72" s="237"/>
-      <c r="I72" s="237"/>
-      <c r="J72" s="238"/>
-      <c r="K72" s="110" t="s">
+      <c r="F72" s="241"/>
+      <c r="G72" s="241"/>
+      <c r="H72" s="241"/>
+      <c r="I72" s="241"/>
+      <c r="J72" s="242"/>
+      <c r="K72" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="112"/>
-      <c r="M72" s="206" t="s">
+      <c r="L72" s="175"/>
+      <c r="M72" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="N72" s="207"/>
-      <c r="O72" s="207"/>
-      <c r="P72" s="207"/>
-      <c r="Q72" s="207"/>
-      <c r="R72" s="207"/>
-      <c r="S72" s="207"/>
-      <c r="T72" s="207"/>
-      <c r="U72" s="207"/>
-      <c r="V72" s="207"/>
-      <c r="W72" s="207"/>
-      <c r="X72" s="207"/>
-      <c r="Y72" s="207"/>
-      <c r="Z72" s="207"/>
-      <c r="AA72" s="207"/>
-      <c r="AB72" s="207"/>
-      <c r="AC72" s="207"/>
-      <c r="AD72" s="207"/>
-      <c r="AE72" s="207"/>
-      <c r="AF72" s="207"/>
-      <c r="AG72" s="207"/>
-      <c r="AH72" s="208"/>
+      <c r="N72" s="201"/>
+      <c r="O72" s="201"/>
+      <c r="P72" s="201"/>
+      <c r="Q72" s="201"/>
+      <c r="R72" s="201"/>
+      <c r="S72" s="201"/>
+      <c r="T72" s="201"/>
+      <c r="U72" s="201"/>
+      <c r="V72" s="201"/>
+      <c r="W72" s="201"/>
+      <c r="X72" s="201"/>
+      <c r="Y72" s="201"/>
+      <c r="Z72" s="201"/>
+      <c r="AA72" s="201"/>
+      <c r="AB72" s="201"/>
+      <c r="AC72" s="201"/>
+      <c r="AD72" s="201"/>
+      <c r="AE72" s="201"/>
+      <c r="AF72" s="201"/>
+      <c r="AG72" s="201"/>
+      <c r="AH72" s="202"/>
     </row>
     <row r="73" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="48"/>
       <c r="D73" s="48"/>
-      <c r="E73" s="239"/>
-      <c r="F73" s="240"/>
-      <c r="G73" s="240"/>
-      <c r="H73" s="240"/>
-      <c r="I73" s="240"/>
-      <c r="J73" s="241"/>
-      <c r="K73" s="242"/>
-      <c r="L73" s="243"/>
-      <c r="M73" s="212"/>
-      <c r="N73" s="213"/>
-      <c r="O73" s="213"/>
-      <c r="P73" s="213"/>
-      <c r="Q73" s="213"/>
-      <c r="R73" s="213"/>
-      <c r="S73" s="213"/>
-      <c r="T73" s="213"/>
-      <c r="U73" s="213"/>
-      <c r="V73" s="213"/>
-      <c r="W73" s="213"/>
-      <c r="X73" s="213"/>
-      <c r="Y73" s="213"/>
-      <c r="Z73" s="213"/>
-      <c r="AA73" s="213"/>
-      <c r="AB73" s="213"/>
-      <c r="AC73" s="213"/>
-      <c r="AD73" s="213"/>
-      <c r="AE73" s="213"/>
-      <c r="AF73" s="213"/>
-      <c r="AG73" s="213"/>
-      <c r="AH73" s="214"/>
+      <c r="E73" s="243"/>
+      <c r="F73" s="244"/>
+      <c r="G73" s="244"/>
+      <c r="H73" s="244"/>
+      <c r="I73" s="244"/>
+      <c r="J73" s="245"/>
+      <c r="K73" s="246"/>
+      <c r="L73" s="247"/>
+      <c r="M73" s="206"/>
+      <c r="N73" s="207"/>
+      <c r="O73" s="207"/>
+      <c r="P73" s="207"/>
+      <c r="Q73" s="207"/>
+      <c r="R73" s="207"/>
+      <c r="S73" s="207"/>
+      <c r="T73" s="207"/>
+      <c r="U73" s="207"/>
+      <c r="V73" s="207"/>
+      <c r="W73" s="207"/>
+      <c r="X73" s="207"/>
+      <c r="Y73" s="207"/>
+      <c r="Z73" s="207"/>
+      <c r="AA73" s="207"/>
+      <c r="AB73" s="207"/>
+      <c r="AC73" s="207"/>
+      <c r="AD73" s="207"/>
+      <c r="AE73" s="207"/>
+      <c r="AF73" s="207"/>
+      <c r="AG73" s="207"/>
+      <c r="AH73" s="208"/>
     </row>
     <row r="74" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="48"/>
@@ -14388,42 +14390,42 @@
       </c>
     </row>
     <row r="78" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="231" t="s">
+      <c r="E78" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="F78" s="231"/>
-      <c r="G78" s="231"/>
-      <c r="H78" s="231"/>
-      <c r="I78" s="231"/>
-      <c r="J78" s="231"/>
-      <c r="K78" s="231"/>
-      <c r="L78" s="231"/>
-      <c r="M78" s="231"/>
-      <c r="N78" s="231"/>
-      <c r="O78" s="231"/>
-      <c r="P78" s="231"/>
-      <c r="Q78" s="231"/>
-      <c r="R78" s="231"/>
-      <c r="S78" s="231"/>
-      <c r="T78" s="231"/>
-      <c r="U78" s="231"/>
-      <c r="V78" s="231"/>
-      <c r="W78" s="231"/>
-      <c r="X78" s="231"/>
-      <c r="Y78" s="231"/>
-      <c r="Z78" s="231"/>
-      <c r="AA78" s="231"/>
-      <c r="AB78" s="231"/>
-      <c r="AC78" s="231"/>
-      <c r="AD78" s="231"/>
-      <c r="AE78" s="231"/>
-      <c r="AF78" s="231"/>
-      <c r="AG78" s="231"/>
-      <c r="AH78" s="231"/>
+      <c r="F78" s="232"/>
+      <c r="G78" s="232"/>
+      <c r="H78" s="232"/>
+      <c r="I78" s="232"/>
+      <c r="J78" s="232"/>
+      <c r="K78" s="232"/>
+      <c r="L78" s="232"/>
+      <c r="M78" s="232"/>
+      <c r="N78" s="232"/>
+      <c r="O78" s="232"/>
+      <c r="P78" s="232"/>
+      <c r="Q78" s="232"/>
+      <c r="R78" s="232"/>
+      <c r="S78" s="232"/>
+      <c r="T78" s="232"/>
+      <c r="U78" s="232"/>
+      <c r="V78" s="232"/>
+      <c r="W78" s="232"/>
+      <c r="X78" s="232"/>
+      <c r="Y78" s="232"/>
+      <c r="Z78" s="232"/>
+      <c r="AA78" s="232"/>
+      <c r="AB78" s="232"/>
+      <c r="AC78" s="232"/>
+      <c r="AD78" s="232"/>
+      <c r="AE78" s="232"/>
+      <c r="AF78" s="232"/>
+      <c r="AG78" s="232"/>
+      <c r="AH78" s="232"/>
     </row>
     <row r="79" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F79" s="70"/>
       <c r="G79" s="70"/>
@@ -14457,7 +14459,7 @@
     </row>
     <row r="80" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="37" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -14836,6 +14838,57 @@
     <row r="93" spans="5:34" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:AH73"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:AH71"/>
+    <mergeCell ref="E48:J62"/>
+    <mergeCell ref="K48:L62"/>
+    <mergeCell ref="M49:AH49"/>
+    <mergeCell ref="N53:AH53"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="M43:AH44"/>
+    <mergeCell ref="E45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="M45:AH47"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:AH42"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
     <mergeCell ref="E78:AH78"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -14852,57 +14905,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:AH42"/>
-    <mergeCell ref="E43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="M43:AH44"/>
-    <mergeCell ref="E45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="M45:AH47"/>
-    <mergeCell ref="E48:J62"/>
-    <mergeCell ref="K48:L62"/>
-    <mergeCell ref="M49:AH49"/>
-    <mergeCell ref="N53:AH53"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="E72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:AH73"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:AH71"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F08AA45-6349-4D7C-9877-26D83DD85F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C913A61-3D15-42E2-B74F-81F2940BD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="1335" windowWidth="18900" windowHeight="14265" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,10 +1163,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>3.1. Unit test specification creation unit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Screen request unit tests are performed in manual tests within subfunction unit tests.</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1347,6 +1343,10 @@
   </si>
   <si>
     <t>(This is because it is difficult to confirm whether the test cases are sufficient overall if unit testing specifications are created for each request unit test.)</t>
+  </si>
+  <si>
+    <t>3.1. Unit of creation of unit testing specifications</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2163,6 +2163,21 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2181,24 +2196,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2262,15 +2322,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2313,57 +2364,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2400,132 +2400,132 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2538,14 +2538,74 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2556,53 +2616,41 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2621,54 +2669,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -6256,153 +6256,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="142" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="124" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="133" t="s">
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="121" t="s">
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="126" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="129">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="131"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
       <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="142" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="121" t="s">
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="129">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
       <c r="AN2" s="18"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6446,1069 +6446,1204 @@
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="173" t="s">
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="173" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="173" t="s">
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="174"/>
-      <c r="U7" s="174"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="173" t="s">
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="175"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="113"/>
     </row>
     <row r="8" spans="1:40" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147">
+      <c r="C8" s="163"/>
+      <c r="D8" s="164">
         <v>43336</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150" t="s">
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="151"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153" t="s">
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156" t="s">
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="157"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="168" t="s">
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="174"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="170"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="140"/>
     </row>
     <row r="9" spans="1:40" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117">
+      <c r="C9" s="124"/>
+      <c r="D9" s="120">
         <v>43850</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="115" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="109" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="112" t="s">
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="109" t="s">
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="118"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="111"/>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="115"/>
+      <c r="AI9" s="116"/>
     </row>
     <row r="10" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88">
         <v>3</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117">
+      <c r="C10" s="124"/>
+      <c r="D10" s="120">
         <v>44777</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="115" t="s">
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="109" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="112" t="s">
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="109" t="s">
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="111"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="116"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="111"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="115"/>
+      <c r="AH11" s="115"/>
+      <c r="AI11" s="116"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="111"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="115"/>
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="116"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="111"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="116"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="111"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="116"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="114"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="111"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="116"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="114"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="111"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="116"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="111"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="116"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="114"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="111"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="115"/>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="116"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="114"/>
-      <c r="AF19" s="109"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="111"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="115"/>
+      <c r="AH19" s="115"/>
+      <c r="AI19" s="116"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="111"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="116"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="114"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="111"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="119"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="115"/>
+      <c r="AH21" s="115"/>
+      <c r="AI21" s="116"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="111"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="115"/>
+      <c r="AH22" s="115"/>
+      <c r="AI22" s="116"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="114"/>
-      <c r="AF23" s="109"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="111"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="119"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="115"/>
+      <c r="AH23" s="115"/>
+      <c r="AI23" s="116"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="114"/>
-      <c r="AF24" s="109"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="111"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="119"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="115"/>
+      <c r="AH24" s="115"/>
+      <c r="AI24" s="116"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="113"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="114"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="111"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="114"/>
+      <c r="AG25" s="115"/>
+      <c r="AH25" s="115"/>
+      <c r="AI25" s="116"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="113"/>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="113"/>
-      <c r="AE26" s="114"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="111"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="119"/>
+      <c r="AF26" s="114"/>
+      <c r="AG26" s="115"/>
+      <c r="AH26" s="115"/>
+      <c r="AI26" s="116"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="113"/>
-      <c r="AE27" s="114"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="111"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="119"/>
+      <c r="AF27" s="114"/>
+      <c r="AG27" s="115"/>
+      <c r="AH27" s="115"/>
+      <c r="AI27" s="116"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="113"/>
-      <c r="W28" s="113"/>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="113"/>
-      <c r="AB28" s="113"/>
-      <c r="AC28" s="113"/>
-      <c r="AD28" s="113"/>
-      <c r="AE28" s="114"/>
-      <c r="AF28" s="109"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="111"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="119"/>
+      <c r="AF28" s="114"/>
+      <c r="AG28" s="115"/>
+      <c r="AH28" s="115"/>
+      <c r="AI28" s="116"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="109"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="111"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="119"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="115"/>
+      <c r="AH29" s="115"/>
+      <c r="AI29" s="116"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="113"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="109"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="111"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="119"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="115"/>
+      <c r="AH30" s="115"/>
+      <c r="AI30" s="116"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="109"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="111"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="118"/>
+      <c r="AE31" s="119"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="115"/>
+      <c r="AH31" s="115"/>
+      <c r="AI31" s="116"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="114"/>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="111"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="119"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="115"/>
+      <c r="AH32" s="115"/>
+      <c r="AI32" s="116"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="111"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="119"/>
+      <c r="AF33" s="114"/>
+      <c r="AG33" s="115"/>
+      <c r="AH33" s="115"/>
+      <c r="AI33" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -7533,151 +7668,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7708,31 +7708,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="142" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="124" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -7744,52 +7744,52 @@
       <c r="X1" s="177"/>
       <c r="Y1" s="177"/>
       <c r="Z1" s="178"/>
-      <c r="AA1" s="121" t="s">
+      <c r="AA1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="131"/>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="142" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="129"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="179"/>
       <c r="T2" s="180"/>
       <c r="U2" s="180"/>
@@ -7798,52 +7798,52 @@
       <c r="X2" s="180"/>
       <c r="Y2" s="180"/>
       <c r="Z2" s="181"/>
-      <c r="AA2" s="121" t="s">
+      <c r="AA2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="142" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="182"/>
       <c r="T3" s="183"/>
       <c r="U3" s="183"/>
@@ -7852,21 +7852,21 @@
       <c r="X3" s="183"/>
       <c r="Y3" s="183"/>
       <c r="Z3" s="184"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="159" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
@@ -8000,7 +8000,7 @@
     <row r="11" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="23"/>
@@ -8069,7 +8069,7 @@
     <row r="14" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="C14" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -8090,7 +8090,7 @@
     <row r="15" spans="1:39" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="C15" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="17" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="B17" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -8147,7 +8147,7 @@
     <row r="18" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="C18" s="36" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -8193,7 +8193,7 @@
     <row r="20" spans="1:49" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -8866,14 +8866,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -8883,6 +8875,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8912,31 +8912,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="142" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="124" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -8948,48 +8948,48 @@
       <c r="X1" s="177"/>
       <c r="Y1" s="177"/>
       <c r="Z1" s="178"/>
-      <c r="AA1" s="121" t="s">
+      <c r="AA1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="131"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="142" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="129"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="179"/>
       <c r="T2" s="180"/>
       <c r="U2" s="180"/>
@@ -8998,48 +8998,48 @@
       <c r="X2" s="180"/>
       <c r="Y2" s="180"/>
       <c r="Z2" s="181"/>
-      <c r="AA2" s="121" t="s">
+      <c r="AA2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="142" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="182"/>
       <c r="T3" s="183"/>
       <c r="U3" s="183"/>
@@ -9048,21 +9048,21 @@
       <c r="X3" s="183"/>
       <c r="Y3" s="183"/>
       <c r="Z3" s="184"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="159" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9078,23 +9078,23 @@
     <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D8" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D9" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D11" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D12" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
@@ -9108,7 +9108,7 @@
     <row r="17" spans="4:4" ht="12" x14ac:dyDescent="0.15"/>
     <row r="18" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9138,14 +9138,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -9155,6 +9147,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -9189,31 +9189,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="142" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="124" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -9225,48 +9225,48 @@
       <c r="X1" s="177"/>
       <c r="Y1" s="177"/>
       <c r="Z1" s="178"/>
-      <c r="AA1" s="121" t="s">
+      <c r="AA1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="131"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="142" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="129"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="179"/>
       <c r="T2" s="180"/>
       <c r="U2" s="180"/>
@@ -9275,48 +9275,48 @@
       <c r="X2" s="180"/>
       <c r="Y2" s="180"/>
       <c r="Z2" s="181"/>
-      <c r="AA2" s="121" t="s">
+      <c r="AA2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="142" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="182"/>
       <c r="T3" s="183"/>
       <c r="U3" s="183"/>
@@ -9325,27 +9325,27 @@
       <c r="X3" s="183"/>
       <c r="Y3" s="183"/>
       <c r="Z3" s="184"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="159" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9363,7 +9363,7 @@
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="36"/>
       <c r="D8" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9385,7 +9385,7 @@
     <row r="12" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="36"/>
       <c r="D12" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9419,7 +9419,7 @@
     <row r="18" spans="3:4" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="36"/>
       <c r="D18" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="12" x14ac:dyDescent="0.15">
@@ -9498,350 +9498,350 @@
       <c r="D36" s="32"/>
     </row>
     <row r="37" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D37" s="191" t="s">
+      <c r="D37" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="191" t="s">
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="192"/>
-      <c r="O37" s="192"/>
-      <c r="P37" s="192"/>
-      <c r="Q37" s="192"/>
-      <c r="R37" s="192"/>
-      <c r="S37" s="192"/>
-      <c r="T37" s="192"/>
-      <c r="U37" s="192"/>
-      <c r="V37" s="192"/>
-      <c r="W37" s="192"/>
-      <c r="X37" s="192"/>
-      <c r="Y37" s="192"/>
-      <c r="Z37" s="192"/>
-      <c r="AA37" s="192"/>
-      <c r="AB37" s="192"/>
-      <c r="AC37" s="192"/>
-      <c r="AD37" s="192"/>
-      <c r="AE37" s="192"/>
-      <c r="AF37" s="192"/>
-      <c r="AG37" s="192"/>
-      <c r="AH37" s="193"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="205"/>
+      <c r="Q37" s="205"/>
+      <c r="R37" s="205"/>
+      <c r="S37" s="205"/>
+      <c r="T37" s="205"/>
+      <c r="U37" s="205"/>
+      <c r="V37" s="205"/>
+      <c r="W37" s="205"/>
+      <c r="X37" s="205"/>
+      <c r="Y37" s="205"/>
+      <c r="Z37" s="205"/>
+      <c r="AA37" s="205"/>
+      <c r="AB37" s="205"/>
+      <c r="AC37" s="205"/>
+      <c r="AD37" s="205"/>
+      <c r="AE37" s="205"/>
+      <c r="AF37" s="205"/>
+      <c r="AG37" s="205"/>
+      <c r="AH37" s="206"/>
     </row>
     <row r="38" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D38" s="218" t="s">
+      <c r="D38" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="200" t="s">
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="207" t="s">
         <v>168</v>
       </c>
-      <c r="K38" s="201"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="201"/>
-      <c r="N38" s="201"/>
-      <c r="O38" s="201"/>
-      <c r="P38" s="201"/>
-      <c r="Q38" s="201"/>
-      <c r="R38" s="201"/>
-      <c r="S38" s="201"/>
-      <c r="T38" s="201"/>
-      <c r="U38" s="201"/>
-      <c r="V38" s="201"/>
-      <c r="W38" s="201"/>
-      <c r="X38" s="201"/>
-      <c r="Y38" s="201"/>
-      <c r="Z38" s="201"/>
-      <c r="AA38" s="201"/>
-      <c r="AB38" s="201"/>
-      <c r="AC38" s="201"/>
-      <c r="AD38" s="201"/>
-      <c r="AE38" s="201"/>
-      <c r="AF38" s="201"/>
-      <c r="AG38" s="201"/>
-      <c r="AH38" s="202"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="208"/>
+      <c r="M38" s="208"/>
+      <c r="N38" s="208"/>
+      <c r="O38" s="208"/>
+      <c r="P38" s="208"/>
+      <c r="Q38" s="208"/>
+      <c r="R38" s="208"/>
+      <c r="S38" s="208"/>
+      <c r="T38" s="208"/>
+      <c r="U38" s="208"/>
+      <c r="V38" s="208"/>
+      <c r="W38" s="208"/>
+      <c r="X38" s="208"/>
+      <c r="Y38" s="208"/>
+      <c r="Z38" s="208"/>
+      <c r="AA38" s="208"/>
+      <c r="AB38" s="208"/>
+      <c r="AC38" s="208"/>
+      <c r="AD38" s="208"/>
+      <c r="AE38" s="208"/>
+      <c r="AF38" s="208"/>
+      <c r="AG38" s="208"/>
+      <c r="AH38" s="209"/>
     </row>
     <row r="39" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D39" s="221"/>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="203"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="204"/>
-      <c r="P39" s="204"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="204"/>
-      <c r="S39" s="204"/>
-      <c r="T39" s="204"/>
-      <c r="U39" s="204"/>
-      <c r="V39" s="204"/>
-      <c r="W39" s="204"/>
-      <c r="X39" s="204"/>
-      <c r="Y39" s="204"/>
-      <c r="Z39" s="204"/>
-      <c r="AA39" s="204"/>
-      <c r="AB39" s="204"/>
-      <c r="AC39" s="204"/>
-      <c r="AD39" s="204"/>
-      <c r="AE39" s="204"/>
-      <c r="AF39" s="204"/>
-      <c r="AG39" s="204"/>
-      <c r="AH39" s="205"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="210"/>
+      <c r="K39" s="211"/>
+      <c r="L39" s="211"/>
+      <c r="M39" s="211"/>
+      <c r="N39" s="211"/>
+      <c r="O39" s="211"/>
+      <c r="P39" s="211"/>
+      <c r="Q39" s="211"/>
+      <c r="R39" s="211"/>
+      <c r="S39" s="211"/>
+      <c r="T39" s="211"/>
+      <c r="U39" s="211"/>
+      <c r="V39" s="211"/>
+      <c r="W39" s="211"/>
+      <c r="X39" s="211"/>
+      <c r="Y39" s="211"/>
+      <c r="Z39" s="211"/>
+      <c r="AA39" s="211"/>
+      <c r="AB39" s="211"/>
+      <c r="AC39" s="211"/>
+      <c r="AD39" s="211"/>
+      <c r="AE39" s="211"/>
+      <c r="AF39" s="211"/>
+      <c r="AG39" s="211"/>
+      <c r="AH39" s="212"/>
     </row>
     <row r="40" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D40" s="224"/>
-      <c r="E40" s="225"/>
-      <c r="F40" s="225"/>
-      <c r="G40" s="225"/>
-      <c r="H40" s="225"/>
-      <c r="I40" s="226"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="207"/>
-      <c r="L40" s="207"/>
-      <c r="M40" s="207"/>
-      <c r="N40" s="207"/>
-      <c r="O40" s="207"/>
-      <c r="P40" s="207"/>
-      <c r="Q40" s="207"/>
-      <c r="R40" s="207"/>
-      <c r="S40" s="207"/>
-      <c r="T40" s="207"/>
-      <c r="U40" s="207"/>
-      <c r="V40" s="207"/>
-      <c r="W40" s="207"/>
-      <c r="X40" s="207"/>
-      <c r="Y40" s="207"/>
-      <c r="Z40" s="207"/>
-      <c r="AA40" s="207"/>
-      <c r="AB40" s="207"/>
-      <c r="AC40" s="207"/>
-      <c r="AD40" s="207"/>
-      <c r="AE40" s="207"/>
-      <c r="AF40" s="207"/>
-      <c r="AG40" s="207"/>
-      <c r="AH40" s="208"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214"/>
+      <c r="P40" s="214"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="214"/>
+      <c r="S40" s="214"/>
+      <c r="T40" s="214"/>
+      <c r="U40" s="214"/>
+      <c r="V40" s="214"/>
+      <c r="W40" s="214"/>
+      <c r="X40" s="214"/>
+      <c r="Y40" s="214"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="214"/>
+      <c r="AB40" s="214"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="214"/>
+      <c r="AE40" s="214"/>
+      <c r="AF40" s="214"/>
+      <c r="AG40" s="214"/>
+      <c r="AH40" s="215"/>
     </row>
     <row r="41" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="220"/>
-      <c r="J41" s="209" t="s">
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="216" t="s">
+        <v>199</v>
+      </c>
+      <c r="K41" s="217"/>
+      <c r="L41" s="217"/>
+      <c r="M41" s="217"/>
+      <c r="N41" s="217"/>
+      <c r="O41" s="217"/>
+      <c r="P41" s="217"/>
+      <c r="Q41" s="217"/>
+      <c r="R41" s="217"/>
+      <c r="S41" s="217"/>
+      <c r="T41" s="217"/>
+      <c r="U41" s="217"/>
+      <c r="V41" s="217"/>
+      <c r="W41" s="217"/>
+      <c r="X41" s="217"/>
+      <c r="Y41" s="217"/>
+      <c r="Z41" s="217"/>
+      <c r="AA41" s="217"/>
+      <c r="AB41" s="217"/>
+      <c r="AC41" s="217"/>
+      <c r="AD41" s="217"/>
+      <c r="AE41" s="217"/>
+      <c r="AF41" s="217"/>
+      <c r="AG41" s="217"/>
+      <c r="AH41" s="218"/>
+    </row>
+    <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="D42" s="191"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="219"/>
+      <c r="K42" s="220"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
+      <c r="O42" s="220"/>
+      <c r="P42" s="220"/>
+      <c r="Q42" s="220"/>
+      <c r="R42" s="220"/>
+      <c r="S42" s="220"/>
+      <c r="T42" s="220"/>
+      <c r="U42" s="220"/>
+      <c r="V42" s="220"/>
+      <c r="W42" s="220"/>
+      <c r="X42" s="220"/>
+      <c r="Y42" s="220"/>
+      <c r="Z42" s="220"/>
+      <c r="AA42" s="220"/>
+      <c r="AB42" s="220"/>
+      <c r="AC42" s="220"/>
+      <c r="AD42" s="220"/>
+      <c r="AE42" s="220"/>
+      <c r="AF42" s="220"/>
+      <c r="AG42" s="220"/>
+      <c r="AH42" s="221"/>
+    </row>
+    <row r="43" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="194"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="222"/>
+      <c r="K43" s="223"/>
+      <c r="L43" s="223"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="223"/>
+      <c r="O43" s="223"/>
+      <c r="P43" s="223"/>
+      <c r="Q43" s="223"/>
+      <c r="R43" s="223"/>
+      <c r="S43" s="223"/>
+      <c r="T43" s="223"/>
+      <c r="U43" s="223"/>
+      <c r="V43" s="223"/>
+      <c r="W43" s="223"/>
+      <c r="X43" s="223"/>
+      <c r="Y43" s="223"/>
+      <c r="Z43" s="223"/>
+      <c r="AA43" s="223"/>
+      <c r="AB43" s="223"/>
+      <c r="AC43" s="223"/>
+      <c r="AD43" s="223"/>
+      <c r="AE43" s="223"/>
+      <c r="AF43" s="223"/>
+      <c r="AG43" s="223"/>
+      <c r="AH43" s="224"/>
+    </row>
+    <row r="44" spans="3:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="D44" s="188" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="189"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="189"/>
+      <c r="H44" s="189"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="K41" s="210"/>
-      <c r="L41" s="210"/>
-      <c r="M41" s="210"/>
-      <c r="N41" s="210"/>
-      <c r="O41" s="210"/>
-      <c r="P41" s="210"/>
-      <c r="Q41" s="210"/>
-      <c r="R41" s="210"/>
-      <c r="S41" s="210"/>
-      <c r="T41" s="210"/>
-      <c r="U41" s="210"/>
-      <c r="V41" s="210"/>
-      <c r="W41" s="210"/>
-      <c r="X41" s="210"/>
-      <c r="Y41" s="210"/>
-      <c r="Z41" s="210"/>
-      <c r="AA41" s="210"/>
-      <c r="AB41" s="210"/>
-      <c r="AC41" s="210"/>
-      <c r="AD41" s="210"/>
-      <c r="AE41" s="210"/>
-      <c r="AF41" s="210"/>
-      <c r="AG41" s="210"/>
-      <c r="AH41" s="211"/>
-    </row>
-    <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D42" s="221"/>
-      <c r="E42" s="222"/>
-      <c r="F42" s="222"/>
-      <c r="G42" s="222"/>
-      <c r="H42" s="222"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="212"/>
-      <c r="K42" s="213"/>
-      <c r="L42" s="213"/>
-      <c r="M42" s="213"/>
-      <c r="N42" s="213"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213"/>
-      <c r="Q42" s="213"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="213"/>
-      <c r="T42" s="213"/>
-      <c r="U42" s="213"/>
-      <c r="V42" s="213"/>
-      <c r="W42" s="213"/>
-      <c r="X42" s="213"/>
-      <c r="Y42" s="213"/>
-      <c r="Z42" s="213"/>
-      <c r="AA42" s="213"/>
-      <c r="AB42" s="213"/>
-      <c r="AC42" s="213"/>
-      <c r="AD42" s="213"/>
-      <c r="AE42" s="213"/>
-      <c r="AF42" s="213"/>
-      <c r="AG42" s="213"/>
-      <c r="AH42" s="214"/>
-    </row>
-    <row r="43" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="224"/>
-      <c r="E43" s="225"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="225"/>
-      <c r="H43" s="225"/>
-      <c r="I43" s="226"/>
-      <c r="J43" s="215"/>
-      <c r="K43" s="216"/>
-      <c r="L43" s="216"/>
-      <c r="M43" s="216"/>
-      <c r="N43" s="216"/>
-      <c r="O43" s="216"/>
-      <c r="P43" s="216"/>
-      <c r="Q43" s="216"/>
-      <c r="R43" s="216"/>
-      <c r="S43" s="216"/>
-      <c r="T43" s="216"/>
-      <c r="U43" s="216"/>
-      <c r="V43" s="216"/>
-      <c r="W43" s="216"/>
-      <c r="X43" s="216"/>
-      <c r="Y43" s="216"/>
-      <c r="Z43" s="216"/>
-      <c r="AA43" s="216"/>
-      <c r="AB43" s="216"/>
-      <c r="AC43" s="216"/>
-      <c r="AD43" s="216"/>
-      <c r="AE43" s="216"/>
-      <c r="AF43" s="216"/>
-      <c r="AG43" s="216"/>
-      <c r="AH43" s="217"/>
-    </row>
-    <row r="44" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D44" s="218" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="219"/>
-      <c r="F44" s="219"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="220"/>
-      <c r="J44" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="K44" s="210"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
-      <c r="N44" s="210"/>
-      <c r="O44" s="210"/>
-      <c r="P44" s="210"/>
-      <c r="Q44" s="210"/>
-      <c r="R44" s="210"/>
-      <c r="S44" s="210"/>
-      <c r="T44" s="210"/>
-      <c r="U44" s="210"/>
-      <c r="V44" s="210"/>
-      <c r="W44" s="210"/>
-      <c r="X44" s="210"/>
-      <c r="Y44" s="210"/>
-      <c r="Z44" s="210"/>
-      <c r="AA44" s="210"/>
-      <c r="AB44" s="210"/>
-      <c r="AC44" s="210"/>
-      <c r="AD44" s="210"/>
-      <c r="AE44" s="210"/>
-      <c r="AF44" s="210"/>
-      <c r="AG44" s="210"/>
-      <c r="AH44" s="211"/>
+      <c r="K44" s="217"/>
+      <c r="L44" s="217"/>
+      <c r="M44" s="217"/>
+      <c r="N44" s="217"/>
+      <c r="O44" s="217"/>
+      <c r="P44" s="217"/>
+      <c r="Q44" s="217"/>
+      <c r="R44" s="217"/>
+      <c r="S44" s="217"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="217"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="217"/>
+      <c r="X44" s="217"/>
+      <c r="Y44" s="217"/>
+      <c r="Z44" s="217"/>
+      <c r="AA44" s="217"/>
+      <c r="AB44" s="217"/>
+      <c r="AC44" s="217"/>
+      <c r="AD44" s="217"/>
+      <c r="AE44" s="217"/>
+      <c r="AF44" s="217"/>
+      <c r="AG44" s="217"/>
+      <c r="AH44" s="218"/>
     </row>
     <row r="45" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D45" s="221"/>
-      <c r="E45" s="222"/>
-      <c r="F45" s="222"/>
-      <c r="G45" s="222"/>
-      <c r="H45" s="222"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="213"/>
-      <c r="L45" s="213"/>
-      <c r="M45" s="213"/>
-      <c r="N45" s="213"/>
-      <c r="O45" s="213"/>
-      <c r="P45" s="213"/>
-      <c r="Q45" s="213"/>
-      <c r="R45" s="213"/>
-      <c r="S45" s="213"/>
-      <c r="T45" s="213"/>
-      <c r="U45" s="213"/>
-      <c r="V45" s="213"/>
-      <c r="W45" s="213"/>
-      <c r="X45" s="213"/>
-      <c r="Y45" s="213"/>
-      <c r="Z45" s="213"/>
-      <c r="AA45" s="213"/>
-      <c r="AB45" s="213"/>
-      <c r="AC45" s="213"/>
-      <c r="AD45" s="213"/>
-      <c r="AE45" s="213"/>
-      <c r="AF45" s="213"/>
-      <c r="AG45" s="213"/>
-      <c r="AH45" s="214"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="219"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="220"/>
+      <c r="M45" s="220"/>
+      <c r="N45" s="220"/>
+      <c r="O45" s="220"/>
+      <c r="P45" s="220"/>
+      <c r="Q45" s="220"/>
+      <c r="R45" s="220"/>
+      <c r="S45" s="220"/>
+      <c r="T45" s="220"/>
+      <c r="U45" s="220"/>
+      <c r="V45" s="220"/>
+      <c r="W45" s="220"/>
+      <c r="X45" s="220"/>
+      <c r="Y45" s="220"/>
+      <c r="Z45" s="220"/>
+      <c r="AA45" s="220"/>
+      <c r="AB45" s="220"/>
+      <c r="AC45" s="220"/>
+      <c r="AD45" s="220"/>
+      <c r="AE45" s="220"/>
+      <c r="AF45" s="220"/>
+      <c r="AG45" s="220"/>
+      <c r="AH45" s="221"/>
     </row>
     <row r="46" spans="3:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="224"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="225"/>
-      <c r="G46" s="225"/>
-      <c r="H46" s="225"/>
-      <c r="I46" s="226"/>
-      <c r="J46" s="215"/>
-      <c r="K46" s="216"/>
-      <c r="L46" s="216"/>
-      <c r="M46" s="216"/>
-      <c r="N46" s="216"/>
-      <c r="O46" s="216"/>
-      <c r="P46" s="216"/>
-      <c r="Q46" s="216"/>
-      <c r="R46" s="216"/>
-      <c r="S46" s="216"/>
-      <c r="T46" s="216"/>
-      <c r="U46" s="216"/>
-      <c r="V46" s="216"/>
-      <c r="W46" s="216"/>
-      <c r="X46" s="216"/>
-      <c r="Y46" s="216"/>
-      <c r="Z46" s="216"/>
-      <c r="AA46" s="216"/>
-      <c r="AB46" s="216"/>
-      <c r="AC46" s="216"/>
-      <c r="AD46" s="216"/>
-      <c r="AE46" s="216"/>
-      <c r="AF46" s="216"/>
-      <c r="AG46" s="216"/>
-      <c r="AH46" s="217"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="222"/>
+      <c r="K46" s="223"/>
+      <c r="L46" s="223"/>
+      <c r="M46" s="223"/>
+      <c r="N46" s="223"/>
+      <c r="O46" s="223"/>
+      <c r="P46" s="223"/>
+      <c r="Q46" s="223"/>
+      <c r="R46" s="223"/>
+      <c r="S46" s="223"/>
+      <c r="T46" s="223"/>
+      <c r="U46" s="223"/>
+      <c r="V46" s="223"/>
+      <c r="W46" s="223"/>
+      <c r="X46" s="223"/>
+      <c r="Y46" s="223"/>
+      <c r="Z46" s="223"/>
+      <c r="AA46" s="223"/>
+      <c r="AB46" s="223"/>
+      <c r="AC46" s="223"/>
+      <c r="AD46" s="223"/>
+      <c r="AE46" s="223"/>
+      <c r="AF46" s="223"/>
+      <c r="AG46" s="223"/>
+      <c r="AH46" s="224"/>
     </row>
     <row r="47" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="D47" s="43" t="s">
@@ -9864,195 +9864,195 @@
     </row>
     <row r="51" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="52" spans="3:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="197" t="s">
+      <c r="D52" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="199"/>
-      <c r="H52" s="194" t="s">
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="194" t="s">
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="195"/>
-      <c r="N52" s="195"/>
-      <c r="O52" s="196"/>
-      <c r="P52" s="194" t="s">
+      <c r="M52" s="225"/>
+      <c r="N52" s="225"/>
+      <c r="O52" s="226"/>
+      <c r="P52" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="Q52" s="113"/>
-      <c r="R52" s="113"/>
-      <c r="S52" s="114"/>
-      <c r="T52" s="194" t="s">
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="119"/>
+      <c r="T52" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="U52" s="113"/>
-      <c r="V52" s="113"/>
-      <c r="W52" s="114"/>
-      <c r="X52" s="194" t="s">
+      <c r="U52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="119"/>
+      <c r="X52" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Y52" s="113"/>
-      <c r="Z52" s="113"/>
-      <c r="AA52" s="114"/>
-      <c r="AB52" s="190"/>
-      <c r="AC52" s="190"/>
-      <c r="AD52" s="190"/>
-      <c r="AE52" s="190"/>
-      <c r="AF52" s="190"/>
-      <c r="AG52" s="190"/>
-      <c r="AH52" s="190"/>
-      <c r="AI52" s="190"/>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="118"/>
+      <c r="AA52" s="119"/>
+      <c r="AB52" s="227"/>
+      <c r="AC52" s="227"/>
+      <c r="AD52" s="227"/>
+      <c r="AE52" s="227"/>
+      <c r="AF52" s="227"/>
+      <c r="AG52" s="227"/>
+      <c r="AH52" s="227"/>
+      <c r="AI52" s="227"/>
     </row>
     <row r="53" spans="3:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="227" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="228"/>
-      <c r="F53" s="228"/>
-      <c r="G53" s="229"/>
+      <c r="D53" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="199"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="200"/>
       <c r="H53" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I53" s="186"/>
       <c r="J53" s="186"/>
       <c r="K53" s="187"/>
       <c r="L53" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M53" s="186"/>
       <c r="N53" s="186"/>
       <c r="O53" s="187"/>
       <c r="P53" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q53" s="186"/>
       <c r="R53" s="186"/>
       <c r="S53" s="187"/>
       <c r="T53" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U53" s="186"/>
       <c r="V53" s="186"/>
       <c r="W53" s="187"/>
       <c r="X53" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y53" s="186"/>
       <c r="Z53" s="186"/>
       <c r="AA53" s="187"/>
-      <c r="AB53" s="188"/>
-      <c r="AC53" s="188"/>
-      <c r="AD53" s="188"/>
-      <c r="AE53" s="188"/>
-      <c r="AF53" s="188"/>
-      <c r="AG53" s="188"/>
-      <c r="AH53" s="188"/>
-      <c r="AI53" s="188"/>
+      <c r="AB53" s="228"/>
+      <c r="AC53" s="228"/>
+      <c r="AD53" s="228"/>
+      <c r="AE53" s="228"/>
+      <c r="AF53" s="228"/>
+      <c r="AG53" s="228"/>
+      <c r="AH53" s="228"/>
+      <c r="AI53" s="228"/>
     </row>
     <row r="54" spans="3:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="185" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E54" s="186"/>
       <c r="F54" s="186"/>
       <c r="G54" s="187"/>
       <c r="H54" s="185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I54" s="186"/>
       <c r="J54" s="186"/>
       <c r="K54" s="187"/>
       <c r="L54" s="185" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M54" s="186"/>
       <c r="N54" s="186"/>
       <c r="O54" s="187"/>
       <c r="P54" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q54" s="186"/>
       <c r="R54" s="186"/>
       <c r="S54" s="187"/>
       <c r="T54" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U54" s="186"/>
       <c r="V54" s="186"/>
       <c r="W54" s="187"/>
       <c r="X54" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y54" s="186"/>
       <c r="Z54" s="186"/>
       <c r="AA54" s="187"/>
-      <c r="AB54" s="188"/>
-      <c r="AC54" s="188"/>
-      <c r="AD54" s="188"/>
-      <c r="AE54" s="188"/>
-      <c r="AF54" s="188"/>
-      <c r="AG54" s="188"/>
-      <c r="AH54" s="188"/>
-      <c r="AI54" s="188"/>
+      <c r="AB54" s="228"/>
+      <c r="AC54" s="228"/>
+      <c r="AD54" s="228"/>
+      <c r="AE54" s="228"/>
+      <c r="AF54" s="228"/>
+      <c r="AG54" s="228"/>
+      <c r="AH54" s="228"/>
+      <c r="AI54" s="228"/>
     </row>
     <row r="55" spans="3:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="185" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E55" s="186"/>
       <c r="F55" s="186"/>
       <c r="G55" s="187"/>
       <c r="H55" s="185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I55" s="186"/>
       <c r="J55" s="186"/>
       <c r="K55" s="187"/>
       <c r="L55" s="185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M55" s="186"/>
       <c r="N55" s="186"/>
       <c r="O55" s="187"/>
       <c r="P55" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q55" s="186"/>
       <c r="R55" s="186"/>
       <c r="S55" s="187"/>
       <c r="T55" s="185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U55" s="186"/>
       <c r="V55" s="186"/>
       <c r="W55" s="187"/>
-      <c r="X55" s="189" t="s">
+      <c r="X55" s="229" t="s">
         <v>133</v>
       </c>
       <c r="Y55" s="186"/>
       <c r="Z55" s="186"/>
       <c r="AA55" s="187"/>
-      <c r="AB55" s="188"/>
-      <c r="AC55" s="188"/>
-      <c r="AD55" s="188"/>
-      <c r="AE55" s="188"/>
-      <c r="AF55" s="188"/>
-      <c r="AG55" s="188"/>
-      <c r="AH55" s="188"/>
-      <c r="AI55" s="188"/>
+      <c r="AB55" s="228"/>
+      <c r="AC55" s="228"/>
+      <c r="AD55" s="228"/>
+      <c r="AE55" s="228"/>
+      <c r="AF55" s="228"/>
+      <c r="AG55" s="228"/>
+      <c r="AH55" s="228"/>
+      <c r="AI55" s="228"/>
     </row>
     <row r="56" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D56" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="3:35" ht="12" x14ac:dyDescent="0.15">
@@ -10060,7 +10060,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="3:35" ht="12" x14ac:dyDescent="0.15">
@@ -10076,13 +10076,13 @@
         <v>135</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="61" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="C61" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="31"/>
       <c r="G61" s="31"/>
@@ -10148,14 +10148,14 @@
     </row>
     <row r="63" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D63" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="65" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
     <row r="66" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C66" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="31"/>
     </row>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="68" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="D68" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
@@ -10174,7 +10174,7 @@
         <v>169</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10183,7 +10183,7 @@
         <v>169</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -10197,22 +10197,43 @@
     </row>
     <row r="73" spans="3:5" ht="12" x14ac:dyDescent="0.15">
       <c r="E73" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="D41:I43"/>
-    <mergeCell ref="D44:I46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AF55:AI55"/>
+    <mergeCell ref="X55:AA55"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="AB54:AE54"/>
+    <mergeCell ref="AB55:AE55"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J37:AH37"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -10229,37 +10250,16 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X52:AA52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AF55:AI55"/>
-    <mergeCell ref="X55:AA55"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="AB54:AE54"/>
-    <mergeCell ref="AB55:AE55"/>
-    <mergeCell ref="AF53:AI53"/>
-    <mergeCell ref="AF54:AI54"/>
-    <mergeCell ref="X54:AA54"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AF52:AI52"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J37:AH37"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="D41:I43"/>
+    <mergeCell ref="D44:I46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10284,7 +10284,7 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10294,31 +10294,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="142" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="124" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -10330,48 +10330,48 @@
       <c r="X1" s="177"/>
       <c r="Y1" s="177"/>
       <c r="Z1" s="178"/>
-      <c r="AA1" s="121" t="s">
+      <c r="AA1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="131"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="142" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="129"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="179"/>
       <c r="T2" s="180"/>
       <c r="U2" s="180"/>
@@ -10380,48 +10380,48 @@
       <c r="X2" s="180"/>
       <c r="Y2" s="180"/>
       <c r="Z2" s="181"/>
-      <c r="AA2" s="121" t="s">
+      <c r="AA2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="142" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="182"/>
       <c r="T3" s="183"/>
       <c r="U3" s="183"/>
@@ -10430,26 +10430,26 @@
       <c r="X3" s="183"/>
       <c r="Y3" s="183"/>
       <c r="Z3" s="184"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="159" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
     </row>
     <row r="4" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="31"/>
     </row>
@@ -10458,7 +10458,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -10467,7 +10467,7 @@
     <row r="8" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="36"/>
       <c r="D8" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -10489,7 +10489,7 @@
     <row r="9" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="36"/>
       <c r="D9" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -10510,36 +10510,36 @@
     </row>
     <row r="10" spans="1:35" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="36"/>
-      <c r="D10" s="234" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="234"/>
-      <c r="Q10" s="234"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="234"/>
-      <c r="Y10" s="234"/>
-      <c r="Z10" s="234"/>
-      <c r="AA10" s="234"/>
-      <c r="AB10" s="234"/>
-      <c r="AC10" s="234"/>
-      <c r="AD10" s="234"/>
-      <c r="AE10" s="234"/>
+      <c r="D10" s="236" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="236"/>
+      <c r="O10" s="236"/>
+      <c r="P10" s="236"/>
+      <c r="Q10" s="236"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="236"/>
+      <c r="W10" s="236"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="236"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
+      <c r="AB10" s="236"/>
+      <c r="AC10" s="236"/>
+      <c r="AD10" s="236"/>
+      <c r="AE10" s="236"/>
       <c r="AF10" s="102"/>
       <c r="AG10" s="102"/>
       <c r="AH10" s="57"/>
@@ -10578,42 +10578,42 @@
     <row r="14" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="84"/>
-      <c r="D15" s="235" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="235"/>
-      <c r="K15" s="235"/>
-      <c r="L15" s="235"/>
-      <c r="M15" s="235"/>
-      <c r="N15" s="235"/>
-      <c r="O15" s="235"/>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="235"/>
-      <c r="R15" s="235"/>
-      <c r="S15" s="235"/>
-      <c r="T15" s="235"/>
-      <c r="U15" s="235"/>
-      <c r="V15" s="235"/>
-      <c r="W15" s="235"/>
-      <c r="X15" s="235"/>
-      <c r="Y15" s="235"/>
-      <c r="Z15" s="235"/>
-      <c r="AA15" s="235"/>
-      <c r="AB15" s="235"/>
-      <c r="AC15" s="235"/>
-      <c r="AD15" s="235"/>
-      <c r="AE15" s="235"/>
-      <c r="AF15" s="235"/>
+      <c r="D15" s="234" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+      <c r="P15" s="234"/>
+      <c r="Q15" s="234"/>
+      <c r="R15" s="234"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="234"/>
+      <c r="U15" s="234"/>
+      <c r="V15" s="234"/>
+      <c r="W15" s="234"/>
+      <c r="X15" s="234"/>
+      <c r="Y15" s="234"/>
+      <c r="Z15" s="234"/>
+      <c r="AA15" s="234"/>
+      <c r="AB15" s="234"/>
+      <c r="AC15" s="234"/>
+      <c r="AD15" s="234"/>
+      <c r="AE15" s="234"/>
+      <c r="AF15" s="234"/>
       <c r="AG15" s="81"/>
       <c r="AH15" s="81"/>
     </row>
@@ -11101,38 +11101,38 @@
       <c r="A42" s="49"/>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
-      <c r="D42" s="236" t="s">
+      <c r="D42" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="236"/>
-      <c r="F42" s="236"/>
-      <c r="G42" s="236"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="236"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="236"/>
-      <c r="L42" s="236"/>
-      <c r="M42" s="236"/>
-      <c r="N42" s="236"/>
-      <c r="O42" s="236"/>
-      <c r="P42" s="236"/>
-      <c r="Q42" s="236"/>
-      <c r="R42" s="236"/>
-      <c r="S42" s="236"/>
-      <c r="T42" s="236"/>
-      <c r="U42" s="236"/>
-      <c r="V42" s="236"/>
-      <c r="W42" s="236"/>
-      <c r="X42" s="236"/>
-      <c r="Y42" s="236"/>
-      <c r="Z42" s="236"/>
-      <c r="AA42" s="236"/>
-      <c r="AB42" s="236"/>
-      <c r="AC42" s="236"/>
-      <c r="AD42" s="236"/>
-      <c r="AE42" s="236"/>
-      <c r="AF42" s="236"/>
-      <c r="AG42" s="236"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
+      <c r="K42" s="235"/>
+      <c r="L42" s="235"/>
+      <c r="M42" s="235"/>
+      <c r="N42" s="235"/>
+      <c r="O42" s="235"/>
+      <c r="P42" s="235"/>
+      <c r="Q42" s="235"/>
+      <c r="R42" s="235"/>
+      <c r="S42" s="235"/>
+      <c r="T42" s="235"/>
+      <c r="U42" s="235"/>
+      <c r="V42" s="235"/>
+      <c r="W42" s="235"/>
+      <c r="X42" s="235"/>
+      <c r="Y42" s="235"/>
+      <c r="Z42" s="235"/>
+      <c r="AA42" s="235"/>
+      <c r="AB42" s="235"/>
+      <c r="AC42" s="235"/>
+      <c r="AD42" s="235"/>
+      <c r="AE42" s="235"/>
+      <c r="AF42" s="235"/>
+      <c r="AG42" s="235"/>
       <c r="AH42" s="59"/>
       <c r="AJ42" s="49"/>
       <c r="AK42" s="49"/>
@@ -11181,35 +11181,35 @@
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="236" t="s">
+      <c r="D44" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="236"/>
-      <c r="F44" s="236"/>
-      <c r="G44" s="236"/>
-      <c r="H44" s="236"/>
-      <c r="I44" s="236"/>
-      <c r="J44" s="236"/>
-      <c r="K44" s="236"/>
-      <c r="L44" s="236"/>
-      <c r="M44" s="236"/>
-      <c r="N44" s="236"/>
-      <c r="O44" s="236"/>
-      <c r="P44" s="236"/>
-      <c r="Q44" s="236"/>
-      <c r="R44" s="236"/>
-      <c r="S44" s="236"/>
-      <c r="T44" s="236"/>
-      <c r="U44" s="236"/>
-      <c r="V44" s="236"/>
-      <c r="W44" s="236"/>
-      <c r="X44" s="236"/>
-      <c r="Y44" s="236"/>
-      <c r="Z44" s="236"/>
-      <c r="AA44" s="236"/>
-      <c r="AB44" s="236"/>
-      <c r="AC44" s="236"/>
-      <c r="AD44" s="236"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="235"/>
+      <c r="H44" s="235"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="235"/>
+      <c r="K44" s="235"/>
+      <c r="L44" s="235"/>
+      <c r="M44" s="235"/>
+      <c r="N44" s="235"/>
+      <c r="O44" s="235"/>
+      <c r="P44" s="235"/>
+      <c r="Q44" s="235"/>
+      <c r="R44" s="235"/>
+      <c r="S44" s="235"/>
+      <c r="T44" s="235"/>
+      <c r="U44" s="235"/>
+      <c r="V44" s="235"/>
+      <c r="W44" s="235"/>
+      <c r="X44" s="235"/>
+      <c r="Y44" s="235"/>
+      <c r="Z44" s="235"/>
+      <c r="AA44" s="235"/>
+      <c r="AB44" s="235"/>
+      <c r="AC44" s="235"/>
+      <c r="AD44" s="235"/>
       <c r="AE44" s="61"/>
       <c r="AF44" s="59"/>
       <c r="AG44" s="59"/>
@@ -11308,7 +11308,7 @@
       <c r="E47" s="93"/>
       <c r="F47" s="94"/>
       <c r="G47" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H47" s="96"/>
       <c r="I47" s="96"/>
@@ -11351,7 +11351,7 @@
       <c r="E48" s="99"/>
       <c r="F48" s="100"/>
       <c r="G48" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H48" s="96"/>
       <c r="I48" s="96"/>
@@ -11396,7 +11396,7 @@
       <c r="E49" s="93"/>
       <c r="F49" s="94"/>
       <c r="G49" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H49" s="96"/>
       <c r="I49" s="96"/>
@@ -11439,7 +11439,7 @@
       <c r="E50" s="99"/>
       <c r="F50" s="100"/>
       <c r="G50" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H50" s="96"/>
       <c r="I50" s="96"/>
@@ -11484,7 +11484,7 @@
       <c r="E51" s="93"/>
       <c r="F51" s="94"/>
       <c r="G51" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H51" s="96"/>
       <c r="I51" s="96"/>
@@ -11527,7 +11527,7 @@
       <c r="E52" s="99"/>
       <c r="F52" s="100"/>
       <c r="G52" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H52" s="96"/>
       <c r="I52" s="96"/>
@@ -11604,7 +11604,7 @@
       <c r="B54" s="49"/>
       <c r="C54" s="49"/>
       <c r="D54" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
@@ -11644,7 +11644,7 @@
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
       <c r="D55" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -11752,7 +11752,7 @@
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
       <c r="D58" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -11822,20 +11822,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D28:AH28"/>
     <mergeCell ref="D56:AD56"/>
     <mergeCell ref="E19:AH19"/>
@@ -11847,6 +11833,20 @@
     <mergeCell ref="D42:AG42"/>
     <mergeCell ref="D44:AD44"/>
     <mergeCell ref="D10:AE10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11881,31 +11881,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="142" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="124" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -11917,48 +11917,48 @@
       <c r="X1" s="177"/>
       <c r="Y1" s="177"/>
       <c r="Z1" s="178"/>
-      <c r="AA1" s="121" t="s">
+      <c r="AA1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="131"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="142" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="129"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="179"/>
       <c r="T2" s="180"/>
       <c r="U2" s="180"/>
@@ -11967,48 +11967,48 @@
       <c r="X2" s="180"/>
       <c r="Y2" s="180"/>
       <c r="Z2" s="181"/>
-      <c r="AA2" s="121" t="s">
+      <c r="AA2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="129">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="142" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="182"/>
       <c r="T3" s="183"/>
       <c r="U3" s="183"/>
@@ -12017,27 +12017,27 @@
       <c r="X3" s="183"/>
       <c r="Y3" s="183"/>
       <c r="Z3" s="184"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="159" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="C5" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -12047,7 +12047,7 @@
     <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -12079,7 +12079,7 @@
     <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -12513,372 +12513,372 @@
     <row r="22" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
-      <c r="E22" s="237" t="s">
+      <c r="E22" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="238"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="238"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="239"/>
-      <c r="K22" s="237" t="s">
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
+      <c r="H22" s="258"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="259"/>
+      <c r="K22" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="239"/>
-      <c r="M22" s="237" t="s">
+      <c r="L22" s="259"/>
+      <c r="M22" s="257" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="238"/>
-      <c r="O22" s="238"/>
-      <c r="P22" s="238"/>
-      <c r="Q22" s="238"/>
-      <c r="R22" s="238"/>
-      <c r="S22" s="238"/>
-      <c r="T22" s="238"/>
-      <c r="U22" s="238"/>
-      <c r="V22" s="238"/>
-      <c r="W22" s="238"/>
-      <c r="X22" s="238"/>
-      <c r="Y22" s="238"/>
-      <c r="Z22" s="238"/>
-      <c r="AA22" s="238"/>
-      <c r="AB22" s="238"/>
-      <c r="AC22" s="238"/>
-      <c r="AD22" s="238"/>
-      <c r="AE22" s="238"/>
-      <c r="AF22" s="238"/>
-      <c r="AG22" s="238"/>
-      <c r="AH22" s="239"/>
+      <c r="N22" s="258"/>
+      <c r="O22" s="258"/>
+      <c r="P22" s="258"/>
+      <c r="Q22" s="258"/>
+      <c r="R22" s="258"/>
+      <c r="S22" s="258"/>
+      <c r="T22" s="258"/>
+      <c r="U22" s="258"/>
+      <c r="V22" s="258"/>
+      <c r="W22" s="258"/>
+      <c r="X22" s="258"/>
+      <c r="Y22" s="258"/>
+      <c r="Z22" s="258"/>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="258"/>
+      <c r="AC22" s="258"/>
+      <c r="AD22" s="258"/>
+      <c r="AE22" s="258"/>
+      <c r="AF22" s="258"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="259"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="240" t="s">
+      <c r="E23" s="237" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="173" t="s">
+      <c r="F23" s="238"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="238"/>
+      <c r="I23" s="238"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="175"/>
-      <c r="M23" s="200" t="s">
+      <c r="L23" s="113"/>
+      <c r="M23" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="201"/>
-      <c r="R23" s="201"/>
-      <c r="S23" s="201"/>
-      <c r="T23" s="201"/>
-      <c r="U23" s="201"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="201"/>
-      <c r="X23" s="201"/>
-      <c r="Y23" s="201"/>
-      <c r="Z23" s="201"/>
-      <c r="AA23" s="201"/>
-      <c r="AB23" s="201"/>
-      <c r="AC23" s="201"/>
-      <c r="AD23" s="201"/>
-      <c r="AE23" s="201"/>
-      <c r="AF23" s="201"/>
-      <c r="AG23" s="201"/>
-      <c r="AH23" s="202"/>
+      <c r="N23" s="208"/>
+      <c r="O23" s="208"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="208"/>
+      <c r="R23" s="208"/>
+      <c r="S23" s="208"/>
+      <c r="T23" s="208"/>
+      <c r="U23" s="208"/>
+      <c r="V23" s="208"/>
+      <c r="W23" s="208"/>
+      <c r="X23" s="208"/>
+      <c r="Y23" s="208"/>
+      <c r="Z23" s="208"/>
+      <c r="AA23" s="208"/>
+      <c r="AB23" s="208"/>
+      <c r="AC23" s="208"/>
+      <c r="AD23" s="208"/>
+      <c r="AE23" s="208"/>
+      <c r="AF23" s="208"/>
+      <c r="AG23" s="208"/>
+      <c r="AH23" s="209"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="246"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="207"/>
-      <c r="O24" s="207"/>
-      <c r="P24" s="207"/>
-      <c r="Q24" s="207"/>
-      <c r="R24" s="207"/>
-      <c r="S24" s="207"/>
-      <c r="T24" s="207"/>
-      <c r="U24" s="207"/>
-      <c r="V24" s="207"/>
-      <c r="W24" s="207"/>
-      <c r="X24" s="207"/>
-      <c r="Y24" s="207"/>
-      <c r="Z24" s="207"/>
-      <c r="AA24" s="207"/>
-      <c r="AB24" s="207"/>
-      <c r="AC24" s="207"/>
-      <c r="AD24" s="207"/>
-      <c r="AE24" s="207"/>
-      <c r="AF24" s="207"/>
-      <c r="AG24" s="207"/>
-      <c r="AH24" s="208"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="242"/>
+      <c r="K24" s="243"/>
+      <c r="L24" s="244"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="214"/>
+      <c r="Q24" s="214"/>
+      <c r="R24" s="214"/>
+      <c r="S24" s="214"/>
+      <c r="T24" s="214"/>
+      <c r="U24" s="214"/>
+      <c r="V24" s="214"/>
+      <c r="W24" s="214"/>
+      <c r="X24" s="214"/>
+      <c r="Y24" s="214"/>
+      <c r="Z24" s="214"/>
+      <c r="AA24" s="214"/>
+      <c r="AB24" s="214"/>
+      <c r="AC24" s="214"/>
+      <c r="AD24" s="214"/>
+      <c r="AE24" s="214"/>
+      <c r="AF24" s="214"/>
+      <c r="AG24" s="214"/>
+      <c r="AH24" s="215"/>
     </row>
     <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
-      <c r="E25" s="248" t="s">
+      <c r="E25" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="256" t="s">
+      <c r="F25" s="255"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="272" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="257"/>
-      <c r="M25" s="262" t="s">
+      <c r="L25" s="273"/>
+      <c r="M25" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="263"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="263"/>
-      <c r="R25" s="263"/>
-      <c r="S25" s="263"/>
-      <c r="T25" s="263"/>
-      <c r="U25" s="263"/>
-      <c r="V25" s="263"/>
-      <c r="W25" s="263"/>
-      <c r="X25" s="263"/>
-      <c r="Y25" s="263"/>
-      <c r="Z25" s="263"/>
-      <c r="AA25" s="263"/>
-      <c r="AB25" s="263"/>
-      <c r="AC25" s="263"/>
-      <c r="AD25" s="263"/>
-      <c r="AE25" s="263"/>
-      <c r="AF25" s="263"/>
-      <c r="AG25" s="263"/>
-      <c r="AH25" s="264"/>
+      <c r="N25" s="246"/>
+      <c r="O25" s="246"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="246"/>
+      <c r="U25" s="246"/>
+      <c r="V25" s="246"/>
+      <c r="W25" s="246"/>
+      <c r="X25" s="246"/>
+      <c r="Y25" s="246"/>
+      <c r="Z25" s="246"/>
+      <c r="AA25" s="246"/>
+      <c r="AB25" s="246"/>
+      <c r="AC25" s="246"/>
+      <c r="AD25" s="246"/>
+      <c r="AE25" s="246"/>
+      <c r="AF25" s="246"/>
+      <c r="AG25" s="246"/>
+      <c r="AH25" s="247"/>
     </row>
     <row r="26" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="252"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="265"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="190"/>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="190"/>
-      <c r="S26" s="190"/>
-      <c r="T26" s="190"/>
-      <c r="U26" s="190"/>
-      <c r="V26" s="190"/>
-      <c r="W26" s="190"/>
-      <c r="X26" s="190"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="190"/>
-      <c r="AF26" s="190"/>
-      <c r="AG26" s="190"/>
-      <c r="AH26" s="266"/>
+      <c r="E26" s="260"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="261"/>
+      <c r="K26" s="274"/>
+      <c r="L26" s="275"/>
+      <c r="M26" s="270"/>
+      <c r="N26" s="227"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="227"/>
+      <c r="Q26" s="227"/>
+      <c r="R26" s="227"/>
+      <c r="S26" s="227"/>
+      <c r="T26" s="227"/>
+      <c r="U26" s="227"/>
+      <c r="V26" s="227"/>
+      <c r="W26" s="227"/>
+      <c r="X26" s="227"/>
+      <c r="Y26" s="227"/>
+      <c r="Z26" s="227"/>
+      <c r="AA26" s="227"/>
+      <c r="AB26" s="227"/>
+      <c r="AC26" s="227"/>
+      <c r="AD26" s="227"/>
+      <c r="AE26" s="227"/>
+      <c r="AF26" s="227"/>
+      <c r="AG26" s="227"/>
+      <c r="AH26" s="271"/>
     </row>
     <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="253"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="255"/>
-      <c r="K27" s="260"/>
-      <c r="L27" s="261"/>
-      <c r="M27" s="267"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="268"/>
-      <c r="P27" s="268"/>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="268"/>
-      <c r="S27" s="268"/>
-      <c r="T27" s="268"/>
-      <c r="U27" s="268"/>
-      <c r="V27" s="268"/>
-      <c r="W27" s="268"/>
-      <c r="X27" s="268"/>
-      <c r="Y27" s="268"/>
-      <c r="Z27" s="268"/>
-      <c r="AA27" s="268"/>
-      <c r="AB27" s="268"/>
-      <c r="AC27" s="268"/>
-      <c r="AD27" s="268"/>
-      <c r="AE27" s="268"/>
-      <c r="AF27" s="268"/>
-      <c r="AG27" s="268"/>
-      <c r="AH27" s="269"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="254"/>
+      <c r="K27" s="276"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="249"/>
+      <c r="P27" s="249"/>
+      <c r="Q27" s="249"/>
+      <c r="R27" s="249"/>
+      <c r="S27" s="249"/>
+      <c r="T27" s="249"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="249"/>
+      <c r="W27" s="249"/>
+      <c r="X27" s="249"/>
+      <c r="Y27" s="249"/>
+      <c r="Z27" s="249"/>
+      <c r="AA27" s="249"/>
+      <c r="AB27" s="249"/>
+      <c r="AC27" s="249"/>
+      <c r="AD27" s="249"/>
+      <c r="AE27" s="249"/>
+      <c r="AF27" s="249"/>
+      <c r="AG27" s="249"/>
+      <c r="AH27" s="250"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="240" t="s">
+      <c r="E28" s="237" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="242"/>
-      <c r="K28" s="173" t="s">
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="175"/>
-      <c r="M28" s="200" t="s">
+      <c r="L28" s="113"/>
+      <c r="M28" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="201"/>
-      <c r="O28" s="201"/>
-      <c r="P28" s="201"/>
-      <c r="Q28" s="201"/>
-      <c r="R28" s="201"/>
-      <c r="S28" s="201"/>
-      <c r="T28" s="201"/>
-      <c r="U28" s="201"/>
-      <c r="V28" s="201"/>
-      <c r="W28" s="201"/>
-      <c r="X28" s="201"/>
-      <c r="Y28" s="201"/>
-      <c r="Z28" s="201"/>
-      <c r="AA28" s="201"/>
-      <c r="AB28" s="201"/>
-      <c r="AC28" s="201"/>
-      <c r="AD28" s="201"/>
-      <c r="AE28" s="201"/>
-      <c r="AF28" s="201"/>
-      <c r="AG28" s="201"/>
-      <c r="AH28" s="202"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="208"/>
+      <c r="R28" s="208"/>
+      <c r="S28" s="208"/>
+      <c r="T28" s="208"/>
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
+      <c r="W28" s="208"/>
+      <c r="X28" s="208"/>
+      <c r="Y28" s="208"/>
+      <c r="Z28" s="208"/>
+      <c r="AA28" s="208"/>
+      <c r="AB28" s="208"/>
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="208"/>
+      <c r="AE28" s="208"/>
+      <c r="AF28" s="208"/>
+      <c r="AG28" s="208"/>
+      <c r="AH28" s="209"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="244"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="207"/>
-      <c r="O29" s="207"/>
-      <c r="P29" s="207"/>
-      <c r="Q29" s="207"/>
-      <c r="R29" s="207"/>
-      <c r="S29" s="207"/>
-      <c r="T29" s="207"/>
-      <c r="U29" s="207"/>
-      <c r="V29" s="207"/>
-      <c r="W29" s="207"/>
-      <c r="X29" s="207"/>
-      <c r="Y29" s="207"/>
-      <c r="Z29" s="207"/>
-      <c r="AA29" s="207"/>
-      <c r="AB29" s="207"/>
-      <c r="AC29" s="207"/>
-      <c r="AD29" s="207"/>
-      <c r="AE29" s="207"/>
-      <c r="AF29" s="207"/>
-      <c r="AG29" s="207"/>
-      <c r="AH29" s="208"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="241"/>
+      <c r="J29" s="242"/>
+      <c r="K29" s="243"/>
+      <c r="L29" s="244"/>
+      <c r="M29" s="213"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="214"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="214"/>
+      <c r="AB29" s="214"/>
+      <c r="AC29" s="214"/>
+      <c r="AD29" s="214"/>
+      <c r="AE29" s="214"/>
+      <c r="AF29" s="214"/>
+      <c r="AG29" s="214"/>
+      <c r="AH29" s="215"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
-      <c r="E30" s="240" t="s">
+      <c r="E30" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="173" t="s">
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="238"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="175"/>
-      <c r="M30" s="200" t="s">
+      <c r="L30" s="113"/>
+      <c r="M30" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="201"/>
-      <c r="O30" s="201"/>
-      <c r="P30" s="201"/>
-      <c r="Q30" s="201"/>
-      <c r="R30" s="201"/>
-      <c r="S30" s="201"/>
-      <c r="T30" s="201"/>
-      <c r="U30" s="201"/>
-      <c r="V30" s="201"/>
-      <c r="W30" s="201"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="201"/>
-      <c r="Z30" s="201"/>
-      <c r="AA30" s="201"/>
-      <c r="AB30" s="201"/>
-      <c r="AC30" s="201"/>
-      <c r="AD30" s="201"/>
-      <c r="AE30" s="201"/>
-      <c r="AF30" s="201"/>
-      <c r="AG30" s="201"/>
-      <c r="AH30" s="202"/>
+      <c r="N30" s="208"/>
+      <c r="O30" s="208"/>
+      <c r="P30" s="208"/>
+      <c r="Q30" s="208"/>
+      <c r="R30" s="208"/>
+      <c r="S30" s="208"/>
+      <c r="T30" s="208"/>
+      <c r="U30" s="208"/>
+      <c r="V30" s="208"/>
+      <c r="W30" s="208"/>
+      <c r="X30" s="208"/>
+      <c r="Y30" s="208"/>
+      <c r="Z30" s="208"/>
+      <c r="AA30" s="208"/>
+      <c r="AB30" s="208"/>
+      <c r="AC30" s="208"/>
+      <c r="AD30" s="208"/>
+      <c r="AE30" s="208"/>
+      <c r="AF30" s="208"/>
+      <c r="AG30" s="208"/>
+      <c r="AH30" s="209"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="246"/>
-      <c r="L31" s="247"/>
-      <c r="M31" s="206"/>
-      <c r="N31" s="207"/>
-      <c r="O31" s="207"/>
-      <c r="P31" s="207"/>
-      <c r="Q31" s="207"/>
-      <c r="R31" s="207"/>
-      <c r="S31" s="207"/>
-      <c r="T31" s="207"/>
-      <c r="U31" s="207"/>
-      <c r="V31" s="207"/>
-      <c r="W31" s="207"/>
-      <c r="X31" s="207"/>
-      <c r="Y31" s="207"/>
-      <c r="Z31" s="207"/>
-      <c r="AA31" s="207"/>
-      <c r="AB31" s="207"/>
-      <c r="AC31" s="207"/>
-      <c r="AD31" s="207"/>
-      <c r="AE31" s="207"/>
-      <c r="AF31" s="207"/>
-      <c r="AG31" s="207"/>
-      <c r="AH31" s="208"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="242"/>
+      <c r="K31" s="243"/>
+      <c r="L31" s="244"/>
+      <c r="M31" s="213"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="214"/>
+      <c r="P31" s="214"/>
+      <c r="Q31" s="214"/>
+      <c r="R31" s="214"/>
+      <c r="S31" s="214"/>
+      <c r="T31" s="214"/>
+      <c r="U31" s="214"/>
+      <c r="V31" s="214"/>
+      <c r="W31" s="214"/>
+      <c r="X31" s="214"/>
+      <c r="Y31" s="214"/>
+      <c r="Z31" s="214"/>
+      <c r="AA31" s="214"/>
+      <c r="AB31" s="214"/>
+      <c r="AC31" s="214"/>
+      <c r="AD31" s="214"/>
+      <c r="AE31" s="214"/>
+      <c r="AF31" s="214"/>
+      <c r="AG31" s="214"/>
+      <c r="AH31" s="215"/>
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="48"/>
@@ -12975,496 +12975,496 @@
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="237" t="s">
+      <c r="E35" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="238"/>
-      <c r="G35" s="238"/>
-      <c r="H35" s="238"/>
-      <c r="I35" s="238"/>
-      <c r="J35" s="239"/>
-      <c r="K35" s="237" t="s">
+      <c r="F35" s="258"/>
+      <c r="G35" s="258"/>
+      <c r="H35" s="258"/>
+      <c r="I35" s="258"/>
+      <c r="J35" s="259"/>
+      <c r="K35" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="239"/>
-      <c r="M35" s="237" t="s">
+      <c r="L35" s="259"/>
+      <c r="M35" s="257" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="238"/>
-      <c r="O35" s="238"/>
-      <c r="P35" s="238"/>
-      <c r="Q35" s="238"/>
-      <c r="R35" s="238"/>
-      <c r="S35" s="238"/>
-      <c r="T35" s="238"/>
-      <c r="U35" s="238"/>
-      <c r="V35" s="238"/>
-      <c r="W35" s="238"/>
-      <c r="X35" s="238"/>
-      <c r="Y35" s="238"/>
-      <c r="Z35" s="238"/>
-      <c r="AA35" s="238"/>
-      <c r="AB35" s="238"/>
-      <c r="AC35" s="238"/>
-      <c r="AD35" s="238"/>
-      <c r="AE35" s="238"/>
-      <c r="AF35" s="238"/>
-      <c r="AG35" s="238"/>
-      <c r="AH35" s="239"/>
+      <c r="N35" s="258"/>
+      <c r="O35" s="258"/>
+      <c r="P35" s="258"/>
+      <c r="Q35" s="258"/>
+      <c r="R35" s="258"/>
+      <c r="S35" s="258"/>
+      <c r="T35" s="258"/>
+      <c r="U35" s="258"/>
+      <c r="V35" s="258"/>
+      <c r="W35" s="258"/>
+      <c r="X35" s="258"/>
+      <c r="Y35" s="258"/>
+      <c r="Z35" s="258"/>
+      <c r="AA35" s="258"/>
+      <c r="AB35" s="258"/>
+      <c r="AC35" s="258"/>
+      <c r="AD35" s="258"/>
+      <c r="AE35" s="258"/>
+      <c r="AF35" s="258"/>
+      <c r="AG35" s="258"/>
+      <c r="AH35" s="259"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="240" t="s">
+      <c r="E36" s="237" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="241"/>
-      <c r="G36" s="241"/>
-      <c r="H36" s="241"/>
-      <c r="I36" s="241"/>
-      <c r="J36" s="242"/>
-      <c r="K36" s="173" t="s">
+      <c r="F36" s="238"/>
+      <c r="G36" s="238"/>
+      <c r="H36" s="238"/>
+      <c r="I36" s="238"/>
+      <c r="J36" s="239"/>
+      <c r="K36" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="175"/>
-      <c r="M36" s="200" t="s">
+      <c r="L36" s="113"/>
+      <c r="M36" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="201"/>
-      <c r="O36" s="201"/>
-      <c r="P36" s="201"/>
-      <c r="Q36" s="201"/>
-      <c r="R36" s="201"/>
-      <c r="S36" s="201"/>
-      <c r="T36" s="201"/>
-      <c r="U36" s="201"/>
-      <c r="V36" s="201"/>
-      <c r="W36" s="201"/>
-      <c r="X36" s="201"/>
-      <c r="Y36" s="201"/>
-      <c r="Z36" s="201"/>
-      <c r="AA36" s="201"/>
-      <c r="AB36" s="201"/>
-      <c r="AC36" s="201"/>
-      <c r="AD36" s="201"/>
-      <c r="AE36" s="201"/>
-      <c r="AF36" s="201"/>
-      <c r="AG36" s="201"/>
-      <c r="AH36" s="202"/>
+      <c r="N36" s="208"/>
+      <c r="O36" s="208"/>
+      <c r="P36" s="208"/>
+      <c r="Q36" s="208"/>
+      <c r="R36" s="208"/>
+      <c r="S36" s="208"/>
+      <c r="T36" s="208"/>
+      <c r="U36" s="208"/>
+      <c r="V36" s="208"/>
+      <c r="W36" s="208"/>
+      <c r="X36" s="208"/>
+      <c r="Y36" s="208"/>
+      <c r="Z36" s="208"/>
+      <c r="AA36" s="208"/>
+      <c r="AB36" s="208"/>
+      <c r="AC36" s="208"/>
+      <c r="AD36" s="208"/>
+      <c r="AE36" s="208"/>
+      <c r="AF36" s="208"/>
+      <c r="AG36" s="208"/>
+      <c r="AH36" s="209"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="244"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="246"/>
-      <c r="L37" s="247"/>
-      <c r="M37" s="206"/>
-      <c r="N37" s="207"/>
-      <c r="O37" s="207"/>
-      <c r="P37" s="207"/>
-      <c r="Q37" s="207"/>
-      <c r="R37" s="207"/>
-      <c r="S37" s="207"/>
-      <c r="T37" s="207"/>
-      <c r="U37" s="207"/>
-      <c r="V37" s="207"/>
-      <c r="W37" s="207"/>
-      <c r="X37" s="207"/>
-      <c r="Y37" s="207"/>
-      <c r="Z37" s="207"/>
-      <c r="AA37" s="207"/>
-      <c r="AB37" s="207"/>
-      <c r="AC37" s="207"/>
-      <c r="AD37" s="207"/>
-      <c r="AE37" s="207"/>
-      <c r="AF37" s="207"/>
-      <c r="AG37" s="207"/>
-      <c r="AH37" s="208"/>
+      <c r="E37" s="240"/>
+      <c r="F37" s="241"/>
+      <c r="G37" s="241"/>
+      <c r="H37" s="241"/>
+      <c r="I37" s="241"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="243"/>
+      <c r="L37" s="244"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="214"/>
+      <c r="P37" s="214"/>
+      <c r="Q37" s="214"/>
+      <c r="R37" s="214"/>
+      <c r="S37" s="214"/>
+      <c r="T37" s="214"/>
+      <c r="U37" s="214"/>
+      <c r="V37" s="214"/>
+      <c r="W37" s="214"/>
+      <c r="X37" s="214"/>
+      <c r="Y37" s="214"/>
+      <c r="Z37" s="214"/>
+      <c r="AA37" s="214"/>
+      <c r="AB37" s="214"/>
+      <c r="AC37" s="214"/>
+      <c r="AD37" s="214"/>
+      <c r="AE37" s="214"/>
+      <c r="AF37" s="214"/>
+      <c r="AG37" s="214"/>
+      <c r="AH37" s="215"/>
     </row>
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="248" t="s">
+      <c r="E38" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="249"/>
-      <c r="G38" s="249"/>
-      <c r="H38" s="249"/>
-      <c r="I38" s="249"/>
-      <c r="J38" s="250"/>
-      <c r="K38" s="256" t="s">
+      <c r="F38" s="255"/>
+      <c r="G38" s="255"/>
+      <c r="H38" s="255"/>
+      <c r="I38" s="255"/>
+      <c r="J38" s="252"/>
+      <c r="K38" s="272" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="257"/>
-      <c r="M38" s="262" t="s">
+      <c r="L38" s="273"/>
+      <c r="M38" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="263"/>
-      <c r="O38" s="263"/>
-      <c r="P38" s="263"/>
-      <c r="Q38" s="263"/>
-      <c r="R38" s="263"/>
-      <c r="S38" s="263"/>
-      <c r="T38" s="263"/>
-      <c r="U38" s="263"/>
-      <c r="V38" s="263"/>
-      <c r="W38" s="263"/>
-      <c r="X38" s="263"/>
-      <c r="Y38" s="263"/>
-      <c r="Z38" s="263"/>
-      <c r="AA38" s="263"/>
-      <c r="AB38" s="263"/>
-      <c r="AC38" s="263"/>
-      <c r="AD38" s="263"/>
-      <c r="AE38" s="263"/>
-      <c r="AF38" s="263"/>
-      <c r="AG38" s="263"/>
-      <c r="AH38" s="264"/>
+      <c r="N38" s="246"/>
+      <c r="O38" s="246"/>
+      <c r="P38" s="246"/>
+      <c r="Q38" s="246"/>
+      <c r="R38" s="246"/>
+      <c r="S38" s="246"/>
+      <c r="T38" s="246"/>
+      <c r="U38" s="246"/>
+      <c r="V38" s="246"/>
+      <c r="W38" s="246"/>
+      <c r="X38" s="246"/>
+      <c r="Y38" s="246"/>
+      <c r="Z38" s="246"/>
+      <c r="AA38" s="246"/>
+      <c r="AB38" s="246"/>
+      <c r="AC38" s="246"/>
+      <c r="AD38" s="246"/>
+      <c r="AE38" s="246"/>
+      <c r="AF38" s="246"/>
+      <c r="AG38" s="246"/>
+      <c r="AH38" s="247"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="251"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="252"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="259"/>
-      <c r="M39" s="265"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="190"/>
-      <c r="S39" s="190"/>
-      <c r="T39" s="190"/>
-      <c r="U39" s="190"/>
-      <c r="V39" s="190"/>
-      <c r="W39" s="190"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="190"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="190"/>
-      <c r="AB39" s="190"/>
-      <c r="AC39" s="190"/>
-      <c r="AD39" s="190"/>
-      <c r="AE39" s="190"/>
-      <c r="AF39" s="190"/>
-      <c r="AG39" s="190"/>
-      <c r="AH39" s="266"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="228"/>
+      <c r="J39" s="261"/>
+      <c r="K39" s="274"/>
+      <c r="L39" s="275"/>
+      <c r="M39" s="270"/>
+      <c r="N39" s="227"/>
+      <c r="O39" s="227"/>
+      <c r="P39" s="227"/>
+      <c r="Q39" s="227"/>
+      <c r="R39" s="227"/>
+      <c r="S39" s="227"/>
+      <c r="T39" s="227"/>
+      <c r="U39" s="227"/>
+      <c r="V39" s="227"/>
+      <c r="W39" s="227"/>
+      <c r="X39" s="227"/>
+      <c r="Y39" s="227"/>
+      <c r="Z39" s="227"/>
+      <c r="AA39" s="227"/>
+      <c r="AB39" s="227"/>
+      <c r="AC39" s="227"/>
+      <c r="AD39" s="227"/>
+      <c r="AE39" s="227"/>
+      <c r="AF39" s="227"/>
+      <c r="AG39" s="227"/>
+      <c r="AH39" s="271"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
       <c r="E40" s="253"/>
-      <c r="F40" s="254"/>
-      <c r="G40" s="254"/>
-      <c r="H40" s="254"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="255"/>
-      <c r="K40" s="260"/>
-      <c r="L40" s="261"/>
-      <c r="M40" s="267"/>
-      <c r="N40" s="268"/>
-      <c r="O40" s="268"/>
-      <c r="P40" s="268"/>
-      <c r="Q40" s="268"/>
-      <c r="R40" s="268"/>
-      <c r="S40" s="268"/>
-      <c r="T40" s="268"/>
-      <c r="U40" s="268"/>
-      <c r="V40" s="268"/>
-      <c r="W40" s="268"/>
-      <c r="X40" s="268"/>
-      <c r="Y40" s="268"/>
-      <c r="Z40" s="268"/>
-      <c r="AA40" s="268"/>
-      <c r="AB40" s="268"/>
-      <c r="AC40" s="268"/>
-      <c r="AD40" s="268"/>
-      <c r="AE40" s="268"/>
-      <c r="AF40" s="268"/>
-      <c r="AG40" s="268"/>
-      <c r="AH40" s="269"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="256"/>
+      <c r="H40" s="256"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="277"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="249"/>
+      <c r="O40" s="249"/>
+      <c r="P40" s="249"/>
+      <c r="Q40" s="249"/>
+      <c r="R40" s="249"/>
+      <c r="S40" s="249"/>
+      <c r="T40" s="249"/>
+      <c r="U40" s="249"/>
+      <c r="V40" s="249"/>
+      <c r="W40" s="249"/>
+      <c r="X40" s="249"/>
+      <c r="Y40" s="249"/>
+      <c r="Z40" s="249"/>
+      <c r="AA40" s="249"/>
+      <c r="AB40" s="249"/>
+      <c r="AC40" s="249"/>
+      <c r="AD40" s="249"/>
+      <c r="AE40" s="249"/>
+      <c r="AF40" s="249"/>
+      <c r="AG40" s="249"/>
+      <c r="AH40" s="250"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
-      <c r="E41" s="240" t="s">
+      <c r="E41" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="241"/>
-      <c r="I41" s="241"/>
-      <c r="J41" s="242"/>
-      <c r="K41" s="173" t="s">
+      <c r="F41" s="238"/>
+      <c r="G41" s="238"/>
+      <c r="H41" s="238"/>
+      <c r="I41" s="238"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="175"/>
-      <c r="M41" s="200" t="s">
+      <c r="L41" s="113"/>
+      <c r="M41" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="201"/>
-      <c r="O41" s="201"/>
-      <c r="P41" s="201"/>
-      <c r="Q41" s="201"/>
-      <c r="R41" s="201"/>
-      <c r="S41" s="201"/>
-      <c r="T41" s="201"/>
-      <c r="U41" s="201"/>
-      <c r="V41" s="201"/>
-      <c r="W41" s="201"/>
-      <c r="X41" s="201"/>
-      <c r="Y41" s="201"/>
-      <c r="Z41" s="201"/>
-      <c r="AA41" s="201"/>
-      <c r="AB41" s="201"/>
-      <c r="AC41" s="201"/>
-      <c r="AD41" s="201"/>
-      <c r="AE41" s="201"/>
-      <c r="AF41" s="201"/>
-      <c r="AG41" s="201"/>
-      <c r="AH41" s="202"/>
+      <c r="N41" s="208"/>
+      <c r="O41" s="208"/>
+      <c r="P41" s="208"/>
+      <c r="Q41" s="208"/>
+      <c r="R41" s="208"/>
+      <c r="S41" s="208"/>
+      <c r="T41" s="208"/>
+      <c r="U41" s="208"/>
+      <c r="V41" s="208"/>
+      <c r="W41" s="208"/>
+      <c r="X41" s="208"/>
+      <c r="Y41" s="208"/>
+      <c r="Z41" s="208"/>
+      <c r="AA41" s="208"/>
+      <c r="AB41" s="208"/>
+      <c r="AC41" s="208"/>
+      <c r="AD41" s="208"/>
+      <c r="AE41" s="208"/>
+      <c r="AF41" s="208"/>
+      <c r="AG41" s="208"/>
+      <c r="AH41" s="209"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="243"/>
-      <c r="F42" s="244"/>
-      <c r="G42" s="244"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="245"/>
-      <c r="K42" s="246"/>
-      <c r="L42" s="247"/>
-      <c r="M42" s="206"/>
-      <c r="N42" s="207"/>
-      <c r="O42" s="207"/>
-      <c r="P42" s="207"/>
-      <c r="Q42" s="207"/>
-      <c r="R42" s="207"/>
-      <c r="S42" s="207"/>
-      <c r="T42" s="207"/>
-      <c r="U42" s="207"/>
-      <c r="V42" s="207"/>
-      <c r="W42" s="207"/>
-      <c r="X42" s="207"/>
-      <c r="Y42" s="207"/>
-      <c r="Z42" s="207"/>
-      <c r="AA42" s="207"/>
-      <c r="AB42" s="207"/>
-      <c r="AC42" s="207"/>
-      <c r="AD42" s="207"/>
-      <c r="AE42" s="207"/>
-      <c r="AF42" s="207"/>
-      <c r="AG42" s="207"/>
-      <c r="AH42" s="208"/>
+      <c r="E42" s="240"/>
+      <c r="F42" s="241"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="241"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="242"/>
+      <c r="K42" s="243"/>
+      <c r="L42" s="244"/>
+      <c r="M42" s="213"/>
+      <c r="N42" s="214"/>
+      <c r="O42" s="214"/>
+      <c r="P42" s="214"/>
+      <c r="Q42" s="214"/>
+      <c r="R42" s="214"/>
+      <c r="S42" s="214"/>
+      <c r="T42" s="214"/>
+      <c r="U42" s="214"/>
+      <c r="V42" s="214"/>
+      <c r="W42" s="214"/>
+      <c r="X42" s="214"/>
+      <c r="Y42" s="214"/>
+      <c r="Z42" s="214"/>
+      <c r="AA42" s="214"/>
+      <c r="AB42" s="214"/>
+      <c r="AC42" s="214"/>
+      <c r="AD42" s="214"/>
+      <c r="AE42" s="214"/>
+      <c r="AF42" s="214"/>
+      <c r="AG42" s="214"/>
+      <c r="AH42" s="215"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="240" t="s">
+      <c r="E43" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="241"/>
-      <c r="J43" s="242"/>
-      <c r="K43" s="173" t="s">
+      <c r="F43" s="238"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="238"/>
+      <c r="I43" s="238"/>
+      <c r="J43" s="239"/>
+      <c r="K43" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="175"/>
-      <c r="M43" s="200" t="s">
+      <c r="L43" s="113"/>
+      <c r="M43" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="201"/>
-      <c r="O43" s="201"/>
-      <c r="P43" s="201"/>
-      <c r="Q43" s="201"/>
-      <c r="R43" s="201"/>
-      <c r="S43" s="201"/>
-      <c r="T43" s="201"/>
-      <c r="U43" s="201"/>
-      <c r="V43" s="201"/>
-      <c r="W43" s="201"/>
-      <c r="X43" s="201"/>
-      <c r="Y43" s="201"/>
-      <c r="Z43" s="201"/>
-      <c r="AA43" s="201"/>
-      <c r="AB43" s="201"/>
-      <c r="AC43" s="201"/>
-      <c r="AD43" s="201"/>
-      <c r="AE43" s="201"/>
-      <c r="AF43" s="201"/>
-      <c r="AG43" s="201"/>
-      <c r="AH43" s="202"/>
+      <c r="N43" s="208"/>
+      <c r="O43" s="208"/>
+      <c r="P43" s="208"/>
+      <c r="Q43" s="208"/>
+      <c r="R43" s="208"/>
+      <c r="S43" s="208"/>
+      <c r="T43" s="208"/>
+      <c r="U43" s="208"/>
+      <c r="V43" s="208"/>
+      <c r="W43" s="208"/>
+      <c r="X43" s="208"/>
+      <c r="Y43" s="208"/>
+      <c r="Z43" s="208"/>
+      <c r="AA43" s="208"/>
+      <c r="AB43" s="208"/>
+      <c r="AC43" s="208"/>
+      <c r="AD43" s="208"/>
+      <c r="AE43" s="208"/>
+      <c r="AF43" s="208"/>
+      <c r="AG43" s="208"/>
+      <c r="AH43" s="209"/>
     </row>
     <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="243"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="244"/>
-      <c r="I44" s="244"/>
-      <c r="J44" s="245"/>
-      <c r="K44" s="246"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="206"/>
-      <c r="N44" s="207"/>
-      <c r="O44" s="207"/>
-      <c r="P44" s="207"/>
-      <c r="Q44" s="207"/>
-      <c r="R44" s="207"/>
-      <c r="S44" s="207"/>
-      <c r="T44" s="207"/>
-      <c r="U44" s="207"/>
-      <c r="V44" s="207"/>
-      <c r="W44" s="207"/>
-      <c r="X44" s="207"/>
-      <c r="Y44" s="207"/>
-      <c r="Z44" s="207"/>
-      <c r="AA44" s="207"/>
-      <c r="AB44" s="207"/>
-      <c r="AC44" s="207"/>
-      <c r="AD44" s="207"/>
-      <c r="AE44" s="207"/>
-      <c r="AF44" s="207"/>
-      <c r="AG44" s="207"/>
-      <c r="AH44" s="208"/>
+      <c r="E44" s="240"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="241"/>
+      <c r="I44" s="241"/>
+      <c r="J44" s="242"/>
+      <c r="K44" s="243"/>
+      <c r="L44" s="244"/>
+      <c r="M44" s="213"/>
+      <c r="N44" s="214"/>
+      <c r="O44" s="214"/>
+      <c r="P44" s="214"/>
+      <c r="Q44" s="214"/>
+      <c r="R44" s="214"/>
+      <c r="S44" s="214"/>
+      <c r="T44" s="214"/>
+      <c r="U44" s="214"/>
+      <c r="V44" s="214"/>
+      <c r="W44" s="214"/>
+      <c r="X44" s="214"/>
+      <c r="Y44" s="214"/>
+      <c r="Z44" s="214"/>
+      <c r="AA44" s="214"/>
+      <c r="AB44" s="214"/>
+      <c r="AC44" s="214"/>
+      <c r="AD44" s="214"/>
+      <c r="AE44" s="214"/>
+      <c r="AF44" s="214"/>
+      <c r="AG44" s="214"/>
+      <c r="AH44" s="215"/>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="248" t="s">
+      <c r="E45" s="251" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="249"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="250"/>
-      <c r="K45" s="270" t="s">
+      <c r="F45" s="255"/>
+      <c r="G45" s="255"/>
+      <c r="H45" s="255"/>
+      <c r="I45" s="255"/>
+      <c r="J45" s="252"/>
+      <c r="K45" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="271"/>
-      <c r="M45" s="262" t="s">
+      <c r="L45" s="263"/>
+      <c r="M45" s="245" t="s">
         <v>94</v>
       </c>
-      <c r="N45" s="263"/>
-      <c r="O45" s="263"/>
-      <c r="P45" s="263"/>
-      <c r="Q45" s="263"/>
-      <c r="R45" s="263"/>
-      <c r="S45" s="263"/>
-      <c r="T45" s="263"/>
-      <c r="U45" s="263"/>
-      <c r="V45" s="263"/>
-      <c r="W45" s="263"/>
-      <c r="X45" s="263"/>
-      <c r="Y45" s="263"/>
-      <c r="Z45" s="263"/>
-      <c r="AA45" s="263"/>
-      <c r="AB45" s="263"/>
-      <c r="AC45" s="263"/>
-      <c r="AD45" s="263"/>
-      <c r="AE45" s="263"/>
-      <c r="AF45" s="263"/>
-      <c r="AG45" s="263"/>
-      <c r="AH45" s="264"/>
+      <c r="N45" s="246"/>
+      <c r="O45" s="246"/>
+      <c r="P45" s="246"/>
+      <c r="Q45" s="246"/>
+      <c r="R45" s="246"/>
+      <c r="S45" s="246"/>
+      <c r="T45" s="246"/>
+      <c r="U45" s="246"/>
+      <c r="V45" s="246"/>
+      <c r="W45" s="246"/>
+      <c r="X45" s="246"/>
+      <c r="Y45" s="246"/>
+      <c r="Z45" s="246"/>
+      <c r="AA45" s="246"/>
+      <c r="AB45" s="246"/>
+      <c r="AC45" s="246"/>
+      <c r="AD45" s="246"/>
+      <c r="AE45" s="246"/>
+      <c r="AF45" s="246"/>
+      <c r="AG45" s="246"/>
+      <c r="AH45" s="247"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="251"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
-      <c r="I46" s="188"/>
-      <c r="J46" s="252"/>
-      <c r="K46" s="272"/>
-      <c r="L46" s="273"/>
-      <c r="M46" s="265"/>
-      <c r="N46" s="190"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="190"/>
-      <c r="S46" s="190"/>
-      <c r="T46" s="190"/>
-      <c r="U46" s="190"/>
-      <c r="V46" s="190"/>
-      <c r="W46" s="190"/>
-      <c r="X46" s="190"/>
-      <c r="Y46" s="190"/>
-      <c r="Z46" s="190"/>
-      <c r="AA46" s="190"/>
-      <c r="AB46" s="190"/>
-      <c r="AC46" s="190"/>
-      <c r="AD46" s="190"/>
-      <c r="AE46" s="190"/>
-      <c r="AF46" s="190"/>
-      <c r="AG46" s="190"/>
-      <c r="AH46" s="266"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="228"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="228"/>
+      <c r="I46" s="228"/>
+      <c r="J46" s="261"/>
+      <c r="K46" s="264"/>
+      <c r="L46" s="265"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="227"/>
+      <c r="O46" s="227"/>
+      <c r="P46" s="227"/>
+      <c r="Q46" s="227"/>
+      <c r="R46" s="227"/>
+      <c r="S46" s="227"/>
+      <c r="T46" s="227"/>
+      <c r="U46" s="227"/>
+      <c r="V46" s="227"/>
+      <c r="W46" s="227"/>
+      <c r="X46" s="227"/>
+      <c r="Y46" s="227"/>
+      <c r="Z46" s="227"/>
+      <c r="AA46" s="227"/>
+      <c r="AB46" s="227"/>
+      <c r="AC46" s="227"/>
+      <c r="AD46" s="227"/>
+      <c r="AE46" s="227"/>
+      <c r="AF46" s="227"/>
+      <c r="AG46" s="227"/>
+      <c r="AH46" s="271"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
       <c r="E47" s="253"/>
-      <c r="F47" s="254"/>
-      <c r="G47" s="254"/>
-      <c r="H47" s="254"/>
-      <c r="I47" s="254"/>
-      <c r="J47" s="255"/>
-      <c r="K47" s="274"/>
-      <c r="L47" s="275"/>
-      <c r="M47" s="267"/>
-      <c r="N47" s="268"/>
-      <c r="O47" s="268"/>
-      <c r="P47" s="268"/>
-      <c r="Q47" s="268"/>
-      <c r="R47" s="268"/>
-      <c r="S47" s="268"/>
-      <c r="T47" s="268"/>
-      <c r="U47" s="268"/>
-      <c r="V47" s="268"/>
-      <c r="W47" s="268"/>
-      <c r="X47" s="268"/>
-      <c r="Y47" s="268"/>
-      <c r="Z47" s="268"/>
-      <c r="AA47" s="268"/>
-      <c r="AB47" s="268"/>
-      <c r="AC47" s="268"/>
-      <c r="AD47" s="268"/>
-      <c r="AE47" s="268"/>
-      <c r="AF47" s="268"/>
-      <c r="AG47" s="268"/>
-      <c r="AH47" s="269"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="256"/>
+      <c r="H47" s="256"/>
+      <c r="I47" s="256"/>
+      <c r="J47" s="254"/>
+      <c r="K47" s="266"/>
+      <c r="L47" s="267"/>
+      <c r="M47" s="248"/>
+      <c r="N47" s="249"/>
+      <c r="O47" s="249"/>
+      <c r="P47" s="249"/>
+      <c r="Q47" s="249"/>
+      <c r="R47" s="249"/>
+      <c r="S47" s="249"/>
+      <c r="T47" s="249"/>
+      <c r="U47" s="249"/>
+      <c r="V47" s="249"/>
+      <c r="W47" s="249"/>
+      <c r="X47" s="249"/>
+      <c r="Y47" s="249"/>
+      <c r="Z47" s="249"/>
+      <c r="AA47" s="249"/>
+      <c r="AB47" s="249"/>
+      <c r="AC47" s="249"/>
+      <c r="AD47" s="249"/>
+      <c r="AE47" s="249"/>
+      <c r="AF47" s="249"/>
+      <c r="AG47" s="249"/>
+      <c r="AH47" s="250"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="248" t="s">
+      <c r="E48" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="249"/>
-      <c r="G48" s="249"/>
-      <c r="H48" s="249"/>
-      <c r="I48" s="249"/>
-      <c r="J48" s="250"/>
-      <c r="K48" s="270" t="s">
+      <c r="F48" s="255"/>
+      <c r="G48" s="255"/>
+      <c r="H48" s="255"/>
+      <c r="I48" s="255"/>
+      <c r="J48" s="252"/>
+      <c r="K48" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="271"/>
+      <c r="L48" s="263"/>
       <c r="M48" s="65" t="s">
         <v>95</v>
       </c>
@@ -13493,50 +13493,50 @@
     <row r="49" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="251"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
-      <c r="J49" s="252"/>
-      <c r="K49" s="272"/>
-      <c r="L49" s="273"/>
-      <c r="M49" s="276" t="s">
+      <c r="E49" s="260"/>
+      <c r="F49" s="228"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="228"/>
+      <c r="I49" s="228"/>
+      <c r="J49" s="261"/>
+      <c r="K49" s="264"/>
+      <c r="L49" s="265"/>
+      <c r="M49" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="234"/>
-      <c r="O49" s="234"/>
-      <c r="P49" s="234"/>
-      <c r="Q49" s="234"/>
-      <c r="R49" s="234"/>
-      <c r="S49" s="234"/>
-      <c r="T49" s="234"/>
-      <c r="U49" s="234"/>
-      <c r="V49" s="234"/>
-      <c r="W49" s="234"/>
-      <c r="X49" s="234"/>
-      <c r="Y49" s="234"/>
-      <c r="Z49" s="234"/>
-      <c r="AA49" s="234"/>
-      <c r="AB49" s="234"/>
-      <c r="AC49" s="234"/>
-      <c r="AD49" s="234"/>
-      <c r="AE49" s="234"/>
-      <c r="AF49" s="234"/>
-      <c r="AG49" s="234"/>
-      <c r="AH49" s="277"/>
+      <c r="N49" s="236"/>
+      <c r="O49" s="236"/>
+      <c r="P49" s="236"/>
+      <c r="Q49" s="236"/>
+      <c r="R49" s="236"/>
+      <c r="S49" s="236"/>
+      <c r="T49" s="236"/>
+      <c r="U49" s="236"/>
+      <c r="V49" s="236"/>
+      <c r="W49" s="236"/>
+      <c r="X49" s="236"/>
+      <c r="Y49" s="236"/>
+      <c r="Z49" s="236"/>
+      <c r="AA49" s="236"/>
+      <c r="AB49" s="236"/>
+      <c r="AC49" s="236"/>
+      <c r="AD49" s="236"/>
+      <c r="AE49" s="236"/>
+      <c r="AF49" s="236"/>
+      <c r="AG49" s="236"/>
+      <c r="AH49" s="269"/>
     </row>
     <row r="50" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="251"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="252"/>
-      <c r="K50" s="272"/>
-      <c r="L50" s="273"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="228"/>
+      <c r="G50" s="228"/>
+      <c r="H50" s="228"/>
+      <c r="I50" s="228"/>
+      <c r="J50" s="261"/>
+      <c r="K50" s="264"/>
+      <c r="L50" s="265"/>
       <c r="M50" s="65" t="s">
         <v>96</v>
       </c>
@@ -13565,14 +13565,14 @@
     <row r="51" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
-      <c r="J51" s="252"/>
-      <c r="K51" s="272"/>
-      <c r="L51" s="273"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="228"/>
+      <c r="G51" s="228"/>
+      <c r="H51" s="228"/>
+      <c r="I51" s="228"/>
+      <c r="J51" s="261"/>
+      <c r="K51" s="264"/>
+      <c r="L51" s="265"/>
       <c r="M51" s="65" t="s">
         <v>97</v>
       </c>
@@ -13589,14 +13589,14 @@
     <row r="52" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
-      <c r="J52" s="252"/>
-      <c r="K52" s="272"/>
-      <c r="L52" s="273"/>
+      <c r="E52" s="260"/>
+      <c r="F52" s="228"/>
+      <c r="G52" s="228"/>
+      <c r="H52" s="228"/>
+      <c r="I52" s="228"/>
+      <c r="J52" s="261"/>
+      <c r="K52" s="264"/>
+      <c r="L52" s="265"/>
       <c r="M52" s="65"/>
       <c r="N52" s="37" t="s">
         <v>98</v>
@@ -13614,50 +13614,50 @@
     <row r="53" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="48"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="188"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
-      <c r="J53" s="252"/>
-      <c r="K53" s="272"/>
-      <c r="L53" s="273"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="228"/>
+      <c r="G53" s="228"/>
+      <c r="H53" s="228"/>
+      <c r="I53" s="228"/>
+      <c r="J53" s="261"/>
+      <c r="K53" s="264"/>
+      <c r="L53" s="265"/>
       <c r="M53" s="65"/>
-      <c r="N53" s="234" t="s">
+      <c r="N53" s="236" t="s">
         <v>99</v>
       </c>
-      <c r="O53" s="234"/>
-      <c r="P53" s="234"/>
-      <c r="Q53" s="234"/>
-      <c r="R53" s="234"/>
-      <c r="S53" s="234"/>
-      <c r="T53" s="234"/>
-      <c r="U53" s="234"/>
-      <c r="V53" s="234"/>
-      <c r="W53" s="234"/>
-      <c r="X53" s="234"/>
-      <c r="Y53" s="234"/>
-      <c r="Z53" s="234"/>
-      <c r="AA53" s="234"/>
-      <c r="AB53" s="234"/>
-      <c r="AC53" s="234"/>
-      <c r="AD53" s="234"/>
-      <c r="AE53" s="234"/>
-      <c r="AF53" s="234"/>
-      <c r="AG53" s="234"/>
-      <c r="AH53" s="277"/>
+      <c r="O53" s="236"/>
+      <c r="P53" s="236"/>
+      <c r="Q53" s="236"/>
+      <c r="R53" s="236"/>
+      <c r="S53" s="236"/>
+      <c r="T53" s="236"/>
+      <c r="U53" s="236"/>
+      <c r="V53" s="236"/>
+      <c r="W53" s="236"/>
+      <c r="X53" s="236"/>
+      <c r="Y53" s="236"/>
+      <c r="Z53" s="236"/>
+      <c r="AA53" s="236"/>
+      <c r="AB53" s="236"/>
+      <c r="AC53" s="236"/>
+      <c r="AD53" s="236"/>
+      <c r="AE53" s="236"/>
+      <c r="AF53" s="236"/>
+      <c r="AG53" s="236"/>
+      <c r="AH53" s="269"/>
     </row>
     <row r="54" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="251"/>
-      <c r="F54" s="188"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="188"/>
-      <c r="I54" s="188"/>
-      <c r="J54" s="252"/>
-      <c r="K54" s="272"/>
-      <c r="L54" s="273"/>
+      <c r="E54" s="260"/>
+      <c r="F54" s="228"/>
+      <c r="G54" s="228"/>
+      <c r="H54" s="228"/>
+      <c r="I54" s="228"/>
+      <c r="J54" s="261"/>
+      <c r="K54" s="264"/>
+      <c r="L54" s="265"/>
       <c r="M54" s="65"/>
       <c r="N54" s="67" t="s">
         <v>32</v>
@@ -13686,14 +13686,14 @@
     <row r="55" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="251"/>
-      <c r="F55" s="188"/>
-      <c r="G55" s="188"/>
-      <c r="H55" s="188"/>
-      <c r="I55" s="188"/>
-      <c r="J55" s="252"/>
-      <c r="K55" s="272"/>
-      <c r="L55" s="273"/>
+      <c r="E55" s="260"/>
+      <c r="F55" s="228"/>
+      <c r="G55" s="228"/>
+      <c r="H55" s="228"/>
+      <c r="I55" s="228"/>
+      <c r="J55" s="261"/>
+      <c r="K55" s="264"/>
+      <c r="L55" s="265"/>
       <c r="M55" s="65"/>
       <c r="N55" s="31"/>
       <c r="O55" s="31" t="s">
@@ -13722,14 +13722,14 @@
     <row r="56" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="251"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="188"/>
-      <c r="H56" s="188"/>
-      <c r="I56" s="188"/>
-      <c r="J56" s="252"/>
-      <c r="K56" s="272"/>
-      <c r="L56" s="273"/>
+      <c r="E56" s="260"/>
+      <c r="F56" s="228"/>
+      <c r="G56" s="228"/>
+      <c r="H56" s="228"/>
+      <c r="I56" s="228"/>
+      <c r="J56" s="261"/>
+      <c r="K56" s="264"/>
+      <c r="L56" s="265"/>
       <c r="M56" s="65"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31" t="s">
@@ -13758,14 +13758,14 @@
     <row r="57" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="251"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="188"/>
-      <c r="H57" s="188"/>
-      <c r="I57" s="188"/>
-      <c r="J57" s="252"/>
-      <c r="K57" s="272"/>
-      <c r="L57" s="273"/>
+      <c r="E57" s="260"/>
+      <c r="F57" s="228"/>
+      <c r="G57" s="228"/>
+      <c r="H57" s="228"/>
+      <c r="I57" s="228"/>
+      <c r="J57" s="261"/>
+      <c r="K57" s="264"/>
+      <c r="L57" s="265"/>
       <c r="M57" s="65"/>
       <c r="N57" s="31" t="s">
         <v>101</v>
@@ -13793,14 +13793,14 @@
     <row r="58" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="251"/>
-      <c r="F58" s="188"/>
-      <c r="G58" s="188"/>
-      <c r="H58" s="188"/>
-      <c r="I58" s="188"/>
-      <c r="J58" s="252"/>
-      <c r="K58" s="272"/>
-      <c r="L58" s="273"/>
+      <c r="E58" s="260"/>
+      <c r="F58" s="228"/>
+      <c r="G58" s="228"/>
+      <c r="H58" s="228"/>
+      <c r="I58" s="228"/>
+      <c r="J58" s="261"/>
+      <c r="K58" s="264"/>
+      <c r="L58" s="265"/>
       <c r="M58" s="65"/>
       <c r="N58" s="31" t="s">
         <v>102</v>
@@ -13827,14 +13827,14 @@
     <row r="59" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="251"/>
-      <c r="F59" s="188"/>
-      <c r="G59" s="188"/>
-      <c r="H59" s="188"/>
-      <c r="I59" s="188"/>
-      <c r="J59" s="252"/>
-      <c r="K59" s="272"/>
-      <c r="L59" s="273"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="228"/>
+      <c r="G59" s="228"/>
+      <c r="H59" s="228"/>
+      <c r="I59" s="228"/>
+      <c r="J59" s="261"/>
+      <c r="K59" s="264"/>
+      <c r="L59" s="265"/>
       <c r="M59" s="65"/>
       <c r="N59" s="31" t="s">
         <v>103</v>
@@ -13863,14 +13863,14 @@
     <row r="60" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="251"/>
-      <c r="F60" s="188"/>
-      <c r="G60" s="188"/>
-      <c r="H60" s="188"/>
-      <c r="I60" s="188"/>
-      <c r="J60" s="252"/>
-      <c r="K60" s="272"/>
-      <c r="L60" s="273"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="228"/>
+      <c r="G60" s="228"/>
+      <c r="H60" s="228"/>
+      <c r="I60" s="228"/>
+      <c r="J60" s="261"/>
+      <c r="K60" s="264"/>
+      <c r="L60" s="265"/>
       <c r="M60" s="65"/>
       <c r="N60" s="31"/>
       <c r="O60" s="31" t="s">
@@ -13899,14 +13899,14 @@
     <row r="61" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
-      <c r="E61" s="251"/>
-      <c r="F61" s="188"/>
-      <c r="G61" s="188"/>
-      <c r="H61" s="188"/>
-      <c r="I61" s="188"/>
-      <c r="J61" s="252"/>
-      <c r="K61" s="272"/>
-      <c r="L61" s="273"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="228"/>
+      <c r="G61" s="228"/>
+      <c r="H61" s="228"/>
+      <c r="I61" s="228"/>
+      <c r="J61" s="261"/>
+      <c r="K61" s="264"/>
+      <c r="L61" s="265"/>
       <c r="M61" s="65"/>
       <c r="N61" s="31"/>
       <c r="O61" s="31" t="s">
@@ -13936,13 +13936,13 @@
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
       <c r="E62" s="253"/>
-      <c r="F62" s="254"/>
-      <c r="G62" s="254"/>
-      <c r="H62" s="254"/>
-      <c r="I62" s="254"/>
-      <c r="J62" s="255"/>
-      <c r="K62" s="274"/>
-      <c r="L62" s="275"/>
+      <c r="F62" s="256"/>
+      <c r="G62" s="256"/>
+      <c r="H62" s="256"/>
+      <c r="I62" s="256"/>
+      <c r="J62" s="254"/>
+      <c r="K62" s="266"/>
+      <c r="L62" s="267"/>
       <c r="M62" s="65"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
@@ -13971,146 +13971,146 @@
     <row r="63" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="240" t="s">
+      <c r="E63" s="237" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="241"/>
-      <c r="G63" s="241"/>
-      <c r="H63" s="241"/>
-      <c r="I63" s="241"/>
-      <c r="J63" s="242"/>
-      <c r="K63" s="240"/>
-      <c r="L63" s="242"/>
-      <c r="M63" s="200" t="s">
+      <c r="F63" s="238"/>
+      <c r="G63" s="238"/>
+      <c r="H63" s="238"/>
+      <c r="I63" s="238"/>
+      <c r="J63" s="239"/>
+      <c r="K63" s="237"/>
+      <c r="L63" s="239"/>
+      <c r="M63" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="N63" s="201"/>
-      <c r="O63" s="201"/>
-      <c r="P63" s="201"/>
-      <c r="Q63" s="201"/>
-      <c r="R63" s="201"/>
-      <c r="S63" s="201"/>
-      <c r="T63" s="201"/>
-      <c r="U63" s="201"/>
-      <c r="V63" s="201"/>
-      <c r="W63" s="201"/>
-      <c r="X63" s="201"/>
-      <c r="Y63" s="201"/>
-      <c r="Z63" s="201"/>
-      <c r="AA63" s="201"/>
-      <c r="AB63" s="201"/>
-      <c r="AC63" s="201"/>
-      <c r="AD63" s="201"/>
-      <c r="AE63" s="201"/>
-      <c r="AF63" s="201"/>
-      <c r="AG63" s="201"/>
-      <c r="AH63" s="202"/>
+      <c r="N63" s="208"/>
+      <c r="O63" s="208"/>
+      <c r="P63" s="208"/>
+      <c r="Q63" s="208"/>
+      <c r="R63" s="208"/>
+      <c r="S63" s="208"/>
+      <c r="T63" s="208"/>
+      <c r="U63" s="208"/>
+      <c r="V63" s="208"/>
+      <c r="W63" s="208"/>
+      <c r="X63" s="208"/>
+      <c r="Y63" s="208"/>
+      <c r="Z63" s="208"/>
+      <c r="AA63" s="208"/>
+      <c r="AB63" s="208"/>
+      <c r="AC63" s="208"/>
+      <c r="AD63" s="208"/>
+      <c r="AE63" s="208"/>
+      <c r="AF63" s="208"/>
+      <c r="AG63" s="208"/>
+      <c r="AH63" s="209"/>
     </row>
     <row r="64" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="243"/>
-      <c r="F64" s="244"/>
-      <c r="G64" s="244"/>
-      <c r="H64" s="244"/>
-      <c r="I64" s="244"/>
-      <c r="J64" s="245"/>
-      <c r="K64" s="243"/>
-      <c r="L64" s="245"/>
-      <c r="M64" s="206"/>
-      <c r="N64" s="207"/>
-      <c r="O64" s="207"/>
-      <c r="P64" s="207"/>
-      <c r="Q64" s="207"/>
-      <c r="R64" s="207"/>
-      <c r="S64" s="207"/>
-      <c r="T64" s="207"/>
-      <c r="U64" s="207"/>
-      <c r="V64" s="207"/>
-      <c r="W64" s="207"/>
-      <c r="X64" s="207"/>
-      <c r="Y64" s="207"/>
-      <c r="Z64" s="207"/>
-      <c r="AA64" s="207"/>
-      <c r="AB64" s="207"/>
-      <c r="AC64" s="207"/>
-      <c r="AD64" s="207"/>
-      <c r="AE64" s="207"/>
-      <c r="AF64" s="207"/>
-      <c r="AG64" s="207"/>
-      <c r="AH64" s="208"/>
+      <c r="E64" s="240"/>
+      <c r="F64" s="241"/>
+      <c r="G64" s="241"/>
+      <c r="H64" s="241"/>
+      <c r="I64" s="241"/>
+      <c r="J64" s="242"/>
+      <c r="K64" s="240"/>
+      <c r="L64" s="242"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="214"/>
+      <c r="O64" s="214"/>
+      <c r="P64" s="214"/>
+      <c r="Q64" s="214"/>
+      <c r="R64" s="214"/>
+      <c r="S64" s="214"/>
+      <c r="T64" s="214"/>
+      <c r="U64" s="214"/>
+      <c r="V64" s="214"/>
+      <c r="W64" s="214"/>
+      <c r="X64" s="214"/>
+      <c r="Y64" s="214"/>
+      <c r="Z64" s="214"/>
+      <c r="AA64" s="214"/>
+      <c r="AB64" s="214"/>
+      <c r="AC64" s="214"/>
+      <c r="AD64" s="214"/>
+      <c r="AE64" s="214"/>
+      <c r="AF64" s="214"/>
+      <c r="AG64" s="214"/>
+      <c r="AH64" s="215"/>
     </row>
     <row r="65" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="262" t="s">
+      <c r="E65" s="245" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="263"/>
-      <c r="G65" s="263"/>
-      <c r="H65" s="263"/>
-      <c r="I65" s="263"/>
-      <c r="J65" s="264"/>
-      <c r="K65" s="248"/>
-      <c r="L65" s="250"/>
-      <c r="M65" s="248" t="s">
+      <c r="F65" s="246"/>
+      <c r="G65" s="246"/>
+      <c r="H65" s="246"/>
+      <c r="I65" s="246"/>
+      <c r="J65" s="247"/>
+      <c r="K65" s="251"/>
+      <c r="L65" s="252"/>
+      <c r="M65" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="249"/>
-      <c r="O65" s="249"/>
-      <c r="P65" s="249"/>
-      <c r="Q65" s="249"/>
-      <c r="R65" s="249"/>
-      <c r="S65" s="249"/>
-      <c r="T65" s="249"/>
-      <c r="U65" s="249"/>
-      <c r="V65" s="249"/>
-      <c r="W65" s="249"/>
-      <c r="X65" s="249"/>
-      <c r="Y65" s="249"/>
-      <c r="Z65" s="249"/>
-      <c r="AA65" s="249"/>
-      <c r="AB65" s="249"/>
-      <c r="AC65" s="249"/>
-      <c r="AD65" s="249"/>
-      <c r="AE65" s="249"/>
-      <c r="AF65" s="249"/>
-      <c r="AG65" s="249"/>
-      <c r="AH65" s="250"/>
+      <c r="N65" s="255"/>
+      <c r="O65" s="255"/>
+      <c r="P65" s="255"/>
+      <c r="Q65" s="255"/>
+      <c r="R65" s="255"/>
+      <c r="S65" s="255"/>
+      <c r="T65" s="255"/>
+      <c r="U65" s="255"/>
+      <c r="V65" s="255"/>
+      <c r="W65" s="255"/>
+      <c r="X65" s="255"/>
+      <c r="Y65" s="255"/>
+      <c r="Z65" s="255"/>
+      <c r="AA65" s="255"/>
+      <c r="AB65" s="255"/>
+      <c r="AC65" s="255"/>
+      <c r="AD65" s="255"/>
+      <c r="AE65" s="255"/>
+      <c r="AF65" s="255"/>
+      <c r="AG65" s="255"/>
+      <c r="AH65" s="252"/>
     </row>
     <row r="66" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
-      <c r="E66" s="267"/>
-      <c r="F66" s="268"/>
-      <c r="G66" s="268"/>
-      <c r="H66" s="268"/>
-      <c r="I66" s="268"/>
-      <c r="J66" s="269"/>
+      <c r="E66" s="248"/>
+      <c r="F66" s="249"/>
+      <c r="G66" s="249"/>
+      <c r="H66" s="249"/>
+      <c r="I66" s="249"/>
+      <c r="J66" s="250"/>
       <c r="K66" s="253"/>
-      <c r="L66" s="255"/>
+      <c r="L66" s="254"/>
       <c r="M66" s="253"/>
-      <c r="N66" s="254"/>
-      <c r="O66" s="254"/>
-      <c r="P66" s="254"/>
-      <c r="Q66" s="254"/>
-      <c r="R66" s="254"/>
-      <c r="S66" s="254"/>
-      <c r="T66" s="254"/>
-      <c r="U66" s="254"/>
-      <c r="V66" s="254"/>
-      <c r="W66" s="254"/>
-      <c r="X66" s="254"/>
-      <c r="Y66" s="254"/>
-      <c r="Z66" s="254"/>
-      <c r="AA66" s="254"/>
-      <c r="AB66" s="254"/>
-      <c r="AC66" s="254"/>
-      <c r="AD66" s="254"/>
-      <c r="AE66" s="254"/>
-      <c r="AF66" s="254"/>
-      <c r="AG66" s="254"/>
-      <c r="AH66" s="255"/>
+      <c r="N66" s="256"/>
+      <c r="O66" s="256"/>
+      <c r="P66" s="256"/>
+      <c r="Q66" s="256"/>
+      <c r="R66" s="256"/>
+      <c r="S66" s="256"/>
+      <c r="T66" s="256"/>
+      <c r="U66" s="256"/>
+      <c r="V66" s="256"/>
+      <c r="W66" s="256"/>
+      <c r="X66" s="256"/>
+      <c r="Y66" s="256"/>
+      <c r="Z66" s="256"/>
+      <c r="AA66" s="256"/>
+      <c r="AB66" s="256"/>
+      <c r="AC66" s="256"/>
+      <c r="AD66" s="256"/>
+      <c r="AE66" s="256"/>
+      <c r="AF66" s="256"/>
+      <c r="AG66" s="256"/>
+      <c r="AH66" s="254"/>
     </row>
     <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="48"/>
@@ -14237,116 +14237,116 @@
     <row r="71" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="48"/>
       <c r="D71" s="48"/>
-      <c r="E71" s="237" t="s">
+      <c r="E71" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="238"/>
-      <c r="G71" s="238"/>
-      <c r="H71" s="238"/>
-      <c r="I71" s="238"/>
-      <c r="J71" s="239"/>
-      <c r="K71" s="237" t="s">
+      <c r="F71" s="258"/>
+      <c r="G71" s="258"/>
+      <c r="H71" s="258"/>
+      <c r="I71" s="258"/>
+      <c r="J71" s="259"/>
+      <c r="K71" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="L71" s="239"/>
-      <c r="M71" s="237" t="s">
+      <c r="L71" s="259"/>
+      <c r="M71" s="257" t="s">
         <v>89</v>
       </c>
-      <c r="N71" s="238"/>
-      <c r="O71" s="238"/>
-      <c r="P71" s="238"/>
-      <c r="Q71" s="238"/>
-      <c r="R71" s="238"/>
-      <c r="S71" s="238"/>
-      <c r="T71" s="238"/>
-      <c r="U71" s="238"/>
-      <c r="V71" s="238"/>
-      <c r="W71" s="238"/>
-      <c r="X71" s="238"/>
-      <c r="Y71" s="238"/>
-      <c r="Z71" s="238"/>
-      <c r="AA71" s="238"/>
-      <c r="AB71" s="238"/>
-      <c r="AC71" s="238"/>
-      <c r="AD71" s="238"/>
-      <c r="AE71" s="238"/>
-      <c r="AF71" s="238"/>
-      <c r="AG71" s="238"/>
-      <c r="AH71" s="239"/>
+      <c r="N71" s="258"/>
+      <c r="O71" s="258"/>
+      <c r="P71" s="258"/>
+      <c r="Q71" s="258"/>
+      <c r="R71" s="258"/>
+      <c r="S71" s="258"/>
+      <c r="T71" s="258"/>
+      <c r="U71" s="258"/>
+      <c r="V71" s="258"/>
+      <c r="W71" s="258"/>
+      <c r="X71" s="258"/>
+      <c r="Y71" s="258"/>
+      <c r="Z71" s="258"/>
+      <c r="AA71" s="258"/>
+      <c r="AB71" s="258"/>
+      <c r="AC71" s="258"/>
+      <c r="AD71" s="258"/>
+      <c r="AE71" s="258"/>
+      <c r="AF71" s="258"/>
+      <c r="AG71" s="258"/>
+      <c r="AH71" s="259"/>
     </row>
     <row r="72" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="48"/>
       <c r="D72" s="48"/>
-      <c r="E72" s="240" t="s">
+      <c r="E72" s="237" t="s">
         <v>90</v>
       </c>
-      <c r="F72" s="241"/>
-      <c r="G72" s="241"/>
-      <c r="H72" s="241"/>
-      <c r="I72" s="241"/>
-      <c r="J72" s="242"/>
-      <c r="K72" s="173" t="s">
+      <c r="F72" s="238"/>
+      <c r="G72" s="238"/>
+      <c r="H72" s="238"/>
+      <c r="I72" s="238"/>
+      <c r="J72" s="239"/>
+      <c r="K72" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="175"/>
-      <c r="M72" s="200" t="s">
+      <c r="L72" s="113"/>
+      <c r="M72" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="N72" s="201"/>
-      <c r="O72" s="201"/>
-      <c r="P72" s="201"/>
-      <c r="Q72" s="201"/>
-      <c r="R72" s="201"/>
-      <c r="S72" s="201"/>
-      <c r="T72" s="201"/>
-      <c r="U72" s="201"/>
-      <c r="V72" s="201"/>
-      <c r="W72" s="201"/>
-      <c r="X72" s="201"/>
-      <c r="Y72" s="201"/>
-      <c r="Z72" s="201"/>
-      <c r="AA72" s="201"/>
-      <c r="AB72" s="201"/>
-      <c r="AC72" s="201"/>
-      <c r="AD72" s="201"/>
-      <c r="AE72" s="201"/>
-      <c r="AF72" s="201"/>
-      <c r="AG72" s="201"/>
-      <c r="AH72" s="202"/>
+      <c r="N72" s="208"/>
+      <c r="O72" s="208"/>
+      <c r="P72" s="208"/>
+      <c r="Q72" s="208"/>
+      <c r="R72" s="208"/>
+      <c r="S72" s="208"/>
+      <c r="T72" s="208"/>
+      <c r="U72" s="208"/>
+      <c r="V72" s="208"/>
+      <c r="W72" s="208"/>
+      <c r="X72" s="208"/>
+      <c r="Y72" s="208"/>
+      <c r="Z72" s="208"/>
+      <c r="AA72" s="208"/>
+      <c r="AB72" s="208"/>
+      <c r="AC72" s="208"/>
+      <c r="AD72" s="208"/>
+      <c r="AE72" s="208"/>
+      <c r="AF72" s="208"/>
+      <c r="AG72" s="208"/>
+      <c r="AH72" s="209"/>
     </row>
     <row r="73" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="48"/>
       <c r="D73" s="48"/>
-      <c r="E73" s="243"/>
-      <c r="F73" s="244"/>
-      <c r="G73" s="244"/>
-      <c r="H73" s="244"/>
-      <c r="I73" s="244"/>
-      <c r="J73" s="245"/>
-      <c r="K73" s="246"/>
-      <c r="L73" s="247"/>
-      <c r="M73" s="206"/>
-      <c r="N73" s="207"/>
-      <c r="O73" s="207"/>
-      <c r="P73" s="207"/>
-      <c r="Q73" s="207"/>
-      <c r="R73" s="207"/>
-      <c r="S73" s="207"/>
-      <c r="T73" s="207"/>
-      <c r="U73" s="207"/>
-      <c r="V73" s="207"/>
-      <c r="W73" s="207"/>
-      <c r="X73" s="207"/>
-      <c r="Y73" s="207"/>
-      <c r="Z73" s="207"/>
-      <c r="AA73" s="207"/>
-      <c r="AB73" s="207"/>
-      <c r="AC73" s="207"/>
-      <c r="AD73" s="207"/>
-      <c r="AE73" s="207"/>
-      <c r="AF73" s="207"/>
-      <c r="AG73" s="207"/>
-      <c r="AH73" s="208"/>
+      <c r="E73" s="240"/>
+      <c r="F73" s="241"/>
+      <c r="G73" s="241"/>
+      <c r="H73" s="241"/>
+      <c r="I73" s="241"/>
+      <c r="J73" s="242"/>
+      <c r="K73" s="243"/>
+      <c r="L73" s="244"/>
+      <c r="M73" s="213"/>
+      <c r="N73" s="214"/>
+      <c r="O73" s="214"/>
+      <c r="P73" s="214"/>
+      <c r="Q73" s="214"/>
+      <c r="R73" s="214"/>
+      <c r="S73" s="214"/>
+      <c r="T73" s="214"/>
+      <c r="U73" s="214"/>
+      <c r="V73" s="214"/>
+      <c r="W73" s="214"/>
+      <c r="X73" s="214"/>
+      <c r="Y73" s="214"/>
+      <c r="Z73" s="214"/>
+      <c r="AA73" s="214"/>
+      <c r="AB73" s="214"/>
+      <c r="AC73" s="214"/>
+      <c r="AD73" s="214"/>
+      <c r="AE73" s="214"/>
+      <c r="AF73" s="214"/>
+      <c r="AG73" s="214"/>
+      <c r="AH73" s="215"/>
     </row>
     <row r="74" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="48"/>
@@ -14425,7 +14425,7 @@
     </row>
     <row r="79" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F79" s="70"/>
       <c r="G79" s="70"/>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="80" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -14838,57 +14838,6 @@
     <row r="93" spans="5:34" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:AH73"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:AH71"/>
-    <mergeCell ref="E48:J62"/>
-    <mergeCell ref="K48:L62"/>
-    <mergeCell ref="M49:AH49"/>
-    <mergeCell ref="N53:AH53"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="E43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="M43:AH44"/>
-    <mergeCell ref="E45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="M45:AH47"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:AH42"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
     <mergeCell ref="E78:AH78"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -14905,6 +14854,57 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:AH42"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="M43:AH44"/>
+    <mergeCell ref="E45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="M45:AH47"/>
+    <mergeCell ref="E48:J62"/>
+    <mergeCell ref="K48:L62"/>
+    <mergeCell ref="M49:AH49"/>
+    <mergeCell ref="N53:AH53"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="E72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:AH73"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:AH71"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57F89F4-65B4-4CE0-A455-B477037EEAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7796D8F-6DCD-478A-A079-A7AC53314E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="15330" windowHeight="3825" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="15330" windowHeight="3825" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -1490,10 +1490,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t xml:space="preserve">The Evidence No. in the unit test specification should be filled in with [scenario ID]-[screen hardcopy ID], </t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>as shown in the following example:</t>
   </si>
   <si>
@@ -1501,6 +1497,10 @@
   </si>
   <si>
     <t>(e.g. E001.jpg, E002.jpg, E003.jpg … or E004-01.jpg, E004-02.jpg, E004-03.jpg)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The evidence No. in the unit test specification should be filled in with [scenario ID]-[screen hardcopy ID], </t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2341,6 +2341,21 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2359,24 +2374,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2440,15 +2500,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2491,57 +2542,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2578,132 +2578,132 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2725,6 +2725,93 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2734,53 +2821,41 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2799,81 +2874,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -6535,153 +6535,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="148" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="139" t="s">
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="132" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="135">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
       <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="148" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="138" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="168">
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="135">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
       <c r="AN2" s="18"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6725,1069 +6725,1204 @@
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="179" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="179" t="s">
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="180"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="179" t="s">
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="181"/>
-      <c r="AF7" s="179" t="s">
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="181"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="119"/>
     </row>
     <row r="8" spans="1:40" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153">
+      <c r="C8" s="169"/>
+      <c r="D8" s="170">
         <v>43336</v>
       </c>
-      <c r="E8" s="154"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156" t="s">
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="157"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159" t="s">
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="162" t="s">
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="174" t="s">
+      <c r="R8" s="180"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="180"/>
+      <c r="W8" s="180"/>
+      <c r="X8" s="180"/>
+      <c r="Y8" s="180"/>
+      <c r="Z8" s="180"/>
+      <c r="AA8" s="180"/>
+      <c r="AB8" s="180"/>
+      <c r="AC8" s="180"/>
+      <c r="AD8" s="180"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="176"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="146"/>
     </row>
     <row r="9" spans="1:40" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123">
+      <c r="C9" s="130"/>
+      <c r="D9" s="126">
         <v>43850</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="121" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="115" t="s">
+      <c r="H9" s="131"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118" t="s">
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="119"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="115" t="s">
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="117"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="122"/>
     </row>
     <row r="10" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88">
         <v>3</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123">
+      <c r="C10" s="130"/>
+      <c r="D10" s="126">
         <v>44777</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="121" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="115" t="s">
+      <c r="H10" s="131"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118" t="s">
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="115" t="s">
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="117"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="122"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="115"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="117"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="122"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="115"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="117"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="125"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="122"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="115"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="117"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="122"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="115"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="122"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="119"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="115"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="117"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="122"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="119"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="115"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="117"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="122"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="119"/>
-      <c r="Z17" s="119"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="119"/>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="115"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="117"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="122"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="119"/>
-      <c r="AA18" s="119"/>
-      <c r="AB18" s="119"/>
-      <c r="AC18" s="119"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="115"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="117"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="122"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="119"/>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="115"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="117"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="125"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="122"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="120"/>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="117"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="122"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="119"/>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="115"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="117"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="125"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="122"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="119"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="119"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="115"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="117"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="122"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="119"/>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="119"/>
-      <c r="AA23" s="119"/>
-      <c r="AB23" s="119"/>
-      <c r="AC23" s="119"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="120"/>
-      <c r="AF23" s="115"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="117"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="122"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="119"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="115"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="117"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="122"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="115"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="117"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="122"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="119"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="115"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="117"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="125"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="122"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="119"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="119"/>
-      <c r="AC27" s="119"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="115"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="117"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="125"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="122"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="119"/>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="119"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="119"/>
-      <c r="AC28" s="119"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="115"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="117"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="122"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="119"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="119"/>
-      <c r="AC29" s="119"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="115"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="117"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="124"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="122"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="119"/>
-      <c r="AA30" s="119"/>
-      <c r="AB30" s="119"/>
-      <c r="AC30" s="119"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="115"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="117"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="122"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="119"/>
-      <c r="AA31" s="119"/>
-      <c r="AB31" s="119"/>
-      <c r="AC31" s="119"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="115"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="117"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="124"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="122"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="119"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="115"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="117"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="124"/>
+      <c r="AE32" s="125"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="122"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="115"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="117"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="124"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="124"/>
+      <c r="AE33" s="125"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -7812,151 +7947,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7987,31 +7987,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -8023,52 +8023,52 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -8077,52 +8077,52 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -8131,21 +8131,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="165" t="str">
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168" t="str">
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
@@ -9145,14 +9145,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -9162,6 +9154,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9191,31 +9191,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -9227,48 +9227,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -9277,48 +9277,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -9327,21 +9327,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="165" t="str">
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168" t="str">
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9420,14 +9420,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -9437,6 +9429,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -9472,31 +9472,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -9508,48 +9508,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -9558,48 +9558,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -9608,21 +9608,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="165" t="str">
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168" t="str">
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9781,350 +9781,350 @@
       <c r="D36" s="32"/>
     </row>
     <row r="37" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D37" s="197" t="s">
+      <c r="D37" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="197" t="s">
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="198"/>
-      <c r="O37" s="198"/>
-      <c r="P37" s="198"/>
-      <c r="Q37" s="198"/>
-      <c r="R37" s="198"/>
-      <c r="S37" s="198"/>
-      <c r="T37" s="198"/>
-      <c r="U37" s="198"/>
-      <c r="V37" s="198"/>
-      <c r="W37" s="198"/>
-      <c r="X37" s="198"/>
-      <c r="Y37" s="198"/>
-      <c r="Z37" s="198"/>
-      <c r="AA37" s="198"/>
-      <c r="AB37" s="198"/>
-      <c r="AC37" s="198"/>
-      <c r="AD37" s="198"/>
-      <c r="AE37" s="198"/>
-      <c r="AF37" s="198"/>
-      <c r="AG37" s="198"/>
-      <c r="AH37" s="199"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="211"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="211"/>
+      <c r="O37" s="211"/>
+      <c r="P37" s="211"/>
+      <c r="Q37" s="211"/>
+      <c r="R37" s="211"/>
+      <c r="S37" s="211"/>
+      <c r="T37" s="211"/>
+      <c r="U37" s="211"/>
+      <c r="V37" s="211"/>
+      <c r="W37" s="211"/>
+      <c r="X37" s="211"/>
+      <c r="Y37" s="211"/>
+      <c r="Z37" s="211"/>
+      <c r="AA37" s="211"/>
+      <c r="AB37" s="211"/>
+      <c r="AC37" s="211"/>
+      <c r="AD37" s="211"/>
+      <c r="AE37" s="211"/>
+      <c r="AF37" s="211"/>
+      <c r="AG37" s="211"/>
+      <c r="AH37" s="212"/>
     </row>
     <row r="38" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D38" s="224" t="s">
+      <c r="D38" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="225"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
-      <c r="I38" s="226"/>
-      <c r="J38" s="206" t="s">
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="213" t="s">
         <v>167</v>
       </c>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="207"/>
-      <c r="N38" s="207"/>
-      <c r="O38" s="207"/>
-      <c r="P38" s="207"/>
-      <c r="Q38" s="207"/>
-      <c r="R38" s="207"/>
-      <c r="S38" s="207"/>
-      <c r="T38" s="207"/>
-      <c r="U38" s="207"/>
-      <c r="V38" s="207"/>
-      <c r="W38" s="207"/>
-      <c r="X38" s="207"/>
-      <c r="Y38" s="207"/>
-      <c r="Z38" s="207"/>
-      <c r="AA38" s="207"/>
-      <c r="AB38" s="207"/>
-      <c r="AC38" s="207"/>
-      <c r="AD38" s="207"/>
-      <c r="AE38" s="207"/>
-      <c r="AF38" s="207"/>
-      <c r="AG38" s="207"/>
-      <c r="AH38" s="208"/>
+      <c r="K38" s="214"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="214"/>
+      <c r="O38" s="214"/>
+      <c r="P38" s="214"/>
+      <c r="Q38" s="214"/>
+      <c r="R38" s="214"/>
+      <c r="S38" s="214"/>
+      <c r="T38" s="214"/>
+      <c r="U38" s="214"/>
+      <c r="V38" s="214"/>
+      <c r="W38" s="214"/>
+      <c r="X38" s="214"/>
+      <c r="Y38" s="214"/>
+      <c r="Z38" s="214"/>
+      <c r="AA38" s="214"/>
+      <c r="AB38" s="214"/>
+      <c r="AC38" s="214"/>
+      <c r="AD38" s="214"/>
+      <c r="AE38" s="214"/>
+      <c r="AF38" s="214"/>
+      <c r="AG38" s="214"/>
+      <c r="AH38" s="215"/>
     </row>
     <row r="39" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D39" s="227"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="228"/>
-      <c r="I39" s="229"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="210"/>
-      <c r="M39" s="210"/>
-      <c r="N39" s="210"/>
-      <c r="O39" s="210"/>
-      <c r="P39" s="210"/>
-      <c r="Q39" s="210"/>
-      <c r="R39" s="210"/>
-      <c r="S39" s="210"/>
-      <c r="T39" s="210"/>
-      <c r="U39" s="210"/>
-      <c r="V39" s="210"/>
-      <c r="W39" s="210"/>
-      <c r="X39" s="210"/>
-      <c r="Y39" s="210"/>
-      <c r="Z39" s="210"/>
-      <c r="AA39" s="210"/>
-      <c r="AB39" s="210"/>
-      <c r="AC39" s="210"/>
-      <c r="AD39" s="210"/>
-      <c r="AE39" s="210"/>
-      <c r="AF39" s="210"/>
-      <c r="AG39" s="210"/>
-      <c r="AH39" s="211"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="217"/>
+      <c r="L39" s="217"/>
+      <c r="M39" s="217"/>
+      <c r="N39" s="217"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="217"/>
+      <c r="Q39" s="217"/>
+      <c r="R39" s="217"/>
+      <c r="S39" s="217"/>
+      <c r="T39" s="217"/>
+      <c r="U39" s="217"/>
+      <c r="V39" s="217"/>
+      <c r="W39" s="217"/>
+      <c r="X39" s="217"/>
+      <c r="Y39" s="217"/>
+      <c r="Z39" s="217"/>
+      <c r="AA39" s="217"/>
+      <c r="AB39" s="217"/>
+      <c r="AC39" s="217"/>
+      <c r="AD39" s="217"/>
+      <c r="AE39" s="217"/>
+      <c r="AF39" s="217"/>
+      <c r="AG39" s="217"/>
+      <c r="AH39" s="218"/>
     </row>
     <row r="40" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D40" s="230"/>
-      <c r="E40" s="231"/>
-      <c r="F40" s="231"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="231"/>
-      <c r="I40" s="232"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="213"/>
-      <c r="M40" s="213"/>
-      <c r="N40" s="213"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="213"/>
-      <c r="Q40" s="213"/>
-      <c r="R40" s="213"/>
-      <c r="S40" s="213"/>
-      <c r="T40" s="213"/>
-      <c r="U40" s="213"/>
-      <c r="V40" s="213"/>
-      <c r="W40" s="213"/>
-      <c r="X40" s="213"/>
-      <c r="Y40" s="213"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="213"/>
-      <c r="AB40" s="213"/>
-      <c r="AC40" s="213"/>
-      <c r="AD40" s="213"/>
-      <c r="AE40" s="213"/>
-      <c r="AF40" s="213"/>
-      <c r="AG40" s="213"/>
-      <c r="AH40" s="214"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="219"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="220"/>
+      <c r="M40" s="220"/>
+      <c r="N40" s="220"/>
+      <c r="O40" s="220"/>
+      <c r="P40" s="220"/>
+      <c r="Q40" s="220"/>
+      <c r="R40" s="220"/>
+      <c r="S40" s="220"/>
+      <c r="T40" s="220"/>
+      <c r="U40" s="220"/>
+      <c r="V40" s="220"/>
+      <c r="W40" s="220"/>
+      <c r="X40" s="220"/>
+      <c r="Y40" s="220"/>
+      <c r="Z40" s="220"/>
+      <c r="AA40" s="220"/>
+      <c r="AB40" s="220"/>
+      <c r="AC40" s="220"/>
+      <c r="AD40" s="220"/>
+      <c r="AE40" s="220"/>
+      <c r="AF40" s="220"/>
+      <c r="AG40" s="220"/>
+      <c r="AH40" s="221"/>
     </row>
     <row r="41" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D41" s="224" t="s">
+      <c r="D41" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="225"/>
-      <c r="F41" s="225"/>
-      <c r="G41" s="225"/>
-      <c r="H41" s="225"/>
-      <c r="I41" s="226"/>
-      <c r="J41" s="215" t="s">
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="K41" s="216"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216"/>
-      <c r="N41" s="216"/>
-      <c r="O41" s="216"/>
-      <c r="P41" s="216"/>
-      <c r="Q41" s="216"/>
-      <c r="R41" s="216"/>
-      <c r="S41" s="216"/>
-      <c r="T41" s="216"/>
-      <c r="U41" s="216"/>
-      <c r="V41" s="216"/>
-      <c r="W41" s="216"/>
-      <c r="X41" s="216"/>
-      <c r="Y41" s="216"/>
-      <c r="Z41" s="216"/>
-      <c r="AA41" s="216"/>
-      <c r="AB41" s="216"/>
-      <c r="AC41" s="216"/>
-      <c r="AD41" s="216"/>
-      <c r="AE41" s="216"/>
-      <c r="AF41" s="216"/>
-      <c r="AG41" s="216"/>
-      <c r="AH41" s="217"/>
+      <c r="K41" s="223"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="223"/>
+      <c r="O41" s="223"/>
+      <c r="P41" s="223"/>
+      <c r="Q41" s="223"/>
+      <c r="R41" s="223"/>
+      <c r="S41" s="223"/>
+      <c r="T41" s="223"/>
+      <c r="U41" s="223"/>
+      <c r="V41" s="223"/>
+      <c r="W41" s="223"/>
+      <c r="X41" s="223"/>
+      <c r="Y41" s="223"/>
+      <c r="Z41" s="223"/>
+      <c r="AA41" s="223"/>
+      <c r="AB41" s="223"/>
+      <c r="AC41" s="223"/>
+      <c r="AD41" s="223"/>
+      <c r="AE41" s="223"/>
+      <c r="AF41" s="223"/>
+      <c r="AG41" s="223"/>
+      <c r="AH41" s="224"/>
     </row>
     <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D42" s="227"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="229"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="219"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="219"/>
-      <c r="O42" s="219"/>
-      <c r="P42" s="219"/>
-      <c r="Q42" s="219"/>
-      <c r="R42" s="219"/>
-      <c r="S42" s="219"/>
-      <c r="T42" s="219"/>
-      <c r="U42" s="219"/>
-      <c r="V42" s="219"/>
-      <c r="W42" s="219"/>
-      <c r="X42" s="219"/>
-      <c r="Y42" s="219"/>
-      <c r="Z42" s="219"/>
-      <c r="AA42" s="219"/>
-      <c r="AB42" s="219"/>
-      <c r="AC42" s="219"/>
-      <c r="AD42" s="219"/>
-      <c r="AE42" s="219"/>
-      <c r="AF42" s="219"/>
-      <c r="AG42" s="219"/>
-      <c r="AH42" s="220"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="226"/>
+      <c r="L42" s="226"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="226"/>
+      <c r="O42" s="226"/>
+      <c r="P42" s="226"/>
+      <c r="Q42" s="226"/>
+      <c r="R42" s="226"/>
+      <c r="S42" s="226"/>
+      <c r="T42" s="226"/>
+      <c r="U42" s="226"/>
+      <c r="V42" s="226"/>
+      <c r="W42" s="226"/>
+      <c r="X42" s="226"/>
+      <c r="Y42" s="226"/>
+      <c r="Z42" s="226"/>
+      <c r="AA42" s="226"/>
+      <c r="AB42" s="226"/>
+      <c r="AC42" s="226"/>
+      <c r="AD42" s="226"/>
+      <c r="AE42" s="226"/>
+      <c r="AF42" s="226"/>
+      <c r="AG42" s="226"/>
+      <c r="AH42" s="227"/>
     </row>
     <row r="43" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="230"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="231"/>
-      <c r="G43" s="231"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="222"/>
-      <c r="M43" s="222"/>
-      <c r="N43" s="222"/>
-      <c r="O43" s="222"/>
-      <c r="P43" s="222"/>
-      <c r="Q43" s="222"/>
-      <c r="R43" s="222"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="222"/>
-      <c r="U43" s="222"/>
-      <c r="V43" s="222"/>
-      <c r="W43" s="222"/>
-      <c r="X43" s="222"/>
-      <c r="Y43" s="222"/>
-      <c r="Z43" s="222"/>
-      <c r="AA43" s="222"/>
-      <c r="AB43" s="222"/>
-      <c r="AC43" s="222"/>
-      <c r="AD43" s="222"/>
-      <c r="AE43" s="222"/>
-      <c r="AF43" s="222"/>
-      <c r="AG43" s="222"/>
-      <c r="AH43" s="223"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="228"/>
+      <c r="K43" s="229"/>
+      <c r="L43" s="229"/>
+      <c r="M43" s="229"/>
+      <c r="N43" s="229"/>
+      <c r="O43" s="229"/>
+      <c r="P43" s="229"/>
+      <c r="Q43" s="229"/>
+      <c r="R43" s="229"/>
+      <c r="S43" s="229"/>
+      <c r="T43" s="229"/>
+      <c r="U43" s="229"/>
+      <c r="V43" s="229"/>
+      <c r="W43" s="229"/>
+      <c r="X43" s="229"/>
+      <c r="Y43" s="229"/>
+      <c r="Z43" s="229"/>
+      <c r="AA43" s="229"/>
+      <c r="AB43" s="229"/>
+      <c r="AC43" s="229"/>
+      <c r="AD43" s="229"/>
+      <c r="AE43" s="229"/>
+      <c r="AF43" s="229"/>
+      <c r="AG43" s="229"/>
+      <c r="AH43" s="230"/>
     </row>
     <row r="44" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D44" s="224" t="s">
+      <c r="D44" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="225"/>
-      <c r="F44" s="225"/>
-      <c r="G44" s="225"/>
-      <c r="H44" s="225"/>
-      <c r="I44" s="226"/>
-      <c r="J44" s="215" t="s">
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="K44" s="216"/>
-      <c r="L44" s="216"/>
-      <c r="M44" s="216"/>
-      <c r="N44" s="216"/>
-      <c r="O44" s="216"/>
-      <c r="P44" s="216"/>
-      <c r="Q44" s="216"/>
-      <c r="R44" s="216"/>
-      <c r="S44" s="216"/>
-      <c r="T44" s="216"/>
-      <c r="U44" s="216"/>
-      <c r="V44" s="216"/>
-      <c r="W44" s="216"/>
-      <c r="X44" s="216"/>
-      <c r="Y44" s="216"/>
-      <c r="Z44" s="216"/>
-      <c r="AA44" s="216"/>
-      <c r="AB44" s="216"/>
-      <c r="AC44" s="216"/>
-      <c r="AD44" s="216"/>
-      <c r="AE44" s="216"/>
-      <c r="AF44" s="216"/>
-      <c r="AG44" s="216"/>
-      <c r="AH44" s="217"/>
+      <c r="K44" s="223"/>
+      <c r="L44" s="223"/>
+      <c r="M44" s="223"/>
+      <c r="N44" s="223"/>
+      <c r="O44" s="223"/>
+      <c r="P44" s="223"/>
+      <c r="Q44" s="223"/>
+      <c r="R44" s="223"/>
+      <c r="S44" s="223"/>
+      <c r="T44" s="223"/>
+      <c r="U44" s="223"/>
+      <c r="V44" s="223"/>
+      <c r="W44" s="223"/>
+      <c r="X44" s="223"/>
+      <c r="Y44" s="223"/>
+      <c r="Z44" s="223"/>
+      <c r="AA44" s="223"/>
+      <c r="AB44" s="223"/>
+      <c r="AC44" s="223"/>
+      <c r="AD44" s="223"/>
+      <c r="AE44" s="223"/>
+      <c r="AF44" s="223"/>
+      <c r="AG44" s="223"/>
+      <c r="AH44" s="224"/>
     </row>
     <row r="45" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D45" s="227"/>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="228"/>
-      <c r="H45" s="228"/>
-      <c r="I45" s="229"/>
-      <c r="J45" s="218"/>
-      <c r="K45" s="219"/>
-      <c r="L45" s="219"/>
-      <c r="M45" s="219"/>
-      <c r="N45" s="219"/>
-      <c r="O45" s="219"/>
-      <c r="P45" s="219"/>
-      <c r="Q45" s="219"/>
-      <c r="R45" s="219"/>
-      <c r="S45" s="219"/>
-      <c r="T45" s="219"/>
-      <c r="U45" s="219"/>
-      <c r="V45" s="219"/>
-      <c r="W45" s="219"/>
-      <c r="X45" s="219"/>
-      <c r="Y45" s="219"/>
-      <c r="Z45" s="219"/>
-      <c r="AA45" s="219"/>
-      <c r="AB45" s="219"/>
-      <c r="AC45" s="219"/>
-      <c r="AD45" s="219"/>
-      <c r="AE45" s="219"/>
-      <c r="AF45" s="219"/>
-      <c r="AG45" s="219"/>
-      <c r="AH45" s="220"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="198"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="198"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="199"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="226"/>
+      <c r="L45" s="226"/>
+      <c r="M45" s="226"/>
+      <c r="N45" s="226"/>
+      <c r="O45" s="226"/>
+      <c r="P45" s="226"/>
+      <c r="Q45" s="226"/>
+      <c r="R45" s="226"/>
+      <c r="S45" s="226"/>
+      <c r="T45" s="226"/>
+      <c r="U45" s="226"/>
+      <c r="V45" s="226"/>
+      <c r="W45" s="226"/>
+      <c r="X45" s="226"/>
+      <c r="Y45" s="226"/>
+      <c r="Z45" s="226"/>
+      <c r="AA45" s="226"/>
+      <c r="AB45" s="226"/>
+      <c r="AC45" s="226"/>
+      <c r="AD45" s="226"/>
+      <c r="AE45" s="226"/>
+      <c r="AF45" s="226"/>
+      <c r="AG45" s="226"/>
+      <c r="AH45" s="227"/>
     </row>
     <row r="46" spans="3:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="230"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="231"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="221"/>
-      <c r="K46" s="222"/>
-      <c r="L46" s="222"/>
-      <c r="M46" s="222"/>
-      <c r="N46" s="222"/>
-      <c r="O46" s="222"/>
-      <c r="P46" s="222"/>
-      <c r="Q46" s="222"/>
-      <c r="R46" s="222"/>
-      <c r="S46" s="222"/>
-      <c r="T46" s="222"/>
-      <c r="U46" s="222"/>
-      <c r="V46" s="222"/>
-      <c r="W46" s="222"/>
-      <c r="X46" s="222"/>
-      <c r="Y46" s="222"/>
-      <c r="Z46" s="222"/>
-      <c r="AA46" s="222"/>
-      <c r="AB46" s="222"/>
-      <c r="AC46" s="222"/>
-      <c r="AD46" s="222"/>
-      <c r="AE46" s="222"/>
-      <c r="AF46" s="222"/>
-      <c r="AG46" s="222"/>
-      <c r="AH46" s="223"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="201"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="202"/>
+      <c r="J46" s="228"/>
+      <c r="K46" s="229"/>
+      <c r="L46" s="229"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="229"/>
+      <c r="O46" s="229"/>
+      <c r="P46" s="229"/>
+      <c r="Q46" s="229"/>
+      <c r="R46" s="229"/>
+      <c r="S46" s="229"/>
+      <c r="T46" s="229"/>
+      <c r="U46" s="229"/>
+      <c r="V46" s="229"/>
+      <c r="W46" s="229"/>
+      <c r="X46" s="229"/>
+      <c r="Y46" s="229"/>
+      <c r="Z46" s="229"/>
+      <c r="AA46" s="229"/>
+      <c r="AB46" s="229"/>
+      <c r="AC46" s="229"/>
+      <c r="AD46" s="229"/>
+      <c r="AE46" s="229"/>
+      <c r="AF46" s="229"/>
+      <c r="AG46" s="229"/>
+      <c r="AH46" s="230"/>
     </row>
     <row r="47" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="D47" s="43" t="s">
@@ -10147,58 +10147,58 @@
     </row>
     <row r="51" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="52" spans="3:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="203" t="s">
+      <c r="D52" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
-      <c r="G52" s="205"/>
-      <c r="H52" s="200" t="s">
+      <c r="E52" s="208"/>
+      <c r="F52" s="208"/>
+      <c r="G52" s="209"/>
+      <c r="H52" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="200" t="s">
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="201"/>
-      <c r="N52" s="201"/>
-      <c r="O52" s="202"/>
-      <c r="P52" s="200" t="s">
+      <c r="M52" s="231"/>
+      <c r="N52" s="231"/>
+      <c r="O52" s="232"/>
+      <c r="P52" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="120"/>
-      <c r="T52" s="200" t="s">
+      <c r="Q52" s="124"/>
+      <c r="R52" s="124"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="U52" s="119"/>
-      <c r="V52" s="119"/>
-      <c r="W52" s="120"/>
-      <c r="X52" s="200" t="s">
+      <c r="U52" s="124"/>
+      <c r="V52" s="124"/>
+      <c r="W52" s="125"/>
+      <c r="X52" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="Y52" s="119"/>
-      <c r="Z52" s="119"/>
-      <c r="AA52" s="120"/>
-      <c r="AB52" s="196"/>
-      <c r="AC52" s="196"/>
-      <c r="AD52" s="196"/>
-      <c r="AE52" s="196"/>
-      <c r="AF52" s="196"/>
-      <c r="AG52" s="196"/>
-      <c r="AH52" s="196"/>
-      <c r="AI52" s="196"/>
+      <c r="Y52" s="124"/>
+      <c r="Z52" s="124"/>
+      <c r="AA52" s="125"/>
+      <c r="AB52" s="233"/>
+      <c r="AC52" s="233"/>
+      <c r="AD52" s="233"/>
+      <c r="AE52" s="233"/>
+      <c r="AF52" s="233"/>
+      <c r="AG52" s="233"/>
+      <c r="AH52" s="233"/>
+      <c r="AI52" s="233"/>
     </row>
     <row r="53" spans="3:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="233" t="s">
+      <c r="D53" s="204" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="234"/>
-      <c r="F53" s="234"/>
-      <c r="G53" s="235"/>
+      <c r="E53" s="205"/>
+      <c r="F53" s="205"/>
+      <c r="G53" s="206"/>
       <c r="H53" s="191" t="s">
         <v>203</v>
       </c>
@@ -10229,14 +10229,14 @@
       <c r="Y53" s="192"/>
       <c r="Z53" s="192"/>
       <c r="AA53" s="193"/>
-      <c r="AB53" s="194"/>
-      <c r="AC53" s="194"/>
-      <c r="AD53" s="194"/>
-      <c r="AE53" s="194"/>
-      <c r="AF53" s="194"/>
-      <c r="AG53" s="194"/>
-      <c r="AH53" s="194"/>
-      <c r="AI53" s="194"/>
+      <c r="AB53" s="234"/>
+      <c r="AC53" s="234"/>
+      <c r="AD53" s="234"/>
+      <c r="AE53" s="234"/>
+      <c r="AF53" s="234"/>
+      <c r="AG53" s="234"/>
+      <c r="AH53" s="234"/>
+      <c r="AI53" s="234"/>
     </row>
     <row r="54" spans="3:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="191" t="s">
@@ -10275,14 +10275,14 @@
       <c r="Y54" s="192"/>
       <c r="Z54" s="192"/>
       <c r="AA54" s="193"/>
-      <c r="AB54" s="194"/>
-      <c r="AC54" s="194"/>
-      <c r="AD54" s="194"/>
-      <c r="AE54" s="194"/>
-      <c r="AF54" s="194"/>
-      <c r="AG54" s="194"/>
-      <c r="AH54" s="194"/>
-      <c r="AI54" s="194"/>
+      <c r="AB54" s="234"/>
+      <c r="AC54" s="234"/>
+      <c r="AD54" s="234"/>
+      <c r="AE54" s="234"/>
+      <c r="AF54" s="234"/>
+      <c r="AG54" s="234"/>
+      <c r="AH54" s="234"/>
+      <c r="AI54" s="234"/>
     </row>
     <row r="55" spans="3:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="191" t="s">
@@ -10315,20 +10315,20 @@
       <c r="U55" s="192"/>
       <c r="V55" s="192"/>
       <c r="W55" s="193"/>
-      <c r="X55" s="195" t="s">
+      <c r="X55" s="235" t="s">
         <v>132</v>
       </c>
       <c r="Y55" s="192"/>
       <c r="Z55" s="192"/>
       <c r="AA55" s="193"/>
-      <c r="AB55" s="194"/>
-      <c r="AC55" s="194"/>
-      <c r="AD55" s="194"/>
-      <c r="AE55" s="194"/>
-      <c r="AF55" s="194"/>
-      <c r="AG55" s="194"/>
-      <c r="AH55" s="194"/>
-      <c r="AI55" s="194"/>
+      <c r="AB55" s="234"/>
+      <c r="AC55" s="234"/>
+      <c r="AD55" s="234"/>
+      <c r="AE55" s="234"/>
+      <c r="AF55" s="234"/>
+      <c r="AG55" s="234"/>
+      <c r="AH55" s="234"/>
+      <c r="AI55" s="234"/>
     </row>
     <row r="56" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D56" s="37" t="s">
@@ -10486,16 +10486,37 @@
     <row r="74" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="D41:I43"/>
-    <mergeCell ref="D44:I46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AF55:AI55"/>
+    <mergeCell ref="X55:AA55"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="AB54:AE54"/>
+    <mergeCell ref="AB55:AE55"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J37:AH37"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -10512,37 +10533,16 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X52:AA52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AF55:AI55"/>
-    <mergeCell ref="X55:AA55"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="AB54:AE54"/>
-    <mergeCell ref="AB55:AE55"/>
-    <mergeCell ref="AF53:AI53"/>
-    <mergeCell ref="AF54:AI54"/>
-    <mergeCell ref="X54:AA54"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AF52:AI52"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J37:AH37"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="D41:I43"/>
+    <mergeCell ref="D44:I46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10577,31 +10577,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -10613,48 +10613,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -10663,48 +10663,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -10713,21 +10713,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="165" t="str">
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168" t="str">
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
     </row>
     <row r="4" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -12105,20 +12105,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D28:AH28"/>
     <mergeCell ref="D56:AD56"/>
     <mergeCell ref="E19:AH19"/>
@@ -12130,6 +12116,20 @@
     <mergeCell ref="D42:AG42"/>
     <mergeCell ref="D44:AD44"/>
     <mergeCell ref="D10:AE10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12164,31 +12164,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -12200,48 +12200,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -12250,48 +12250,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="135">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -12300,21 +12300,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="165" t="str">
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="132" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168" t="str">
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="135" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -12796,372 +12796,372 @@
     <row r="22" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
-      <c r="E22" s="243" t="s">
+      <c r="E22" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="243" t="s">
+      <c r="F22" s="273"/>
+      <c r="G22" s="273"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="273"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="272" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="245"/>
-      <c r="M22" s="243" t="s">
+      <c r="L22" s="274"/>
+      <c r="M22" s="272" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="244"/>
-      <c r="O22" s="244"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="244"/>
-      <c r="U22" s="244"/>
-      <c r="V22" s="244"/>
-      <c r="W22" s="244"/>
-      <c r="X22" s="244"/>
-      <c r="Y22" s="244"/>
-      <c r="Z22" s="244"/>
-      <c r="AA22" s="244"/>
-      <c r="AB22" s="244"/>
-      <c r="AC22" s="244"/>
-      <c r="AD22" s="244"/>
-      <c r="AE22" s="244"/>
-      <c r="AF22" s="244"/>
-      <c r="AG22" s="244"/>
-      <c r="AH22" s="245"/>
+      <c r="N22" s="273"/>
+      <c r="O22" s="273"/>
+      <c r="P22" s="273"/>
+      <c r="Q22" s="273"/>
+      <c r="R22" s="273"/>
+      <c r="S22" s="273"/>
+      <c r="T22" s="273"/>
+      <c r="U22" s="273"/>
+      <c r="V22" s="273"/>
+      <c r="W22" s="273"/>
+      <c r="X22" s="273"/>
+      <c r="Y22" s="273"/>
+      <c r="Z22" s="273"/>
+      <c r="AA22" s="273"/>
+      <c r="AB22" s="273"/>
+      <c r="AC22" s="273"/>
+      <c r="AD22" s="273"/>
+      <c r="AE22" s="273"/>
+      <c r="AF22" s="273"/>
+      <c r="AG22" s="273"/>
+      <c r="AH22" s="274"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="246" t="s">
+      <c r="E23" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="248"/>
-      <c r="K23" s="179" t="s">
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="254"/>
+      <c r="K23" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="181"/>
-      <c r="M23" s="206" t="s">
+      <c r="L23" s="119"/>
+      <c r="M23" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="207"/>
-      <c r="O23" s="207"/>
-      <c r="P23" s="207"/>
-      <c r="Q23" s="207"/>
-      <c r="R23" s="207"/>
-      <c r="S23" s="207"/>
-      <c r="T23" s="207"/>
-      <c r="U23" s="207"/>
-      <c r="V23" s="207"/>
-      <c r="W23" s="207"/>
-      <c r="X23" s="207"/>
-      <c r="Y23" s="207"/>
-      <c r="Z23" s="207"/>
-      <c r="AA23" s="207"/>
-      <c r="AB23" s="207"/>
-      <c r="AC23" s="207"/>
-      <c r="AD23" s="207"/>
-      <c r="AE23" s="207"/>
-      <c r="AF23" s="207"/>
-      <c r="AG23" s="207"/>
-      <c r="AH23" s="208"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="214"/>
+      <c r="Q23" s="214"/>
+      <c r="R23" s="214"/>
+      <c r="S23" s="214"/>
+      <c r="T23" s="214"/>
+      <c r="U23" s="214"/>
+      <c r="V23" s="214"/>
+      <c r="W23" s="214"/>
+      <c r="X23" s="214"/>
+      <c r="Y23" s="214"/>
+      <c r="Z23" s="214"/>
+      <c r="AA23" s="214"/>
+      <c r="AB23" s="214"/>
+      <c r="AC23" s="214"/>
+      <c r="AD23" s="214"/>
+      <c r="AE23" s="214"/>
+      <c r="AF23" s="214"/>
+      <c r="AG23" s="214"/>
+      <c r="AH23" s="215"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="252"/>
-      <c r="L24" s="253"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
-      <c r="P24" s="213"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="213"/>
-      <c r="Y24" s="213"/>
-      <c r="Z24" s="213"/>
-      <c r="AA24" s="213"/>
-      <c r="AB24" s="213"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="213"/>
-      <c r="AH24" s="214"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="220"/>
+      <c r="O24" s="220"/>
+      <c r="P24" s="220"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="220"/>
+      <c r="S24" s="220"/>
+      <c r="T24" s="220"/>
+      <c r="U24" s="220"/>
+      <c r="V24" s="220"/>
+      <c r="W24" s="220"/>
+      <c r="X24" s="220"/>
+      <c r="Y24" s="220"/>
+      <c r="Z24" s="220"/>
+      <c r="AA24" s="220"/>
+      <c r="AB24" s="220"/>
+      <c r="AC24" s="220"/>
+      <c r="AD24" s="220"/>
+      <c r="AE24" s="220"/>
+      <c r="AF24" s="220"/>
+      <c r="AG24" s="220"/>
+      <c r="AH24" s="221"/>
     </row>
     <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
-      <c r="E25" s="254" t="s">
+      <c r="E25" s="266" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="255"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="256"/>
-      <c r="K25" s="262" t="s">
+      <c r="F25" s="270"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="287" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="263"/>
-      <c r="M25" s="268" t="s">
+      <c r="L25" s="288"/>
+      <c r="M25" s="260" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="269"/>
-      <c r="O25" s="269"/>
-      <c r="P25" s="269"/>
-      <c r="Q25" s="269"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="269"/>
-      <c r="T25" s="269"/>
-      <c r="U25" s="269"/>
-      <c r="V25" s="269"/>
-      <c r="W25" s="269"/>
-      <c r="X25" s="269"/>
-      <c r="Y25" s="269"/>
-      <c r="Z25" s="269"/>
-      <c r="AA25" s="269"/>
-      <c r="AB25" s="269"/>
-      <c r="AC25" s="269"/>
-      <c r="AD25" s="269"/>
-      <c r="AE25" s="269"/>
-      <c r="AF25" s="269"/>
-      <c r="AG25" s="269"/>
-      <c r="AH25" s="270"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="261"/>
+      <c r="S25" s="261"/>
+      <c r="T25" s="261"/>
+      <c r="U25" s="261"/>
+      <c r="V25" s="261"/>
+      <c r="W25" s="261"/>
+      <c r="X25" s="261"/>
+      <c r="Y25" s="261"/>
+      <c r="Z25" s="261"/>
+      <c r="AA25" s="261"/>
+      <c r="AB25" s="261"/>
+      <c r="AC25" s="261"/>
+      <c r="AD25" s="261"/>
+      <c r="AE25" s="261"/>
+      <c r="AF25" s="261"/>
+      <c r="AG25" s="261"/>
+      <c r="AH25" s="262"/>
     </row>
     <row r="26" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="257"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="264"/>
-      <c r="L26" s="265"/>
-      <c r="M26" s="271"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="196"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="196"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="196"/>
-      <c r="AA26" s="196"/>
-      <c r="AB26" s="196"/>
-      <c r="AC26" s="196"/>
-      <c r="AD26" s="196"/>
-      <c r="AE26" s="196"/>
-      <c r="AF26" s="196"/>
-      <c r="AG26" s="196"/>
-      <c r="AH26" s="272"/>
+      <c r="E26" s="275"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="276"/>
+      <c r="K26" s="289"/>
+      <c r="L26" s="290"/>
+      <c r="M26" s="285"/>
+      <c r="N26" s="233"/>
+      <c r="O26" s="233"/>
+      <c r="P26" s="233"/>
+      <c r="Q26" s="233"/>
+      <c r="R26" s="233"/>
+      <c r="S26" s="233"/>
+      <c r="T26" s="233"/>
+      <c r="U26" s="233"/>
+      <c r="V26" s="233"/>
+      <c r="W26" s="233"/>
+      <c r="X26" s="233"/>
+      <c r="Y26" s="233"/>
+      <c r="Z26" s="233"/>
+      <c r="AA26" s="233"/>
+      <c r="AB26" s="233"/>
+      <c r="AC26" s="233"/>
+      <c r="AD26" s="233"/>
+      <c r="AE26" s="233"/>
+      <c r="AF26" s="233"/>
+      <c r="AG26" s="233"/>
+      <c r="AH26" s="286"/>
     </row>
     <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="260"/>
-      <c r="I27" s="260"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="266"/>
-      <c r="L27" s="267"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="274"/>
-      <c r="O27" s="274"/>
-      <c r="P27" s="274"/>
-      <c r="Q27" s="274"/>
-      <c r="R27" s="274"/>
-      <c r="S27" s="274"/>
-      <c r="T27" s="274"/>
-      <c r="U27" s="274"/>
-      <c r="V27" s="274"/>
-      <c r="W27" s="274"/>
-      <c r="X27" s="274"/>
-      <c r="Y27" s="274"/>
-      <c r="Z27" s="274"/>
-      <c r="AA27" s="274"/>
-      <c r="AB27" s="274"/>
-      <c r="AC27" s="274"/>
-      <c r="AD27" s="274"/>
-      <c r="AE27" s="274"/>
-      <c r="AF27" s="274"/>
-      <c r="AG27" s="274"/>
-      <c r="AH27" s="275"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="271"/>
+      <c r="I27" s="271"/>
+      <c r="J27" s="269"/>
+      <c r="K27" s="291"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="263"/>
+      <c r="N27" s="264"/>
+      <c r="O27" s="264"/>
+      <c r="P27" s="264"/>
+      <c r="Q27" s="264"/>
+      <c r="R27" s="264"/>
+      <c r="S27" s="264"/>
+      <c r="T27" s="264"/>
+      <c r="U27" s="264"/>
+      <c r="V27" s="264"/>
+      <c r="W27" s="264"/>
+      <c r="X27" s="264"/>
+      <c r="Y27" s="264"/>
+      <c r="Z27" s="264"/>
+      <c r="AA27" s="264"/>
+      <c r="AB27" s="264"/>
+      <c r="AC27" s="264"/>
+      <c r="AD27" s="264"/>
+      <c r="AE27" s="264"/>
+      <c r="AF27" s="264"/>
+      <c r="AG27" s="264"/>
+      <c r="AH27" s="265"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="246" t="s">
+      <c r="E28" s="252" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="247"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="179" t="s">
+      <c r="F28" s="253"/>
+      <c r="G28" s="253"/>
+      <c r="H28" s="253"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="254"/>
+      <c r="K28" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="181"/>
-      <c r="M28" s="206" t="s">
+      <c r="L28" s="119"/>
+      <c r="M28" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
-      <c r="P28" s="207"/>
-      <c r="Q28" s="207"/>
-      <c r="R28" s="207"/>
-      <c r="S28" s="207"/>
-      <c r="T28" s="207"/>
-      <c r="U28" s="207"/>
-      <c r="V28" s="207"/>
-      <c r="W28" s="207"/>
-      <c r="X28" s="207"/>
-      <c r="Y28" s="207"/>
-      <c r="Z28" s="207"/>
-      <c r="AA28" s="207"/>
-      <c r="AB28" s="207"/>
-      <c r="AC28" s="207"/>
-      <c r="AD28" s="207"/>
-      <c r="AE28" s="207"/>
-      <c r="AF28" s="207"/>
-      <c r="AG28" s="207"/>
-      <c r="AH28" s="208"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="214"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
+      <c r="AB28" s="214"/>
+      <c r="AC28" s="214"/>
+      <c r="AD28" s="214"/>
+      <c r="AE28" s="214"/>
+      <c r="AF28" s="214"/>
+      <c r="AG28" s="214"/>
+      <c r="AH28" s="215"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="251"/>
-      <c r="K29" s="252"/>
-      <c r="L29" s="253"/>
-      <c r="M29" s="212"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="213"/>
-      <c r="P29" s="213"/>
-      <c r="Q29" s="213"/>
-      <c r="R29" s="213"/>
-      <c r="S29" s="213"/>
-      <c r="T29" s="213"/>
-      <c r="U29" s="213"/>
-      <c r="V29" s="213"/>
-      <c r="W29" s="213"/>
-      <c r="X29" s="213"/>
-      <c r="Y29" s="213"/>
-      <c r="Z29" s="213"/>
-      <c r="AA29" s="213"/>
-      <c r="AB29" s="213"/>
-      <c r="AC29" s="213"/>
-      <c r="AD29" s="213"/>
-      <c r="AE29" s="213"/>
-      <c r="AF29" s="213"/>
-      <c r="AG29" s="213"/>
-      <c r="AH29" s="214"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="220"/>
+      <c r="O29" s="220"/>
+      <c r="P29" s="220"/>
+      <c r="Q29" s="220"/>
+      <c r="R29" s="220"/>
+      <c r="S29" s="220"/>
+      <c r="T29" s="220"/>
+      <c r="U29" s="220"/>
+      <c r="V29" s="220"/>
+      <c r="W29" s="220"/>
+      <c r="X29" s="220"/>
+      <c r="Y29" s="220"/>
+      <c r="Z29" s="220"/>
+      <c r="AA29" s="220"/>
+      <c r="AB29" s="220"/>
+      <c r="AC29" s="220"/>
+      <c r="AD29" s="220"/>
+      <c r="AE29" s="220"/>
+      <c r="AF29" s="220"/>
+      <c r="AG29" s="220"/>
+      <c r="AH29" s="221"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
-      <c r="E30" s="246" t="s">
+      <c r="E30" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="247"/>
-      <c r="I30" s="247"/>
-      <c r="J30" s="248"/>
-      <c r="K30" s="179" t="s">
+      <c r="F30" s="253"/>
+      <c r="G30" s="253"/>
+      <c r="H30" s="253"/>
+      <c r="I30" s="253"/>
+      <c r="J30" s="254"/>
+      <c r="K30" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="181"/>
-      <c r="M30" s="206" t="s">
+      <c r="L30" s="119"/>
+      <c r="M30" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="207"/>
-      <c r="R30" s="207"/>
-      <c r="S30" s="207"/>
-      <c r="T30" s="207"/>
-      <c r="U30" s="207"/>
-      <c r="V30" s="207"/>
-      <c r="W30" s="207"/>
-      <c r="X30" s="207"/>
-      <c r="Y30" s="207"/>
-      <c r="Z30" s="207"/>
-      <c r="AA30" s="207"/>
-      <c r="AB30" s="207"/>
-      <c r="AC30" s="207"/>
-      <c r="AD30" s="207"/>
-      <c r="AE30" s="207"/>
-      <c r="AF30" s="207"/>
-      <c r="AG30" s="207"/>
-      <c r="AH30" s="208"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="214"/>
+      <c r="P30" s="214"/>
+      <c r="Q30" s="214"/>
+      <c r="R30" s="214"/>
+      <c r="S30" s="214"/>
+      <c r="T30" s="214"/>
+      <c r="U30" s="214"/>
+      <c r="V30" s="214"/>
+      <c r="W30" s="214"/>
+      <c r="X30" s="214"/>
+      <c r="Y30" s="214"/>
+      <c r="Z30" s="214"/>
+      <c r="AA30" s="214"/>
+      <c r="AB30" s="214"/>
+      <c r="AC30" s="214"/>
+      <c r="AD30" s="214"/>
+      <c r="AE30" s="214"/>
+      <c r="AF30" s="214"/>
+      <c r="AG30" s="214"/>
+      <c r="AH30" s="215"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="250"/>
-      <c r="I31" s="250"/>
-      <c r="J31" s="251"/>
-      <c r="K31" s="252"/>
-      <c r="L31" s="253"/>
-      <c r="M31" s="212"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="213"/>
-      <c r="P31" s="213"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-      <c r="T31" s="213"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="213"/>
-      <c r="X31" s="213"/>
-      <c r="Y31" s="213"/>
-      <c r="Z31" s="213"/>
-      <c r="AA31" s="213"/>
-      <c r="AB31" s="213"/>
-      <c r="AC31" s="213"/>
-      <c r="AD31" s="213"/>
-      <c r="AE31" s="213"/>
-      <c r="AF31" s="213"/>
-      <c r="AG31" s="213"/>
-      <c r="AH31" s="214"/>
+      <c r="E31" s="255"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="220"/>
+      <c r="S31" s="220"/>
+      <c r="T31" s="220"/>
+      <c r="U31" s="220"/>
+      <c r="V31" s="220"/>
+      <c r="W31" s="220"/>
+      <c r="X31" s="220"/>
+      <c r="Y31" s="220"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="220"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="220"/>
+      <c r="AE31" s="220"/>
+      <c r="AF31" s="220"/>
+      <c r="AG31" s="220"/>
+      <c r="AH31" s="221"/>
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="48"/>
@@ -13258,496 +13258,496 @@
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="243" t="s">
+      <c r="E35" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="244"/>
-      <c r="J35" s="245"/>
-      <c r="K35" s="243" t="s">
+      <c r="F35" s="273"/>
+      <c r="G35" s="273"/>
+      <c r="H35" s="273"/>
+      <c r="I35" s="273"/>
+      <c r="J35" s="274"/>
+      <c r="K35" s="272" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="245"/>
-      <c r="M35" s="243" t="s">
+      <c r="L35" s="274"/>
+      <c r="M35" s="272" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="244"/>
-      <c r="O35" s="244"/>
-      <c r="P35" s="244"/>
-      <c r="Q35" s="244"/>
-      <c r="R35" s="244"/>
-      <c r="S35" s="244"/>
-      <c r="T35" s="244"/>
-      <c r="U35" s="244"/>
-      <c r="V35" s="244"/>
-      <c r="W35" s="244"/>
-      <c r="X35" s="244"/>
-      <c r="Y35" s="244"/>
-      <c r="Z35" s="244"/>
-      <c r="AA35" s="244"/>
-      <c r="AB35" s="244"/>
-      <c r="AC35" s="244"/>
-      <c r="AD35" s="244"/>
-      <c r="AE35" s="244"/>
-      <c r="AF35" s="244"/>
-      <c r="AG35" s="244"/>
-      <c r="AH35" s="245"/>
+      <c r="N35" s="273"/>
+      <c r="O35" s="273"/>
+      <c r="P35" s="273"/>
+      <c r="Q35" s="273"/>
+      <c r="R35" s="273"/>
+      <c r="S35" s="273"/>
+      <c r="T35" s="273"/>
+      <c r="U35" s="273"/>
+      <c r="V35" s="273"/>
+      <c r="W35" s="273"/>
+      <c r="X35" s="273"/>
+      <c r="Y35" s="273"/>
+      <c r="Z35" s="273"/>
+      <c r="AA35" s="273"/>
+      <c r="AB35" s="273"/>
+      <c r="AC35" s="273"/>
+      <c r="AD35" s="273"/>
+      <c r="AE35" s="273"/>
+      <c r="AF35" s="273"/>
+      <c r="AG35" s="273"/>
+      <c r="AH35" s="274"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="246" t="s">
+      <c r="E36" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="247"/>
-      <c r="G36" s="247"/>
-      <c r="H36" s="247"/>
-      <c r="I36" s="247"/>
-      <c r="J36" s="248"/>
-      <c r="K36" s="179" t="s">
+      <c r="F36" s="253"/>
+      <c r="G36" s="253"/>
+      <c r="H36" s="253"/>
+      <c r="I36" s="253"/>
+      <c r="J36" s="254"/>
+      <c r="K36" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="181"/>
-      <c r="M36" s="206" t="s">
+      <c r="L36" s="119"/>
+      <c r="M36" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="207"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="207"/>
-      <c r="Q36" s="207"/>
-      <c r="R36" s="207"/>
-      <c r="S36" s="207"/>
-      <c r="T36" s="207"/>
-      <c r="U36" s="207"/>
-      <c r="V36" s="207"/>
-      <c r="W36" s="207"/>
-      <c r="X36" s="207"/>
-      <c r="Y36" s="207"/>
-      <c r="Z36" s="207"/>
-      <c r="AA36" s="207"/>
-      <c r="AB36" s="207"/>
-      <c r="AC36" s="207"/>
-      <c r="AD36" s="207"/>
-      <c r="AE36" s="207"/>
-      <c r="AF36" s="207"/>
-      <c r="AG36" s="207"/>
-      <c r="AH36" s="208"/>
+      <c r="N36" s="214"/>
+      <c r="O36" s="214"/>
+      <c r="P36" s="214"/>
+      <c r="Q36" s="214"/>
+      <c r="R36" s="214"/>
+      <c r="S36" s="214"/>
+      <c r="T36" s="214"/>
+      <c r="U36" s="214"/>
+      <c r="V36" s="214"/>
+      <c r="W36" s="214"/>
+      <c r="X36" s="214"/>
+      <c r="Y36" s="214"/>
+      <c r="Z36" s="214"/>
+      <c r="AA36" s="214"/>
+      <c r="AB36" s="214"/>
+      <c r="AC36" s="214"/>
+      <c r="AD36" s="214"/>
+      <c r="AE36" s="214"/>
+      <c r="AF36" s="214"/>
+      <c r="AG36" s="214"/>
+      <c r="AH36" s="215"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="249"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250"/>
-      <c r="I37" s="250"/>
-      <c r="J37" s="251"/>
-      <c r="K37" s="252"/>
-      <c r="L37" s="253"/>
-      <c r="M37" s="212"/>
-      <c r="N37" s="213"/>
-      <c r="O37" s="213"/>
-      <c r="P37" s="213"/>
-      <c r="Q37" s="213"/>
-      <c r="R37" s="213"/>
-      <c r="S37" s="213"/>
-      <c r="T37" s="213"/>
-      <c r="U37" s="213"/>
-      <c r="V37" s="213"/>
-      <c r="W37" s="213"/>
-      <c r="X37" s="213"/>
-      <c r="Y37" s="213"/>
-      <c r="Z37" s="213"/>
-      <c r="AA37" s="213"/>
-      <c r="AB37" s="213"/>
-      <c r="AC37" s="213"/>
-      <c r="AD37" s="213"/>
-      <c r="AE37" s="213"/>
-      <c r="AF37" s="213"/>
-      <c r="AG37" s="213"/>
-      <c r="AH37" s="214"/>
+      <c r="E37" s="255"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="257"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="259"/>
+      <c r="M37" s="219"/>
+      <c r="N37" s="220"/>
+      <c r="O37" s="220"/>
+      <c r="P37" s="220"/>
+      <c r="Q37" s="220"/>
+      <c r="R37" s="220"/>
+      <c r="S37" s="220"/>
+      <c r="T37" s="220"/>
+      <c r="U37" s="220"/>
+      <c r="V37" s="220"/>
+      <c r="W37" s="220"/>
+      <c r="X37" s="220"/>
+      <c r="Y37" s="220"/>
+      <c r="Z37" s="220"/>
+      <c r="AA37" s="220"/>
+      <c r="AB37" s="220"/>
+      <c r="AC37" s="220"/>
+      <c r="AD37" s="220"/>
+      <c r="AE37" s="220"/>
+      <c r="AF37" s="220"/>
+      <c r="AG37" s="220"/>
+      <c r="AH37" s="221"/>
     </row>
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="254" t="s">
+      <c r="E38" s="266" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="255"/>
-      <c r="G38" s="255"/>
-      <c r="H38" s="255"/>
-      <c r="I38" s="255"/>
-      <c r="J38" s="256"/>
-      <c r="K38" s="262" t="s">
+      <c r="F38" s="270"/>
+      <c r="G38" s="270"/>
+      <c r="H38" s="270"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="267"/>
+      <c r="K38" s="287" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="263"/>
-      <c r="M38" s="268" t="s">
+      <c r="L38" s="288"/>
+      <c r="M38" s="260" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="269"/>
-      <c r="O38" s="269"/>
-      <c r="P38" s="269"/>
-      <c r="Q38" s="269"/>
-      <c r="R38" s="269"/>
-      <c r="S38" s="269"/>
-      <c r="T38" s="269"/>
-      <c r="U38" s="269"/>
-      <c r="V38" s="269"/>
-      <c r="W38" s="269"/>
-      <c r="X38" s="269"/>
-      <c r="Y38" s="269"/>
-      <c r="Z38" s="269"/>
-      <c r="AA38" s="269"/>
-      <c r="AB38" s="269"/>
-      <c r="AC38" s="269"/>
-      <c r="AD38" s="269"/>
-      <c r="AE38" s="269"/>
-      <c r="AF38" s="269"/>
-      <c r="AG38" s="269"/>
-      <c r="AH38" s="270"/>
+      <c r="N38" s="261"/>
+      <c r="O38" s="261"/>
+      <c r="P38" s="261"/>
+      <c r="Q38" s="261"/>
+      <c r="R38" s="261"/>
+      <c r="S38" s="261"/>
+      <c r="T38" s="261"/>
+      <c r="U38" s="261"/>
+      <c r="V38" s="261"/>
+      <c r="W38" s="261"/>
+      <c r="X38" s="261"/>
+      <c r="Y38" s="261"/>
+      <c r="Z38" s="261"/>
+      <c r="AA38" s="261"/>
+      <c r="AB38" s="261"/>
+      <c r="AC38" s="261"/>
+      <c r="AD38" s="261"/>
+      <c r="AE38" s="261"/>
+      <c r="AF38" s="261"/>
+      <c r="AG38" s="261"/>
+      <c r="AH38" s="262"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="257"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="258"/>
-      <c r="K39" s="264"/>
-      <c r="L39" s="265"/>
-      <c r="M39" s="271"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="196"/>
-      <c r="P39" s="196"/>
-      <c r="Q39" s="196"/>
-      <c r="R39" s="196"/>
-      <c r="S39" s="196"/>
-      <c r="T39" s="196"/>
-      <c r="U39" s="196"/>
-      <c r="V39" s="196"/>
-      <c r="W39" s="196"/>
-      <c r="X39" s="196"/>
-      <c r="Y39" s="196"/>
-      <c r="Z39" s="196"/>
-      <c r="AA39" s="196"/>
-      <c r="AB39" s="196"/>
-      <c r="AC39" s="196"/>
-      <c r="AD39" s="196"/>
-      <c r="AE39" s="196"/>
-      <c r="AF39" s="196"/>
-      <c r="AG39" s="196"/>
-      <c r="AH39" s="272"/>
+      <c r="E39" s="275"/>
+      <c r="F39" s="234"/>
+      <c r="G39" s="234"/>
+      <c r="H39" s="234"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="276"/>
+      <c r="K39" s="289"/>
+      <c r="L39" s="290"/>
+      <c r="M39" s="285"/>
+      <c r="N39" s="233"/>
+      <c r="O39" s="233"/>
+      <c r="P39" s="233"/>
+      <c r="Q39" s="233"/>
+      <c r="R39" s="233"/>
+      <c r="S39" s="233"/>
+      <c r="T39" s="233"/>
+      <c r="U39" s="233"/>
+      <c r="V39" s="233"/>
+      <c r="W39" s="233"/>
+      <c r="X39" s="233"/>
+      <c r="Y39" s="233"/>
+      <c r="Z39" s="233"/>
+      <c r="AA39" s="233"/>
+      <c r="AB39" s="233"/>
+      <c r="AC39" s="233"/>
+      <c r="AD39" s="233"/>
+      <c r="AE39" s="233"/>
+      <c r="AF39" s="233"/>
+      <c r="AG39" s="233"/>
+      <c r="AH39" s="286"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="259"/>
-      <c r="F40" s="260"/>
-      <c r="G40" s="260"/>
-      <c r="H40" s="260"/>
-      <c r="I40" s="260"/>
-      <c r="J40" s="261"/>
-      <c r="K40" s="266"/>
-      <c r="L40" s="267"/>
-      <c r="M40" s="273"/>
-      <c r="N40" s="274"/>
-      <c r="O40" s="274"/>
-      <c r="P40" s="274"/>
-      <c r="Q40" s="274"/>
-      <c r="R40" s="274"/>
-      <c r="S40" s="274"/>
-      <c r="T40" s="274"/>
-      <c r="U40" s="274"/>
-      <c r="V40" s="274"/>
-      <c r="W40" s="274"/>
-      <c r="X40" s="274"/>
-      <c r="Y40" s="274"/>
-      <c r="Z40" s="274"/>
-      <c r="AA40" s="274"/>
-      <c r="AB40" s="274"/>
-      <c r="AC40" s="274"/>
-      <c r="AD40" s="274"/>
-      <c r="AE40" s="274"/>
-      <c r="AF40" s="274"/>
-      <c r="AG40" s="274"/>
-      <c r="AH40" s="275"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="271"/>
+      <c r="H40" s="271"/>
+      <c r="I40" s="271"/>
+      <c r="J40" s="269"/>
+      <c r="K40" s="291"/>
+      <c r="L40" s="292"/>
+      <c r="M40" s="263"/>
+      <c r="N40" s="264"/>
+      <c r="O40" s="264"/>
+      <c r="P40" s="264"/>
+      <c r="Q40" s="264"/>
+      <c r="R40" s="264"/>
+      <c r="S40" s="264"/>
+      <c r="T40" s="264"/>
+      <c r="U40" s="264"/>
+      <c r="V40" s="264"/>
+      <c r="W40" s="264"/>
+      <c r="X40" s="264"/>
+      <c r="Y40" s="264"/>
+      <c r="Z40" s="264"/>
+      <c r="AA40" s="264"/>
+      <c r="AB40" s="264"/>
+      <c r="AC40" s="264"/>
+      <c r="AD40" s="264"/>
+      <c r="AE40" s="264"/>
+      <c r="AF40" s="264"/>
+      <c r="AG40" s="264"/>
+      <c r="AH40" s="265"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
-      <c r="E41" s="246" t="s">
+      <c r="E41" s="252" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="247"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="247"/>
-      <c r="I41" s="247"/>
-      <c r="J41" s="248"/>
-      <c r="K41" s="179" t="s">
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="253"/>
+      <c r="J41" s="254"/>
+      <c r="K41" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="181"/>
-      <c r="M41" s="206" t="s">
+      <c r="L41" s="119"/>
+      <c r="M41" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="207"/>
-      <c r="O41" s="207"/>
-      <c r="P41" s="207"/>
-      <c r="Q41" s="207"/>
-      <c r="R41" s="207"/>
-      <c r="S41" s="207"/>
-      <c r="T41" s="207"/>
-      <c r="U41" s="207"/>
-      <c r="V41" s="207"/>
-      <c r="W41" s="207"/>
-      <c r="X41" s="207"/>
-      <c r="Y41" s="207"/>
-      <c r="Z41" s="207"/>
-      <c r="AA41" s="207"/>
-      <c r="AB41" s="207"/>
-      <c r="AC41" s="207"/>
-      <c r="AD41" s="207"/>
-      <c r="AE41" s="207"/>
-      <c r="AF41" s="207"/>
-      <c r="AG41" s="207"/>
-      <c r="AH41" s="208"/>
+      <c r="N41" s="214"/>
+      <c r="O41" s="214"/>
+      <c r="P41" s="214"/>
+      <c r="Q41" s="214"/>
+      <c r="R41" s="214"/>
+      <c r="S41" s="214"/>
+      <c r="T41" s="214"/>
+      <c r="U41" s="214"/>
+      <c r="V41" s="214"/>
+      <c r="W41" s="214"/>
+      <c r="X41" s="214"/>
+      <c r="Y41" s="214"/>
+      <c r="Z41" s="214"/>
+      <c r="AA41" s="214"/>
+      <c r="AB41" s="214"/>
+      <c r="AC41" s="214"/>
+      <c r="AD41" s="214"/>
+      <c r="AE41" s="214"/>
+      <c r="AF41" s="214"/>
+      <c r="AG41" s="214"/>
+      <c r="AH41" s="215"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="250"/>
-      <c r="G42" s="250"/>
-      <c r="H42" s="250"/>
-      <c r="I42" s="250"/>
-      <c r="J42" s="251"/>
-      <c r="K42" s="252"/>
-      <c r="L42" s="253"/>
-      <c r="M42" s="212"/>
-      <c r="N42" s="213"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213"/>
-      <c r="Q42" s="213"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="213"/>
-      <c r="T42" s="213"/>
-      <c r="U42" s="213"/>
-      <c r="V42" s="213"/>
-      <c r="W42" s="213"/>
-      <c r="X42" s="213"/>
-      <c r="Y42" s="213"/>
-      <c r="Z42" s="213"/>
-      <c r="AA42" s="213"/>
-      <c r="AB42" s="213"/>
-      <c r="AC42" s="213"/>
-      <c r="AD42" s="213"/>
-      <c r="AE42" s="213"/>
-      <c r="AF42" s="213"/>
-      <c r="AG42" s="213"/>
-      <c r="AH42" s="214"/>
+      <c r="E42" s="255"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="257"/>
+      <c r="K42" s="258"/>
+      <c r="L42" s="259"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="220"/>
+      <c r="O42" s="220"/>
+      <c r="P42" s="220"/>
+      <c r="Q42" s="220"/>
+      <c r="R42" s="220"/>
+      <c r="S42" s="220"/>
+      <c r="T42" s="220"/>
+      <c r="U42" s="220"/>
+      <c r="V42" s="220"/>
+      <c r="W42" s="220"/>
+      <c r="X42" s="220"/>
+      <c r="Y42" s="220"/>
+      <c r="Z42" s="220"/>
+      <c r="AA42" s="220"/>
+      <c r="AB42" s="220"/>
+      <c r="AC42" s="220"/>
+      <c r="AD42" s="220"/>
+      <c r="AE42" s="220"/>
+      <c r="AF42" s="220"/>
+      <c r="AG42" s="220"/>
+      <c r="AH42" s="221"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="246" t="s">
+      <c r="E43" s="252" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="247"/>
-      <c r="G43" s="247"/>
-      <c r="H43" s="247"/>
-      <c r="I43" s="247"/>
-      <c r="J43" s="248"/>
-      <c r="K43" s="179" t="s">
+      <c r="F43" s="253"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="253"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="181"/>
-      <c r="M43" s="206" t="s">
+      <c r="L43" s="119"/>
+      <c r="M43" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="207"/>
-      <c r="O43" s="207"/>
-      <c r="P43" s="207"/>
-      <c r="Q43" s="207"/>
-      <c r="R43" s="207"/>
-      <c r="S43" s="207"/>
-      <c r="T43" s="207"/>
-      <c r="U43" s="207"/>
-      <c r="V43" s="207"/>
-      <c r="W43" s="207"/>
-      <c r="X43" s="207"/>
-      <c r="Y43" s="207"/>
-      <c r="Z43" s="207"/>
-      <c r="AA43" s="207"/>
-      <c r="AB43" s="207"/>
-      <c r="AC43" s="207"/>
-      <c r="AD43" s="207"/>
-      <c r="AE43" s="207"/>
-      <c r="AF43" s="207"/>
-      <c r="AG43" s="207"/>
-      <c r="AH43" s="208"/>
+      <c r="N43" s="214"/>
+      <c r="O43" s="214"/>
+      <c r="P43" s="214"/>
+      <c r="Q43" s="214"/>
+      <c r="R43" s="214"/>
+      <c r="S43" s="214"/>
+      <c r="T43" s="214"/>
+      <c r="U43" s="214"/>
+      <c r="V43" s="214"/>
+      <c r="W43" s="214"/>
+      <c r="X43" s="214"/>
+      <c r="Y43" s="214"/>
+      <c r="Z43" s="214"/>
+      <c r="AA43" s="214"/>
+      <c r="AB43" s="214"/>
+      <c r="AC43" s="214"/>
+      <c r="AD43" s="214"/>
+      <c r="AE43" s="214"/>
+      <c r="AF43" s="214"/>
+      <c r="AG43" s="214"/>
+      <c r="AH43" s="215"/>
     </row>
     <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="249"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="252"/>
-      <c r="L44" s="253"/>
-      <c r="M44" s="212"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="213"/>
-      <c r="P44" s="213"/>
-      <c r="Q44" s="213"/>
-      <c r="R44" s="213"/>
-      <c r="S44" s="213"/>
-      <c r="T44" s="213"/>
-      <c r="U44" s="213"/>
-      <c r="V44" s="213"/>
-      <c r="W44" s="213"/>
-      <c r="X44" s="213"/>
-      <c r="Y44" s="213"/>
-      <c r="Z44" s="213"/>
-      <c r="AA44" s="213"/>
-      <c r="AB44" s="213"/>
-      <c r="AC44" s="213"/>
-      <c r="AD44" s="213"/>
-      <c r="AE44" s="213"/>
-      <c r="AF44" s="213"/>
-      <c r="AG44" s="213"/>
-      <c r="AH44" s="214"/>
+      <c r="E44" s="255"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="256"/>
+      <c r="I44" s="256"/>
+      <c r="J44" s="257"/>
+      <c r="K44" s="258"/>
+      <c r="L44" s="259"/>
+      <c r="M44" s="219"/>
+      <c r="N44" s="220"/>
+      <c r="O44" s="220"/>
+      <c r="P44" s="220"/>
+      <c r="Q44" s="220"/>
+      <c r="R44" s="220"/>
+      <c r="S44" s="220"/>
+      <c r="T44" s="220"/>
+      <c r="U44" s="220"/>
+      <c r="V44" s="220"/>
+      <c r="W44" s="220"/>
+      <c r="X44" s="220"/>
+      <c r="Y44" s="220"/>
+      <c r="Z44" s="220"/>
+      <c r="AA44" s="220"/>
+      <c r="AB44" s="220"/>
+      <c r="AC44" s="220"/>
+      <c r="AD44" s="220"/>
+      <c r="AE44" s="220"/>
+      <c r="AF44" s="220"/>
+      <c r="AG44" s="220"/>
+      <c r="AH44" s="221"/>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="254" t="s">
+      <c r="E45" s="266" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="255"/>
-      <c r="G45" s="255"/>
-      <c r="H45" s="255"/>
-      <c r="I45" s="255"/>
-      <c r="J45" s="256"/>
-      <c r="K45" s="276" t="s">
+      <c r="F45" s="270"/>
+      <c r="G45" s="270"/>
+      <c r="H45" s="270"/>
+      <c r="I45" s="270"/>
+      <c r="J45" s="267"/>
+      <c r="K45" s="277" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="277"/>
-      <c r="M45" s="268" t="s">
+      <c r="L45" s="278"/>
+      <c r="M45" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="N45" s="269"/>
-      <c r="O45" s="269"/>
-      <c r="P45" s="269"/>
-      <c r="Q45" s="269"/>
-      <c r="R45" s="269"/>
-      <c r="S45" s="269"/>
-      <c r="T45" s="269"/>
-      <c r="U45" s="269"/>
-      <c r="V45" s="269"/>
-      <c r="W45" s="269"/>
-      <c r="X45" s="269"/>
-      <c r="Y45" s="269"/>
-      <c r="Z45" s="269"/>
-      <c r="AA45" s="269"/>
-      <c r="AB45" s="269"/>
-      <c r="AC45" s="269"/>
-      <c r="AD45" s="269"/>
-      <c r="AE45" s="269"/>
-      <c r="AF45" s="269"/>
-      <c r="AG45" s="269"/>
-      <c r="AH45" s="270"/>
+      <c r="N45" s="261"/>
+      <c r="O45" s="261"/>
+      <c r="P45" s="261"/>
+      <c r="Q45" s="261"/>
+      <c r="R45" s="261"/>
+      <c r="S45" s="261"/>
+      <c r="T45" s="261"/>
+      <c r="U45" s="261"/>
+      <c r="V45" s="261"/>
+      <c r="W45" s="261"/>
+      <c r="X45" s="261"/>
+      <c r="Y45" s="261"/>
+      <c r="Z45" s="261"/>
+      <c r="AA45" s="261"/>
+      <c r="AB45" s="261"/>
+      <c r="AC45" s="261"/>
+      <c r="AD45" s="261"/>
+      <c r="AE45" s="261"/>
+      <c r="AF45" s="261"/>
+      <c r="AG45" s="261"/>
+      <c r="AH45" s="262"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="257"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="258"/>
-      <c r="K46" s="278"/>
-      <c r="L46" s="279"/>
-      <c r="M46" s="271"/>
-      <c r="N46" s="196"/>
-      <c r="O46" s="196"/>
-      <c r="P46" s="196"/>
-      <c r="Q46" s="196"/>
-      <c r="R46" s="196"/>
-      <c r="S46" s="196"/>
-      <c r="T46" s="196"/>
-      <c r="U46" s="196"/>
-      <c r="V46" s="196"/>
-      <c r="W46" s="196"/>
-      <c r="X46" s="196"/>
-      <c r="Y46" s="196"/>
-      <c r="Z46" s="196"/>
-      <c r="AA46" s="196"/>
-      <c r="AB46" s="196"/>
-      <c r="AC46" s="196"/>
-      <c r="AD46" s="196"/>
-      <c r="AE46" s="196"/>
-      <c r="AF46" s="196"/>
-      <c r="AG46" s="196"/>
-      <c r="AH46" s="272"/>
+      <c r="E46" s="275"/>
+      <c r="F46" s="234"/>
+      <c r="G46" s="234"/>
+      <c r="H46" s="234"/>
+      <c r="I46" s="234"/>
+      <c r="J46" s="276"/>
+      <c r="K46" s="279"/>
+      <c r="L46" s="280"/>
+      <c r="M46" s="285"/>
+      <c r="N46" s="233"/>
+      <c r="O46" s="233"/>
+      <c r="P46" s="233"/>
+      <c r="Q46" s="233"/>
+      <c r="R46" s="233"/>
+      <c r="S46" s="233"/>
+      <c r="T46" s="233"/>
+      <c r="U46" s="233"/>
+      <c r="V46" s="233"/>
+      <c r="W46" s="233"/>
+      <c r="X46" s="233"/>
+      <c r="Y46" s="233"/>
+      <c r="Z46" s="233"/>
+      <c r="AA46" s="233"/>
+      <c r="AB46" s="233"/>
+      <c r="AC46" s="233"/>
+      <c r="AD46" s="233"/>
+      <c r="AE46" s="233"/>
+      <c r="AF46" s="233"/>
+      <c r="AG46" s="233"/>
+      <c r="AH46" s="286"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="259"/>
-      <c r="F47" s="260"/>
-      <c r="G47" s="260"/>
-      <c r="H47" s="260"/>
-      <c r="I47" s="260"/>
-      <c r="J47" s="261"/>
-      <c r="K47" s="280"/>
-      <c r="L47" s="281"/>
-      <c r="M47" s="273"/>
-      <c r="N47" s="274"/>
-      <c r="O47" s="274"/>
-      <c r="P47" s="274"/>
-      <c r="Q47" s="274"/>
-      <c r="R47" s="274"/>
-      <c r="S47" s="274"/>
-      <c r="T47" s="274"/>
-      <c r="U47" s="274"/>
-      <c r="V47" s="274"/>
-      <c r="W47" s="274"/>
-      <c r="X47" s="274"/>
-      <c r="Y47" s="274"/>
-      <c r="Z47" s="274"/>
-      <c r="AA47" s="274"/>
-      <c r="AB47" s="274"/>
-      <c r="AC47" s="274"/>
-      <c r="AD47" s="274"/>
-      <c r="AE47" s="274"/>
-      <c r="AF47" s="274"/>
-      <c r="AG47" s="274"/>
-      <c r="AH47" s="275"/>
+      <c r="E47" s="268"/>
+      <c r="F47" s="271"/>
+      <c r="G47" s="271"/>
+      <c r="H47" s="271"/>
+      <c r="I47" s="271"/>
+      <c r="J47" s="269"/>
+      <c r="K47" s="281"/>
+      <c r="L47" s="282"/>
+      <c r="M47" s="263"/>
+      <c r="N47" s="264"/>
+      <c r="O47" s="264"/>
+      <c r="P47" s="264"/>
+      <c r="Q47" s="264"/>
+      <c r="R47" s="264"/>
+      <c r="S47" s="264"/>
+      <c r="T47" s="264"/>
+      <c r="U47" s="264"/>
+      <c r="V47" s="264"/>
+      <c r="W47" s="264"/>
+      <c r="X47" s="264"/>
+      <c r="Y47" s="264"/>
+      <c r="Z47" s="264"/>
+      <c r="AA47" s="264"/>
+      <c r="AB47" s="264"/>
+      <c r="AC47" s="264"/>
+      <c r="AD47" s="264"/>
+      <c r="AE47" s="264"/>
+      <c r="AF47" s="264"/>
+      <c r="AG47" s="264"/>
+      <c r="AH47" s="265"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="254" t="s">
+      <c r="E48" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="255"/>
-      <c r="G48" s="255"/>
-      <c r="H48" s="255"/>
-      <c r="I48" s="255"/>
-      <c r="J48" s="256"/>
-      <c r="K48" s="276" t="s">
+      <c r="F48" s="270"/>
+      <c r="G48" s="270"/>
+      <c r="H48" s="270"/>
+      <c r="I48" s="270"/>
+      <c r="J48" s="267"/>
+      <c r="K48" s="277" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="277"/>
+      <c r="L48" s="278"/>
       <c r="M48" s="65" t="s">
         <v>95</v>
       </c>
@@ -13776,15 +13776,15 @@
     <row r="49" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="257"/>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="258"/>
-      <c r="K49" s="278"/>
-      <c r="L49" s="279"/>
-      <c r="M49" s="282" t="s">
+      <c r="E49" s="275"/>
+      <c r="F49" s="234"/>
+      <c r="G49" s="234"/>
+      <c r="H49" s="234"/>
+      <c r="I49" s="234"/>
+      <c r="J49" s="276"/>
+      <c r="K49" s="279"/>
+      <c r="L49" s="280"/>
+      <c r="M49" s="283" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="242"/>
@@ -13807,19 +13807,19 @@
       <c r="AE49" s="242"/>
       <c r="AF49" s="242"/>
       <c r="AG49" s="242"/>
-      <c r="AH49" s="283"/>
+      <c r="AH49" s="284"/>
     </row>
     <row r="50" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="257"/>
-      <c r="F50" s="194"/>
-      <c r="G50" s="194"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="194"/>
-      <c r="J50" s="258"/>
-      <c r="K50" s="278"/>
-      <c r="L50" s="279"/>
+      <c r="E50" s="275"/>
+      <c r="F50" s="234"/>
+      <c r="G50" s="234"/>
+      <c r="H50" s="234"/>
+      <c r="I50" s="234"/>
+      <c r="J50" s="276"/>
+      <c r="K50" s="279"/>
+      <c r="L50" s="280"/>
       <c r="M50" s="65" t="s">
         <v>96</v>
       </c>
@@ -13848,14 +13848,14 @@
     <row r="51" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="257"/>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="194"/>
-      <c r="J51" s="258"/>
-      <c r="K51" s="278"/>
-      <c r="L51" s="279"/>
+      <c r="E51" s="275"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="234"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="276"/>
+      <c r="K51" s="279"/>
+      <c r="L51" s="280"/>
       <c r="M51" s="65" t="s">
         <v>97</v>
       </c>
@@ -13872,14 +13872,14 @@
     <row r="52" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="257"/>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="258"/>
-      <c r="K52" s="278"/>
-      <c r="L52" s="279"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="234"/>
+      <c r="G52" s="234"/>
+      <c r="H52" s="234"/>
+      <c r="I52" s="234"/>
+      <c r="J52" s="276"/>
+      <c r="K52" s="279"/>
+      <c r="L52" s="280"/>
       <c r="M52" s="65"/>
       <c r="N52" s="37" t="s">
         <v>98</v>
@@ -13897,14 +13897,14 @@
     <row r="53" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="48"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="257"/>
-      <c r="F53" s="194"/>
-      <c r="G53" s="194"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="194"/>
-      <c r="J53" s="258"/>
-      <c r="K53" s="278"/>
-      <c r="L53" s="279"/>
+      <c r="E53" s="275"/>
+      <c r="F53" s="234"/>
+      <c r="G53" s="234"/>
+      <c r="H53" s="234"/>
+      <c r="I53" s="234"/>
+      <c r="J53" s="276"/>
+      <c r="K53" s="279"/>
+      <c r="L53" s="280"/>
       <c r="M53" s="65"/>
       <c r="N53" s="242" t="s">
         <v>99</v>
@@ -13928,19 +13928,19 @@
       <c r="AE53" s="242"/>
       <c r="AF53" s="242"/>
       <c r="AG53" s="242"/>
-      <c r="AH53" s="283"/>
+      <c r="AH53" s="284"/>
     </row>
     <row r="54" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="257"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="194"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="194"/>
-      <c r="J54" s="258"/>
-      <c r="K54" s="278"/>
-      <c r="L54" s="279"/>
+      <c r="E54" s="275"/>
+      <c r="F54" s="234"/>
+      <c r="G54" s="234"/>
+      <c r="H54" s="234"/>
+      <c r="I54" s="234"/>
+      <c r="J54" s="276"/>
+      <c r="K54" s="279"/>
+      <c r="L54" s="280"/>
       <c r="M54" s="65"/>
       <c r="N54" s="67" t="s">
         <v>32</v>
@@ -13969,14 +13969,14 @@
     <row r="55" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="257"/>
-      <c r="F55" s="194"/>
-      <c r="G55" s="194"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="194"/>
-      <c r="J55" s="258"/>
-      <c r="K55" s="278"/>
-      <c r="L55" s="279"/>
+      <c r="E55" s="275"/>
+      <c r="F55" s="234"/>
+      <c r="G55" s="234"/>
+      <c r="H55" s="234"/>
+      <c r="I55" s="234"/>
+      <c r="J55" s="276"/>
+      <c r="K55" s="279"/>
+      <c r="L55" s="280"/>
       <c r="M55" s="65"/>
       <c r="N55" s="31"/>
       <c r="O55" s="31" t="s">
@@ -14005,14 +14005,14 @@
     <row r="56" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="257"/>
-      <c r="F56" s="194"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="194"/>
-      <c r="J56" s="258"/>
-      <c r="K56" s="278"/>
-      <c r="L56" s="279"/>
+      <c r="E56" s="275"/>
+      <c r="F56" s="234"/>
+      <c r="G56" s="234"/>
+      <c r="H56" s="234"/>
+      <c r="I56" s="234"/>
+      <c r="J56" s="276"/>
+      <c r="K56" s="279"/>
+      <c r="L56" s="280"/>
       <c r="M56" s="65"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31" t="s">
@@ -14041,14 +14041,14 @@
     <row r="57" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="257"/>
-      <c r="F57" s="194"/>
-      <c r="G57" s="194"/>
-      <c r="H57" s="194"/>
-      <c r="I57" s="194"/>
-      <c r="J57" s="258"/>
-      <c r="K57" s="278"/>
-      <c r="L57" s="279"/>
+      <c r="E57" s="275"/>
+      <c r="F57" s="234"/>
+      <c r="G57" s="234"/>
+      <c r="H57" s="234"/>
+      <c r="I57" s="234"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="279"/>
+      <c r="L57" s="280"/>
       <c r="M57" s="65"/>
       <c r="N57" s="31" t="s">
         <v>101</v>
@@ -14076,14 +14076,14 @@
     <row r="58" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="257"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="258"/>
-      <c r="K58" s="278"/>
-      <c r="L58" s="279"/>
+      <c r="E58" s="275"/>
+      <c r="F58" s="234"/>
+      <c r="G58" s="234"/>
+      <c r="H58" s="234"/>
+      <c r="I58" s="234"/>
+      <c r="J58" s="276"/>
+      <c r="K58" s="279"/>
+      <c r="L58" s="280"/>
       <c r="M58" s="65"/>
       <c r="N58" s="31" t="s">
         <v>102</v>
@@ -14110,14 +14110,14 @@
     <row r="59" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="257"/>
-      <c r="F59" s="194"/>
-      <c r="G59" s="194"/>
-      <c r="H59" s="194"/>
-      <c r="I59" s="194"/>
-      <c r="J59" s="258"/>
-      <c r="K59" s="278"/>
-      <c r="L59" s="279"/>
+      <c r="E59" s="275"/>
+      <c r="F59" s="234"/>
+      <c r="G59" s="234"/>
+      <c r="H59" s="234"/>
+      <c r="I59" s="234"/>
+      <c r="J59" s="276"/>
+      <c r="K59" s="279"/>
+      <c r="L59" s="280"/>
       <c r="M59" s="65"/>
       <c r="N59" s="31" t="s">
         <v>103</v>
@@ -14146,14 +14146,14 @@
     <row r="60" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="257"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="194"/>
-      <c r="J60" s="258"/>
-      <c r="K60" s="278"/>
-      <c r="L60" s="279"/>
+      <c r="E60" s="275"/>
+      <c r="F60" s="234"/>
+      <c r="G60" s="234"/>
+      <c r="H60" s="234"/>
+      <c r="I60" s="234"/>
+      <c r="J60" s="276"/>
+      <c r="K60" s="279"/>
+      <c r="L60" s="280"/>
       <c r="M60" s="65"/>
       <c r="N60" s="31"/>
       <c r="O60" s="31" t="s">
@@ -14182,14 +14182,14 @@
     <row r="61" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
-      <c r="E61" s="257"/>
-      <c r="F61" s="194"/>
-      <c r="G61" s="194"/>
-      <c r="H61" s="194"/>
-      <c r="I61" s="194"/>
-      <c r="J61" s="258"/>
-      <c r="K61" s="278"/>
-      <c r="L61" s="279"/>
+      <c r="E61" s="275"/>
+      <c r="F61" s="234"/>
+      <c r="G61" s="234"/>
+      <c r="H61" s="234"/>
+      <c r="I61" s="234"/>
+      <c r="J61" s="276"/>
+      <c r="K61" s="279"/>
+      <c r="L61" s="280"/>
       <c r="M61" s="65"/>
       <c r="N61" s="31"/>
       <c r="O61" s="31" t="s">
@@ -14218,14 +14218,14 @@
     <row r="62" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
-      <c r="E62" s="259"/>
-      <c r="F62" s="260"/>
-      <c r="G62" s="260"/>
-      <c r="H62" s="260"/>
-      <c r="I62" s="260"/>
-      <c r="J62" s="261"/>
-      <c r="K62" s="280"/>
-      <c r="L62" s="281"/>
+      <c r="E62" s="268"/>
+      <c r="F62" s="271"/>
+      <c r="G62" s="271"/>
+      <c r="H62" s="271"/>
+      <c r="I62" s="271"/>
+      <c r="J62" s="269"/>
+      <c r="K62" s="281"/>
+      <c r="L62" s="282"/>
       <c r="M62" s="65"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
@@ -14254,146 +14254,146 @@
     <row r="63" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="246" t="s">
+      <c r="E63" s="252" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="247"/>
-      <c r="G63" s="247"/>
-      <c r="H63" s="247"/>
-      <c r="I63" s="247"/>
-      <c r="J63" s="248"/>
-      <c r="K63" s="246"/>
-      <c r="L63" s="248"/>
-      <c r="M63" s="206" t="s">
+      <c r="F63" s="253"/>
+      <c r="G63" s="253"/>
+      <c r="H63" s="253"/>
+      <c r="I63" s="253"/>
+      <c r="J63" s="254"/>
+      <c r="K63" s="252"/>
+      <c r="L63" s="254"/>
+      <c r="M63" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="N63" s="207"/>
-      <c r="O63" s="207"/>
-      <c r="P63" s="207"/>
-      <c r="Q63" s="207"/>
-      <c r="R63" s="207"/>
-      <c r="S63" s="207"/>
-      <c r="T63" s="207"/>
-      <c r="U63" s="207"/>
-      <c r="V63" s="207"/>
-      <c r="W63" s="207"/>
-      <c r="X63" s="207"/>
-      <c r="Y63" s="207"/>
-      <c r="Z63" s="207"/>
-      <c r="AA63" s="207"/>
-      <c r="AB63" s="207"/>
-      <c r="AC63" s="207"/>
-      <c r="AD63" s="207"/>
-      <c r="AE63" s="207"/>
-      <c r="AF63" s="207"/>
-      <c r="AG63" s="207"/>
-      <c r="AH63" s="208"/>
+      <c r="N63" s="214"/>
+      <c r="O63" s="214"/>
+      <c r="P63" s="214"/>
+      <c r="Q63" s="214"/>
+      <c r="R63" s="214"/>
+      <c r="S63" s="214"/>
+      <c r="T63" s="214"/>
+      <c r="U63" s="214"/>
+      <c r="V63" s="214"/>
+      <c r="W63" s="214"/>
+      <c r="X63" s="214"/>
+      <c r="Y63" s="214"/>
+      <c r="Z63" s="214"/>
+      <c r="AA63" s="214"/>
+      <c r="AB63" s="214"/>
+      <c r="AC63" s="214"/>
+      <c r="AD63" s="214"/>
+      <c r="AE63" s="214"/>
+      <c r="AF63" s="214"/>
+      <c r="AG63" s="214"/>
+      <c r="AH63" s="215"/>
     </row>
     <row r="64" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="249"/>
-      <c r="F64" s="250"/>
-      <c r="G64" s="250"/>
-      <c r="H64" s="250"/>
-      <c r="I64" s="250"/>
-      <c r="J64" s="251"/>
-      <c r="K64" s="249"/>
-      <c r="L64" s="251"/>
-      <c r="M64" s="212"/>
-      <c r="N64" s="213"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="213"/>
-      <c r="R64" s="213"/>
-      <c r="S64" s="213"/>
-      <c r="T64" s="213"/>
-      <c r="U64" s="213"/>
-      <c r="V64" s="213"/>
-      <c r="W64" s="213"/>
-      <c r="X64" s="213"/>
-      <c r="Y64" s="213"/>
-      <c r="Z64" s="213"/>
-      <c r="AA64" s="213"/>
-      <c r="AB64" s="213"/>
-      <c r="AC64" s="213"/>
-      <c r="AD64" s="213"/>
-      <c r="AE64" s="213"/>
-      <c r="AF64" s="213"/>
-      <c r="AG64" s="213"/>
-      <c r="AH64" s="214"/>
+      <c r="E64" s="255"/>
+      <c r="F64" s="256"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="256"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="257"/>
+      <c r="K64" s="255"/>
+      <c r="L64" s="257"/>
+      <c r="M64" s="219"/>
+      <c r="N64" s="220"/>
+      <c r="O64" s="220"/>
+      <c r="P64" s="220"/>
+      <c r="Q64" s="220"/>
+      <c r="R64" s="220"/>
+      <c r="S64" s="220"/>
+      <c r="T64" s="220"/>
+      <c r="U64" s="220"/>
+      <c r="V64" s="220"/>
+      <c r="W64" s="220"/>
+      <c r="X64" s="220"/>
+      <c r="Y64" s="220"/>
+      <c r="Z64" s="220"/>
+      <c r="AA64" s="220"/>
+      <c r="AB64" s="220"/>
+      <c r="AC64" s="220"/>
+      <c r="AD64" s="220"/>
+      <c r="AE64" s="220"/>
+      <c r="AF64" s="220"/>
+      <c r="AG64" s="220"/>
+      <c r="AH64" s="221"/>
     </row>
     <row r="65" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="268" t="s">
+      <c r="E65" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="269"/>
-      <c r="G65" s="269"/>
-      <c r="H65" s="269"/>
-      <c r="I65" s="269"/>
-      <c r="J65" s="270"/>
-      <c r="K65" s="254"/>
-      <c r="L65" s="256"/>
-      <c r="M65" s="254" t="s">
+      <c r="F65" s="261"/>
+      <c r="G65" s="261"/>
+      <c r="H65" s="261"/>
+      <c r="I65" s="261"/>
+      <c r="J65" s="262"/>
+      <c r="K65" s="266"/>
+      <c r="L65" s="267"/>
+      <c r="M65" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="255"/>
-      <c r="O65" s="255"/>
-      <c r="P65" s="255"/>
-      <c r="Q65" s="255"/>
-      <c r="R65" s="255"/>
-      <c r="S65" s="255"/>
-      <c r="T65" s="255"/>
-      <c r="U65" s="255"/>
-      <c r="V65" s="255"/>
-      <c r="W65" s="255"/>
-      <c r="X65" s="255"/>
-      <c r="Y65" s="255"/>
-      <c r="Z65" s="255"/>
-      <c r="AA65" s="255"/>
-      <c r="AB65" s="255"/>
-      <c r="AC65" s="255"/>
-      <c r="AD65" s="255"/>
-      <c r="AE65" s="255"/>
-      <c r="AF65" s="255"/>
-      <c r="AG65" s="255"/>
-      <c r="AH65" s="256"/>
+      <c r="N65" s="270"/>
+      <c r="O65" s="270"/>
+      <c r="P65" s="270"/>
+      <c r="Q65" s="270"/>
+      <c r="R65" s="270"/>
+      <c r="S65" s="270"/>
+      <c r="T65" s="270"/>
+      <c r="U65" s="270"/>
+      <c r="V65" s="270"/>
+      <c r="W65" s="270"/>
+      <c r="X65" s="270"/>
+      <c r="Y65" s="270"/>
+      <c r="Z65" s="270"/>
+      <c r="AA65" s="270"/>
+      <c r="AB65" s="270"/>
+      <c r="AC65" s="270"/>
+      <c r="AD65" s="270"/>
+      <c r="AE65" s="270"/>
+      <c r="AF65" s="270"/>
+      <c r="AG65" s="270"/>
+      <c r="AH65" s="267"/>
     </row>
     <row r="66" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
-      <c r="E66" s="273"/>
-      <c r="F66" s="274"/>
-      <c r="G66" s="274"/>
-      <c r="H66" s="274"/>
-      <c r="I66" s="274"/>
-      <c r="J66" s="275"/>
-      <c r="K66" s="259"/>
-      <c r="L66" s="261"/>
-      <c r="M66" s="259"/>
-      <c r="N66" s="260"/>
-      <c r="O66" s="260"/>
-      <c r="P66" s="260"/>
-      <c r="Q66" s="260"/>
-      <c r="R66" s="260"/>
-      <c r="S66" s="260"/>
-      <c r="T66" s="260"/>
-      <c r="U66" s="260"/>
-      <c r="V66" s="260"/>
-      <c r="W66" s="260"/>
-      <c r="X66" s="260"/>
-      <c r="Y66" s="260"/>
-      <c r="Z66" s="260"/>
-      <c r="AA66" s="260"/>
-      <c r="AB66" s="260"/>
-      <c r="AC66" s="260"/>
-      <c r="AD66" s="260"/>
-      <c r="AE66" s="260"/>
-      <c r="AF66" s="260"/>
-      <c r="AG66" s="260"/>
-      <c r="AH66" s="261"/>
+      <c r="E66" s="263"/>
+      <c r="F66" s="264"/>
+      <c r="G66" s="264"/>
+      <c r="H66" s="264"/>
+      <c r="I66" s="264"/>
+      <c r="J66" s="265"/>
+      <c r="K66" s="268"/>
+      <c r="L66" s="269"/>
+      <c r="M66" s="268"/>
+      <c r="N66" s="271"/>
+      <c r="O66" s="271"/>
+      <c r="P66" s="271"/>
+      <c r="Q66" s="271"/>
+      <c r="R66" s="271"/>
+      <c r="S66" s="271"/>
+      <c r="T66" s="271"/>
+      <c r="U66" s="271"/>
+      <c r="V66" s="271"/>
+      <c r="W66" s="271"/>
+      <c r="X66" s="271"/>
+      <c r="Y66" s="271"/>
+      <c r="Z66" s="271"/>
+      <c r="AA66" s="271"/>
+      <c r="AB66" s="271"/>
+      <c r="AC66" s="271"/>
+      <c r="AD66" s="271"/>
+      <c r="AE66" s="271"/>
+      <c r="AF66" s="271"/>
+      <c r="AG66" s="271"/>
+      <c r="AH66" s="269"/>
     </row>
     <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="48"/>
@@ -14520,116 +14520,116 @@
     <row r="71" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="48"/>
       <c r="D71" s="48"/>
-      <c r="E71" s="243" t="s">
+      <c r="E71" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="244"/>
-      <c r="G71" s="244"/>
-      <c r="H71" s="244"/>
-      <c r="I71" s="244"/>
-      <c r="J71" s="245"/>
-      <c r="K71" s="243" t="s">
+      <c r="F71" s="273"/>
+      <c r="G71" s="273"/>
+      <c r="H71" s="273"/>
+      <c r="I71" s="273"/>
+      <c r="J71" s="274"/>
+      <c r="K71" s="272" t="s">
         <v>88</v>
       </c>
-      <c r="L71" s="245"/>
-      <c r="M71" s="243" t="s">
+      <c r="L71" s="274"/>
+      <c r="M71" s="272" t="s">
         <v>89</v>
       </c>
-      <c r="N71" s="244"/>
-      <c r="O71" s="244"/>
-      <c r="P71" s="244"/>
-      <c r="Q71" s="244"/>
-      <c r="R71" s="244"/>
-      <c r="S71" s="244"/>
-      <c r="T71" s="244"/>
-      <c r="U71" s="244"/>
-      <c r="V71" s="244"/>
-      <c r="W71" s="244"/>
-      <c r="X71" s="244"/>
-      <c r="Y71" s="244"/>
-      <c r="Z71" s="244"/>
-      <c r="AA71" s="244"/>
-      <c r="AB71" s="244"/>
-      <c r="AC71" s="244"/>
-      <c r="AD71" s="244"/>
-      <c r="AE71" s="244"/>
-      <c r="AF71" s="244"/>
-      <c r="AG71" s="244"/>
-      <c r="AH71" s="245"/>
+      <c r="N71" s="273"/>
+      <c r="O71" s="273"/>
+      <c r="P71" s="273"/>
+      <c r="Q71" s="273"/>
+      <c r="R71" s="273"/>
+      <c r="S71" s="273"/>
+      <c r="T71" s="273"/>
+      <c r="U71" s="273"/>
+      <c r="V71" s="273"/>
+      <c r="W71" s="273"/>
+      <c r="X71" s="273"/>
+      <c r="Y71" s="273"/>
+      <c r="Z71" s="273"/>
+      <c r="AA71" s="273"/>
+      <c r="AB71" s="273"/>
+      <c r="AC71" s="273"/>
+      <c r="AD71" s="273"/>
+      <c r="AE71" s="273"/>
+      <c r="AF71" s="273"/>
+      <c r="AG71" s="273"/>
+      <c r="AH71" s="274"/>
     </row>
     <row r="72" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="48"/>
       <c r="D72" s="48"/>
-      <c r="E72" s="246" t="s">
+      <c r="E72" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="F72" s="247"/>
-      <c r="G72" s="247"/>
-      <c r="H72" s="247"/>
-      <c r="I72" s="247"/>
-      <c r="J72" s="248"/>
-      <c r="K72" s="179" t="s">
+      <c r="F72" s="253"/>
+      <c r="G72" s="253"/>
+      <c r="H72" s="253"/>
+      <c r="I72" s="253"/>
+      <c r="J72" s="254"/>
+      <c r="K72" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="181"/>
-      <c r="M72" s="206" t="s">
+      <c r="L72" s="119"/>
+      <c r="M72" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="N72" s="207"/>
-      <c r="O72" s="207"/>
-      <c r="P72" s="207"/>
-      <c r="Q72" s="207"/>
-      <c r="R72" s="207"/>
-      <c r="S72" s="207"/>
-      <c r="T72" s="207"/>
-      <c r="U72" s="207"/>
-      <c r="V72" s="207"/>
-      <c r="W72" s="207"/>
-      <c r="X72" s="207"/>
-      <c r="Y72" s="207"/>
-      <c r="Z72" s="207"/>
-      <c r="AA72" s="207"/>
-      <c r="AB72" s="207"/>
-      <c r="AC72" s="207"/>
-      <c r="AD72" s="207"/>
-      <c r="AE72" s="207"/>
-      <c r="AF72" s="207"/>
-      <c r="AG72" s="207"/>
-      <c r="AH72" s="208"/>
+      <c r="N72" s="214"/>
+      <c r="O72" s="214"/>
+      <c r="P72" s="214"/>
+      <c r="Q72" s="214"/>
+      <c r="R72" s="214"/>
+      <c r="S72" s="214"/>
+      <c r="T72" s="214"/>
+      <c r="U72" s="214"/>
+      <c r="V72" s="214"/>
+      <c r="W72" s="214"/>
+      <c r="X72" s="214"/>
+      <c r="Y72" s="214"/>
+      <c r="Z72" s="214"/>
+      <c r="AA72" s="214"/>
+      <c r="AB72" s="214"/>
+      <c r="AC72" s="214"/>
+      <c r="AD72" s="214"/>
+      <c r="AE72" s="214"/>
+      <c r="AF72" s="214"/>
+      <c r="AG72" s="214"/>
+      <c r="AH72" s="215"/>
     </row>
     <row r="73" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="48"/>
       <c r="D73" s="48"/>
-      <c r="E73" s="249"/>
-      <c r="F73" s="250"/>
-      <c r="G73" s="250"/>
-      <c r="H73" s="250"/>
-      <c r="I73" s="250"/>
-      <c r="J73" s="251"/>
-      <c r="K73" s="252"/>
-      <c r="L73" s="253"/>
-      <c r="M73" s="212"/>
-      <c r="N73" s="213"/>
-      <c r="O73" s="213"/>
-      <c r="P73" s="213"/>
-      <c r="Q73" s="213"/>
-      <c r="R73" s="213"/>
-      <c r="S73" s="213"/>
-      <c r="T73" s="213"/>
-      <c r="U73" s="213"/>
-      <c r="V73" s="213"/>
-      <c r="W73" s="213"/>
-      <c r="X73" s="213"/>
-      <c r="Y73" s="213"/>
-      <c r="Z73" s="213"/>
-      <c r="AA73" s="213"/>
-      <c r="AB73" s="213"/>
-      <c r="AC73" s="213"/>
-      <c r="AD73" s="213"/>
-      <c r="AE73" s="213"/>
-      <c r="AF73" s="213"/>
-      <c r="AG73" s="213"/>
-      <c r="AH73" s="214"/>
+      <c r="E73" s="255"/>
+      <c r="F73" s="256"/>
+      <c r="G73" s="256"/>
+      <c r="H73" s="256"/>
+      <c r="I73" s="256"/>
+      <c r="J73" s="257"/>
+      <c r="K73" s="258"/>
+      <c r="L73" s="259"/>
+      <c r="M73" s="219"/>
+      <c r="N73" s="220"/>
+      <c r="O73" s="220"/>
+      <c r="P73" s="220"/>
+      <c r="Q73" s="220"/>
+      <c r="R73" s="220"/>
+      <c r="S73" s="220"/>
+      <c r="T73" s="220"/>
+      <c r="U73" s="220"/>
+      <c r="V73" s="220"/>
+      <c r="W73" s="220"/>
+      <c r="X73" s="220"/>
+      <c r="Y73" s="220"/>
+      <c r="Z73" s="220"/>
+      <c r="AA73" s="220"/>
+      <c r="AB73" s="220"/>
+      <c r="AC73" s="220"/>
+      <c r="AD73" s="220"/>
+      <c r="AE73" s="220"/>
+      <c r="AF73" s="220"/>
+      <c r="AG73" s="220"/>
+      <c r="AH73" s="221"/>
     </row>
     <row r="74" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="48"/>
@@ -15377,7 +15377,7 @@
     <row r="103" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="104"/>
       <c r="F103" s="103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G103" s="104"/>
       <c r="H103" s="104"/>
@@ -15750,7 +15750,7 @@
     <row r="116" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="104"/>
       <c r="F116" s="103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G116" s="104"/>
       <c r="H116" s="104"/>
@@ -15862,7 +15862,7 @@
     <row r="120" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="104"/>
       <c r="F120" s="103" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G120" s="104"/>
       <c r="H120" s="104"/>
@@ -15891,7 +15891,7 @@
     <row r="121" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="104"/>
       <c r="F121" s="103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G121" s="104"/>
       <c r="H121" s="104"/>
@@ -15992,19 +15992,19 @@
       <c r="Q124" s="104"/>
       <c r="R124" s="104"/>
       <c r="S124" s="104"/>
-      <c r="T124" s="284" t="s">
+      <c r="T124" s="249" t="s">
         <v>237</v>
       </c>
-      <c r="U124" s="285"/>
-      <c r="V124" s="286"/>
+      <c r="U124" s="250"/>
+      <c r="V124" s="251"/>
       <c r="W124" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="X124" s="284" t="s">
+      <c r="X124" s="249" t="s">
         <v>238</v>
       </c>
-      <c r="Y124" s="285"/>
-      <c r="Z124" s="286"/>
+      <c r="Y124" s="250"/>
+      <c r="Z124" s="251"/>
       <c r="AA124" s="105" t="s">
         <v>3</v>
       </c>
@@ -16031,19 +16031,19 @@
       <c r="Q125" s="104"/>
       <c r="R125" s="104"/>
       <c r="S125" s="104"/>
-      <c r="T125" s="287" t="s">
+      <c r="T125" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="U125" s="288"/>
-      <c r="V125" s="289"/>
+      <c r="U125" s="244"/>
+      <c r="V125" s="245"/>
       <c r="W125" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="X125" s="290" t="s">
+      <c r="X125" s="246" t="s">
         <v>254</v>
       </c>
-      <c r="Y125" s="291"/>
-      <c r="Z125" s="292"/>
+      <c r="Y125" s="247"/>
+      <c r="Z125" s="248"/>
       <c r="AA125" s="106" t="s">
         <v>3</v>
       </c>
@@ -16070,19 +16070,19 @@
       <c r="Q126" s="104"/>
       <c r="R126" s="104"/>
       <c r="S126" s="104"/>
-      <c r="T126" s="287" t="s">
+      <c r="T126" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="U126" s="288"/>
-      <c r="V126" s="289"/>
+      <c r="U126" s="244"/>
+      <c r="V126" s="245"/>
       <c r="W126" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="X126" s="290" t="s">
+      <c r="X126" s="246" t="s">
         <v>254</v>
       </c>
-      <c r="Y126" s="291"/>
-      <c r="Z126" s="292"/>
+      <c r="Y126" s="247"/>
+      <c r="Z126" s="248"/>
       <c r="AA126" s="106" t="s">
         <v>3</v>
       </c>
@@ -16109,19 +16109,19 @@
       <c r="Q127" s="104"/>
       <c r="R127" s="104"/>
       <c r="S127" s="104"/>
-      <c r="T127" s="287" t="s">
+      <c r="T127" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="U127" s="288"/>
-      <c r="V127" s="289"/>
+      <c r="U127" s="244"/>
+      <c r="V127" s="245"/>
       <c r="W127" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="X127" s="290" t="s">
+      <c r="X127" s="246" t="s">
         <v>255</v>
       </c>
-      <c r="Y127" s="291"/>
-      <c r="Z127" s="292"/>
+      <c r="Y127" s="247"/>
+      <c r="Z127" s="248"/>
       <c r="AA127" s="106" t="s">
         <v>3</v>
       </c>
@@ -16148,19 +16148,19 @@
       <c r="Q128" s="104"/>
       <c r="R128" s="104"/>
       <c r="S128" s="104"/>
-      <c r="T128" s="287" t="s">
+      <c r="T128" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="U128" s="288"/>
-      <c r="V128" s="289"/>
+      <c r="U128" s="244"/>
+      <c r="V128" s="245"/>
       <c r="W128" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="X128" s="290" t="s">
+      <c r="X128" s="246" t="s">
         <v>256</v>
       </c>
-      <c r="Y128" s="291"/>
-      <c r="Z128" s="292"/>
+      <c r="Y128" s="247"/>
+      <c r="Z128" s="248"/>
       <c r="AA128" s="106" t="s">
         <v>3</v>
       </c>
@@ -16185,19 +16185,19 @@
       <c r="Q129" s="104"/>
       <c r="R129" s="104"/>
       <c r="S129" s="104"/>
-      <c r="T129" s="287" t="s">
+      <c r="T129" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="U129" s="288"/>
-      <c r="V129" s="289"/>
+      <c r="U129" s="244"/>
+      <c r="V129" s="245"/>
       <c r="W129" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="X129" s="290" t="s">
+      <c r="X129" s="246" t="s">
         <v>257</v>
       </c>
-      <c r="Y129" s="291"/>
-      <c r="Z129" s="292"/>
+      <c r="Y129" s="247"/>
+      <c r="Z129" s="248"/>
       <c r="AA129" s="106" t="s">
         <v>3</v>
       </c>
@@ -16222,19 +16222,19 @@
       <c r="Q130" s="104"/>
       <c r="R130" s="104"/>
       <c r="S130" s="104"/>
-      <c r="T130" s="287" t="s">
+      <c r="T130" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="U130" s="288"/>
-      <c r="V130" s="289"/>
+      <c r="U130" s="244"/>
+      <c r="V130" s="245"/>
       <c r="W130" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="X130" s="290" t="s">
+      <c r="X130" s="246" t="s">
         <v>258</v>
       </c>
-      <c r="Y130" s="291"/>
-      <c r="Z130" s="292"/>
+      <c r="Y130" s="247"/>
+      <c r="Z130" s="248"/>
       <c r="AA130" s="106" t="s">
         <v>3</v>
       </c>
@@ -16330,71 +16330,6 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="T130:V130"/>
-    <mergeCell ref="X130:Z130"/>
-    <mergeCell ref="T127:V127"/>
-    <mergeCell ref="X127:Z127"/>
-    <mergeCell ref="T128:V128"/>
-    <mergeCell ref="X128:Z128"/>
-    <mergeCell ref="T129:V129"/>
-    <mergeCell ref="X129:Z129"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="X124:Z124"/>
-    <mergeCell ref="T125:V125"/>
-    <mergeCell ref="X125:Z125"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="X126:Z126"/>
-    <mergeCell ref="E72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:AH73"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:AH71"/>
-    <mergeCell ref="E48:J62"/>
-    <mergeCell ref="K48:L62"/>
-    <mergeCell ref="M49:AH49"/>
-    <mergeCell ref="N53:AH53"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="E43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="M43:AH44"/>
-    <mergeCell ref="E45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="M45:AH47"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:AH42"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
     <mergeCell ref="E78:AH78"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -16411,6 +16346,71 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:AH42"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="M43:AH44"/>
+    <mergeCell ref="E45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="M45:AH47"/>
+    <mergeCell ref="E48:J62"/>
+    <mergeCell ref="K48:L62"/>
+    <mergeCell ref="M49:AH49"/>
+    <mergeCell ref="N53:AH53"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="E72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:AH73"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:AH71"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="X124:Z124"/>
+    <mergeCell ref="T125:V125"/>
+    <mergeCell ref="X125:Z125"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="X126:Z126"/>
+    <mergeCell ref="T130:V130"/>
+    <mergeCell ref="X130:Z130"/>
+    <mergeCell ref="T127:V127"/>
+    <mergeCell ref="X127:Z127"/>
+    <mergeCell ref="T128:V128"/>
+    <mergeCell ref="X128:Z128"/>
+    <mergeCell ref="T129:V129"/>
+    <mergeCell ref="X129:Z129"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Standard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7796D8F-6DCD-478A-A079-A7AC53314E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43B39C-A342-41DE-A5DA-538F583B600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="15330" windowHeight="3825" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -1414,10 +1414,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t xml:space="preserve">If multiple viewpoints can be confirmed with the same operation, it is acceptable to use screen hardcopies as evidence </t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>multiple screen hardcopies.</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1501,6 +1497,10 @@
   </si>
   <si>
     <t xml:space="preserve">The evidence No. in the unit test specification should be filled in with [scenario ID]-[screen hardcopy ID], </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If multiple viewpoints can be confirmed with the same operation, it is acceptable to reuse screen hardcopies as evidence </t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2341,6 +2341,192 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2356,192 +2542,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2578,6 +2578,96 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2605,9 +2695,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2617,93 +2704,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2725,6 +2725,138 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2742,138 +2874,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -6535,153 +6535,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="141" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="150" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="159" t="s">
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="147" t="s">
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="165" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="170"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
       <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="147" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="138" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="135">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="168">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
       <c r="AN2" s="18"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6725,1098 +6725,1175 @@
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="117" t="s">
+      <c r="H7" s="180"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="117" t="s">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="118"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="117" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="118"/>
-      <c r="AI7" s="119"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="181"/>
     </row>
     <row r="8" spans="1:40" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170">
+      <c r="C8" s="152"/>
+      <c r="D8" s="153">
         <v>43336</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173" t="s">
+      <c r="E8" s="154"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176" t="s">
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="179" t="s">
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="180"/>
-      <c r="S8" s="180"/>
-      <c r="T8" s="180"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="180"/>
-      <c r="W8" s="180"/>
-      <c r="X8" s="180"/>
-      <c r="Y8" s="180"/>
-      <c r="Z8" s="180"/>
-      <c r="AA8" s="180"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="180"/>
-      <c r="AD8" s="180"/>
-      <c r="AE8" s="181"/>
-      <c r="AF8" s="144" t="s">
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="146"/>
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="176"/>
     </row>
     <row r="9" spans="1:40" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="126">
+      <c r="C9" s="122"/>
+      <c r="D9" s="123">
         <v>43850</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129" t="s">
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="120" t="s">
+      <c r="H9" s="126"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="123" t="s">
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="120" t="s">
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="120"/>
+      <c r="AF9" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="122"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="117"/>
     </row>
     <row r="10" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88">
         <v>3</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="126">
+      <c r="C10" s="122"/>
+      <c r="D10" s="123">
         <v>44777</v>
       </c>
-      <c r="E10" s="127"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="129" t="s">
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="120" t="s">
+      <c r="H10" s="126"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="123" t="s">
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="125"/>
-      <c r="AF10" s="120" t="s">
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="122"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="117"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="122"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="115"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="117"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="125"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="122"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="115"/>
+      <c r="AG12" s="116"/>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="117"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="125"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="122"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="115"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="117"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="125"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="122"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="117"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="122"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="117"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="122"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="120"/>
+      <c r="AF16" s="115"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="117"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="122"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="115"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="117"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="122"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="115"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="117"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="124"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="124"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="125"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="122"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="115"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="117"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="125"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="122"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="117"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="125"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="122"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="115"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="117"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="125"/>
-      <c r="AF22" s="120"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="122"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="115"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="117"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="125"/>
-      <c r="AF23" s="120"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="122"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="119"/>
+      <c r="X23" s="119"/>
+      <c r="Y23" s="119"/>
+      <c r="Z23" s="119"/>
+      <c r="AA23" s="119"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="119"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="115"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="116"/>
+      <c r="AI23" s="117"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="124"/>
-      <c r="Z24" s="124"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="125"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="121"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="122"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="115"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="117"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="125"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="121"/>
-      <c r="AH25" s="121"/>
-      <c r="AI25" s="122"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="115"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="117"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="124"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="124"/>
-      <c r="AA26" s="124"/>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="125"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="121"/>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="122"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="115"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="117"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="125"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="122"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="119"/>
+      <c r="Z27" s="119"/>
+      <c r="AA27" s="119"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="119"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="115"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="117"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="124"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="125"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="122"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="119"/>
+      <c r="AD28" s="119"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="115"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="117"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="122"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="119"/>
+      <c r="AC29" s="119"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="115"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="117"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="124"/>
-      <c r="AA30" s="124"/>
-      <c r="AB30" s="124"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="125"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="122"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="119"/>
+      <c r="X30" s="119"/>
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="119"/>
+      <c r="AA30" s="119"/>
+      <c r="AB30" s="119"/>
+      <c r="AC30" s="119"/>
+      <c r="AD30" s="119"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="115"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="116"/>
+      <c r="AI30" s="117"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="124"/>
-      <c r="AE31" s="125"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="122"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="115"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="117"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="125"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="122"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="119"/>
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="115"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="117"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="124"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="125"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="122"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="115"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="D25:F25"/>
@@ -7841,122 +7918,45 @@
     <mergeCell ref="Q9:AE9"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7987,31 +7987,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="150" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -8023,52 +8023,52 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="170"/>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -8077,52 +8077,52 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="135">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -8131,21 +8131,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="132" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="135" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
@@ -9145,6 +9145,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -9154,14 +9162,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9191,31 +9191,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="150" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -9227,48 +9227,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="170"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -9277,48 +9277,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="135">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -9327,21 +9327,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="132" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="135" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9420,6 +9420,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -9429,14 +9437,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -9472,31 +9472,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="150" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -9508,48 +9508,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="170"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -9558,48 +9558,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="135">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -9608,21 +9608,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="132" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="135" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -9781,350 +9781,350 @@
       <c r="D36" s="32"/>
     </row>
     <row r="37" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D37" s="210" t="s">
+      <c r="D37" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="211"/>
-      <c r="F37" s="211"/>
-      <c r="G37" s="211"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="210" t="s">
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="211"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="211"/>
-      <c r="N37" s="211"/>
-      <c r="O37" s="211"/>
-      <c r="P37" s="211"/>
-      <c r="Q37" s="211"/>
-      <c r="R37" s="211"/>
-      <c r="S37" s="211"/>
-      <c r="T37" s="211"/>
-      <c r="U37" s="211"/>
-      <c r="V37" s="211"/>
-      <c r="W37" s="211"/>
-      <c r="X37" s="211"/>
-      <c r="Y37" s="211"/>
-      <c r="Z37" s="211"/>
-      <c r="AA37" s="211"/>
-      <c r="AB37" s="211"/>
-      <c r="AC37" s="211"/>
-      <c r="AD37" s="211"/>
-      <c r="AE37" s="211"/>
-      <c r="AF37" s="211"/>
-      <c r="AG37" s="211"/>
-      <c r="AH37" s="212"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="198"/>
+      <c r="O37" s="198"/>
+      <c r="P37" s="198"/>
+      <c r="Q37" s="198"/>
+      <c r="R37" s="198"/>
+      <c r="S37" s="198"/>
+      <c r="T37" s="198"/>
+      <c r="U37" s="198"/>
+      <c r="V37" s="198"/>
+      <c r="W37" s="198"/>
+      <c r="X37" s="198"/>
+      <c r="Y37" s="198"/>
+      <c r="Z37" s="198"/>
+      <c r="AA37" s="198"/>
+      <c r="AB37" s="198"/>
+      <c r="AC37" s="198"/>
+      <c r="AD37" s="198"/>
+      <c r="AE37" s="198"/>
+      <c r="AF37" s="198"/>
+      <c r="AG37" s="198"/>
+      <c r="AH37" s="199"/>
     </row>
     <row r="38" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D38" s="194" t="s">
+      <c r="D38" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="213" t="s">
+      <c r="E38" s="225"/>
+      <c r="F38" s="225"/>
+      <c r="G38" s="225"/>
+      <c r="H38" s="225"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="214"/>
-      <c r="N38" s="214"/>
-      <c r="O38" s="214"/>
-      <c r="P38" s="214"/>
-      <c r="Q38" s="214"/>
-      <c r="R38" s="214"/>
-      <c r="S38" s="214"/>
-      <c r="T38" s="214"/>
-      <c r="U38" s="214"/>
-      <c r="V38" s="214"/>
-      <c r="W38" s="214"/>
-      <c r="X38" s="214"/>
-      <c r="Y38" s="214"/>
-      <c r="Z38" s="214"/>
-      <c r="AA38" s="214"/>
-      <c r="AB38" s="214"/>
-      <c r="AC38" s="214"/>
-      <c r="AD38" s="214"/>
-      <c r="AE38" s="214"/>
-      <c r="AF38" s="214"/>
-      <c r="AG38" s="214"/>
-      <c r="AH38" s="215"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+      <c r="O38" s="207"/>
+      <c r="P38" s="207"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="207"/>
+      <c r="S38" s="207"/>
+      <c r="T38" s="207"/>
+      <c r="U38" s="207"/>
+      <c r="V38" s="207"/>
+      <c r="W38" s="207"/>
+      <c r="X38" s="207"/>
+      <c r="Y38" s="207"/>
+      <c r="Z38" s="207"/>
+      <c r="AA38" s="207"/>
+      <c r="AB38" s="207"/>
+      <c r="AC38" s="207"/>
+      <c r="AD38" s="207"/>
+      <c r="AE38" s="207"/>
+      <c r="AF38" s="207"/>
+      <c r="AG38" s="207"/>
+      <c r="AH38" s="208"/>
     </row>
     <row r="39" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D39" s="197"/>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="217"/>
-      <c r="L39" s="217"/>
-      <c r="M39" s="217"/>
-      <c r="N39" s="217"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="217"/>
-      <c r="Q39" s="217"/>
-      <c r="R39" s="217"/>
-      <c r="S39" s="217"/>
-      <c r="T39" s="217"/>
-      <c r="U39" s="217"/>
-      <c r="V39" s="217"/>
-      <c r="W39" s="217"/>
-      <c r="X39" s="217"/>
-      <c r="Y39" s="217"/>
-      <c r="Z39" s="217"/>
-      <c r="AA39" s="217"/>
-      <c r="AB39" s="217"/>
-      <c r="AC39" s="217"/>
-      <c r="AD39" s="217"/>
-      <c r="AE39" s="217"/>
-      <c r="AF39" s="217"/>
-      <c r="AG39" s="217"/>
-      <c r="AH39" s="218"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="229"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="210"/>
+      <c r="L39" s="210"/>
+      <c r="M39" s="210"/>
+      <c r="N39" s="210"/>
+      <c r="O39" s="210"/>
+      <c r="P39" s="210"/>
+      <c r="Q39" s="210"/>
+      <c r="R39" s="210"/>
+      <c r="S39" s="210"/>
+      <c r="T39" s="210"/>
+      <c r="U39" s="210"/>
+      <c r="V39" s="210"/>
+      <c r="W39" s="210"/>
+      <c r="X39" s="210"/>
+      <c r="Y39" s="210"/>
+      <c r="Z39" s="210"/>
+      <c r="AA39" s="210"/>
+      <c r="AB39" s="210"/>
+      <c r="AC39" s="210"/>
+      <c r="AD39" s="210"/>
+      <c r="AE39" s="210"/>
+      <c r="AF39" s="210"/>
+      <c r="AG39" s="210"/>
+      <c r="AH39" s="211"/>
     </row>
     <row r="40" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D40" s="200"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="220"/>
-      <c r="L40" s="220"/>
-      <c r="M40" s="220"/>
-      <c r="N40" s="220"/>
-      <c r="O40" s="220"/>
-      <c r="P40" s="220"/>
-      <c r="Q40" s="220"/>
-      <c r="R40" s="220"/>
-      <c r="S40" s="220"/>
-      <c r="T40" s="220"/>
-      <c r="U40" s="220"/>
-      <c r="V40" s="220"/>
-      <c r="W40" s="220"/>
-      <c r="X40" s="220"/>
-      <c r="Y40" s="220"/>
-      <c r="Z40" s="220"/>
-      <c r="AA40" s="220"/>
-      <c r="AB40" s="220"/>
-      <c r="AC40" s="220"/>
-      <c r="AD40" s="220"/>
-      <c r="AE40" s="220"/>
-      <c r="AF40" s="220"/>
-      <c r="AG40" s="220"/>
-      <c r="AH40" s="221"/>
+      <c r="D40" s="230"/>
+      <c r="E40" s="231"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="231"/>
+      <c r="H40" s="231"/>
+      <c r="I40" s="232"/>
+      <c r="J40" s="212"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="213"/>
+      <c r="O40" s="213"/>
+      <c r="P40" s="213"/>
+      <c r="Q40" s="213"/>
+      <c r="R40" s="213"/>
+      <c r="S40" s="213"/>
+      <c r="T40" s="213"/>
+      <c r="U40" s="213"/>
+      <c r="V40" s="213"/>
+      <c r="W40" s="213"/>
+      <c r="X40" s="213"/>
+      <c r="Y40" s="213"/>
+      <c r="Z40" s="213"/>
+      <c r="AA40" s="213"/>
+      <c r="AB40" s="213"/>
+      <c r="AC40" s="213"/>
+      <c r="AD40" s="213"/>
+      <c r="AE40" s="213"/>
+      <c r="AF40" s="213"/>
+      <c r="AG40" s="213"/>
+      <c r="AH40" s="214"/>
     </row>
     <row r="41" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D41" s="194" t="s">
+      <c r="D41" s="224" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="195"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="195"/>
-      <c r="H41" s="195"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="222" t="s">
+      <c r="E41" s="225"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="225"/>
+      <c r="H41" s="225"/>
+      <c r="I41" s="226"/>
+      <c r="J41" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="K41" s="223"/>
-      <c r="L41" s="223"/>
-      <c r="M41" s="223"/>
-      <c r="N41" s="223"/>
-      <c r="O41" s="223"/>
-      <c r="P41" s="223"/>
-      <c r="Q41" s="223"/>
-      <c r="R41" s="223"/>
-      <c r="S41" s="223"/>
-      <c r="T41" s="223"/>
-      <c r="U41" s="223"/>
-      <c r="V41" s="223"/>
-      <c r="W41" s="223"/>
-      <c r="X41" s="223"/>
-      <c r="Y41" s="223"/>
-      <c r="Z41" s="223"/>
-      <c r="AA41" s="223"/>
-      <c r="AB41" s="223"/>
-      <c r="AC41" s="223"/>
-      <c r="AD41" s="223"/>
-      <c r="AE41" s="223"/>
-      <c r="AF41" s="223"/>
-      <c r="AG41" s="223"/>
-      <c r="AH41" s="224"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216"/>
+      <c r="N41" s="216"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="216"/>
+      <c r="Q41" s="216"/>
+      <c r="R41" s="216"/>
+      <c r="S41" s="216"/>
+      <c r="T41" s="216"/>
+      <c r="U41" s="216"/>
+      <c r="V41" s="216"/>
+      <c r="W41" s="216"/>
+      <c r="X41" s="216"/>
+      <c r="Y41" s="216"/>
+      <c r="Z41" s="216"/>
+      <c r="AA41" s="216"/>
+      <c r="AB41" s="216"/>
+      <c r="AC41" s="216"/>
+      <c r="AD41" s="216"/>
+      <c r="AE41" s="216"/>
+      <c r="AF41" s="216"/>
+      <c r="AG41" s="216"/>
+      <c r="AH41" s="217"/>
     </row>
     <row r="42" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D42" s="197"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="225"/>
-      <c r="K42" s="226"/>
-      <c r="L42" s="226"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
-      <c r="O42" s="226"/>
-      <c r="P42" s="226"/>
-      <c r="Q42" s="226"/>
-      <c r="R42" s="226"/>
-      <c r="S42" s="226"/>
-      <c r="T42" s="226"/>
-      <c r="U42" s="226"/>
-      <c r="V42" s="226"/>
-      <c r="W42" s="226"/>
-      <c r="X42" s="226"/>
-      <c r="Y42" s="226"/>
-      <c r="Z42" s="226"/>
-      <c r="AA42" s="226"/>
-      <c r="AB42" s="226"/>
-      <c r="AC42" s="226"/>
-      <c r="AD42" s="226"/>
-      <c r="AE42" s="226"/>
-      <c r="AF42" s="226"/>
-      <c r="AG42" s="226"/>
-      <c r="AH42" s="227"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="229"/>
+      <c r="J42" s="218"/>
+      <c r="K42" s="219"/>
+      <c r="L42" s="219"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
+      <c r="O42" s="219"/>
+      <c r="P42" s="219"/>
+      <c r="Q42" s="219"/>
+      <c r="R42" s="219"/>
+      <c r="S42" s="219"/>
+      <c r="T42" s="219"/>
+      <c r="U42" s="219"/>
+      <c r="V42" s="219"/>
+      <c r="W42" s="219"/>
+      <c r="X42" s="219"/>
+      <c r="Y42" s="219"/>
+      <c r="Z42" s="219"/>
+      <c r="AA42" s="219"/>
+      <c r="AB42" s="219"/>
+      <c r="AC42" s="219"/>
+      <c r="AD42" s="219"/>
+      <c r="AE42" s="219"/>
+      <c r="AF42" s="219"/>
+      <c r="AG42" s="219"/>
+      <c r="AH42" s="220"/>
     </row>
     <row r="43" spans="3:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="200"/>
-      <c r="E43" s="201"/>
-      <c r="F43" s="201"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="201"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="229"/>
-      <c r="L43" s="229"/>
-      <c r="M43" s="229"/>
-      <c r="N43" s="229"/>
-      <c r="O43" s="229"/>
-      <c r="P43" s="229"/>
-      <c r="Q43" s="229"/>
-      <c r="R43" s="229"/>
-      <c r="S43" s="229"/>
-      <c r="T43" s="229"/>
-      <c r="U43" s="229"/>
-      <c r="V43" s="229"/>
-      <c r="W43" s="229"/>
-      <c r="X43" s="229"/>
-      <c r="Y43" s="229"/>
-      <c r="Z43" s="229"/>
-      <c r="AA43" s="229"/>
-      <c r="AB43" s="229"/>
-      <c r="AC43" s="229"/>
-      <c r="AD43" s="229"/>
-      <c r="AE43" s="229"/>
-      <c r="AF43" s="229"/>
-      <c r="AG43" s="229"/>
-      <c r="AH43" s="230"/>
+      <c r="D43" s="230"/>
+      <c r="E43" s="231"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
+      <c r="H43" s="231"/>
+      <c r="I43" s="232"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="222"/>
+      <c r="L43" s="222"/>
+      <c r="M43" s="222"/>
+      <c r="N43" s="222"/>
+      <c r="O43" s="222"/>
+      <c r="P43" s="222"/>
+      <c r="Q43" s="222"/>
+      <c r="R43" s="222"/>
+      <c r="S43" s="222"/>
+      <c r="T43" s="222"/>
+      <c r="U43" s="222"/>
+      <c r="V43" s="222"/>
+      <c r="W43" s="222"/>
+      <c r="X43" s="222"/>
+      <c r="Y43" s="222"/>
+      <c r="Z43" s="222"/>
+      <c r="AA43" s="222"/>
+      <c r="AB43" s="222"/>
+      <c r="AC43" s="222"/>
+      <c r="AD43" s="222"/>
+      <c r="AE43" s="222"/>
+      <c r="AF43" s="222"/>
+      <c r="AG43" s="222"/>
+      <c r="AH43" s="223"/>
     </row>
     <row r="44" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D44" s="194" t="s">
+      <c r="D44" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="195"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="195"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="222" t="s">
+      <c r="E44" s="225"/>
+      <c r="F44" s="225"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="225"/>
+      <c r="I44" s="226"/>
+      <c r="J44" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="K44" s="223"/>
-      <c r="L44" s="223"/>
-      <c r="M44" s="223"/>
-      <c r="N44" s="223"/>
-      <c r="O44" s="223"/>
-      <c r="P44" s="223"/>
-      <c r="Q44" s="223"/>
-      <c r="R44" s="223"/>
-      <c r="S44" s="223"/>
-      <c r="T44" s="223"/>
-      <c r="U44" s="223"/>
-      <c r="V44" s="223"/>
-      <c r="W44" s="223"/>
-      <c r="X44" s="223"/>
-      <c r="Y44" s="223"/>
-      <c r="Z44" s="223"/>
-      <c r="AA44" s="223"/>
-      <c r="AB44" s="223"/>
-      <c r="AC44" s="223"/>
-      <c r="AD44" s="223"/>
-      <c r="AE44" s="223"/>
-      <c r="AF44" s="223"/>
-      <c r="AG44" s="223"/>
-      <c r="AH44" s="224"/>
+      <c r="K44" s="216"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="216"/>
+      <c r="N44" s="216"/>
+      <c r="O44" s="216"/>
+      <c r="P44" s="216"/>
+      <c r="Q44" s="216"/>
+      <c r="R44" s="216"/>
+      <c r="S44" s="216"/>
+      <c r="T44" s="216"/>
+      <c r="U44" s="216"/>
+      <c r="V44" s="216"/>
+      <c r="W44" s="216"/>
+      <c r="X44" s="216"/>
+      <c r="Y44" s="216"/>
+      <c r="Z44" s="216"/>
+      <c r="AA44" s="216"/>
+      <c r="AB44" s="216"/>
+      <c r="AC44" s="216"/>
+      <c r="AD44" s="216"/>
+      <c r="AE44" s="216"/>
+      <c r="AF44" s="216"/>
+      <c r="AG44" s="216"/>
+      <c r="AH44" s="217"/>
     </row>
     <row r="45" spans="3:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="D45" s="197"/>
-      <c r="E45" s="198"/>
-      <c r="F45" s="198"/>
-      <c r="G45" s="198"/>
-      <c r="H45" s="198"/>
-      <c r="I45" s="199"/>
-      <c r="J45" s="225"/>
-      <c r="K45" s="226"/>
-      <c r="L45" s="226"/>
-      <c r="M45" s="226"/>
-      <c r="N45" s="226"/>
-      <c r="O45" s="226"/>
-      <c r="P45" s="226"/>
-      <c r="Q45" s="226"/>
-      <c r="R45" s="226"/>
-      <c r="S45" s="226"/>
-      <c r="T45" s="226"/>
-      <c r="U45" s="226"/>
-      <c r="V45" s="226"/>
-      <c r="W45" s="226"/>
-      <c r="X45" s="226"/>
-      <c r="Y45" s="226"/>
-      <c r="Z45" s="226"/>
-      <c r="AA45" s="226"/>
-      <c r="AB45" s="226"/>
-      <c r="AC45" s="226"/>
-      <c r="AD45" s="226"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="226"/>
-      <c r="AG45" s="226"/>
-      <c r="AH45" s="227"/>
+      <c r="D45" s="227"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="228"/>
+      <c r="G45" s="228"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="229"/>
+      <c r="J45" s="218"/>
+      <c r="K45" s="219"/>
+      <c r="L45" s="219"/>
+      <c r="M45" s="219"/>
+      <c r="N45" s="219"/>
+      <c r="O45" s="219"/>
+      <c r="P45" s="219"/>
+      <c r="Q45" s="219"/>
+      <c r="R45" s="219"/>
+      <c r="S45" s="219"/>
+      <c r="T45" s="219"/>
+      <c r="U45" s="219"/>
+      <c r="V45" s="219"/>
+      <c r="W45" s="219"/>
+      <c r="X45" s="219"/>
+      <c r="Y45" s="219"/>
+      <c r="Z45" s="219"/>
+      <c r="AA45" s="219"/>
+      <c r="AB45" s="219"/>
+      <c r="AC45" s="219"/>
+      <c r="AD45" s="219"/>
+      <c r="AE45" s="219"/>
+      <c r="AF45" s="219"/>
+      <c r="AG45" s="219"/>
+      <c r="AH45" s="220"/>
     </row>
     <row r="46" spans="3:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="200"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="201"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="201"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="229"/>
-      <c r="L46" s="229"/>
-      <c r="M46" s="229"/>
-      <c r="N46" s="229"/>
-      <c r="O46" s="229"/>
-      <c r="P46" s="229"/>
-      <c r="Q46" s="229"/>
-      <c r="R46" s="229"/>
-      <c r="S46" s="229"/>
-      <c r="T46" s="229"/>
-      <c r="U46" s="229"/>
-      <c r="V46" s="229"/>
-      <c r="W46" s="229"/>
-      <c r="X46" s="229"/>
-      <c r="Y46" s="229"/>
-      <c r="Z46" s="229"/>
-      <c r="AA46" s="229"/>
-      <c r="AB46" s="229"/>
-      <c r="AC46" s="229"/>
-      <c r="AD46" s="229"/>
-      <c r="AE46" s="229"/>
-      <c r="AF46" s="229"/>
-      <c r="AG46" s="229"/>
-      <c r="AH46" s="230"/>
+      <c r="D46" s="230"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="232"/>
+      <c r="J46" s="221"/>
+      <c r="K46" s="222"/>
+      <c r="L46" s="222"/>
+      <c r="M46" s="222"/>
+      <c r="N46" s="222"/>
+      <c r="O46" s="222"/>
+      <c r="P46" s="222"/>
+      <c r="Q46" s="222"/>
+      <c r="R46" s="222"/>
+      <c r="S46" s="222"/>
+      <c r="T46" s="222"/>
+      <c r="U46" s="222"/>
+      <c r="V46" s="222"/>
+      <c r="W46" s="222"/>
+      <c r="X46" s="222"/>
+      <c r="Y46" s="222"/>
+      <c r="Z46" s="222"/>
+      <c r="AA46" s="222"/>
+      <c r="AB46" s="222"/>
+      <c r="AC46" s="222"/>
+      <c r="AD46" s="222"/>
+      <c r="AE46" s="222"/>
+      <c r="AF46" s="222"/>
+      <c r="AG46" s="222"/>
+      <c r="AH46" s="223"/>
     </row>
     <row r="47" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="D47" s="43" t="s">
@@ -10147,58 +10147,58 @@
     </row>
     <row r="51" spans="3:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="52" spans="3:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="207" t="s">
+      <c r="D52" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="208"/>
-      <c r="F52" s="208"/>
-      <c r="G52" s="209"/>
-      <c r="H52" s="203" t="s">
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="203" t="s">
+      <c r="I52" s="119"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="231"/>
-      <c r="N52" s="231"/>
-      <c r="O52" s="232"/>
-      <c r="P52" s="203" t="s">
+      <c r="M52" s="201"/>
+      <c r="N52" s="201"/>
+      <c r="O52" s="202"/>
+      <c r="P52" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="125"/>
-      <c r="T52" s="203" t="s">
+      <c r="Q52" s="119"/>
+      <c r="R52" s="119"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="U52" s="124"/>
-      <c r="V52" s="124"/>
-      <c r="W52" s="125"/>
-      <c r="X52" s="203" t="s">
+      <c r="U52" s="119"/>
+      <c r="V52" s="119"/>
+      <c r="W52" s="120"/>
+      <c r="X52" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="125"/>
-      <c r="AB52" s="233"/>
-      <c r="AC52" s="233"/>
-      <c r="AD52" s="233"/>
-      <c r="AE52" s="233"/>
-      <c r="AF52" s="233"/>
-      <c r="AG52" s="233"/>
-      <c r="AH52" s="233"/>
-      <c r="AI52" s="233"/>
+      <c r="Y52" s="119"/>
+      <c r="Z52" s="119"/>
+      <c r="AA52" s="120"/>
+      <c r="AB52" s="196"/>
+      <c r="AC52" s="196"/>
+      <c r="AD52" s="196"/>
+      <c r="AE52" s="196"/>
+      <c r="AF52" s="196"/>
+      <c r="AG52" s="196"/>
+      <c r="AH52" s="196"/>
+      <c r="AI52" s="196"/>
     </row>
     <row r="53" spans="3:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="204" t="s">
+      <c r="D53" s="233" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="205"/>
-      <c r="F53" s="205"/>
-      <c r="G53" s="206"/>
+      <c r="E53" s="234"/>
+      <c r="F53" s="234"/>
+      <c r="G53" s="235"/>
       <c r="H53" s="191" t="s">
         <v>203</v>
       </c>
@@ -10229,14 +10229,14 @@
       <c r="Y53" s="192"/>
       <c r="Z53" s="192"/>
       <c r="AA53" s="193"/>
-      <c r="AB53" s="234"/>
-      <c r="AC53" s="234"/>
-      <c r="AD53" s="234"/>
-      <c r="AE53" s="234"/>
-      <c r="AF53" s="234"/>
-      <c r="AG53" s="234"/>
-      <c r="AH53" s="234"/>
-      <c r="AI53" s="234"/>
+      <c r="AB53" s="194"/>
+      <c r="AC53" s="194"/>
+      <c r="AD53" s="194"/>
+      <c r="AE53" s="194"/>
+      <c r="AF53" s="194"/>
+      <c r="AG53" s="194"/>
+      <c r="AH53" s="194"/>
+      <c r="AI53" s="194"/>
     </row>
     <row r="54" spans="3:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="191" t="s">
@@ -10275,14 +10275,14 @@
       <c r="Y54" s="192"/>
       <c r="Z54" s="192"/>
       <c r="AA54" s="193"/>
-      <c r="AB54" s="234"/>
-      <c r="AC54" s="234"/>
-      <c r="AD54" s="234"/>
-      <c r="AE54" s="234"/>
-      <c r="AF54" s="234"/>
-      <c r="AG54" s="234"/>
-      <c r="AH54" s="234"/>
-      <c r="AI54" s="234"/>
+      <c r="AB54" s="194"/>
+      <c r="AC54" s="194"/>
+      <c r="AD54" s="194"/>
+      <c r="AE54" s="194"/>
+      <c r="AF54" s="194"/>
+      <c r="AG54" s="194"/>
+      <c r="AH54" s="194"/>
+      <c r="AI54" s="194"/>
     </row>
     <row r="55" spans="3:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="191" t="s">
@@ -10315,20 +10315,20 @@
       <c r="U55" s="192"/>
       <c r="V55" s="192"/>
       <c r="W55" s="193"/>
-      <c r="X55" s="235" t="s">
+      <c r="X55" s="195" t="s">
         <v>132</v>
       </c>
       <c r="Y55" s="192"/>
       <c r="Z55" s="192"/>
       <c r="AA55" s="193"/>
-      <c r="AB55" s="234"/>
-      <c r="AC55" s="234"/>
-      <c r="AD55" s="234"/>
-      <c r="AE55" s="234"/>
-      <c r="AF55" s="234"/>
-      <c r="AG55" s="234"/>
-      <c r="AH55" s="234"/>
-      <c r="AI55" s="234"/>
+      <c r="AB55" s="194"/>
+      <c r="AC55" s="194"/>
+      <c r="AD55" s="194"/>
+      <c r="AE55" s="194"/>
+      <c r="AF55" s="194"/>
+      <c r="AG55" s="194"/>
+      <c r="AH55" s="194"/>
+      <c r="AI55" s="194"/>
     </row>
     <row r="56" spans="3:35" ht="12" x14ac:dyDescent="0.15">
       <c r="D56" s="37" t="s">
@@ -10486,15 +10486,38 @@
     <row r="74" spans="3:5" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="D41:I43"/>
+    <mergeCell ref="D44:I46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J38:AH40"/>
+    <mergeCell ref="J41:AH43"/>
+    <mergeCell ref="J44:AH46"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AF55:AI55"/>
@@ -10511,38 +10534,15 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="J37:AH37"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X52:AA52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J38:AH40"/>
-    <mergeCell ref="J41:AH43"/>
-    <mergeCell ref="J44:AH46"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="D41:I43"/>
-    <mergeCell ref="D44:I46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P53:S53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10577,31 +10577,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="150" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -10613,48 +10613,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="170"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -10663,48 +10663,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="135">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -10713,21 +10713,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="132" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="135" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
     </row>
     <row r="4" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -12105,6 +12105,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D28:AH28"/>
     <mergeCell ref="D56:AD56"/>
     <mergeCell ref="E19:AH19"/>
@@ -12116,20 +12130,6 @@
     <mergeCell ref="D42:AG42"/>
     <mergeCell ref="D44:AD44"/>
     <mergeCell ref="D10:AE10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12164,31 +12164,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="141" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="150" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
       <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Unit Test Standard</v>
@@ -12200,48 +12200,48 @@
       <c r="X1" s="183"/>
       <c r="Y1" s="183"/>
       <c r="Z1" s="184"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="170"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="141" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
       <c r="S2" s="185"/>
       <c r="T2" s="186"/>
       <c r="U2" s="186"/>
@@ -12250,48 +12250,48 @@
       <c r="X2" s="186"/>
       <c r="Y2" s="186"/>
       <c r="Z2" s="187"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="135">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44777</v>
       </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170"/>
     </row>
     <row r="3" spans="1:35" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="141" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
       <c r="S3" s="188"/>
       <c r="T3" s="189"/>
       <c r="U3" s="189"/>
@@ -12300,21 +12300,21 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="132" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="135" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
     </row>
     <row r="4" spans="1:35" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -12796,372 +12796,372 @@
     <row r="22" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
-      <c r="E22" s="272" t="s">
+      <c r="E22" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="273"/>
-      <c r="G22" s="273"/>
-      <c r="H22" s="273"/>
-      <c r="I22" s="273"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="272" t="s">
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="274"/>
-      <c r="M22" s="272" t="s">
+      <c r="L22" s="245"/>
+      <c r="M22" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="273"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="273"/>
-      <c r="Q22" s="273"/>
-      <c r="R22" s="273"/>
-      <c r="S22" s="273"/>
-      <c r="T22" s="273"/>
-      <c r="U22" s="273"/>
-      <c r="V22" s="273"/>
-      <c r="W22" s="273"/>
-      <c r="X22" s="273"/>
-      <c r="Y22" s="273"/>
-      <c r="Z22" s="273"/>
-      <c r="AA22" s="273"/>
-      <c r="AB22" s="273"/>
-      <c r="AC22" s="273"/>
-      <c r="AD22" s="273"/>
-      <c r="AE22" s="273"/>
-      <c r="AF22" s="273"/>
-      <c r="AG22" s="273"/>
-      <c r="AH22" s="274"/>
+      <c r="N22" s="244"/>
+      <c r="O22" s="244"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="244"/>
+      <c r="U22" s="244"/>
+      <c r="V22" s="244"/>
+      <c r="W22" s="244"/>
+      <c r="X22" s="244"/>
+      <c r="Y22" s="244"/>
+      <c r="Z22" s="244"/>
+      <c r="AA22" s="244"/>
+      <c r="AB22" s="244"/>
+      <c r="AC22" s="244"/>
+      <c r="AD22" s="244"/>
+      <c r="AE22" s="244"/>
+      <c r="AF22" s="244"/>
+      <c r="AG22" s="244"/>
+      <c r="AH22" s="245"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="252" t="s">
+      <c r="E23" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="254"/>
-      <c r="K23" s="117" t="s">
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="248"/>
+      <c r="K23" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="119"/>
-      <c r="M23" s="213" t="s">
+      <c r="L23" s="181"/>
+      <c r="M23" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="214"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="214"/>
-      <c r="Q23" s="214"/>
-      <c r="R23" s="214"/>
-      <c r="S23" s="214"/>
-      <c r="T23" s="214"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="214"/>
-      <c r="W23" s="214"/>
-      <c r="X23" s="214"/>
-      <c r="Y23" s="214"/>
-      <c r="Z23" s="214"/>
-      <c r="AA23" s="214"/>
-      <c r="AB23" s="214"/>
-      <c r="AC23" s="214"/>
-      <c r="AD23" s="214"/>
-      <c r="AE23" s="214"/>
-      <c r="AF23" s="214"/>
-      <c r="AG23" s="214"/>
-      <c r="AH23" s="215"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="207"/>
+      <c r="Q23" s="207"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="207"/>
+      <c r="T23" s="207"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="207"/>
+      <c r="AD23" s="207"/>
+      <c r="AE23" s="207"/>
+      <c r="AF23" s="207"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="208"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="258"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="220"/>
-      <c r="O24" s="220"/>
-      <c r="P24" s="220"/>
-      <c r="Q24" s="220"/>
-      <c r="R24" s="220"/>
-      <c r="S24" s="220"/>
-      <c r="T24" s="220"/>
-      <c r="U24" s="220"/>
-      <c r="V24" s="220"/>
-      <c r="W24" s="220"/>
-      <c r="X24" s="220"/>
-      <c r="Y24" s="220"/>
-      <c r="Z24" s="220"/>
-      <c r="AA24" s="220"/>
-      <c r="AB24" s="220"/>
-      <c r="AC24" s="220"/>
-      <c r="AD24" s="220"/>
-      <c r="AE24" s="220"/>
-      <c r="AF24" s="220"/>
-      <c r="AG24" s="220"/>
-      <c r="AH24" s="221"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="250"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="252"/>
+      <c r="L24" s="253"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="213"/>
+      <c r="Y24" s="213"/>
+      <c r="Z24" s="213"/>
+      <c r="AA24" s="213"/>
+      <c r="AB24" s="213"/>
+      <c r="AC24" s="213"/>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="213"/>
+      <c r="AH24" s="214"/>
     </row>
     <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
-      <c r="E25" s="266" t="s">
+      <c r="E25" s="254" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="270"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
-      <c r="J25" s="267"/>
-      <c r="K25" s="287" t="s">
+      <c r="F25" s="255"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="288"/>
-      <c r="M25" s="260" t="s">
+      <c r="L25" s="263"/>
+      <c r="M25" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="261"/>
-      <c r="R25" s="261"/>
-      <c r="S25" s="261"/>
-      <c r="T25" s="261"/>
-      <c r="U25" s="261"/>
-      <c r="V25" s="261"/>
-      <c r="W25" s="261"/>
-      <c r="X25" s="261"/>
-      <c r="Y25" s="261"/>
-      <c r="Z25" s="261"/>
-      <c r="AA25" s="261"/>
-      <c r="AB25" s="261"/>
-      <c r="AC25" s="261"/>
-      <c r="AD25" s="261"/>
-      <c r="AE25" s="261"/>
-      <c r="AF25" s="261"/>
-      <c r="AG25" s="261"/>
-      <c r="AH25" s="262"/>
+      <c r="N25" s="269"/>
+      <c r="O25" s="269"/>
+      <c r="P25" s="269"/>
+      <c r="Q25" s="269"/>
+      <c r="R25" s="269"/>
+      <c r="S25" s="269"/>
+      <c r="T25" s="269"/>
+      <c r="U25" s="269"/>
+      <c r="V25" s="269"/>
+      <c r="W25" s="269"/>
+      <c r="X25" s="269"/>
+      <c r="Y25" s="269"/>
+      <c r="Z25" s="269"/>
+      <c r="AA25" s="269"/>
+      <c r="AB25" s="269"/>
+      <c r="AC25" s="269"/>
+      <c r="AD25" s="269"/>
+      <c r="AE25" s="269"/>
+      <c r="AF25" s="269"/>
+      <c r="AG25" s="269"/>
+      <c r="AH25" s="270"/>
     </row>
     <row r="26" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="275"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="289"/>
-      <c r="L26" s="290"/>
-      <c r="M26" s="285"/>
-      <c r="N26" s="233"/>
-      <c r="O26" s="233"/>
-      <c r="P26" s="233"/>
-      <c r="Q26" s="233"/>
-      <c r="R26" s="233"/>
-      <c r="S26" s="233"/>
-      <c r="T26" s="233"/>
-      <c r="U26" s="233"/>
-      <c r="V26" s="233"/>
-      <c r="W26" s="233"/>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="233"/>
-      <c r="Z26" s="233"/>
-      <c r="AA26" s="233"/>
-      <c r="AB26" s="233"/>
-      <c r="AC26" s="233"/>
-      <c r="AD26" s="233"/>
-      <c r="AE26" s="233"/>
-      <c r="AF26" s="233"/>
-      <c r="AG26" s="233"/>
-      <c r="AH26" s="286"/>
+      <c r="E26" s="257"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="264"/>
+      <c r="L26" s="265"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="196"/>
+      <c r="O26" s="196"/>
+      <c r="P26" s="196"/>
+      <c r="Q26" s="196"/>
+      <c r="R26" s="196"/>
+      <c r="S26" s="196"/>
+      <c r="T26" s="196"/>
+      <c r="U26" s="196"/>
+      <c r="V26" s="196"/>
+      <c r="W26" s="196"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="196"/>
+      <c r="Z26" s="196"/>
+      <c r="AA26" s="196"/>
+      <c r="AB26" s="196"/>
+      <c r="AC26" s="196"/>
+      <c r="AD26" s="196"/>
+      <c r="AE26" s="196"/>
+      <c r="AF26" s="196"/>
+      <c r="AG26" s="196"/>
+      <c r="AH26" s="272"/>
     </row>
     <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="271"/>
-      <c r="J27" s="269"/>
-      <c r="K27" s="291"/>
-      <c r="L27" s="292"/>
-      <c r="M27" s="263"/>
-      <c r="N27" s="264"/>
-      <c r="O27" s="264"/>
-      <c r="P27" s="264"/>
-      <c r="Q27" s="264"/>
-      <c r="R27" s="264"/>
-      <c r="S27" s="264"/>
-      <c r="T27" s="264"/>
-      <c r="U27" s="264"/>
-      <c r="V27" s="264"/>
-      <c r="W27" s="264"/>
-      <c r="X27" s="264"/>
-      <c r="Y27" s="264"/>
-      <c r="Z27" s="264"/>
-      <c r="AA27" s="264"/>
-      <c r="AB27" s="264"/>
-      <c r="AC27" s="264"/>
-      <c r="AD27" s="264"/>
-      <c r="AE27" s="264"/>
-      <c r="AF27" s="264"/>
-      <c r="AG27" s="264"/>
-      <c r="AH27" s="265"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="261"/>
+      <c r="K27" s="266"/>
+      <c r="L27" s="267"/>
+      <c r="M27" s="273"/>
+      <c r="N27" s="274"/>
+      <c r="O27" s="274"/>
+      <c r="P27" s="274"/>
+      <c r="Q27" s="274"/>
+      <c r="R27" s="274"/>
+      <c r="S27" s="274"/>
+      <c r="T27" s="274"/>
+      <c r="U27" s="274"/>
+      <c r="V27" s="274"/>
+      <c r="W27" s="274"/>
+      <c r="X27" s="274"/>
+      <c r="Y27" s="274"/>
+      <c r="Z27" s="274"/>
+      <c r="AA27" s="274"/>
+      <c r="AB27" s="274"/>
+      <c r="AC27" s="274"/>
+      <c r="AD27" s="274"/>
+      <c r="AE27" s="274"/>
+      <c r="AF27" s="274"/>
+      <c r="AG27" s="274"/>
+      <c r="AH27" s="275"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="252" t="s">
+      <c r="E28" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="254"/>
-      <c r="K28" s="117" t="s">
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="119"/>
-      <c r="M28" s="213" t="s">
+      <c r="L28" s="181"/>
+      <c r="M28" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="214"/>
-      <c r="O28" s="214"/>
-      <c r="P28" s="214"/>
-      <c r="Q28" s="214"/>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
-      <c r="T28" s="214"/>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
-      <c r="W28" s="214"/>
-      <c r="X28" s="214"/>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="214"/>
-      <c r="AA28" s="214"/>
-      <c r="AB28" s="214"/>
-      <c r="AC28" s="214"/>
-      <c r="AD28" s="214"/>
-      <c r="AE28" s="214"/>
-      <c r="AF28" s="214"/>
-      <c r="AG28" s="214"/>
-      <c r="AH28" s="215"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="207"/>
+      <c r="Q28" s="207"/>
+      <c r="R28" s="207"/>
+      <c r="S28" s="207"/>
+      <c r="T28" s="207"/>
+      <c r="U28" s="207"/>
+      <c r="V28" s="207"/>
+      <c r="W28" s="207"/>
+      <c r="X28" s="207"/>
+      <c r="Y28" s="207"/>
+      <c r="Z28" s="207"/>
+      <c r="AA28" s="207"/>
+      <c r="AB28" s="207"/>
+      <c r="AC28" s="207"/>
+      <c r="AD28" s="207"/>
+      <c r="AE28" s="207"/>
+      <c r="AF28" s="207"/>
+      <c r="AG28" s="207"/>
+      <c r="AH28" s="208"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="255"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="259"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="220"/>
-      <c r="O29" s="220"/>
-      <c r="P29" s="220"/>
-      <c r="Q29" s="220"/>
-      <c r="R29" s="220"/>
-      <c r="S29" s="220"/>
-      <c r="T29" s="220"/>
-      <c r="U29" s="220"/>
-      <c r="V29" s="220"/>
-      <c r="W29" s="220"/>
-      <c r="X29" s="220"/>
-      <c r="Y29" s="220"/>
-      <c r="Z29" s="220"/>
-      <c r="AA29" s="220"/>
-      <c r="AB29" s="220"/>
-      <c r="AC29" s="220"/>
-      <c r="AD29" s="220"/>
-      <c r="AE29" s="220"/>
-      <c r="AF29" s="220"/>
-      <c r="AG29" s="220"/>
-      <c r="AH29" s="221"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="250"/>
+      <c r="H29" s="250"/>
+      <c r="I29" s="250"/>
+      <c r="J29" s="251"/>
+      <c r="K29" s="252"/>
+      <c r="L29" s="253"/>
+      <c r="M29" s="212"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="213"/>
+      <c r="Q29" s="213"/>
+      <c r="R29" s="213"/>
+      <c r="S29" s="213"/>
+      <c r="T29" s="213"/>
+      <c r="U29" s="213"/>
+      <c r="V29" s="213"/>
+      <c r="W29" s="213"/>
+      <c r="X29" s="213"/>
+      <c r="Y29" s="213"/>
+      <c r="Z29" s="213"/>
+      <c r="AA29" s="213"/>
+      <c r="AB29" s="213"/>
+      <c r="AC29" s="213"/>
+      <c r="AD29" s="213"/>
+      <c r="AE29" s="213"/>
+      <c r="AF29" s="213"/>
+      <c r="AG29" s="213"/>
+      <c r="AH29" s="214"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
-      <c r="E30" s="252" t="s">
+      <c r="E30" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="254"/>
-      <c r="K30" s="117" t="s">
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="247"/>
+      <c r="J30" s="248"/>
+      <c r="K30" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="119"/>
-      <c r="M30" s="213" t="s">
+      <c r="L30" s="181"/>
+      <c r="M30" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="214"/>
-      <c r="O30" s="214"/>
-      <c r="P30" s="214"/>
-      <c r="Q30" s="214"/>
-      <c r="R30" s="214"/>
-      <c r="S30" s="214"/>
-      <c r="T30" s="214"/>
-      <c r="U30" s="214"/>
-      <c r="V30" s="214"/>
-      <c r="W30" s="214"/>
-      <c r="X30" s="214"/>
-      <c r="Y30" s="214"/>
-      <c r="Z30" s="214"/>
-      <c r="AA30" s="214"/>
-      <c r="AB30" s="214"/>
-      <c r="AC30" s="214"/>
-      <c r="AD30" s="214"/>
-      <c r="AE30" s="214"/>
-      <c r="AF30" s="214"/>
-      <c r="AG30" s="214"/>
-      <c r="AH30" s="215"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="207"/>
+      <c r="Q30" s="207"/>
+      <c r="R30" s="207"/>
+      <c r="S30" s="207"/>
+      <c r="T30" s="207"/>
+      <c r="U30" s="207"/>
+      <c r="V30" s="207"/>
+      <c r="W30" s="207"/>
+      <c r="X30" s="207"/>
+      <c r="Y30" s="207"/>
+      <c r="Z30" s="207"/>
+      <c r="AA30" s="207"/>
+      <c r="AB30" s="207"/>
+      <c r="AC30" s="207"/>
+      <c r="AD30" s="207"/>
+      <c r="AE30" s="207"/>
+      <c r="AF30" s="207"/>
+      <c r="AG30" s="207"/>
+      <c r="AH30" s="208"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="259"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="220"/>
-      <c r="S31" s="220"/>
-      <c r="T31" s="220"/>
-      <c r="U31" s="220"/>
-      <c r="V31" s="220"/>
-      <c r="W31" s="220"/>
-      <c r="X31" s="220"/>
-      <c r="Y31" s="220"/>
-      <c r="Z31" s="220"/>
-      <c r="AA31" s="220"/>
-      <c r="AB31" s="220"/>
-      <c r="AC31" s="220"/>
-      <c r="AD31" s="220"/>
-      <c r="AE31" s="220"/>
-      <c r="AF31" s="220"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="221"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="250"/>
+      <c r="G31" s="250"/>
+      <c r="H31" s="250"/>
+      <c r="I31" s="250"/>
+      <c r="J31" s="251"/>
+      <c r="K31" s="252"/>
+      <c r="L31" s="253"/>
+      <c r="M31" s="212"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="213"/>
+      <c r="S31" s="213"/>
+      <c r="T31" s="213"/>
+      <c r="U31" s="213"/>
+      <c r="V31" s="213"/>
+      <c r="W31" s="213"/>
+      <c r="X31" s="213"/>
+      <c r="Y31" s="213"/>
+      <c r="Z31" s="213"/>
+      <c r="AA31" s="213"/>
+      <c r="AB31" s="213"/>
+      <c r="AC31" s="213"/>
+      <c r="AD31" s="213"/>
+      <c r="AE31" s="213"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="213"/>
+      <c r="AH31" s="214"/>
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="48"/>
@@ -13258,496 +13258,496 @@
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="272" t="s">
+      <c r="E35" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
-      <c r="H35" s="273"/>
-      <c r="I35" s="273"/>
-      <c r="J35" s="274"/>
-      <c r="K35" s="272" t="s">
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="244"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="245"/>
+      <c r="K35" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="274"/>
-      <c r="M35" s="272" t="s">
+      <c r="L35" s="245"/>
+      <c r="M35" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="273"/>
-      <c r="O35" s="273"/>
-      <c r="P35" s="273"/>
-      <c r="Q35" s="273"/>
-      <c r="R35" s="273"/>
-      <c r="S35" s="273"/>
-      <c r="T35" s="273"/>
-      <c r="U35" s="273"/>
-      <c r="V35" s="273"/>
-      <c r="W35" s="273"/>
-      <c r="X35" s="273"/>
-      <c r="Y35" s="273"/>
-      <c r="Z35" s="273"/>
-      <c r="AA35" s="273"/>
-      <c r="AB35" s="273"/>
-      <c r="AC35" s="273"/>
-      <c r="AD35" s="273"/>
-      <c r="AE35" s="273"/>
-      <c r="AF35" s="273"/>
-      <c r="AG35" s="273"/>
-      <c r="AH35" s="274"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="244"/>
+      <c r="P35" s="244"/>
+      <c r="Q35" s="244"/>
+      <c r="R35" s="244"/>
+      <c r="S35" s="244"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="244"/>
+      <c r="Y35" s="244"/>
+      <c r="Z35" s="244"/>
+      <c r="AA35" s="244"/>
+      <c r="AB35" s="244"/>
+      <c r="AC35" s="244"/>
+      <c r="AD35" s="244"/>
+      <c r="AE35" s="244"/>
+      <c r="AF35" s="244"/>
+      <c r="AG35" s="244"/>
+      <c r="AH35" s="245"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="252" t="s">
+      <c r="E36" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="254"/>
-      <c r="K36" s="117" t="s">
+      <c r="F36" s="247"/>
+      <c r="G36" s="247"/>
+      <c r="H36" s="247"/>
+      <c r="I36" s="247"/>
+      <c r="J36" s="248"/>
+      <c r="K36" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="119"/>
-      <c r="M36" s="213" t="s">
+      <c r="L36" s="181"/>
+      <c r="M36" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="214"/>
-      <c r="O36" s="214"/>
-      <c r="P36" s="214"/>
-      <c r="Q36" s="214"/>
-      <c r="R36" s="214"/>
-      <c r="S36" s="214"/>
-      <c r="T36" s="214"/>
-      <c r="U36" s="214"/>
-      <c r="V36" s="214"/>
-      <c r="W36" s="214"/>
-      <c r="X36" s="214"/>
-      <c r="Y36" s="214"/>
-      <c r="Z36" s="214"/>
-      <c r="AA36" s="214"/>
-      <c r="AB36" s="214"/>
-      <c r="AC36" s="214"/>
-      <c r="AD36" s="214"/>
-      <c r="AE36" s="214"/>
-      <c r="AF36" s="214"/>
-      <c r="AG36" s="214"/>
-      <c r="AH36" s="215"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="207"/>
+      <c r="P36" s="207"/>
+      <c r="Q36" s="207"/>
+      <c r="R36" s="207"/>
+      <c r="S36" s="207"/>
+      <c r="T36" s="207"/>
+      <c r="U36" s="207"/>
+      <c r="V36" s="207"/>
+      <c r="W36" s="207"/>
+      <c r="X36" s="207"/>
+      <c r="Y36" s="207"/>
+      <c r="Z36" s="207"/>
+      <c r="AA36" s="207"/>
+      <c r="AB36" s="207"/>
+      <c r="AC36" s="207"/>
+      <c r="AD36" s="207"/>
+      <c r="AE36" s="207"/>
+      <c r="AF36" s="207"/>
+      <c r="AG36" s="207"/>
+      <c r="AH36" s="208"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="255"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
-      <c r="H37" s="256"/>
-      <c r="I37" s="256"/>
-      <c r="J37" s="257"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="259"/>
-      <c r="M37" s="219"/>
-      <c r="N37" s="220"/>
-      <c r="O37" s="220"/>
-      <c r="P37" s="220"/>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="220"/>
-      <c r="S37" s="220"/>
-      <c r="T37" s="220"/>
-      <c r="U37" s="220"/>
-      <c r="V37" s="220"/>
-      <c r="W37" s="220"/>
-      <c r="X37" s="220"/>
-      <c r="Y37" s="220"/>
-      <c r="Z37" s="220"/>
-      <c r="AA37" s="220"/>
-      <c r="AB37" s="220"/>
-      <c r="AC37" s="220"/>
-      <c r="AD37" s="220"/>
-      <c r="AE37" s="220"/>
-      <c r="AF37" s="220"/>
-      <c r="AG37" s="220"/>
-      <c r="AH37" s="221"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="250"/>
+      <c r="G37" s="250"/>
+      <c r="H37" s="250"/>
+      <c r="I37" s="250"/>
+      <c r="J37" s="251"/>
+      <c r="K37" s="252"/>
+      <c r="L37" s="253"/>
+      <c r="M37" s="212"/>
+      <c r="N37" s="213"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="213"/>
+      <c r="R37" s="213"/>
+      <c r="S37" s="213"/>
+      <c r="T37" s="213"/>
+      <c r="U37" s="213"/>
+      <c r="V37" s="213"/>
+      <c r="W37" s="213"/>
+      <c r="X37" s="213"/>
+      <c r="Y37" s="213"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="213"/>
+      <c r="AC37" s="213"/>
+      <c r="AD37" s="213"/>
+      <c r="AE37" s="213"/>
+      <c r="AF37" s="213"/>
+      <c r="AG37" s="213"/>
+      <c r="AH37" s="214"/>
     </row>
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="266" t="s">
+      <c r="E38" s="254" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="270"/>
-      <c r="G38" s="270"/>
-      <c r="H38" s="270"/>
-      <c r="I38" s="270"/>
-      <c r="J38" s="267"/>
-      <c r="K38" s="287" t="s">
+      <c r="F38" s="255"/>
+      <c r="G38" s="255"/>
+      <c r="H38" s="255"/>
+      <c r="I38" s="255"/>
+      <c r="J38" s="256"/>
+      <c r="K38" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="288"/>
-      <c r="M38" s="260" t="s">
+      <c r="L38" s="263"/>
+      <c r="M38" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="261"/>
-      <c r="O38" s="261"/>
-      <c r="P38" s="261"/>
-      <c r="Q38" s="261"/>
-      <c r="R38" s="261"/>
-      <c r="S38" s="261"/>
-      <c r="T38" s="261"/>
-      <c r="U38" s="261"/>
-      <c r="V38" s="261"/>
-      <c r="W38" s="261"/>
-      <c r="X38" s="261"/>
-      <c r="Y38" s="261"/>
-      <c r="Z38" s="261"/>
-      <c r="AA38" s="261"/>
-      <c r="AB38" s="261"/>
-      <c r="AC38" s="261"/>
-      <c r="AD38" s="261"/>
-      <c r="AE38" s="261"/>
-      <c r="AF38" s="261"/>
-      <c r="AG38" s="261"/>
-      <c r="AH38" s="262"/>
+      <c r="N38" s="269"/>
+      <c r="O38" s="269"/>
+      <c r="P38" s="269"/>
+      <c r="Q38" s="269"/>
+      <c r="R38" s="269"/>
+      <c r="S38" s="269"/>
+      <c r="T38" s="269"/>
+      <c r="U38" s="269"/>
+      <c r="V38" s="269"/>
+      <c r="W38" s="269"/>
+      <c r="X38" s="269"/>
+      <c r="Y38" s="269"/>
+      <c r="Z38" s="269"/>
+      <c r="AA38" s="269"/>
+      <c r="AB38" s="269"/>
+      <c r="AC38" s="269"/>
+      <c r="AD38" s="269"/>
+      <c r="AE38" s="269"/>
+      <c r="AF38" s="269"/>
+      <c r="AG38" s="269"/>
+      <c r="AH38" s="270"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="275"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="276"/>
-      <c r="K39" s="289"/>
-      <c r="L39" s="290"/>
-      <c r="M39" s="285"/>
-      <c r="N39" s="233"/>
-      <c r="O39" s="233"/>
-      <c r="P39" s="233"/>
-      <c r="Q39" s="233"/>
-      <c r="R39" s="233"/>
-      <c r="S39" s="233"/>
-      <c r="T39" s="233"/>
-      <c r="U39" s="233"/>
-      <c r="V39" s="233"/>
-      <c r="W39" s="233"/>
-      <c r="X39" s="233"/>
-      <c r="Y39" s="233"/>
-      <c r="Z39" s="233"/>
-      <c r="AA39" s="233"/>
-      <c r="AB39" s="233"/>
-      <c r="AC39" s="233"/>
-      <c r="AD39" s="233"/>
-      <c r="AE39" s="233"/>
-      <c r="AF39" s="233"/>
-      <c r="AG39" s="233"/>
-      <c r="AH39" s="286"/>
+      <c r="E39" s="257"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="258"/>
+      <c r="K39" s="264"/>
+      <c r="L39" s="265"/>
+      <c r="M39" s="271"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="196"/>
+      <c r="Q39" s="196"/>
+      <c r="R39" s="196"/>
+      <c r="S39" s="196"/>
+      <c r="T39" s="196"/>
+      <c r="U39" s="196"/>
+      <c r="V39" s="196"/>
+      <c r="W39" s="196"/>
+      <c r="X39" s="196"/>
+      <c r="Y39" s="196"/>
+      <c r="Z39" s="196"/>
+      <c r="AA39" s="196"/>
+      <c r="AB39" s="196"/>
+      <c r="AC39" s="196"/>
+      <c r="AD39" s="196"/>
+      <c r="AE39" s="196"/>
+      <c r="AF39" s="196"/>
+      <c r="AG39" s="196"/>
+      <c r="AH39" s="272"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="268"/>
-      <c r="F40" s="271"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="271"/>
-      <c r="I40" s="271"/>
-      <c r="J40" s="269"/>
-      <c r="K40" s="291"/>
-      <c r="L40" s="292"/>
-      <c r="M40" s="263"/>
-      <c r="N40" s="264"/>
-      <c r="O40" s="264"/>
-      <c r="P40" s="264"/>
-      <c r="Q40" s="264"/>
-      <c r="R40" s="264"/>
-      <c r="S40" s="264"/>
-      <c r="T40" s="264"/>
-      <c r="U40" s="264"/>
-      <c r="V40" s="264"/>
-      <c r="W40" s="264"/>
-      <c r="X40" s="264"/>
-      <c r="Y40" s="264"/>
-      <c r="Z40" s="264"/>
-      <c r="AA40" s="264"/>
-      <c r="AB40" s="264"/>
-      <c r="AC40" s="264"/>
-      <c r="AD40" s="264"/>
-      <c r="AE40" s="264"/>
-      <c r="AF40" s="264"/>
-      <c r="AG40" s="264"/>
-      <c r="AH40" s="265"/>
+      <c r="E40" s="259"/>
+      <c r="F40" s="260"/>
+      <c r="G40" s="260"/>
+      <c r="H40" s="260"/>
+      <c r="I40" s="260"/>
+      <c r="J40" s="261"/>
+      <c r="K40" s="266"/>
+      <c r="L40" s="267"/>
+      <c r="M40" s="273"/>
+      <c r="N40" s="274"/>
+      <c r="O40" s="274"/>
+      <c r="P40" s="274"/>
+      <c r="Q40" s="274"/>
+      <c r="R40" s="274"/>
+      <c r="S40" s="274"/>
+      <c r="T40" s="274"/>
+      <c r="U40" s="274"/>
+      <c r="V40" s="274"/>
+      <c r="W40" s="274"/>
+      <c r="X40" s="274"/>
+      <c r="Y40" s="274"/>
+      <c r="Z40" s="274"/>
+      <c r="AA40" s="274"/>
+      <c r="AB40" s="274"/>
+      <c r="AC40" s="274"/>
+      <c r="AD40" s="274"/>
+      <c r="AE40" s="274"/>
+      <c r="AF40" s="274"/>
+      <c r="AG40" s="274"/>
+      <c r="AH40" s="275"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
-      <c r="E41" s="252" t="s">
+      <c r="E41" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="253"/>
-      <c r="I41" s="253"/>
-      <c r="J41" s="254"/>
-      <c r="K41" s="117" t="s">
+      <c r="F41" s="247"/>
+      <c r="G41" s="247"/>
+      <c r="H41" s="247"/>
+      <c r="I41" s="247"/>
+      <c r="J41" s="248"/>
+      <c r="K41" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="119"/>
-      <c r="M41" s="213" t="s">
+      <c r="L41" s="181"/>
+      <c r="M41" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="214"/>
-      <c r="O41" s="214"/>
-      <c r="P41" s="214"/>
-      <c r="Q41" s="214"/>
-      <c r="R41" s="214"/>
-      <c r="S41" s="214"/>
-      <c r="T41" s="214"/>
-      <c r="U41" s="214"/>
-      <c r="V41" s="214"/>
-      <c r="W41" s="214"/>
-      <c r="X41" s="214"/>
-      <c r="Y41" s="214"/>
-      <c r="Z41" s="214"/>
-      <c r="AA41" s="214"/>
-      <c r="AB41" s="214"/>
-      <c r="AC41" s="214"/>
-      <c r="AD41" s="214"/>
-      <c r="AE41" s="214"/>
-      <c r="AF41" s="214"/>
-      <c r="AG41" s="214"/>
-      <c r="AH41" s="215"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="207"/>
+      <c r="P41" s="207"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="207"/>
+      <c r="S41" s="207"/>
+      <c r="T41" s="207"/>
+      <c r="U41" s="207"/>
+      <c r="V41" s="207"/>
+      <c r="W41" s="207"/>
+      <c r="X41" s="207"/>
+      <c r="Y41" s="207"/>
+      <c r="Z41" s="207"/>
+      <c r="AA41" s="207"/>
+      <c r="AB41" s="207"/>
+      <c r="AC41" s="207"/>
+      <c r="AD41" s="207"/>
+      <c r="AE41" s="207"/>
+      <c r="AF41" s="207"/>
+      <c r="AG41" s="207"/>
+      <c r="AH41" s="208"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="255"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="257"/>
-      <c r="K42" s="258"/>
-      <c r="L42" s="259"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="220"/>
-      <c r="O42" s="220"/>
-      <c r="P42" s="220"/>
-      <c r="Q42" s="220"/>
-      <c r="R42" s="220"/>
-      <c r="S42" s="220"/>
-      <c r="T42" s="220"/>
-      <c r="U42" s="220"/>
-      <c r="V42" s="220"/>
-      <c r="W42" s="220"/>
-      <c r="X42" s="220"/>
-      <c r="Y42" s="220"/>
-      <c r="Z42" s="220"/>
-      <c r="AA42" s="220"/>
-      <c r="AB42" s="220"/>
-      <c r="AC42" s="220"/>
-      <c r="AD42" s="220"/>
-      <c r="AE42" s="220"/>
-      <c r="AF42" s="220"/>
-      <c r="AG42" s="220"/>
-      <c r="AH42" s="221"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="250"/>
+      <c r="H42" s="250"/>
+      <c r="I42" s="250"/>
+      <c r="J42" s="251"/>
+      <c r="K42" s="252"/>
+      <c r="L42" s="253"/>
+      <c r="M42" s="212"/>
+      <c r="N42" s="213"/>
+      <c r="O42" s="213"/>
+      <c r="P42" s="213"/>
+      <c r="Q42" s="213"/>
+      <c r="R42" s="213"/>
+      <c r="S42" s="213"/>
+      <c r="T42" s="213"/>
+      <c r="U42" s="213"/>
+      <c r="V42" s="213"/>
+      <c r="W42" s="213"/>
+      <c r="X42" s="213"/>
+      <c r="Y42" s="213"/>
+      <c r="Z42" s="213"/>
+      <c r="AA42" s="213"/>
+      <c r="AB42" s="213"/>
+      <c r="AC42" s="213"/>
+      <c r="AD42" s="213"/>
+      <c r="AE42" s="213"/>
+      <c r="AF42" s="213"/>
+      <c r="AG42" s="213"/>
+      <c r="AH42" s="214"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="252" t="s">
+      <c r="E43" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="253"/>
-      <c r="G43" s="253"/>
-      <c r="H43" s="253"/>
-      <c r="I43" s="253"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="117" t="s">
+      <c r="F43" s="247"/>
+      <c r="G43" s="247"/>
+      <c r="H43" s="247"/>
+      <c r="I43" s="247"/>
+      <c r="J43" s="248"/>
+      <c r="K43" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="119"/>
-      <c r="M43" s="213" t="s">
+      <c r="L43" s="181"/>
+      <c r="M43" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="214"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="214"/>
-      <c r="Q43" s="214"/>
-      <c r="R43" s="214"/>
-      <c r="S43" s="214"/>
-      <c r="T43" s="214"/>
-      <c r="U43" s="214"/>
-      <c r="V43" s="214"/>
-      <c r="W43" s="214"/>
-      <c r="X43" s="214"/>
-      <c r="Y43" s="214"/>
-      <c r="Z43" s="214"/>
-      <c r="AA43" s="214"/>
-      <c r="AB43" s="214"/>
-      <c r="AC43" s="214"/>
-      <c r="AD43" s="214"/>
-      <c r="AE43" s="214"/>
-      <c r="AF43" s="214"/>
-      <c r="AG43" s="214"/>
-      <c r="AH43" s="215"/>
+      <c r="N43" s="207"/>
+      <c r="O43" s="207"/>
+      <c r="P43" s="207"/>
+      <c r="Q43" s="207"/>
+      <c r="R43" s="207"/>
+      <c r="S43" s="207"/>
+      <c r="T43" s="207"/>
+      <c r="U43" s="207"/>
+      <c r="V43" s="207"/>
+      <c r="W43" s="207"/>
+      <c r="X43" s="207"/>
+      <c r="Y43" s="207"/>
+      <c r="Z43" s="207"/>
+      <c r="AA43" s="207"/>
+      <c r="AB43" s="207"/>
+      <c r="AC43" s="207"/>
+      <c r="AD43" s="207"/>
+      <c r="AE43" s="207"/>
+      <c r="AF43" s="207"/>
+      <c r="AG43" s="207"/>
+      <c r="AH43" s="208"/>
     </row>
     <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="255"/>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
-      <c r="H44" s="256"/>
-      <c r="I44" s="256"/>
-      <c r="J44" s="257"/>
-      <c r="K44" s="258"/>
-      <c r="L44" s="259"/>
-      <c r="M44" s="219"/>
-      <c r="N44" s="220"/>
-      <c r="O44" s="220"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="220"/>
-      <c r="R44" s="220"/>
-      <c r="S44" s="220"/>
-      <c r="T44" s="220"/>
-      <c r="U44" s="220"/>
-      <c r="V44" s="220"/>
-      <c r="W44" s="220"/>
-      <c r="X44" s="220"/>
-      <c r="Y44" s="220"/>
-      <c r="Z44" s="220"/>
-      <c r="AA44" s="220"/>
-      <c r="AB44" s="220"/>
-      <c r="AC44" s="220"/>
-      <c r="AD44" s="220"/>
-      <c r="AE44" s="220"/>
-      <c r="AF44" s="220"/>
-      <c r="AG44" s="220"/>
-      <c r="AH44" s="221"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="251"/>
+      <c r="K44" s="252"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="212"/>
+      <c r="N44" s="213"/>
+      <c r="O44" s="213"/>
+      <c r="P44" s="213"/>
+      <c r="Q44" s="213"/>
+      <c r="R44" s="213"/>
+      <c r="S44" s="213"/>
+      <c r="T44" s="213"/>
+      <c r="U44" s="213"/>
+      <c r="V44" s="213"/>
+      <c r="W44" s="213"/>
+      <c r="X44" s="213"/>
+      <c r="Y44" s="213"/>
+      <c r="Z44" s="213"/>
+      <c r="AA44" s="213"/>
+      <c r="AB44" s="213"/>
+      <c r="AC44" s="213"/>
+      <c r="AD44" s="213"/>
+      <c r="AE44" s="213"/>
+      <c r="AF44" s="213"/>
+      <c r="AG44" s="213"/>
+      <c r="AH44" s="214"/>
     </r